--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="前端" sheetId="1" r:id="rId4"/>
+    <sheet name="前端" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">前端!$E$1:$E$202</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="332">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -66,129 +72,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">JavaScript使用的是 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>堆(Heap) 和 栈( Stack)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>JavaScript基本类型数据都是直接按值存储在</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>栈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">中的(Undefined、Null、不是new出来的布尔、数字和字符串)，每种类型的数据占用的内存空间的大小是确定的，并由系统自动分配和自动释放。这样带来的好处就是，内存可以及时得到回收，相对于堆来说 ，更加容易管理内存空间。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>引用类型数据被存储于堆中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> (如对象、数组、函数等，它们是通过拷贝和new出来的）。</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>数据的地址指针是存储于栈中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>通过地址指针找到堆中的所需要的数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Times Roman"/>
@@ -208,7 +92,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="等线"/>
@@ -220,14 +104,9 @@
     <t>基本类型对应的内置对象，以及他们之间的装箱拆箱操作</t>
   </si>
   <si>
-    <t>Boolean、Number、String ；
-装箱：把基本数据类型转化为对应的引用数据类型的操作；
-拆箱：将引用类型对象转换为对应的值类型对象</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
+    <r>
+      <rPr>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Times Roman"/>
@@ -239,10 +118,6 @@
     <t>理解值类型和引用类型</t>
   </si>
   <si>
-    <t>值类型(基本类型)：数值(number)、布尔值(boolean)、null、undefined、string(在赋值传递中会以引用类型的方式来处理)。
-引用类型：对象、数组、函数。</t>
-  </si>
-  <si>
     <t>null和undefined的区别</t>
   </si>
   <si>
@@ -273,7 +148,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="等线"/>
@@ -283,7 +158,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="等线"/>
@@ -293,7 +168,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="等线"/>
@@ -333,7 +208,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="等线"/>
@@ -354,7 +229,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="等线"/>
@@ -379,19 +254,10 @@
 ES6 class，和寄生继承实现的效果一致</t>
   </si>
   <si>
-    <t>至少说出一种开源项目(如Node)中应用原型继承的案例</t>
-  </si>
-  <si>
     <t>可以描述new一个对象的详细过程，手动实现一个new操作符</t>
   </si>
   <si>
     <t>创建一个空对象、this指向obj、设置原型链，将obj的__proto__成员指向了Person函数对象的prototype成员对象、判断Person的返回值类型，如果是值类型，返回obj。如果是引用类型，就返回这个引用类型的对象。</t>
-  </si>
-  <si>
-    <t>理解es6 class构造以及继承的底层实现原理</t>
-  </si>
-  <si>
-    <t>class的底层依然是构造函数；调用_inherits函数继承父类的proptype，寄生继承</t>
   </si>
   <si>
     <t>作用域和闭包</t>
@@ -1409,27 +1275,646 @@
       <t>3、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为T2.3；</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">(Heap) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>( Stack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本类型数据都是直接按值存储在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(Undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来的布尔、数字和字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每种类型的数据占用的内存空间的大小是确定的，并由系统自动分配和自动释放。这样带来的好处就是，内存可以及时得到回收，相对于堆来说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，更加容易管理内存空间。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用类型数据被存储于堆中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如对象、数组、函数等，它们是通过拷贝和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来的）。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据的地址指针是存储于栈中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过地址指针找到堆中的所需要的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；
+装箱：把基本数据类型转化为对应的引用数据类型的操作；
+拆箱：将引用类型对象转换为对应的值类型对象</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(number)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、布尔值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(boolean)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>string(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在赋值传递中会以引用类型的方式来处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+引用类型：对象、数组、函数。</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的底层依然是构造函数；调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>_inherits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数继承父类的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>proptype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，寄生继承</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>es6 class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构造以及继承的底层实现原理</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000014798678</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
@@ -1439,31 +1924,31 @@
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Times Roman"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="16"/>
       <name val="等线"/>
@@ -1499,13 +1984,13 @@
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="22"/>
       <name val="等线"/>
@@ -1529,6 +2014,56 @@
       <sz val="11"/>
       <color indexed="13"/>
       <name val="等线"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1611,209 +2146,267 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffe2eeda"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff111111"/>
-      <rgbColor rgb="ff4d4d4d"/>
-      <rgbColor rgb="ff555555"/>
-      <rgbColor rgb="ff2f2f2f"/>
-      <rgbColor rgb="ffc7254e"/>
-      <rgbColor rgb="ff444444"/>
-      <rgbColor rgb="ff4f4f4f"/>
-      <rgbColor rgb="ff646464"/>
-      <rgbColor rgb="ff0269c8"/>
-      <rgbColor rgb="ff1a1a1a"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFE2EEDA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF111111"/>
+      <rgbColor rgb="FF4D4D4D"/>
+      <rgbColor rgb="FF555555"/>
+      <rgbColor rgb="FF2F2F2F"/>
+      <rgbColor rgb="FFC7254E"/>
+      <rgbColor rgb="FF444444"/>
+      <rgbColor rgb="FF4F4F4F"/>
+      <rgbColor rgb="FF646464"/>
+      <rgbColor rgb="FF0269C8"/>
+      <rgbColor rgb="FF1A1A1A"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2015,7 +2608,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2034,7 +2627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2064,7 +2657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2090,7 +2683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2116,7 +2709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2142,7 +2735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2168,7 +2761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2194,7 +2787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2220,7 +2813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2246,7 +2839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2272,7 +2865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2285,9 +2878,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2304,7 +2903,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2323,7 +2922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2349,7 +2948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2375,7 +2974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2401,7 +3000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2427,7 +3026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2453,7 +3052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2479,7 +3078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2505,7 +3104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2531,7 +3130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2557,7 +3156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2570,9 +3169,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2586,7 +3191,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2605,7 +3210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2635,7 +3240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2661,7 +3266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2687,7 +3292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2713,7 +3318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2739,7 +3344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2765,7 +3370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2791,7 +3396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2817,7 +3422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2843,7 +3448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2856,2725 +3461,2741 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="68.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="6" max="7" width="68.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="51" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" ht="160" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" t="s" s="12">
+      <c r="G3" s="7"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="F4" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" t="s" s="12">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="15">
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="16">
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" ht="51" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" t="s" s="12">
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s" s="12">
+      <c r="F7" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="51" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" t="s" s="12">
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s" s="12">
+      <c r="G8" s="14"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:8" ht="141" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="48"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8" ht="51" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="35" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s" s="12">
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8" ht="99" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="141" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" ht="35" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" ht="51" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" ht="35" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" ht="99" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" t="s" s="7">
+      <c r="F15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s" s="8">
+      <c r="G15" s="18"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" ht="19" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" t="s" s="12">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" ht="51" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" t="s" s="12">
+      <c r="E17" s="19"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s" s="21">
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="19" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" t="s" s="12">
+      <c r="E19" s="15"/>
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" t="s" s="21">
+      <c r="G19" s="15"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" ht="54" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" ht="19" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" t="s" s="6">
+      <c r="E20" s="15"/>
+      <c r="F20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s" s="7">
+      <c r="G20" s="21"/>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" ht="19" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" t="s" s="12">
+      <c r="E21" s="19"/>
+      <c r="F21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" ht="19" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" t="s" s="12">
+      <c r="G21" s="18"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" t="s" s="13">
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" ht="54" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" t="s" s="12">
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="48"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" t="s" s="24">
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" ht="40.5" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" t="s" s="7">
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" t="s" s="21">
+      <c r="E25" s="19"/>
+      <c r="F25" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" ht="19" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" t="s" s="12">
+      <c r="G25" s="23"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" ht="19" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" t="s" s="12">
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" ht="19" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" t="s" s="12">
+      <c r="E27" s="19"/>
+      <c r="F27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" ht="19" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" t="s" s="6">
+      <c r="G27" s="15"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s" s="7">
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" t="s" s="26">
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" ht="19" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" t="s" s="12">
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" ht="19" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" t="s" s="7">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" t="s" s="13">
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" ht="19" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" t="s" s="12">
+      <c r="D33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" ht="19" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" t="s" s="12">
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" ht="19" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" t="s" s="12">
+      <c r="E34" s="19"/>
+      <c r="F34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" ht="19" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" t="s" s="12">
+      <c r="G34" s="15"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" ht="27" customHeight="1">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" ht="19" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" t="s" s="12">
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" ht="19" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" t="s" s="6">
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="E37" s="19"/>
+      <c r="F37" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" ht="19" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" t="s" s="7">
+      <c r="G37" s="25"/>
+      <c r="H37" s="48"/>
+    </row>
+    <row r="38" spans="1:8" ht="27" customHeight="1">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" t="s" s="13">
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" t="s" s="12">
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A40" s="45"/>
+      <c r="B40" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" ht="19" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" t="s" s="12">
+      <c r="C40" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" ht="19" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" t="s" s="7">
+      <c r="D40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" t="s" s="28">
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="48"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" t="s" s="12">
+      <c r="E41" s="19"/>
+      <c r="F41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" ht="19" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" t="s" s="12">
+      <c r="G41" s="18"/>
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" ht="19" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" t="s" s="6">
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C41" t="s" s="6">
+      <c r="E43" s="19"/>
+      <c r="F43" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D41" t="s" s="12">
+      <c r="G43" s="27"/>
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" ht="19" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" t="s" s="7">
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="48"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" t="s" s="21">
+      <c r="D45" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" ht="19" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" t="s" s="12">
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="48"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" ht="19" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" t="s" s="7">
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="48"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" t="s" s="30">
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="48"/>
+    </row>
+    <row r="48" spans="1:8" ht="27" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" ht="19" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" t="s" s="12">
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="48"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" ht="19" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" t="s" s="6">
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="48"/>
+    </row>
+    <row r="50" spans="1:8" ht="81" customHeight="1">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="E50" s="19"/>
+      <c r="F50" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" ht="19" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" t="s" s="12">
+      <c r="G50" s="7"/>
+      <c r="H50" s="48"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" ht="19" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" t="s" s="12">
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" ht="27" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" t="s" s="12">
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="48"/>
+    </row>
+    <row r="53" spans="1:8" ht="27" customHeight="1">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" ht="19" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" t="s" s="12">
+      <c r="E53" s="19"/>
+      <c r="F53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" ht="81" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" t="s" s="7">
+      <c r="G53" s="15"/>
+      <c r="H53" s="48"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" t="s" s="8">
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="48"/>
+    </row>
+    <row r="55" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" ht="19" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" t="s" s="12">
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="48"/>
+    </row>
+    <row r="56" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" ht="19" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" t="s" s="12">
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="48"/>
+    </row>
+    <row r="57" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A57" s="45"/>
+      <c r="B57" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" ht="27" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" t="s" s="7">
+      <c r="C57" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" t="s" s="13">
+      <c r="D57" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" ht="19" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" t="s" s="12">
+      <c r="E57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="48"/>
+    </row>
+    <row r="58" spans="1:8" ht="27" customHeight="1">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" ht="19" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" t="s" s="12">
+      <c r="E58" s="19"/>
+      <c r="F58" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" ht="19" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" t="s" s="12">
+      <c r="G58" s="15"/>
+      <c r="H58" s="48"/>
+    </row>
+    <row r="59" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" ht="19" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" t="s" s="6">
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="48"/>
+    </row>
+    <row r="60" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C58" t="s" s="6">
+      <c r="E60" s="19"/>
+      <c r="F60" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="G60" s="15"/>
+      <c r="H60" s="48"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" ht="27" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" t="s" s="7">
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="48"/>
+    </row>
+    <row r="62" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" t="s" s="13">
+      <c r="D62" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" ht="19" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" t="s" s="12">
+      <c r="E62" s="19"/>
+      <c r="F62" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" ht="19" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" t="s" s="7">
+      <c r="G62" s="15"/>
+      <c r="H62" s="48"/>
+    </row>
+    <row r="63" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" t="s" s="13">
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="48"/>
+    </row>
+    <row r="64" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" ht="19" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" t="s" s="12">
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="48"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" ht="19" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" t="s" s="6">
+      <c r="E65" s="15"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="48"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D63" t="s" s="7">
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="48"/>
+    </row>
+    <row r="67" spans="1:8" ht="27" customHeight="1">
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" t="s" s="13">
+      <c r="E67" s="15"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="48"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" ht="19" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" t="s" s="12">
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="48"/>
+    </row>
+    <row r="69" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" ht="19" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" t="s" s="12">
+      <c r="E69" s="15"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="48"/>
+    </row>
+    <row r="70" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" ht="19" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" t="s" s="12">
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="48"/>
+    </row>
+    <row r="71" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" ht="19" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" t="s" s="12">
+      <c r="E71" s="19"/>
+      <c r="F71" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" ht="27" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" t="s" s="12">
+      <c r="G71" s="29"/>
+      <c r="H71" s="48"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" ht="19" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" t="s" s="12">
+      <c r="D72" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" ht="19" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" t="s" s="12">
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="48"/>
+    </row>
+    <row r="73" spans="1:8" ht="27" customHeight="1">
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" ht="19" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" t="s" s="12">
+      <c r="E73" s="19"/>
+      <c r="F73" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" ht="19" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" t="s" s="7">
+      <c r="G73" s="15"/>
+      <c r="H73" s="48"/>
+    </row>
+    <row r="74" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" t="s" s="32">
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="48"/>
+    </row>
+    <row r="75" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A75" s="45"/>
+      <c r="B75" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="G72" s="33"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" ht="19" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" t="s" s="6">
+      <c r="C75" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D75" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" ht="27" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" t="s" s="7">
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="48"/>
+    </row>
+    <row r="76" spans="1:8" ht="27" customHeight="1">
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" t="s" s="13">
+      <c r="E76" s="19"/>
+      <c r="F76" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" ht="19" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" t="s" s="12">
+      <c r="G76" s="15"/>
+      <c r="H76" s="48"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" ht="19" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" t="s" s="6">
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="48"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C76" t="s" s="6">
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="48"/>
+    </row>
+    <row r="79" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="E79" s="19"/>
+      <c r="F79" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" ht="27" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" t="s" s="7">
+      <c r="G79" s="15"/>
+      <c r="H79" s="48"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" t="s" s="13">
+      <c r="D80" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" ht="19" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" t="s" s="12">
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="48"/>
+    </row>
+    <row r="81" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" ht="19" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" t="s" s="12">
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="48"/>
+    </row>
+    <row r="82" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" ht="19" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" t="s" s="7">
+      <c r="E82" s="19"/>
+      <c r="F82" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E80" s="23"/>
-      <c r="F80" t="s" s="13">
+      <c r="G82" s="15"/>
+      <c r="H82" s="48"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" ht="19" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" t="s" s="6">
+      <c r="E83" s="19"/>
+      <c r="F83" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="G83" s="31"/>
+      <c r="H83" s="48"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" ht="19" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" t="s" s="12">
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="48"/>
+    </row>
+    <row r="85" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" ht="19" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" t="s" s="7">
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="48"/>
+    </row>
+    <row r="86" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" t="s" s="13">
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="48"/>
+    </row>
+    <row r="87" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" ht="19" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" t="s" s="7">
+      <c r="D87" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" t="s" s="34">
+      <c r="E87" s="15"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="48"/>
+    </row>
+    <row r="88" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G84" s="35"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" ht="19" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" t="s" s="12">
+      <c r="E88" s="19"/>
+      <c r="F88" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" ht="19" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" t="s" s="12">
+      <c r="G88" s="15"/>
+      <c r="H88" s="48"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" ht="19" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" t="s" s="12">
+      <c r="E89" s="15"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="48"/>
+    </row>
+    <row r="90" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" ht="19" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" t="s" s="6">
+      <c r="E90" s="15"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="48"/>
+    </row>
+    <row r="91" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D91" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" ht="19" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" t="s" s="7">
+      <c r="E91" s="15"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="48"/>
+    </row>
+    <row r="92" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" t="s" s="13">
+      <c r="E92" s="19"/>
+      <c r="F92" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G89" s="19"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" ht="19" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" t="s" s="12">
+      <c r="G92" s="33"/>
+      <c r="H92" s="48"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" ht="19" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="36"/>
-      <c r="D91" t="s" s="12">
+      <c r="E93" s="15"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="48"/>
+    </row>
+    <row r="94" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" ht="19" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" t="s" s="6">
+      <c r="E94" s="15"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="48"/>
+    </row>
+    <row r="95" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="E95" s="19"/>
+      <c r="F95" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" ht="40.5" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" t="s" s="7">
+      <c r="G95" s="31"/>
+      <c r="H95" s="48"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="45"/>
+      <c r="B96" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" t="s" s="37">
+      <c r="C96" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="G93" s="38"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" ht="19" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" t="s" s="12">
+      <c r="D96" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" ht="19" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" t="s" s="12">
+      <c r="E96" s="15"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="48"/>
+    </row>
+    <row r="97" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" ht="19" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" t="s" s="7">
+      <c r="E97" s="15"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="48"/>
+    </row>
+    <row r="98" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" t="s" s="34">
+      <c r="E98" s="19"/>
+      <c r="F98" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G96" s="35"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" ht="19" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" t="s" s="6">
+      <c r="G98" s="15"/>
+      <c r="H98" s="48"/>
+    </row>
+    <row r="99" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C97" t="s" s="39">
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="48"/>
+    </row>
+    <row r="100" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="48"/>
+    </row>
+    <row r="101" spans="1:8" ht="27" customHeight="1">
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" ht="19" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="40"/>
-      <c r="D98" t="s" s="12">
+      <c r="E101" s="15"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="48"/>
+    </row>
+    <row r="102" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" ht="19" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="40"/>
-      <c r="D99" t="s" s="7">
+      <c r="E102" s="15"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="48"/>
+    </row>
+    <row r="103" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" t="s" s="13">
+      <c r="E103" s="15"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="48"/>
+    </row>
+    <row r="104" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="19"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" ht="19" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="40"/>
-      <c r="D100" t="s" s="12">
+      <c r="E104" s="19"/>
+      <c r="F104" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" ht="19" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="40"/>
-      <c r="D101" t="s" s="12">
+      <c r="G104" s="15"/>
+      <c r="H104" s="48"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" ht="27" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="40"/>
-      <c r="D102" t="s" s="12">
+      <c r="D105" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" ht="19" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="40"/>
-      <c r="D103" t="s" s="12">
+      <c r="E105" s="15"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="48"/>
+    </row>
+    <row r="106" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" ht="19" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="40"/>
-      <c r="D104" t="s" s="12">
+      <c r="E106" s="15"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="48"/>
+    </row>
+    <row r="107" spans="1:8" ht="27" customHeight="1">
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" ht="19" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="40"/>
-      <c r="D105" t="s" s="7">
+      <c r="E107" s="19"/>
+      <c r="F107" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E105" s="23"/>
-      <c r="F105" t="s" s="13">
+      <c r="G107" s="7"/>
+      <c r="H107" s="48"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G105" s="19"/>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" ht="19" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" t="s" s="6">
+      <c r="E108" s="15"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="48"/>
+    </row>
+    <row r="109" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D106" t="s" s="12">
+      <c r="E109" s="15"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="48"/>
+    </row>
+    <row r="110" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" ht="19" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" t="s" s="12">
+      <c r="E110" s="15"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="48"/>
+    </row>
+    <row r="111" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" ht="27" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" t="s" s="7">
+      <c r="E111" s="15"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="48"/>
+    </row>
+    <row r="112" spans="1:8" ht="27" customHeight="1">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" t="s" s="8">
+      <c r="E112" s="19"/>
+      <c r="F112" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" ht="19" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" t="s" s="12">
+      <c r="G112" s="7"/>
+      <c r="H112" s="48"/>
+    </row>
+    <row r="113" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" ht="19" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" t="s" s="12">
+      <c r="E113" s="15"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="48"/>
+    </row>
+    <row r="114" spans="1:8" ht="27" customHeight="1">
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" ht="19" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" t="s" s="12">
+      <c r="D114" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" ht="19" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" t="s" s="12">
+      <c r="E114" s="15"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="48"/>
+    </row>
+    <row r="115" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" ht="27" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" t="s" s="7">
+      <c r="E115" s="19"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="48"/>
+    </row>
+    <row r="116" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E113" s="23"/>
-      <c r="F113" t="s" s="8">
+      <c r="E116" s="15"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="48"/>
+    </row>
+    <row r="117" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" ht="19" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" t="s" s="12">
+      <c r="E117" s="19"/>
+      <c r="F117" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" ht="27" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" t="s" s="6">
+      <c r="G117" s="15"/>
+      <c r="H117" s="48"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="E118" s="15"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="48"/>
+    </row>
+    <row r="119" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A119" s="45"/>
+      <c r="B119" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" ht="19" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" t="s" s="7">
+      <c r="C119" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="E116" s="23"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" ht="19" customHeight="1">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" t="s" s="12">
+      <c r="D119" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E117" s="19"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" ht="19" customHeight="1">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" t="s" s="7">
+      <c r="E119" s="19"/>
+      <c r="F119" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" t="s" s="13">
+      <c r="G119" s="15"/>
+      <c r="H119" s="48"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="45"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G118" s="19"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" ht="19" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" t="s" s="12">
+      <c r="E120" s="19"/>
+      <c r="F120" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E119" s="19"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" ht="19" customHeight="1">
-      <c r="A120" s="11"/>
-      <c r="B120" t="s" s="6">
+      <c r="G120" s="15"/>
+      <c r="H120" s="48"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C120" t="s" s="6">
+      <c r="E121" s="19"/>
+      <c r="F121" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D120" t="s" s="7">
+      <c r="G121" s="15"/>
+      <c r="H121" s="48"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="45"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" t="s" s="13">
+      <c r="D122" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G120" s="19"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" ht="19" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" t="s" s="7">
+      <c r="E122" s="15"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="48"/>
+    </row>
+    <row r="123" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" t="s" s="13">
+      <c r="E123" s="19"/>
+      <c r="F123" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G121" s="19"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" ht="19" customHeight="1">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" t="s" s="7">
+      <c r="G123" s="15"/>
+      <c r="H123" s="48"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E122" s="23"/>
-      <c r="F122" t="s" s="13">
+      <c r="E124" s="15"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="48"/>
+    </row>
+    <row r="125" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G122" s="19"/>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" ht="19" customHeight="1">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" t="s" s="6">
+      <c r="E125" s="15"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="48"/>
+    </row>
+    <row r="126" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D126" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E123" s="19"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" ht="19" customHeight="1">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" t="s" s="7">
+      <c r="E126" s="15"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="48"/>
+    </row>
+    <row r="127" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" t="s" s="13">
+      <c r="E127" s="19"/>
+      <c r="F127" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G124" s="19"/>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" ht="19" customHeight="1">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" t="s" s="12">
+      <c r="G127" s="15"/>
+      <c r="H127" s="48"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" ht="19" customHeight="1">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" t="s" s="12">
+      <c r="E128" s="15"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="48"/>
+    </row>
+    <row r="129" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" ht="19" customHeight="1">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" t="s" s="6">
+      <c r="E129" s="15"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="48"/>
+    </row>
+    <row r="130" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="E130" s="19"/>
+      <c r="F130" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" ht="40.5" customHeight="1">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" t="s" s="7">
+      <c r="G130" s="15"/>
+      <c r="H130" s="48"/>
+    </row>
+    <row r="131" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" t="s" s="13">
+      <c r="E131" s="15"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="48"/>
+    </row>
+    <row r="132" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G128" s="19"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" ht="19" customHeight="1">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" t="s" s="12">
+      <c r="E132" s="15"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="48"/>
+    </row>
+    <row r="133" spans="1:8" ht="27" customHeight="1">
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" ht="19" customHeight="1">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" t="s" s="12">
+      <c r="E133" s="15"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="48"/>
+    </row>
+    <row r="134" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" ht="19" customHeight="1">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" t="s" s="7">
+      <c r="E134" s="15"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="48"/>
+    </row>
+    <row r="135" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E131" s="23"/>
-      <c r="F131" t="s" s="13">
+      <c r="E135" s="19"/>
+      <c r="F135" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G131" s="19"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" ht="19" customHeight="1">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" t="s" s="12">
+      <c r="G135" s="15"/>
+      <c r="H135" s="48"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" ht="19" customHeight="1">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" t="s" s="12">
+      <c r="E136" s="15"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="48"/>
+    </row>
+    <row r="137" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" ht="27" customHeight="1">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" t="s" s="12">
+      <c r="E137" s="19"/>
+      <c r="F137" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="E134" s="19"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" ht="19" customHeight="1">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" t="s" s="12">
+      <c r="G137" s="35"/>
+      <c r="H137" s="48"/>
+    </row>
+    <row r="138" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E135" s="19"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" ht="19" customHeight="1">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" t="s" s="7">
+      <c r="E138" s="19"/>
+      <c r="F138" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E136" s="23"/>
-      <c r="F136" t="s" s="13">
+      <c r="G138" s="15"/>
+      <c r="H138" s="48"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" customHeight="1">
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="G136" s="19"/>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" ht="16" customHeight="1">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" t="s" s="12">
+      <c r="D139" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E137" s="19"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="10"/>
-    </row>
-    <row r="138" ht="19" customHeight="1">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" t="s" s="7">
+      <c r="E139" s="19"/>
+      <c r="F139" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E138" s="23"/>
-      <c r="F138" t="s" s="41">
+      <c r="G139" s="7"/>
+      <c r="H139" s="48"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" ht="19" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" t="s" s="7">
+      <c r="E140" s="15"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="48"/>
+    </row>
+    <row r="141" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E139" s="23"/>
-      <c r="F139" t="s" s="13">
+      <c r="E141" s="19"/>
+      <c r="F141" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G139" s="19"/>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" ht="27" customHeight="1">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" t="s" s="6">
+      <c r="G141" s="15"/>
+      <c r="H141" s="48"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D140" t="s" s="7">
+      <c r="E142" s="19"/>
+      <c r="F142" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="23"/>
-      <c r="F140" t="s" s="8">
+      <c r="G142" s="37"/>
+      <c r="H142" s="48"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G140" s="9"/>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" ht="19" customHeight="1">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" t="s" s="12">
+      <c r="E143" s="15"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="48"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" ht="19" customHeight="1">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" t="s" s="7">
+      <c r="D144" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E142" s="23"/>
-      <c r="F142" t="s" s="13">
+      <c r="E144" s="15"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="48"/>
+    </row>
+    <row r="145" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G142" s="19"/>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" ht="19" customHeight="1">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" t="s" s="7">
+      <c r="E145" s="19"/>
+      <c r="F145" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E143" s="23"/>
-      <c r="F143" t="s" s="43">
+      <c r="G145" s="15"/>
+      <c r="H145" s="48"/>
+    </row>
+    <row r="146" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G143" s="44"/>
-      <c r="H143" s="10"/>
-    </row>
-    <row r="144" ht="19" customHeight="1">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" t="s" s="12">
+      <c r="E146" s="15"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="48"/>
+    </row>
+    <row r="147" spans="1:8" ht="27" customHeight="1">
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="10"/>
-    </row>
-    <row r="145" ht="19" customHeight="1">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" t="s" s="6">
+      <c r="E147" s="15"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="48"/>
+    </row>
+    <row r="148" spans="1:8" ht="27" customHeight="1">
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D145" t="s" s="12">
+      <c r="E148" s="15"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="48"/>
+    </row>
+    <row r="149" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="10"/>
-    </row>
-    <row r="146" ht="19" customHeight="1">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" t="s" s="7">
+      <c r="E149" s="15"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="48"/>
+    </row>
+    <row r="150" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E146" s="23"/>
-      <c r="F146" t="s" s="13">
+      <c r="E150" s="15"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="48"/>
+    </row>
+    <row r="151" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="G146" s="19"/>
-      <c r="H146" s="10"/>
-    </row>
-    <row r="147" ht="19" customHeight="1">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" t="s" s="12">
+      <c r="D151" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="10"/>
-    </row>
-    <row r="148" ht="27" customHeight="1">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" t="s" s="12">
+      <c r="E151" s="19"/>
+      <c r="F151" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E148" s="19"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="10"/>
-    </row>
-    <row r="149" ht="27" customHeight="1">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" t="s" s="12">
+      <c r="G151" s="15"/>
+      <c r="H151" s="48"/>
+    </row>
+    <row r="152" spans="1:8" ht="27" customHeight="1">
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="10"/>
-    </row>
-    <row r="150" ht="19" customHeight="1">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" t="s" s="12">
+      <c r="E152" s="19"/>
+      <c r="F152" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="10"/>
-    </row>
-    <row r="151" ht="19" customHeight="1">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" t="s" s="12">
+      <c r="G152" s="39"/>
+      <c r="H152" s="48"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="10"/>
-    </row>
-    <row r="152" ht="19" customHeight="1">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" t="s" s="6">
+      <c r="E153" s="15"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="48"/>
+    </row>
+    <row r="154" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D152" t="s" s="7">
+      <c r="E154" s="19"/>
+      <c r="F154" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E152" s="23"/>
-      <c r="F152" t="s" s="13">
+      <c r="G154" s="7"/>
+      <c r="H154" s="48"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A155" s="45"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G152" s="19"/>
-      <c r="H152" s="10"/>
-    </row>
-    <row r="153" ht="27" customHeight="1">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" t="s" s="7">
+      <c r="E155" s="15"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="48"/>
+    </row>
+    <row r="156" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A156" s="45"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="E153" s="23"/>
-      <c r="F153" t="s" s="45">
+      <c r="D156" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G153" s="46"/>
-      <c r="H153" s="10"/>
-    </row>
-    <row r="154" ht="19" customHeight="1">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" t="s" s="12">
+      <c r="E156" s="15"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="48"/>
+    </row>
+    <row r="157" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A157" s="45"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E154" s="19"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="10"/>
-    </row>
-    <row r="155" ht="19" customHeight="1">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" t="s" s="7">
+      <c r="E157" s="19"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="48"/>
+    </row>
+    <row r="158" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A158" s="45"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E155" s="23"/>
-      <c r="F155" t="s" s="8">
+      <c r="E158" s="15"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="48"/>
+    </row>
+    <row r="159" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" ht="19" customHeight="1">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" t="s" s="12">
+      <c r="E159" s="15"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="48"/>
+    </row>
+    <row r="160" spans="1:8" ht="27" customHeight="1">
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="10"/>
-    </row>
-    <row r="157" ht="19" customHeight="1">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" t="s" s="6">
+      <c r="E160" s="19"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="48"/>
+    </row>
+    <row r="161" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D161" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E157" s="19"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="10"/>
-    </row>
-    <row r="158" ht="19" customHeight="1">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" t="s" s="7">
+      <c r="E161" s="19"/>
+      <c r="F161" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E158" s="23"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="10"/>
-    </row>
-    <row r="159" ht="19" customHeight="1">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" t="s" s="12">
+      <c r="G161" s="15"/>
+      <c r="H161" s="48"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E159" s="19"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" ht="19" customHeight="1">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" t="s" s="12">
+      <c r="E162" s="15"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="48"/>
+    </row>
+    <row r="163" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
+      <c r="C163" s="45"/>
+      <c r="D163" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E160" s="19"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="10"/>
-    </row>
-    <row r="161" ht="27" customHeight="1">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" t="s" s="7">
+      <c r="E163" s="15"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="48"/>
+    </row>
+    <row r="164" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E161" s="23"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="10"/>
-    </row>
-    <row r="162" ht="19" customHeight="1">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" t="s" s="6">
+      <c r="E164" s="19"/>
+      <c r="F164" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D162" t="s" s="7">
+      <c r="G164" s="23"/>
+      <c r="H164" s="48"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="45"/>
+      <c r="B165" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="E162" s="23"/>
-      <c r="F162" t="s" s="13">
+      <c r="C165" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="G162" s="19"/>
-      <c r="H162" s="10"/>
-    </row>
-    <row r="163" ht="19" customHeight="1">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" t="s" s="12">
+      <c r="D165" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="10"/>
-    </row>
-    <row r="164" ht="19" customHeight="1">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" t="s" s="12">
+      <c r="E165" s="19"/>
+      <c r="F165" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="10"/>
-    </row>
-    <row r="165" ht="19" customHeight="1">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" t="s" s="7">
+      <c r="G165" s="15"/>
+      <c r="H165" s="48"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E165" s="23"/>
-      <c r="F165" t="s" s="26">
+      <c r="E166" s="15"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="48"/>
+    </row>
+    <row r="167" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G165" s="27"/>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" ht="19" customHeight="1">
-      <c r="A166" s="11"/>
-      <c r="B166" t="s" s="6">
+      <c r="E167" s="15"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="48"/>
+    </row>
+    <row r="168" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A168" s="45"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C166" t="s" s="6">
+      <c r="E168" s="15"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="48"/>
+    </row>
+    <row r="169" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D166" t="s" s="7">
+      <c r="E169" s="15"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="48"/>
+    </row>
+    <row r="170" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A170" s="45"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E166" s="23"/>
-      <c r="F166" t="s" s="13">
+      <c r="E170" s="15"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="48"/>
+    </row>
+    <row r="171" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A171" s="45"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G166" s="19"/>
-      <c r="H166" s="10"/>
-    </row>
-    <row r="167" ht="19" customHeight="1">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" t="s" s="12">
+      <c r="E171" s="19"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="48"/>
+    </row>
+    <row r="172" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="10"/>
-    </row>
-    <row r="168" ht="19" customHeight="1">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" t="s" s="12">
+      <c r="E172" s="15"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="48"/>
+    </row>
+    <row r="173" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A173" s="45"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="10"/>
-    </row>
-    <row r="169" ht="19" customHeight="1">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" t="s" s="12">
+      <c r="D173" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E169" s="19"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="10"/>
-    </row>
-    <row r="170" ht="19" customHeight="1">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" t="s" s="12">
+      <c r="E173" s="19"/>
+      <c r="F173" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E170" s="19"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="10"/>
-    </row>
-    <row r="171" ht="19" customHeight="1">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" t="s" s="12">
+      <c r="G173" s="15"/>
+      <c r="H173" s="48"/>
+    </row>
+    <row r="174" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A174" s="45"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="45"/>
+      <c r="D174" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E171" s="19"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="10"/>
-    </row>
-    <row r="172" ht="19" customHeight="1">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" t="s" s="7">
+      <c r="E174" s="15"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="48"/>
+    </row>
+    <row r="175" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A175" s="45"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="45"/>
+      <c r="D175" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E172" s="23"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="10"/>
-    </row>
-    <row r="173" ht="19" customHeight="1">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" t="s" s="12">
+      <c r="E175" s="15"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="48"/>
+    </row>
+    <row r="176" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A176" s="45"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="45"/>
+      <c r="D176" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="10"/>
-    </row>
-    <row r="174" ht="19" customHeight="1">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" t="s" s="6">
+      <c r="E176" s="19"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="48"/>
+    </row>
+    <row r="177" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="D174" t="s" s="7">
+      <c r="D177" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E174" s="23"/>
-      <c r="F174" t="s" s="13">
+      <c r="E177" s="19"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="48"/>
+    </row>
+    <row r="178" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G174" s="19"/>
-      <c r="H174" s="10"/>
-    </row>
-    <row r="175" ht="19" customHeight="1">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" t="s" s="12">
+      <c r="E178" s="15"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="48"/>
+    </row>
+    <row r="179" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A179" s="45"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E175" s="19"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="10"/>
-    </row>
-    <row r="176" ht="19" customHeight="1">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" t="s" s="12">
+      <c r="E179" s="15"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="48"/>
+    </row>
+    <row r="180" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A180" s="45"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="E176" s="19"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="10"/>
-    </row>
-    <row r="177" ht="19" customHeight="1">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" t="s" s="7">
+      <c r="D180" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E177" s="23"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="10"/>
-    </row>
-    <row r="178" ht="19" customHeight="1">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" t="s" s="6">
+      <c r="E180" s="15"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="48"/>
+    </row>
+    <row r="181" spans="1:8" ht="27" customHeight="1">
+      <c r="A181" s="45"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D178" t="s" s="7">
+      <c r="E181" s="19"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="48"/>
+    </row>
+    <row r="182" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A182" s="45"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="E178" s="23"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="10"/>
-    </row>
-    <row r="179" ht="19" customHeight="1">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" t="s" s="12">
+      <c r="D182" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E179" s="19"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="10"/>
-    </row>
-    <row r="180" ht="19" customHeight="1">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" t="s" s="12">
+      <c r="E182" s="19"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="48"/>
+    </row>
+    <row r="183" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="10"/>
-    </row>
-    <row r="181" ht="19" customHeight="1">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" t="s" s="6">
+      <c r="E183" s="15"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="48"/>
+    </row>
+    <row r="184" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A184" s="45"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D181" t="s" s="12">
+      <c r="E184" s="15"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="48"/>
+    </row>
+    <row r="185" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A185" s="45"/>
+      <c r="B185" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E181" s="19"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="10"/>
-    </row>
-    <row r="182" ht="27" customHeight="1">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" t="s" s="7">
+      <c r="C185" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="E182" s="23"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="10"/>
-    </row>
-    <row r="183" ht="19" customHeight="1">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" t="s" s="6">
+      <c r="D185" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D183" t="s" s="7">
+      <c r="E185" s="19"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="48"/>
+    </row>
+    <row r="186" spans="1:8" ht="27" customHeight="1">
+      <c r="A186" s="45"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E183" s="23"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="10"/>
-    </row>
-    <row r="184" ht="19" customHeight="1">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" t="s" s="12">
+      <c r="E186" s="15"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="48"/>
+    </row>
+    <row r="187" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="10"/>
-    </row>
-    <row r="185" ht="19" customHeight="1">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" t="s" s="12">
+      <c r="D187" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E185" s="19"/>
-      <c r="F185" s="20"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="10"/>
-    </row>
-    <row r="186" ht="19" customHeight="1">
-      <c r="A186" s="11"/>
-      <c r="B186" t="s" s="6">
+      <c r="E187" s="19"/>
+      <c r="F187" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C186" t="s" s="6">
+      <c r="G187" s="15"/>
+      <c r="H187" s="48"/>
+    </row>
+    <row r="188" spans="1:8" ht="27" customHeight="1">
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="45"/>
+      <c r="D188" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D186" t="s" s="7">
+      <c r="E188" s="19"/>
+      <c r="F188" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E186" s="23"/>
-      <c r="F186" s="20"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="10"/>
-    </row>
-    <row r="187" ht="27" customHeight="1">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" t="s" s="12">
+      <c r="G188" s="15"/>
+      <c r="H188" s="48"/>
+    </row>
+    <row r="189" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E187" s="19"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="10"/>
-    </row>
-    <row r="188" ht="19" customHeight="1">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" t="s" s="6">
+      <c r="E189" s="15"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="48"/>
+    </row>
+    <row r="190" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A190" s="45"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D188" t="s" s="7">
+      <c r="E190" s="15"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="48"/>
+    </row>
+    <row r="191" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E188" s="23"/>
-      <c r="F188" t="s" s="13">
+      <c r="E191" s="15"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="48"/>
+    </row>
+    <row r="192" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G188" s="19"/>
-      <c r="H188" s="10"/>
-    </row>
-    <row r="189" ht="27" customHeight="1">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" t="s" s="7">
+      <c r="E192" s="15"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="48"/>
+    </row>
+    <row r="193" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A193" s="45"/>
+      <c r="B193" s="45"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E189" s="23"/>
-      <c r="F189" t="s" s="13">
+      <c r="E193" s="19"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="48"/>
+    </row>
+    <row r="194" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A194" s="45"/>
+      <c r="B194" s="45"/>
+      <c r="C194" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="G189" s="19"/>
-      <c r="H189" s="10"/>
-    </row>
-    <row r="190" ht="19" customHeight="1">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" t="s" s="12">
+      <c r="D194" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E190" s="19"/>
-      <c r="F190" s="20"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="10"/>
-    </row>
-    <row r="191" ht="19" customHeight="1">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" t="s" s="12">
+      <c r="E194" s="19"/>
+      <c r="F194" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E191" s="19"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="10"/>
-    </row>
-    <row r="192" ht="19" customHeight="1">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" t="s" s="12">
+      <c r="G194" s="15"/>
+      <c r="H194" s="48"/>
+    </row>
+    <row r="195" spans="1:8" ht="27" customHeight="1">
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E192" s="19"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="10"/>
-    </row>
-    <row r="193" ht="19" customHeight="1">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" t="s" s="12">
+      <c r="E195" s="19"/>
+      <c r="F195" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="E193" s="19"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="10"/>
-    </row>
-    <row r="194" ht="19" customHeight="1">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" t="s" s="7">
+      <c r="G195" s="18"/>
+      <c r="H195" s="48"/>
+    </row>
+    <row r="196" spans="1:8" ht="27" customHeight="1">
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E194" s="23"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="10"/>
-    </row>
-    <row r="195" ht="19" customHeight="1">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" t="s" s="6">
+      <c r="E196" s="19"/>
+      <c r="F196" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="D195" t="s" s="7">
+      <c r="G196" s="41"/>
+      <c r="H196" s="48"/>
+    </row>
+    <row r="197" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="E195" s="23"/>
-      <c r="F195" t="s" s="13">
+      <c r="D197" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="G195" s="19"/>
-      <c r="H195" s="10"/>
-    </row>
-    <row r="196" ht="27" customHeight="1">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" t="s" s="7">
+      <c r="E197" s="15"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="48"/>
+    </row>
+    <row r="198" spans="1:8" ht="27" customHeight="1">
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E196" s="23"/>
-      <c r="F196" t="s" s="21">
+      <c r="E198" s="15"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="48"/>
+    </row>
+    <row r="199" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="45"/>
+      <c r="D199" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G196" s="22"/>
-      <c r="H196" s="10"/>
-    </row>
-    <row r="197" ht="27" customHeight="1">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" t="s" s="7">
+      <c r="E199" s="15"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="48"/>
+    </row>
+    <row r="200" spans="1:8" ht="29.1" customHeight="1">
+      <c r="A200" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="E197" s="23"/>
-      <c r="F197" t="s" s="47">
+      <c r="B200" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G197" s="48"/>
-      <c r="H197" s="10"/>
-    </row>
-    <row r="198" ht="19" customHeight="1">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" t="s" s="6">
+      <c r="C200" s="45"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="46"/>
+      <c r="F200" s="47"/>
+      <c r="G200" s="47"/>
+      <c r="H200" s="48"/>
+    </row>
+    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
+      <c r="A201" s="45"/>
+      <c r="B201" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="C201" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="E198" s="19"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="10"/>
-    </row>
-    <row r="199" ht="27" customHeight="1">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" t="s" s="12">
+      <c r="D201" s="50"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="51"/>
+    </row>
+    <row r="202" spans="1:8" ht="114.6" customHeight="1">
+      <c r="A202" s="45"/>
+      <c r="B202" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="10"/>
-    </row>
-    <row r="200" ht="19" customHeight="1">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" t="s" s="12">
+      <c r="C202" s="49" t="s">
         <v>324</v>
-      </c>
-      <c r="E200" s="19"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="10"/>
-    </row>
-    <row r="201" ht="29.1" customHeight="1">
-      <c r="A201" t="s" s="6">
-        <v>325</v>
-      </c>
-      <c r="B201" t="s" s="6">
-        <v>326</v>
-      </c>
-      <c r="C201" s="11"/>
-      <c r="D201" s="40"/>
-      <c r="E201" s="40"/>
-      <c r="F201" s="49"/>
-      <c r="G201" s="49"/>
-      <c r="H201" s="10"/>
-    </row>
-    <row r="202" ht="69.6" customHeight="1">
-      <c r="A202" s="11"/>
-      <c r="B202" t="s" s="6">
-        <v>327</v>
-      </c>
-      <c r="C202" t="s" s="14">
-        <v>328</v>
       </c>
       <c r="D202" s="50"/>
       <c r="E202" s="50"/>
@@ -5582,88 +6203,85 @@
       <c r="G202" s="50"/>
       <c r="H202" s="51"/>
     </row>
-    <row r="203" ht="114.6" customHeight="1">
-      <c r="A203" s="11"/>
-      <c r="B203" t="s" s="6">
-        <v>329</v>
-      </c>
-      <c r="C203" t="s" s="14">
-        <v>330</v>
-      </c>
-      <c r="D203" s="50"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="50"/>
-      <c r="G203" s="50"/>
-      <c r="H203" s="51"/>
-    </row>
   </sheetData>
+  <autoFilter ref="E1:E202">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="B"/>
+        <filter val="C"/>
+        <filter val="熟练"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="H3:H39"/>
+    <mergeCell ref="H40:H56"/>
+    <mergeCell ref="H57:H74"/>
+    <mergeCell ref="H75:H95"/>
+    <mergeCell ref="H96:H118"/>
+    <mergeCell ref="H119:H164"/>
+    <mergeCell ref="H165:H184"/>
+    <mergeCell ref="H185:H199"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C193"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C200:H200"/>
     <mergeCell ref="C201:H201"/>
     <mergeCell ref="C202:H202"/>
-    <mergeCell ref="C203:H203"/>
-    <mergeCell ref="A3:A200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="B3:B40"/>
-    <mergeCell ref="B41:B57"/>
-    <mergeCell ref="B58:B75"/>
-    <mergeCell ref="B76:B96"/>
-    <mergeCell ref="B97:B119"/>
-    <mergeCell ref="B120:B165"/>
-    <mergeCell ref="B166:B185"/>
-    <mergeCell ref="B186:B200"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="B40:B56"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B95"/>
+    <mergeCell ref="B96:B118"/>
+    <mergeCell ref="B119:B164"/>
+    <mergeCell ref="B165:B184"/>
+    <mergeCell ref="B185:B199"/>
     <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C105"/>
-    <mergeCell ref="C106:C114"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C139"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="C145:C151"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="H3:H40"/>
-    <mergeCell ref="H41:H57"/>
-    <mergeCell ref="H58:H75"/>
-    <mergeCell ref="H76:H96"/>
-    <mergeCell ref="H97:H119"/>
-    <mergeCell ref="H120:H165"/>
-    <mergeCell ref="H166:H185"/>
-    <mergeCell ref="H186:H200"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C188:C194"/>
-    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" location="" tooltip="" display="https://www.zhihu.com/question/323185102/answer/675585458"/>
-    <hyperlink ref="G5" r:id="rId2" location="" tooltip="" display="https://www.nblogs.com/archives/489/"/>
-    <hyperlink ref="G6" r:id="rId3" location="" tooltip="" display="https://www.cnblogs.com/wenber/p/3628944.html"/>
-    <hyperlink ref="G11" r:id="rId4" location="" tooltip="" display="https://www.cnblogs.com/goloving/p/7712742.html"/>
-    <hyperlink ref="G12" r:id="rId5" location="" tooltip="" display="https://juejin.im/post/5db6b1966fb9a0204b15480d"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="前端" sheetId="1" r:id="rId4"/>
+    <sheet name="前端" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">前端!$E$1:$E$202</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="340">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -66,247 +72,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>使用的是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>堆</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">(Heap) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>栈</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>( Stack)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>基本类型数据都是直接按值存储在栈中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>(Undefined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>、不是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>出来的布尔、数字和字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>，每种类型的数据占用的内存空间的大小是确定的，并由系统自动分配和自动释放。这样带来的好处就是，内存可以及时得到回收，相对于堆来说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">，更加容易管理内存空间。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>引用类型数据被存储于堆中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>如对象、数组、函数等，它们是通过拷贝和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>出来的）。数据的地址指针是存储于栈中的，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在通过地址指针找到堆中的所需要的数据。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Times Roman"/>
@@ -326,7 +92,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="等线"/>
@@ -351,6 +117,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>、</t>
     </r>
@@ -367,6 +135,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>、</t>
     </r>
@@ -383,6 +153,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">；
 </t>
@@ -392,6 +164,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">装箱：把基本数据类型转化为对应的引用数据类型的操作；
 </t>
@@ -401,6 +175,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>拆箱：将引用类型对象转换为对应的值类型对象</t>
     </r>
@@ -408,7 +184,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Times Roman"/>
@@ -425,6 +201,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>值类型</t>
     </r>
@@ -441,6 +219,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>基本类型</t>
     </r>
@@ -457,6 +237,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>：数值</t>
     </r>
@@ -473,6 +255,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>、布尔值</t>
     </r>
@@ -489,6 +273,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>、</t>
     </r>
@@ -505,6 +291,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>、</t>
     </r>
@@ -521,6 +309,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>、</t>
     </r>
@@ -537,6 +327,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>在赋值传递中会以引用类型的方式来处理</t>
     </r>
@@ -553,6 +345,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">。
 </t>
@@ -562,6 +356,8 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>引用类型：对象、数组、函数。</t>
     </r>
@@ -577,72 +373,6 @@
     <t>至少可以说出三种判断JavaScript数据类型的方式，以及他们的优缺点，如何准确的判断数组类型</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">1.typeof 只能判断出基础类型，object, function(null也是object的bug)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">2.instanceof 根据原型来判断两个对象是否属于实例关系， 而不能判断一个对象实例具体属于哪种类型。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3.constructor 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3.1. null 和 undefined 是无效的对象，因此是不会有 constructor 存在的，这两种类型的数据需要通过其他方式来判断。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>3.2. 函数的 constructor 是不稳定的，这个主要体现在自定义对象上，当开发者重写 prototype 后，原有的 constructor 引用会丢失，constructor 会默认为 Object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>4.Object.prototype.toString.call</t>
-    </r>
-  </si>
-  <si>
     <t>可能发生隐式类型转换的场景以及转换原则，应如何避免或巧妙应用</t>
   </si>
   <si>
@@ -657,7 +387,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="等线"/>
@@ -678,7 +408,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="等线"/>
@@ -714,6 +444,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>理解</t>
     </r>
@@ -730,78 +462,16 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>构造以及继承的底层实现原理</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>的底层依然是构造函数；调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>_inherits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>函数继承父类的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>proptype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>，寄生继承</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="18"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>https://segmentfault.com/a/1190000014798678</t>
-    </r>
-  </si>
-  <si>
     <t>作用域和闭包</t>
   </si>
   <si>
-    <t>理解词法作用域和动态作用域</t>
-  </si>
-  <si>
     <t>理解JavaScript的作用域和作用域链</t>
   </si>
   <si>
@@ -900,7 +570,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="18"/>
         <rFont val="Times Roman"/>
@@ -958,9 +628,6 @@
   </si>
   <si>
     <t>CSS所有选择器及其优先级、使用场景，哪些可以继承，如何运用at规则</t>
-  </si>
-  <si>
-    <t>CSS伪类和伪元素有哪些，它们的区别和实际应用</t>
   </si>
   <si>
     <t>HTML文档流的排版规则，CSS几种定位的规则、定位参照物、对文档流的影响，如何选择最好的定位方式，雪碧图实现原理</t>
@@ -1172,8 +839,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="11"/>
         <color indexed="18"/>
         <rFont val="等线"/>
@@ -1838,6 +1505,708 @@
         <rFont val="等线"/>
       </rPr>
       <t>3、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为T2.3；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">(Heap) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>( Stack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本类型数据都是直接按值存储在栈中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(Undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来的布尔、数字和字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每种类型的数据占用的内存空间的大小是确定的，并由系统自动分配和自动释放。这样带来的好处就是，内存可以及时得到回收，相对于堆来说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，更加容易管理内存空间。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用类型数据被存储于堆中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如对象、数组、函数等，它们是通过拷贝和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来的）。数据的地址指针是存储于栈中的，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在通过地址指针找到堆中的所需要的数据。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.typeof </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只能判断出基础类型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>object, function(null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">bug)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">2.instanceof </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据原型来判断两个对象是否属于实例关系，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">而不能判断一个对象实例具体属于哪种类型。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">3.constructor 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">3.1. null </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> undefined </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是无效的对象，因此是不会有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">存在的，这两种类型的数据需要通过其他方式来判断。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">3.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是不稳定的，这个主要体现在自定义对象上，当开发者重写</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> prototype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，原有的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用会丢失，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>4.Object.prototype.toString.call</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000014798678</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的底层依然是构造函数；调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>_inherits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数继承父类的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>proptype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，寄生继承</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解词法作用域和动态作用域</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>font,color,opacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伪类和伪元素有哪些，它们的区别和实际应用</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伪类和伪元素分别用单冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5500000000000007"/>
+        <color rgb="FFFF502C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>和双冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5500000000000007"/>
+        <color rgb="FFFF502C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>来表示。</t>
     </r>
   </si>
 </sst>
@@ -1845,22 +2214,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
@@ -1873,26 +2229,30 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="等线"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Times Roman"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="等线"/>
@@ -1901,9 +2261,11 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="16"/>
       <name val="等线"/>
@@ -1917,12 +2279,8 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="18"/>
-      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1940,7 +2298,7 @@
       <name val="等线"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Times Roman"/>
@@ -1956,20 +2314,20 @@
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color indexed="18"/>
       <name val="等线"/>
@@ -1985,7 +2343,7 @@
       <name val="等线"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
@@ -1999,6 +2357,39 @@
       <sz val="11"/>
       <color indexed="13"/>
       <name val="等线"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5500000000000007"/>
+      <color rgb="FFFF502C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2081,219 +2472,283 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffe2eeda"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff111111"/>
-      <rgbColor rgb="ff4d4d4d"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff555555"/>
-      <rgbColor rgb="ff2f2f2f"/>
-      <rgbColor rgb="ffc7254e"/>
-      <rgbColor rgb="ff444444"/>
-      <rgbColor rgb="ff4f4f4f"/>
-      <rgbColor rgb="ff646464"/>
-      <rgbColor rgb="ff0269c8"/>
-      <rgbColor rgb="ff1a1a1a"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFE2EEDA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF111111"/>
+      <rgbColor rgb="FF4D4D4D"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF555555"/>
+      <rgbColor rgb="FF2F2F2F"/>
+      <rgbColor rgb="FFC7254E"/>
+      <rgbColor rgb="FF444444"/>
+      <rgbColor rgb="FF4F4F4F"/>
+      <rgbColor rgb="FF646464"/>
+      <rgbColor rgb="FF0269C8"/>
+      <rgbColor rgb="FF1A1A1A"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2495,7 +2950,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2514,7 +2969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2544,7 +2999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2570,7 +3025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2596,7 +3051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2622,7 +3077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2648,7 +3103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2674,7 +3129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2700,7 +3155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2726,7 +3181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2752,7 +3207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2765,9 +3220,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2784,7 +3245,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2803,7 +3264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2829,7 +3290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2855,7 +3316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2881,7 +3342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2907,7 +3368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2933,7 +3394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2959,7 +3420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2985,7 +3446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3011,7 +3472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3037,7 +3498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3050,9 +3511,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3066,7 +3533,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3085,7 +3552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3115,7 +3582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3141,7 +3608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3167,7 +3634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3193,7 +3660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3219,7 +3686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3245,7 +3712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3271,7 +3738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3297,7 +3764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3323,7 +3790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3336,2748 +3803,2873 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="68.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="6" max="7" width="68.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="51" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" ht="159.95" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" t="s" s="12">
+      <c r="G3" s="7"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="F4" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" t="s" s="12">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="15">
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="16">
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" ht="51" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" t="s" s="12">
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="51" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" t="s" s="12">
+      <c r="F7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s" s="12">
+      <c r="G7" s="7"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="35.1" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" t="s" s="12">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s" s="12">
+      <c r="G8" s="14"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" ht="141" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" ht="51" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="141" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="12">
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="99" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s" s="12">
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" ht="35.1" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" ht="51" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" ht="35.1" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" ht="99" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" ht="51" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s" s="20">
+      <c r="F16" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" ht="18.95" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" t="s" s="12">
+      <c r="D17" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s" s="20">
+      <c r="E18" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" t="s" s="22">
+      <c r="E19" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="18.95" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" t="s" s="6">
+      <c r="G19" s="15"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="66.95" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s" s="7">
+      <c r="E20" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" ht="18.95" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" t="s" s="12">
+      <c r="G20" s="21"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" ht="18.95" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" t="s" s="12">
+      <c r="E21" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" t="s" s="13">
+      <c r="G21" s="17"/>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" ht="67" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" t="s" s="12">
+      <c r="E22" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" t="s" s="25">
+      <c r="E23" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" ht="51" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" t="s" s="7">
+      <c r="E24" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" t="s" s="20">
+      <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" ht="18.95" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" t="s" s="12">
+      <c r="E25" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" ht="18.95" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" t="s" s="12">
+      <c r="G25" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" ht="18.95" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" t="s" s="12">
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" ht="18.95" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" t="s" s="6">
+      <c r="E26" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s" s="7">
+      <c r="E27" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" t="s" s="27">
+      <c r="G27" s="15"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s" s="28">
+      <c r="E28" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" ht="18.95" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" t="s" s="12">
+      <c r="E29" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" ht="18.95" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" t="s" s="7">
+      <c r="E30" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" t="s" s="13">
+      <c r="E31" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" ht="18.95" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" t="s" s="12">
+      <c r="E32" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" ht="18.95" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" t="s" s="12">
+      <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" ht="18.95" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" t="s" s="12">
+      <c r="E33" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" ht="18.95" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" t="s" s="12">
+      <c r="E34" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" ht="18.95" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" t="s" s="12">
+      <c r="G34" s="15"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" ht="18.95" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" t="s" s="6">
+      <c r="E35" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="E36" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" ht="18.95" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" t="s" s="7">
+      <c r="E37" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" t="s" s="13">
+      <c r="G37" s="25"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" ht="35" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" t="s" s="12">
+      <c r="E38" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" ht="18.95" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" t="s" s="12">
+      <c r="E39" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" ht="18.95" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" t="s" s="7">
+      <c r="G39" s="15"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A40" s="45"/>
+      <c r="B40" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" t="s" s="29">
+      <c r="C40" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" ht="35" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" t="s" s="12">
+      <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" ht="18.95" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" t="s" s="12">
+      <c r="E40" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" t="s" s="13">
+      <c r="E41" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" ht="18.95" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" t="s" s="6">
+      <c r="G41" s="17"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s" s="6">
+      <c r="E42" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="E43" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" ht="18.95" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" t="s" s="7">
+      <c r="G43" s="27"/>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" t="s" s="20">
+      <c r="E44" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" ht="18.95" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" t="s" s="12">
+      <c r="D45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" ht="18.95" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" t="s" s="7">
+      <c r="E45" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" t="s" s="31">
+      <c r="E46" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F47" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="27" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" ht="18.95" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" t="s" s="12">
+      <c r="E48" s="15"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" ht="18.95" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" t="s" s="6">
+      <c r="E49" s="15"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="81" customHeight="1">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="E50" s="18"/>
+      <c r="F50" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" ht="18.95" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" t="s" s="12">
+      <c r="G50" s="7"/>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" ht="18.95" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" t="s" s="12">
+      <c r="E51" s="15"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" ht="27" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" t="s" s="12">
+      <c r="E52" s="15"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="46"/>
+    </row>
+    <row r="53" spans="1:8" ht="27" customHeight="1">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" ht="18.95" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" t="s" s="12">
+      <c r="E53" s="18"/>
+      <c r="F53" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" ht="81" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" t="s" s="7">
+      <c r="G53" s="15"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" t="s" s="8">
+      <c r="E54" s="15"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" ht="18.95" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" t="s" s="12">
+      <c r="E55" s="15"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" ht="18.95" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" t="s" s="12">
+      <c r="E56" s="15"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A57" s="45"/>
+      <c r="B57" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" ht="27" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" t="s" s="7">
+      <c r="C57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" t="s" s="13">
+      <c r="D57" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" ht="18.95" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" t="s" s="12">
+      <c r="E57" s="15"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="46"/>
+    </row>
+    <row r="58" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" ht="18.95" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" t="s" s="12">
+      <c r="E58" s="18"/>
+      <c r="F58" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" ht="18.95" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" t="s" s="12">
+      <c r="G58" s="15"/>
+      <c r="H58" s="46"/>
+    </row>
+    <row r="59" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" ht="18.95" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" t="s" s="6">
+      <c r="E59" s="15"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="46"/>
+    </row>
+    <row r="60" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C57" t="s" s="6">
+      <c r="E60" s="18"/>
+      <c r="F60" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D57" t="s" s="12">
+      <c r="G60" s="15"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" ht="35" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" t="s" s="7">
+      <c r="E61" s="15"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="46"/>
+    </row>
+    <row r="62" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" t="s" s="13">
+      <c r="D62" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" ht="18.95" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" t="s" s="12">
+      <c r="E62" s="18"/>
+      <c r="F62" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" ht="18.95" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" t="s" s="7">
+      <c r="G62" s="15"/>
+      <c r="H62" s="46"/>
+    </row>
+    <row r="63" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" t="s" s="13">
+      <c r="E63" s="15"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="46"/>
+    </row>
+    <row r="64" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" ht="18.95" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" t="s" s="12">
+      <c r="E64" s="15"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="46"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" ht="18.95" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" t="s" s="6">
+      <c r="E65" s="15"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="46"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D62" t="s" s="7">
+      <c r="E66" s="15"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="46"/>
+    </row>
+    <row r="67" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" t="s" s="13">
+      <c r="E67" s="15"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="46"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" ht="18.95" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" t="s" s="12">
+      <c r="E68" s="15"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="46"/>
+    </row>
+    <row r="69" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" ht="18.95" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" t="s" s="12">
+      <c r="E69" s="15"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="46"/>
+    </row>
+    <row r="70" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" ht="18.95" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" t="s" s="12">
+      <c r="E70" s="15"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="46"/>
+    </row>
+    <row r="71" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" ht="18.95" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" t="s" s="12">
+      <c r="E71" s="18"/>
+      <c r="F71" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" ht="35" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" t="s" s="12">
+      <c r="G71" s="29"/>
+      <c r="H71" s="46"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" ht="18.95" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" t="s" s="12">
+      <c r="D72" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" ht="18.95" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" t="s" s="12">
+      <c r="E72" s="15"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="46"/>
+    </row>
+    <row r="73" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" ht="18.95" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" t="s" s="12">
+      <c r="E73" s="18"/>
+      <c r="F73" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" ht="18.95" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" t="s" s="7">
+      <c r="G73" s="15"/>
+      <c r="H73" s="46"/>
+    </row>
+    <row r="74" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" t="s" s="33">
+      <c r="E74" s="15"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="46"/>
+    </row>
+    <row r="75" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A75" s="45"/>
+      <c r="B75" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G71" s="34"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" ht="18.95" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" t="s" s="6">
+      <c r="C75" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D75" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" ht="35" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" t="s" s="7">
+      <c r="E75" s="15"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="46"/>
+    </row>
+    <row r="76" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" t="s" s="13">
+      <c r="E76" s="18"/>
+      <c r="F76" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" ht="18.95" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" t="s" s="12">
+      <c r="G76" s="15"/>
+      <c r="H76" s="46"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" ht="18.95" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" t="s" s="6">
+      <c r="E77" s="15"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="46"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C75" t="s" s="6">
+      <c r="E78" s="15"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="46"/>
+    </row>
+    <row r="79" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="E79" s="18"/>
+      <c r="F79" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" ht="32" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" t="s" s="7">
+      <c r="G79" s="15"/>
+      <c r="H79" s="46"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" t="s" s="13">
+      <c r="D80" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" ht="18.95" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" t="s" s="12">
+      <c r="E80" s="15"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="46"/>
+    </row>
+    <row r="81" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" ht="18.95" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" t="s" s="12">
+      <c r="E81" s="15"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="46"/>
+    </row>
+    <row r="82" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" ht="18.95" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" t="s" s="7">
+      <c r="E82" s="18"/>
+      <c r="F82" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" t="s" s="13">
+      <c r="G82" s="15"/>
+      <c r="H82" s="46"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" ht="18.95" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" t="s" s="6">
+      <c r="E83" s="18"/>
+      <c r="F83" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D80" t="s" s="12">
+      <c r="G83" s="31"/>
+      <c r="H83" s="46"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" ht="18.95" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" t="s" s="12">
+      <c r="E84" s="15"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="46"/>
+    </row>
+    <row r="85" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" ht="18.95" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" t="s" s="7">
+      <c r="E85" s="15"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="46"/>
+    </row>
+    <row r="86" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" t="s" s="13">
+      <c r="E86" s="15"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="46"/>
+    </row>
+    <row r="87" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" ht="18.95" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" t="s" s="7">
+      <c r="D87" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" t="s" s="35">
+      <c r="E87" s="15"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="46"/>
+    </row>
+    <row r="88" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G83" s="36"/>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" ht="18.95" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" t="s" s="12">
+      <c r="E88" s="18"/>
+      <c r="F88" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" ht="18.95" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" t="s" s="12">
+      <c r="G88" s="15"/>
+      <c r="H88" s="46"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" ht="18.95" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" t="s" s="12">
+      <c r="E89" s="15"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="46"/>
+    </row>
+    <row r="90" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" ht="18.95" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" t="s" s="6">
+      <c r="E90" s="15"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="46"/>
+    </row>
+    <row r="91" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D87" t="s" s="12">
+      <c r="D91" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" ht="18.95" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" t="s" s="7">
+      <c r="E91" s="15"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="46"/>
+    </row>
+    <row r="92" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" t="s" s="13">
+      <c r="E92" s="18"/>
+      <c r="F92" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" ht="18.95" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" t="s" s="12">
+      <c r="G92" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" ht="18.95" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="37"/>
-      <c r="D90" t="s" s="12">
+      <c r="H92" s="46"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" ht="18.95" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" t="s" s="6">
+      <c r="E93" s="15"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="46"/>
+    </row>
+    <row r="94" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="E94" s="15"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="46"/>
+    </row>
+    <row r="95" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" ht="19" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" t="s" s="7">
+      <c r="E95" s="18"/>
+      <c r="F95" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" t="s" s="38">
+      <c r="G95" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G92" t="s" s="39">
+      <c r="H95" s="46"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="45"/>
+      <c r="B96" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" ht="18.95" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" t="s" s="12">
+      <c r="C96" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" ht="18.95" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" t="s" s="12">
+      <c r="D96" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" ht="18.95" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" t="s" s="7">
+      <c r="E96" s="15"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="46"/>
+    </row>
+    <row r="97" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" t="s" s="35">
+      <c r="E97" s="15"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="46"/>
+    </row>
+    <row r="98" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G95" t="s" s="40">
+      <c r="E98" s="18"/>
+      <c r="F98" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" ht="18.95" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" t="s" s="6">
+      <c r="G98" s="15"/>
+      <c r="H98" s="46"/>
+    </row>
+    <row r="99" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C96" t="s" s="41">
+      <c r="E99" s="15"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="46"/>
+    </row>
+    <row r="100" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="E100" s="15"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="46"/>
+    </row>
+    <row r="101" spans="1:8" ht="27" customHeight="1">
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" ht="18.95" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="42"/>
-      <c r="D97" t="s" s="12">
+      <c r="E101" s="15"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="46"/>
+    </row>
+    <row r="102" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" ht="18.95" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="42"/>
-      <c r="D98" t="s" s="7">
+      <c r="E102" s="15"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="46"/>
+    </row>
+    <row r="103" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" t="s" s="13">
+      <c r="E103" s="15"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="46"/>
+    </row>
+    <row r="104" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G98" s="19"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" ht="18.95" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="42"/>
-      <c r="D99" t="s" s="12">
+      <c r="E104" s="18"/>
+      <c r="F104" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" ht="18.95" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="42"/>
-      <c r="D100" t="s" s="12">
+      <c r="G104" s="15"/>
+      <c r="H104" s="46"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" ht="27" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="42"/>
-      <c r="D101" t="s" s="12">
+      <c r="D105" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" ht="18.95" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="42"/>
-      <c r="D102" t="s" s="12">
+      <c r="E105" s="15"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="46"/>
+    </row>
+    <row r="106" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" ht="18.95" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="42"/>
-      <c r="D103" t="s" s="12">
+      <c r="E106" s="15"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="46"/>
+    </row>
+    <row r="107" spans="1:8" ht="27" customHeight="1">
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" ht="18.95" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="42"/>
-      <c r="D104" t="s" s="7">
+      <c r="E107" s="18"/>
+      <c r="F107" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E104" s="23"/>
-      <c r="F104" t="s" s="13">
+      <c r="G107" s="7"/>
+      <c r="H107" s="46"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G104" s="19"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" ht="18.95" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" t="s" s="6">
+      <c r="E108" s="15"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="46"/>
+    </row>
+    <row r="109" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="E109" s="15"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="46"/>
+    </row>
+    <row r="110" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" ht="18.95" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" t="s" s="12">
+      <c r="E110" s="15"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="46"/>
+    </row>
+    <row r="111" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" ht="27" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" t="s" s="7">
+      <c r="E111" s="15"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="46"/>
+    </row>
+    <row r="112" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E107" s="23"/>
-      <c r="F107" t="s" s="8">
+      <c r="E112" s="18"/>
+      <c r="F112" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" ht="18.95" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" t="s" s="12">
+      <c r="G112" s="7"/>
+      <c r="H112" s="46"/>
+    </row>
+    <row r="113" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" ht="18.95" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" t="s" s="12">
+      <c r="E113" s="15"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="46"/>
+    </row>
+    <row r="114" spans="1:8" ht="27" customHeight="1">
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" ht="18.95" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" t="s" s="12">
+      <c r="D114" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" ht="18.95" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" t="s" s="12">
+      <c r="E114" s="15"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="46"/>
+    </row>
+    <row r="115" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" ht="35" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" t="s" s="7">
+      <c r="E115" s="18"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="46"/>
+    </row>
+    <row r="116" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" t="s" s="8">
+      <c r="E116" s="15"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="46"/>
+    </row>
+    <row r="117" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" ht="18.95" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" t="s" s="12">
+      <c r="E117" s="18"/>
+      <c r="F117" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" ht="27" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" t="s" s="6">
+      <c r="G117" s="15"/>
+      <c r="H117" s="46"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D114" t="s" s="12">
+      <c r="E118" s="15"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="46"/>
+    </row>
+    <row r="119" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A119" s="45"/>
+      <c r="B119" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" ht="18.95" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" t="s" s="7">
+      <c r="C119" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="E115" s="23"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" ht="18.95" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" t="s" s="12">
+      <c r="D119" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" ht="18.95" customHeight="1">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" t="s" s="7">
+      <c r="E119" s="18"/>
+      <c r="F119" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" t="s" s="13">
+      <c r="G119" s="15"/>
+      <c r="H119" s="46"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="45"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" ht="18.95" customHeight="1">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" t="s" s="12">
+      <c r="E120" s="18"/>
+      <c r="F120" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" ht="18.95" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" t="s" s="6">
+      <c r="G120" s="15"/>
+      <c r="H120" s="46"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C119" t="s" s="6">
+      <c r="E121" s="18"/>
+      <c r="F121" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D119" t="s" s="7">
+      <c r="G121" s="15"/>
+      <c r="H121" s="46"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="45"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" t="s" s="13">
+      <c r="D122" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G119" s="19"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" ht="18.95" customHeight="1">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" t="s" s="7">
+      <c r="E122" s="15"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="46"/>
+    </row>
+    <row r="123" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" t="s" s="13">
+      <c r="E123" s="18"/>
+      <c r="F123" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G120" s="19"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" ht="18.95" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" t="s" s="7">
+      <c r="G123" s="15"/>
+      <c r="H123" s="46"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" t="s" s="13">
+      <c r="E124" s="15"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="46"/>
+    </row>
+    <row r="125" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G121" s="19"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" ht="18.95" customHeight="1">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" t="s" s="6">
+      <c r="E125" s="15"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="46"/>
+    </row>
+    <row r="126" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D126" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E122" s="19"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" ht="18.95" customHeight="1">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" t="s" s="7">
+      <c r="E126" s="15"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="46"/>
+    </row>
+    <row r="127" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E123" s="23"/>
-      <c r="F123" t="s" s="13">
+      <c r="E127" s="18"/>
+      <c r="F127" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G123" s="19"/>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" ht="18.95" customHeight="1">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" t="s" s="12">
+      <c r="G127" s="15"/>
+      <c r="H127" s="46"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" ht="18.95" customHeight="1">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" t="s" s="12">
+      <c r="E128" s="15"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="46"/>
+    </row>
+    <row r="129" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" ht="18.95" customHeight="1">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" t="s" s="6">
+      <c r="E129" s="15"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="46"/>
+    </row>
+    <row r="130" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="E130" s="18"/>
+      <c r="F130" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" ht="40.5" customHeight="1">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" t="s" s="7">
+      <c r="G130" s="15"/>
+      <c r="H130" s="46"/>
+    </row>
+    <row r="131" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" t="s" s="13">
+      <c r="E131" s="15"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="46"/>
+    </row>
+    <row r="132" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G127" s="19"/>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" ht="18.95" customHeight="1">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" t="s" s="12">
+      <c r="E132" s="15"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="46"/>
+    </row>
+    <row r="133" spans="1:8" ht="27" customHeight="1">
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" ht="18.95" customHeight="1">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" t="s" s="12">
+      <c r="E133" s="15"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="46"/>
+    </row>
+    <row r="134" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" ht="18.95" customHeight="1">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" t="s" s="7">
+      <c r="E134" s="15"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="46"/>
+    </row>
+    <row r="135" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E130" s="23"/>
-      <c r="F130" t="s" s="13">
+      <c r="E135" s="18"/>
+      <c r="F135" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G130" s="19"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" ht="18.95" customHeight="1">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" t="s" s="12">
+      <c r="G135" s="15"/>
+      <c r="H135" s="46"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E131" s="19"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" ht="18.95" customHeight="1">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" t="s" s="12">
+      <c r="E136" s="15"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="46"/>
+    </row>
+    <row r="137" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" ht="27" customHeight="1">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" t="s" s="12">
+      <c r="E137" s="18"/>
+      <c r="F137" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" ht="18.95" customHeight="1">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" t="s" s="12">
+      <c r="G137" s="36"/>
+      <c r="H137" s="46"/>
+    </row>
+    <row r="138" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E134" s="19"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" ht="18.95" customHeight="1">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" t="s" s="7">
+      <c r="E138" s="18"/>
+      <c r="F138" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E135" s="23"/>
-      <c r="F135" t="s" s="13">
+      <c r="G138" s="15"/>
+      <c r="H138" s="46"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" customHeight="1">
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="G135" s="19"/>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" ht="15.95" customHeight="1">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" t="s" s="12">
+      <c r="D139" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E136" s="19"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" ht="18.95" customHeight="1">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" t="s" s="7">
+      <c r="E139" s="18"/>
+      <c r="F139" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E137" s="23"/>
-      <c r="F137" t="s" s="43">
+      <c r="G139" s="7"/>
+      <c r="H139" s="46"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G137" s="44"/>
-      <c r="H137" s="10"/>
-    </row>
-    <row r="138" ht="18.95" customHeight="1">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" t="s" s="7">
+      <c r="E140" s="15"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="46"/>
+    </row>
+    <row r="141" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E138" s="23"/>
-      <c r="F138" t="s" s="13">
+      <c r="E141" s="18"/>
+      <c r="F141" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G138" s="19"/>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" ht="27" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" t="s" s="6">
+      <c r="G141" s="15"/>
+      <c r="H141" s="46"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D139" t="s" s="7">
+      <c r="E142" s="18"/>
+      <c r="F142" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="E139" s="23"/>
-      <c r="F139" t="s" s="8">
+      <c r="G142" s="38"/>
+      <c r="H142" s="46"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" ht="18.95" customHeight="1">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" t="s" s="12">
+      <c r="E143" s="15"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="46"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="E140" s="19"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" ht="18.95" customHeight="1">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" t="s" s="7">
+      <c r="D144" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E141" s="23"/>
-      <c r="F141" t="s" s="13">
+      <c r="E144" s="15"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="46"/>
+    </row>
+    <row r="145" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G141" s="19"/>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" ht="18.95" customHeight="1">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" t="s" s="7">
+      <c r="E145" s="18"/>
+      <c r="F145" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E142" s="23"/>
-      <c r="F142" t="s" s="45">
+      <c r="G145" s="15"/>
+      <c r="H145" s="46"/>
+    </row>
+    <row r="146" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G142" s="46"/>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" ht="18.95" customHeight="1">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" t="s" s="12">
+      <c r="E146" s="15"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="46"/>
+    </row>
+    <row r="147" spans="1:8" ht="27" customHeight="1">
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="10"/>
-    </row>
-    <row r="144" ht="18.95" customHeight="1">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" t="s" s="6">
+      <c r="E147" s="15"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="46"/>
+    </row>
+    <row r="148" spans="1:8" ht="27" customHeight="1">
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="E148" s="15"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="46"/>
+    </row>
+    <row r="149" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="10"/>
-    </row>
-    <row r="145" ht="18.95" customHeight="1">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" t="s" s="7">
+      <c r="E149" s="15"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="46"/>
+    </row>
+    <row r="150" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E145" s="23"/>
-      <c r="F145" t="s" s="13">
+      <c r="E150" s="15"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="46"/>
+    </row>
+    <row r="151" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="G145" s="19"/>
-      <c r="H145" s="10"/>
-    </row>
-    <row r="146" ht="18.95" customHeight="1">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" t="s" s="12">
+      <c r="D151" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E146" s="19"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="10"/>
-    </row>
-    <row r="147" ht="27" customHeight="1">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" t="s" s="12">
+      <c r="E151" s="18"/>
+      <c r="F151" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="10"/>
-    </row>
-    <row r="148" ht="27" customHeight="1">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" t="s" s="12">
+      <c r="G151" s="15"/>
+      <c r="H151" s="46"/>
+    </row>
+    <row r="152" spans="1:8" ht="27" customHeight="1">
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E148" s="19"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="10"/>
-    </row>
-    <row r="149" ht="18.95" customHeight="1">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" t="s" s="12">
+      <c r="E152" s="18"/>
+      <c r="F152" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="10"/>
-    </row>
-    <row r="150" ht="18.95" customHeight="1">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" t="s" s="12">
+      <c r="G152" s="40"/>
+      <c r="H152" s="46"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="10"/>
-    </row>
-    <row r="151" ht="18.95" customHeight="1">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" t="s" s="6">
+      <c r="E153" s="15"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="46"/>
+    </row>
+    <row r="154" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D151" t="s" s="7">
+      <c r="E154" s="18"/>
+      <c r="F154" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E151" s="23"/>
-      <c r="F151" t="s" s="13">
+      <c r="G154" s="7"/>
+      <c r="H154" s="46"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A155" s="45"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G151" s="19"/>
-      <c r="H151" s="10"/>
-    </row>
-    <row r="152" ht="27" customHeight="1">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" t="s" s="7">
+      <c r="E155" s="15"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="46"/>
+    </row>
+    <row r="156" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A156" s="45"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="E152" s="23"/>
-      <c r="F152" t="s" s="47">
+      <c r="D156" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G152" s="48"/>
-      <c r="H152" s="10"/>
-    </row>
-    <row r="153" ht="18.95" customHeight="1">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" t="s" s="12">
+      <c r="E156" s="15"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="46"/>
+    </row>
+    <row r="157" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A157" s="45"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="10"/>
-    </row>
-    <row r="154" ht="18.95" customHeight="1">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" t="s" s="7">
+      <c r="E157" s="18"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="46"/>
+    </row>
+    <row r="158" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A158" s="45"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E154" s="23"/>
-      <c r="F154" t="s" s="8">
+      <c r="E158" s="15"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="46"/>
+    </row>
+    <row r="159" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="10"/>
-    </row>
-    <row r="155" ht="18.95" customHeight="1">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" t="s" s="12">
+      <c r="E159" s="15"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="46"/>
+    </row>
+    <row r="160" spans="1:8" ht="27" customHeight="1">
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E155" s="19"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" ht="18.95" customHeight="1">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" t="s" s="6">
+      <c r="E160" s="18"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="46"/>
+    </row>
+    <row r="161" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="D156" t="s" s="12">
+      <c r="D161" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="10"/>
-    </row>
-    <row r="157" ht="18.95" customHeight="1">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" t="s" s="7">
+      <c r="E161" s="18"/>
+      <c r="F161" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E157" s="23"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="10"/>
-    </row>
-    <row r="158" ht="18.95" customHeight="1">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" t="s" s="12">
+      <c r="G161" s="15"/>
+      <c r="H161" s="46"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="10"/>
-    </row>
-    <row r="159" ht="18.95" customHeight="1">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" t="s" s="12">
+      <c r="E162" s="15"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="46"/>
+    </row>
+    <row r="163" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
+      <c r="C163" s="45"/>
+      <c r="D163" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E159" s="19"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" ht="27" customHeight="1">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" t="s" s="7">
+      <c r="E163" s="15"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="46"/>
+    </row>
+    <row r="164" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E160" s="23"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="10"/>
-    </row>
-    <row r="161" ht="18.95" customHeight="1">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" t="s" s="6">
+      <c r="E164" s="18"/>
+      <c r="F164" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D161" t="s" s="7">
+      <c r="G164" s="41"/>
+      <c r="H164" s="46"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="45"/>
+      <c r="B165" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="E161" s="23"/>
-      <c r="F161" t="s" s="13">
+      <c r="C165" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="G161" s="19"/>
-      <c r="H161" s="10"/>
-    </row>
-    <row r="162" ht="18.95" customHeight="1">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" t="s" s="12">
+      <c r="D165" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E162" s="19"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="10"/>
-    </row>
-    <row r="163" ht="18.95" customHeight="1">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" t="s" s="12">
+      <c r="E165" s="18"/>
+      <c r="F165" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="10"/>
-    </row>
-    <row r="164" ht="18.95" customHeight="1">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" t="s" s="7">
+      <c r="G165" s="15"/>
+      <c r="H165" s="46"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E164" s="23"/>
-      <c r="F164" t="s" s="27">
+      <c r="E166" s="15"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="46"/>
+    </row>
+    <row r="167" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G164" s="49"/>
-      <c r="H164" s="10"/>
-    </row>
-    <row r="165" ht="18.95" customHeight="1">
-      <c r="A165" s="11"/>
-      <c r="B165" t="s" s="6">
+      <c r="E167" s="15"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="46"/>
+    </row>
+    <row r="168" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A168" s="45"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C165" t="s" s="6">
+      <c r="E168" s="15"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="46"/>
+    </row>
+    <row r="169" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D165" t="s" s="7">
+      <c r="E169" s="15"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="46"/>
+    </row>
+    <row r="170" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A170" s="45"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E165" s="23"/>
-      <c r="F165" t="s" s="13">
+      <c r="E170" s="15"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="46"/>
+    </row>
+    <row r="171" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A171" s="45"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G165" s="19"/>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" ht="18.95" customHeight="1">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" t="s" s="12">
+      <c r="E171" s="18"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="46"/>
+    </row>
+    <row r="172" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="10"/>
-    </row>
-    <row r="167" ht="18.95" customHeight="1">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" t="s" s="12">
+      <c r="E172" s="15"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="46"/>
+    </row>
+    <row r="173" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A173" s="45"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="10"/>
-    </row>
-    <row r="168" ht="18.95" customHeight="1">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" t="s" s="12">
+      <c r="D173" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="10"/>
-    </row>
-    <row r="169" ht="18.95" customHeight="1">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" t="s" s="12">
+      <c r="E173" s="18"/>
+      <c r="F173" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E169" s="19"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="10"/>
-    </row>
-    <row r="170" ht="18.95" customHeight="1">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" t="s" s="12">
+      <c r="G173" s="15"/>
+      <c r="H173" s="46"/>
+    </row>
+    <row r="174" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A174" s="45"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="45"/>
+      <c r="D174" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E170" s="19"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="10"/>
-    </row>
-    <row r="171" ht="18.95" customHeight="1">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" t="s" s="7">
+      <c r="E174" s="15"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="46"/>
+    </row>
+    <row r="175" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A175" s="45"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="45"/>
+      <c r="D175" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E171" s="23"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="10"/>
-    </row>
-    <row r="172" ht="18.95" customHeight="1">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" t="s" s="12">
+      <c r="E175" s="15"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="46"/>
+    </row>
+    <row r="176" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A176" s="45"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="45"/>
+      <c r="D176" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E172" s="19"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="10"/>
-    </row>
-    <row r="173" ht="18.95" customHeight="1">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" t="s" s="6">
+      <c r="E176" s="18"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="46"/>
+    </row>
+    <row r="177" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="D173" t="s" s="7">
+      <c r="D177" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E173" s="23"/>
-      <c r="F173" t="s" s="13">
+      <c r="E177" s="18"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="46"/>
+    </row>
+    <row r="178" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G173" s="19"/>
-      <c r="H173" s="10"/>
-    </row>
-    <row r="174" ht="18.95" customHeight="1">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" t="s" s="12">
+      <c r="E178" s="15"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="46"/>
+    </row>
+    <row r="179" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A179" s="45"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="10"/>
-    </row>
-    <row r="175" ht="18.95" customHeight="1">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" t="s" s="12">
+      <c r="E179" s="15"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="46"/>
+    </row>
+    <row r="180" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A180" s="45"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="E175" s="19"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="10"/>
-    </row>
-    <row r="176" ht="18.95" customHeight="1">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" t="s" s="7">
+      <c r="D180" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E176" s="23"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="10"/>
-    </row>
-    <row r="177" ht="18.95" customHeight="1">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" t="s" s="6">
+      <c r="E180" s="15"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="46"/>
+    </row>
+    <row r="181" spans="1:8" ht="27" customHeight="1">
+      <c r="A181" s="45"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D177" t="s" s="7">
+      <c r="E181" s="18"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="46"/>
+    </row>
+    <row r="182" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A182" s="45"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="E177" s="23"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="10"/>
-    </row>
-    <row r="178" ht="18.95" customHeight="1">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" t="s" s="12">
+      <c r="D182" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E178" s="19"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="10"/>
-    </row>
-    <row r="179" ht="18.95" customHeight="1">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" t="s" s="12">
+      <c r="E182" s="18"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="46"/>
+    </row>
+    <row r="183" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E179" s="19"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="10"/>
-    </row>
-    <row r="180" ht="18.95" customHeight="1">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" t="s" s="6">
+      <c r="E183" s="15"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="46"/>
+    </row>
+    <row r="184" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A184" s="45"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="E184" s="15"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="46"/>
+    </row>
+    <row r="185" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A185" s="45"/>
+      <c r="B185" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="10"/>
-    </row>
-    <row r="181" ht="27" customHeight="1">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" t="s" s="7">
+      <c r="C185" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="E181" s="23"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="10"/>
-    </row>
-    <row r="182" ht="18.95" customHeight="1">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" t="s" s="6">
+      <c r="D185" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D182" t="s" s="7">
+      <c r="E185" s="18"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="46"/>
+    </row>
+    <row r="186" spans="1:8" ht="27" customHeight="1">
+      <c r="A186" s="45"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E182" s="23"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="10"/>
-    </row>
-    <row r="183" ht="18.95" customHeight="1">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" t="s" s="12">
+      <c r="E186" s="15"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="46"/>
+    </row>
+    <row r="187" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E183" s="19"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="10"/>
-    </row>
-    <row r="184" ht="18.95" customHeight="1">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" t="s" s="12">
+      <c r="D187" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="10"/>
-    </row>
-    <row r="185" ht="18.95" customHeight="1">
-      <c r="A185" s="11"/>
-      <c r="B185" t="s" s="6">
+      <c r="E187" s="18"/>
+      <c r="F187" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C185" t="s" s="6">
+      <c r="G187" s="15"/>
+      <c r="H187" s="46"/>
+    </row>
+    <row r="188" spans="1:8" ht="27" customHeight="1">
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="45"/>
+      <c r="D188" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D185" t="s" s="7">
+      <c r="E188" s="18"/>
+      <c r="F188" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E185" s="23"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="10"/>
-    </row>
-    <row r="186" ht="27" customHeight="1">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" t="s" s="12">
+      <c r="G188" s="15"/>
+      <c r="H188" s="46"/>
+    </row>
+    <row r="189" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E186" s="19"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="10"/>
-    </row>
-    <row r="187" ht="18.95" customHeight="1">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" t="s" s="6">
+      <c r="E189" s="15"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="46"/>
+    </row>
+    <row r="190" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A190" s="45"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D187" t="s" s="7">
+      <c r="E190" s="15"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="46"/>
+    </row>
+    <row r="191" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E187" s="23"/>
-      <c r="F187" t="s" s="13">
+      <c r="E191" s="15"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="46"/>
+    </row>
+    <row r="192" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="G187" s="19"/>
-      <c r="H187" s="10"/>
-    </row>
-    <row r="188" ht="27" customHeight="1">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" t="s" s="7">
+      <c r="E192" s="15"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="46"/>
+    </row>
+    <row r="193" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A193" s="45"/>
+      <c r="B193" s="45"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E188" s="23"/>
-      <c r="F188" t="s" s="13">
+      <c r="E193" s="18"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="46"/>
+    </row>
+    <row r="194" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A194" s="45"/>
+      <c r="B194" s="45"/>
+      <c r="C194" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="G188" s="19"/>
-      <c r="H188" s="10"/>
-    </row>
-    <row r="189" ht="18.95" customHeight="1">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" t="s" s="12">
+      <c r="D194" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E189" s="19"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="10"/>
-    </row>
-    <row r="190" ht="18.95" customHeight="1">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" t="s" s="12">
+      <c r="E194" s="18"/>
+      <c r="F194" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E190" s="19"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="10"/>
-    </row>
-    <row r="191" ht="18.95" customHeight="1">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" t="s" s="12">
+      <c r="G194" s="15"/>
+      <c r="H194" s="46"/>
+    </row>
+    <row r="195" spans="1:8" ht="27" customHeight="1">
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E191" s="19"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="10"/>
-    </row>
-    <row r="192" ht="18.95" customHeight="1">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" t="s" s="12">
+      <c r="E195" s="18"/>
+      <c r="F195" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E192" s="19"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="10"/>
-    </row>
-    <row r="193" ht="18.95" customHeight="1">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" t="s" s="7">
+      <c r="G195" s="17"/>
+      <c r="H195" s="46"/>
+    </row>
+    <row r="196" spans="1:8" ht="27" customHeight="1">
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E193" s="23"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="10"/>
-    </row>
-    <row r="194" ht="18.95" customHeight="1">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" t="s" s="6">
+      <c r="E196" s="18"/>
+      <c r="F196" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="D194" t="s" s="7">
+      <c r="G196" s="43"/>
+      <c r="H196" s="46"/>
+    </row>
+    <row r="197" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="E194" s="23"/>
-      <c r="F194" t="s" s="13">
+      <c r="D197" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G194" s="19"/>
-      <c r="H194" s="10"/>
-    </row>
-    <row r="195" ht="27" customHeight="1">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" t="s" s="7">
+      <c r="E197" s="15"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="46"/>
+    </row>
+    <row r="198" spans="1:8" ht="27" customHeight="1">
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E195" s="23"/>
-      <c r="F195" t="s" s="20">
+      <c r="E198" s="15"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="46"/>
+    </row>
+    <row r="199" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="45"/>
+      <c r="D199" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G195" s="21"/>
-      <c r="H195" s="10"/>
-    </row>
-    <row r="196" ht="27" customHeight="1">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" t="s" s="7">
+      <c r="E199" s="15"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="46"/>
+    </row>
+    <row r="200" spans="1:8" ht="29.1" customHeight="1">
+      <c r="A200" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="E196" s="23"/>
-      <c r="F196" t="s" s="50">
+      <c r="B200" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G196" s="51"/>
-      <c r="H196" s="10"/>
-    </row>
-    <row r="197" ht="18.95" customHeight="1">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" t="s" s="6">
+      <c r="C200" s="45"/>
+      <c r="D200" s="49"/>
+      <c r="E200" s="49"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="53"/>
+      <c r="H200" s="46"/>
+    </row>
+    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
+      <c r="A201" s="45"/>
+      <c r="B201" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D197" t="s" s="12">
+      <c r="C201" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="E197" s="19"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="10"/>
-    </row>
-    <row r="198" ht="27" customHeight="1">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" t="s" s="12">
+      <c r="D201" s="55"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="55"/>
+      <c r="G201" s="55"/>
+      <c r="H201" s="56"/>
+    </row>
+    <row r="202" spans="1:8" ht="114.6" customHeight="1">
+      <c r="A202" s="45"/>
+      <c r="B202" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E198" s="19"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="10"/>
-    </row>
-    <row r="199" ht="18.95" customHeight="1">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" t="s" s="12">
+      <c r="C202" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="10"/>
-    </row>
-    <row r="200" ht="29.1" customHeight="1">
-      <c r="A200" t="s" s="6">
-        <v>329</v>
-      </c>
-      <c r="B200" t="s" s="6">
-        <v>330</v>
-      </c>
-      <c r="C200" s="11"/>
-      <c r="D200" s="42"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="52"/>
-      <c r="G200" s="52"/>
-      <c r="H200" s="10"/>
-    </row>
-    <row r="201" ht="69.6" customHeight="1">
-      <c r="A201" s="11"/>
-      <c r="B201" t="s" s="6">
-        <v>331</v>
-      </c>
-      <c r="C201" t="s" s="14">
-        <v>332</v>
-      </c>
-      <c r="D201" s="53"/>
-      <c r="E201" s="53"/>
-      <c r="F201" s="53"/>
-      <c r="G201" s="53"/>
-      <c r="H201" s="54"/>
-    </row>
-    <row r="202" ht="114.6" customHeight="1">
-      <c r="A202" s="11"/>
-      <c r="B202" t="s" s="6">
-        <v>333</v>
-      </c>
-      <c r="C202" t="s" s="14">
-        <v>334</v>
-      </c>
-      <c r="D202" s="53"/>
-      <c r="E202" s="53"/>
-      <c r="F202" s="53"/>
-      <c r="G202" s="53"/>
-      <c r="H202" s="54"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="55"/>
+      <c r="F202" s="55"/>
+      <c r="G202" s="55"/>
+      <c r="H202" s="56"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E202">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="B"/>
+        <filter val="C"/>
+        <filter val="熟练"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="B40:B56"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B95"/>
+    <mergeCell ref="B96:B118"/>
+    <mergeCell ref="B119:B164"/>
+    <mergeCell ref="B165:B184"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
     <mergeCell ref="C194:C196"/>
     <mergeCell ref="C197:C199"/>
     <mergeCell ref="H3:H39"/>
@@ -6094,59 +6686,20 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="C187:C193"/>
     <mergeCell ref="C151:C155"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="B40:B56"/>
-    <mergeCell ref="B57:B74"/>
-    <mergeCell ref="B75:B95"/>
-    <mergeCell ref="B96:B118"/>
-    <mergeCell ref="B119:B164"/>
-    <mergeCell ref="B165:B184"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" location="" tooltip="" display="https://www.zhihu.com/question/323185102/answer/675585458"/>
-    <hyperlink ref="G5" r:id="rId2" location="" tooltip="" display="https://www.nblogs.com/archives/489/"/>
-    <hyperlink ref="G6" r:id="rId3" location="" tooltip="" display="https://www.cnblogs.com/wenber/p/3628944.html"/>
-    <hyperlink ref="G11" r:id="rId4" location="" tooltip="" display="https://www.cnblogs.com/goloving/p/7712742.html"/>
-    <hyperlink ref="G12" r:id="rId5" location="" tooltip="" display="https://juejin.im/post/5db6b1966fb9a0204b15480d"/>
-    <hyperlink ref="G16" r:id="rId6" location="" tooltip="" display="https://segmentfault.com/a/1190000014798678"/>
-    <hyperlink ref="F39" r:id="rId7" location="" tooltip="" display="https://github.com/happylindz/blog/issues/5#issuecomment-646935572"/>
-    <hyperlink ref="G92" r:id="rId8" location="" tooltip="" display="https://blog.csdn.net/Hairy_Monsters/article/details/80154391"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G16" r:id="rId6"/>
+    <hyperlink ref="F39" r:id="rId7" location="issuecomment-646935572"/>
+    <hyperlink ref="G92" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="342">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -1380,9 +1380,6 @@
     <t>CSRF攻击的原理、具体案例，前端如何防御</t>
   </si>
   <si>
-    <t>验证 HTTP Referer 字段；在请求地址中添加 token 并验证；在 HTTP 头中自定义属性并验证</t>
-  </si>
-  <si>
     <t>HTTP劫持、页面劫持的原理、防御措施</t>
   </si>
   <si>
@@ -1420,95 +1417,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">评分规则:(10分制)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">1、回答不到关键字，定义为【了解】程度及以下，评分&lt;=6；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">2、能答到关键字，但是讲解不清楚，定义为【应用】程度，6&lt;评分&lt;=8；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3、能回答到关键字，且能完整表述正确答案，定义为【熟悉】程度，评分&gt;8；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>评级规则:（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>以工作能力为主，工作年限仅为参考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">1、工作三年左右，对于大部分考核项目达到【应用】程度的，属于能够独立进行开发的，评级为T2.1；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">2、工作五年左右，对于大部分考核项目达到【熟悉】程度的，属于能够担任主力开发的，评级为T2.2；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>3、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为T2.3；</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>JavaScript</t>
     </r>
     <r>
@@ -1767,7 +1675,7 @@
       </rPr>
       <t>出来的）。数据的地址指针是存储于栈中的，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在通过地址指针找到堆中的所需要的数据。</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2062,11 +1970,11 @@
       </rPr>
       <t>4.Object.prototype.toString.call</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>https://segmentfault.com/a/1190000014798678</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2118,23 +2026,23 @@
       </rPr>
       <t>，寄生继承</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>理解词法作用域和动态作用域</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2150,7 +2058,7 @@
       </rPr>
       <t>等</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2166,7 +2074,7 @@
       </rPr>
       <t>伪类和伪元素有哪些，它们的区别和实际应用</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2208,13 +2116,552 @@
       </rPr>
       <t>来表示。</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>:(10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、回答不到关键字，定义为【了解】程度及以下，评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&lt;=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、能答到关键字，但是讲解不清楚，定义为【应用】程度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>6&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&lt;=8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、能回答到关键字，且能完整表述正确答案，定义为【熟悉】程度，评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&gt;8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以工作能力为主，工作年限仅为参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作三年左右，对于大部分考核项目达到【应用】程度的，属于能够独立进行开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作五年左右，对于大部分考核项目达到【熟悉】程度的，属于能够担任主力开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/5c1e90817bdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原理：登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站，再在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站伪造请求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过表单提交。
+防御：验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP Referer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">字段——用户可在浏览器设置去掉；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求地址中添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">参数并验证——提高门槛；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头中自定义属性并验证——局限性，如表单提交，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>formData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有兼容；</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2354,11 +2801,6 @@
       <name val="等线"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="等线"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -2474,12 +2916,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,12 +2948,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2530,20 +2966,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2554,26 +2981,14 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2581,20 +2996,11 @@
     <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2602,29 +3008,32 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2636,7 +3045,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2647,28 +3062,72 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3825,8 +4284,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -3835,23 +4294,23 @@
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="68.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="69" customWidth="1"/>
+    <col min="6" max="7" width="68.625" style="64" customWidth="1"/>
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3880,13 +4339,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -3899,48 +4358,48 @@
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="46"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
@@ -3953,12 +4412,12 @@
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
@@ -3969,84 +4428,84 @@
         <v>26</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="46"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="46"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="141" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="46"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="33" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="46"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="65" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -4055,12 +4514,12 @@
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4071,2553 +4530,2557 @@
         <v>40</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="46"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="54" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="46"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="E17" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="46"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="46"/>
+      <c r="E18" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>333</v>
+      <c r="E19" s="36" t="s">
+        <v>331</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="46"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="46"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="46"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="46"/>
+      <c r="E22" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="46"/>
+      <c r="E23" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="46"/>
+      <c r="E24" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="44" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="48" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="46"/>
+      <c r="E26" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="46"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="46"/>
+      <c r="E28" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="46"/>
+      <c r="E29" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="46"/>
+      <c r="E30" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="46"/>
+      <c r="E31" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="46"/>
+      <c r="E32" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="44" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="46"/>
+      <c r="E33" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="46"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="46"/>
+      <c r="E35" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="44"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="46"/>
+      <c r="E36" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="F37" s="24" t="s">
+      <c r="E37" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="46"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="46"/>
+      <c r="E38" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="46"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="44" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="48" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="46"/>
+      <c r="E40" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="F41" s="16" t="s">
+      <c r="E41" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="F41" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="46"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="46"/>
+      <c r="E42" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="F43" s="26" t="s">
+      <c r="E43" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="46"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="44"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="46"/>
+      <c r="E44" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="44" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="46"/>
+      <c r="E45" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F46" s="62" t="s">
+      <c r="E46" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="44"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="46"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F47" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="46"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="44"/>
     </row>
     <row r="48" spans="1:8" ht="27" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="46"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="46"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="44"/>
     </row>
     <row r="50" spans="1:8" ht="81" customHeight="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="6" t="s">
+      <c r="E50" s="68"/>
+      <c r="F50" s="54" t="s">
         <v>95</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="46"/>
+      <c r="H50" s="44"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="46"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="44"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="46"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="44"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="9" t="s">
+      <c r="E53" s="68"/>
+      <c r="F53" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="46"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="44"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="46"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="46"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="44"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="46"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="44"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="44" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="48" t="s">
         <v>104</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="46"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="9" t="s">
+      <c r="E58" s="68"/>
+      <c r="F58" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="46"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="46"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="44"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="9" t="s">
+      <c r="E60" s="68"/>
+      <c r="F60" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="46"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="44"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="46"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="44"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="44" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="48" t="s">
         <v>112</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="9" t="s">
+      <c r="E62" s="68"/>
+      <c r="F62" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="H62" s="46"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="44"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="46"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="44"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="46"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="44"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="46"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="44"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="46"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="46"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="44"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="46"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="44"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="46"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="44"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="46"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="44"/>
     </row>
     <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="28" t="s">
+      <c r="E71" s="68"/>
+      <c r="F71" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="46"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="44"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="44" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="46"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="44"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="9" t="s">
+      <c r="E73" s="68"/>
+      <c r="F73" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="46"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="44"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="46"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="44"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="45"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="46"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="9" t="s">
+      <c r="E76" s="68"/>
+      <c r="F76" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="46"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="44"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="46"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="44"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="46"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="44"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="9" t="s">
+      <c r="E79" s="68"/>
+      <c r="F79" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="46"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="44"/>
     </row>
     <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="44" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="48" t="s">
         <v>139</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="46"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="44"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="46"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="44"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="9" t="s">
+      <c r="E82" s="68"/>
+      <c r="F82" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="46"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="44"/>
     </row>
     <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="30" t="s">
+      <c r="E83" s="68"/>
+      <c r="F83" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="46"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="44"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="46"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="46"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="44"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="46"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="44"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="44" t="s">
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="48" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="46"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="44"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="9" t="s">
+      <c r="E88" s="68"/>
+      <c r="F88" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="46"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="44"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="46"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="44"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="47"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E90" s="15"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="46"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="44"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="44" t="s">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="48" t="s">
         <v>155</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E91" s="15"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="46"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="44"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
       <c r="D92" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="32" t="s">
+      <c r="E92" s="68"/>
+      <c r="F92" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G92" s="33" t="s">
+      <c r="G92" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="H92" s="46"/>
+      <c r="H92" s="44"/>
     </row>
     <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="46"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="46"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="44"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="30" t="s">
+      <c r="E95" s="68"/>
+      <c r="F95" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G95" s="34" t="s">
+      <c r="G95" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H95" s="46"/>
+      <c r="H95" s="44"/>
     </row>
     <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="45"/>
-      <c r="B96" s="44" t="s">
+      <c r="A96" s="42"/>
+      <c r="B96" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="50" t="s">
         <v>166</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E96" s="15"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="46"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="44"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="49"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="46"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="44"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="49"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="43"/>
       <c r="D98" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="9" t="s">
+      <c r="E98" s="68"/>
+      <c r="F98" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="46"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="44"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="49"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="43"/>
       <c r="D99" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E99" s="15"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="46"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="44"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="49"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="43"/>
       <c r="D100" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E100" s="15"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="46"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="44"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="49"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="43"/>
       <c r="D101" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E101" s="15"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="46"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="44"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="49"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="43"/>
       <c r="D102" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E102" s="15"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="46"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="49"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="43"/>
       <c r="D103" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E103" s="15"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="46"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="44"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="49"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E104" s="18"/>
-      <c r="F104" s="9" t="s">
+      <c r="E104" s="68"/>
+      <c r="F104" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="46"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="44"/>
     </row>
     <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="44" t="s">
+      <c r="A105" s="42"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="48" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E105" s="15"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="46"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="44"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E106" s="15"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="46"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="44"/>
     </row>
     <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E107" s="18"/>
-      <c r="F107" s="6" t="s">
+      <c r="E107" s="68"/>
+      <c r="F107" s="54" t="s">
         <v>182</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="46"/>
+      <c r="H107" s="44"/>
     </row>
     <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E108" s="15"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="46"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="44"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="46"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="44"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="46"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="44"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="46"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="44"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E112" s="18"/>
-      <c r="F112" s="6" t="s">
+      <c r="E112" s="68"/>
+      <c r="F112" s="54" t="s">
         <v>188</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="46"/>
+      <c r="H112" s="44"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="42"/>
       <c r="D113" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E113" s="15"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="46"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="44"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="45"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="44" t="s">
+      <c r="A114" s="42"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="48" t="s">
         <v>190</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E114" s="15"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="46"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="44"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="45"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
       <c r="D115" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E115" s="18"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="46"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="44"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="45"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="46"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="44"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="45"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
       <c r="D117" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E117" s="18"/>
-      <c r="F117" s="9" t="s">
+      <c r="E117" s="68"/>
+      <c r="F117" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="46"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="44"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="45"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="45"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E118" s="15"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="46"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="44"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="45"/>
-      <c r="B119" s="44" t="s">
+      <c r="A119" s="42"/>
+      <c r="B119" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="C119" s="48" t="s">
         <v>198</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="18"/>
-      <c r="F119" s="9" t="s">
+      <c r="E119" s="68"/>
+      <c r="F119" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="46"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="44"/>
     </row>
     <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="45"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="45"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E120" s="18"/>
-      <c r="F120" s="9" t="s">
+      <c r="E120" s="68"/>
+      <c r="F120" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G120" s="15"/>
-      <c r="H120" s="46"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="42"/>
       <c r="D121" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="9" t="s">
+      <c r="E121" s="68"/>
+      <c r="F121" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G121" s="15"/>
-      <c r="H121" s="46"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="44"/>
     </row>
     <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="45"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="44" t="s">
+      <c r="A122" s="42"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="48" t="s">
         <v>205</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E122" s="15"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="46"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="44"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="45"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
       <c r="D123" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E123" s="18"/>
-      <c r="F123" s="9" t="s">
+      <c r="E123" s="68"/>
+      <c r="F123" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G123" s="15"/>
-      <c r="H123" s="46"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="44"/>
     </row>
     <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E124" s="15"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="46"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="44"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="45"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="42"/>
       <c r="D125" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="46"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="44"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="45"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="44" t="s">
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="48" t="s">
         <v>211</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E126" s="15"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="46"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="44"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="45"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="45"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E127" s="18"/>
-      <c r="F127" s="9" t="s">
+      <c r="E127" s="68"/>
+      <c r="F127" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G127" s="15"/>
-      <c r="H127" s="46"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="44"/>
     </row>
     <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="45"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="45"/>
+      <c r="A128" s="42"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E128" s="15"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="46"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="44"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="45"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="42"/>
       <c r="D129" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E129" s="15"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="46"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="44"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="45"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="42"/>
       <c r="D130" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E130" s="18"/>
-      <c r="F130" s="9" t="s">
+      <c r="E130" s="68"/>
+      <c r="F130" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G130" s="15"/>
-      <c r="H130" s="46"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="44"/>
     </row>
     <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="45"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="45"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
       <c r="D131" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E131" s="15"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="46"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="44"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="45"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="45"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
       <c r="D132" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="15"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="46"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="44"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="45"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="45"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
       <c r="D133" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E133" s="15"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="46"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="44"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="45"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="42"/>
       <c r="D134" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E134" s="15"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="46"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="44"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="42"/>
+      <c r="C135" s="42"/>
       <c r="D135" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E135" s="18"/>
-      <c r="F135" s="9" t="s">
+      <c r="E135" s="68"/>
+      <c r="F135" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G135" s="15"/>
-      <c r="H135" s="46"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="44"/>
     </row>
     <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="42"/>
       <c r="D136" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E136" s="15"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="46"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="44"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
+      <c r="A137" s="42"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="42"/>
       <c r="D137" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E137" s="18"/>
-      <c r="F137" s="35" t="s">
+      <c r="E137" s="68"/>
+      <c r="F137" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="G137" s="36"/>
-      <c r="H137" s="46"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="44"/>
     </row>
     <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="42"/>
       <c r="D138" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E138" s="18"/>
-      <c r="F138" s="9" t="s">
+      <c r="E138" s="68"/>
+      <c r="F138" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G138" s="15"/>
-      <c r="H138" s="46"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="44"/>
     </row>
     <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="45"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="44" t="s">
+      <c r="A139" s="42"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="48" t="s">
         <v>230</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E139" s="18"/>
-      <c r="F139" s="6" t="s">
+      <c r="E139" s="68"/>
+      <c r="F139" s="54" t="s">
         <v>232</v>
       </c>
       <c r="G139" s="7"/>
-      <c r="H139" s="46"/>
+      <c r="H139" s="44"/>
     </row>
     <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="42"/>
       <c r="D140" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="15"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="46"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="44"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="45"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="42"/>
+      <c r="C141" s="42"/>
       <c r="D141" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E141" s="18"/>
-      <c r="F141" s="9" t="s">
+      <c r="E141" s="68"/>
+      <c r="F141" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G141" s="15"/>
-      <c r="H141" s="46"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="44"/>
     </row>
     <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="45"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="45"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="42"/>
+      <c r="C142" s="42"/>
       <c r="D142" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="37" t="s">
+      <c r="E142" s="68"/>
+      <c r="F142" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="G142" s="38"/>
-      <c r="H142" s="46"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="44"/>
     </row>
     <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="45"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="45"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="42"/>
       <c r="D143" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E143" s="15"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="46"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="44"/>
     </row>
     <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="45"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="44" t="s">
+      <c r="A144" s="42"/>
+      <c r="B144" s="42"/>
+      <c r="C144" s="48" t="s">
         <v>239</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E144" s="15"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="46"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="44"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="42"/>
+      <c r="C145" s="42"/>
       <c r="D145" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E145" s="18"/>
-      <c r="F145" s="9" t="s">
+      <c r="E145" s="68"/>
+      <c r="F145" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="46"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="44"/>
     </row>
     <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="45"/>
+      <c r="A146" s="42"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="42"/>
       <c r="D146" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E146" s="15"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="46"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="44"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="45"/>
-      <c r="B147" s="45"/>
-      <c r="C147" s="45"/>
+      <c r="A147" s="42"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="42"/>
       <c r="D147" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E147" s="15"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="46"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="44"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="45"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="42"/>
       <c r="D148" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E148" s="15"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="46"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="44"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="45"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
+      <c r="A149" s="42"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="42"/>
       <c r="D149" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E149" s="15"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="46"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="44"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="45"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="42"/>
+      <c r="C150" s="42"/>
       <c r="D150" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E150" s="15"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="46"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="44"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="45"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="44" t="s">
+      <c r="A151" s="42"/>
+      <c r="B151" s="42"/>
+      <c r="C151" s="48" t="s">
         <v>248</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E151" s="18"/>
-      <c r="F151" s="9" t="s">
+      <c r="E151" s="68"/>
+      <c r="F151" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G151" s="15"/>
-      <c r="H151" s="46"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="44"/>
     </row>
     <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="45"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="45"/>
+      <c r="A152" s="42"/>
+      <c r="B152" s="42"/>
+      <c r="C152" s="42"/>
       <c r="D152" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E152" s="18"/>
-      <c r="F152" s="39" t="s">
+      <c r="E152" s="68"/>
+      <c r="F152" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="G152" s="40"/>
-      <c r="H152" s="46"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="44"/>
     </row>
     <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="45"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="42"/>
+      <c r="C153" s="42"/>
       <c r="D153" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="46"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="44"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="45"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="45"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="42"/>
       <c r="D154" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="6" t="s">
+      <c r="E154" s="68"/>
+      <c r="F154" s="54" t="s">
         <v>255</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="46"/>
+      <c r="H154" s="44"/>
     </row>
     <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="45"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="45"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="42"/>
+      <c r="C155" s="42"/>
       <c r="D155" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E155" s="15"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="46"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="44"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="45"/>
-      <c r="B156" s="45"/>
-      <c r="C156" s="44" t="s">
+      <c r="A156" s="42"/>
+      <c r="B156" s="42"/>
+      <c r="C156" s="48" t="s">
         <v>257</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E156" s="15"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="46"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="44"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="45"/>
-      <c r="B157" s="45"/>
-      <c r="C157" s="45"/>
+      <c r="A157" s="42"/>
+      <c r="B157" s="42"/>
+      <c r="C157" s="42"/>
       <c r="D157" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E157" s="18"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="46"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="44"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="45"/>
-      <c r="B158" s="45"/>
-      <c r="C158" s="45"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="42"/>
+      <c r="C158" s="42"/>
       <c r="D158" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E158" s="15"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="46"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="44"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="45"/>
-      <c r="B159" s="45"/>
-      <c r="C159" s="45"/>
+      <c r="A159" s="42"/>
+      <c r="B159" s="42"/>
+      <c r="C159" s="42"/>
       <c r="D159" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E159" s="15"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="46"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="44"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="45"/>
-      <c r="B160" s="45"/>
-      <c r="C160" s="45"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
       <c r="D160" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E160" s="18"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="46"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="44"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="45"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="44" t="s">
+      <c r="A161" s="42"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="48" t="s">
         <v>263</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E161" s="18"/>
-      <c r="F161" s="9" t="s">
+      <c r="E161" s="68"/>
+      <c r="F161" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G161" s="15"/>
-      <c r="H161" s="46"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="44"/>
     </row>
     <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="45"/>
-      <c r="B162" s="45"/>
-      <c r="C162" s="45"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="42"/>
+      <c r="C162" s="42"/>
       <c r="D162" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E162" s="15"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="46"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="44"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="45"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="45"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="42"/>
       <c r="D163" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E163" s="15"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="46"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="44"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="45"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="45"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
       <c r="D164" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E164" s="18"/>
-      <c r="F164" s="22" t="s">
+      <c r="E164" s="68"/>
+      <c r="F164" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="G164" s="41"/>
-      <c r="H164" s="46"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="44"/>
     </row>
     <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="45"/>
-      <c r="B165" s="44" t="s">
+      <c r="A165" s="42"/>
+      <c r="B165" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="C165" s="48" t="s">
         <v>271</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E165" s="18"/>
-      <c r="F165" s="9" t="s">
+      <c r="E165" s="68"/>
+      <c r="F165" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G165" s="15"/>
-      <c r="H165" s="46"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="44"/>
     </row>
     <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="45"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="42"/>
+      <c r="C166" s="42"/>
       <c r="D166" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E166" s="15"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="46"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="44"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="45"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="45"/>
+      <c r="A167" s="42"/>
+      <c r="B167" s="42"/>
+      <c r="C167" s="42"/>
       <c r="D167" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="46"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="44"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="45"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="45"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="42"/>
+      <c r="C168" s="42"/>
       <c r="D168" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E168" s="15"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="46"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="44"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="45"/>
-      <c r="B169" s="45"/>
-      <c r="C169" s="45"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="42"/>
+      <c r="C169" s="42"/>
       <c r="D169" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E169" s="15"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="46"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="44"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="45"/>
-      <c r="B170" s="45"/>
-      <c r="C170" s="45"/>
+      <c r="A170" s="42"/>
+      <c r="B170" s="42"/>
+      <c r="C170" s="42"/>
       <c r="D170" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E170" s="15"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="46"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="44"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="45"/>
-      <c r="B171" s="45"/>
-      <c r="C171" s="45"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="42"/>
+      <c r="C171" s="42"/>
       <c r="D171" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E171" s="18"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="46"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="44"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="45"/>
-      <c r="B172" s="45"/>
-      <c r="C172" s="45"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
       <c r="D172" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E172" s="15"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="46"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="44"/>
     </row>
     <row r="173" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A173" s="45"/>
-      <c r="B173" s="45"/>
-      <c r="C173" s="44" t="s">
+      <c r="A173" s="42"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="48" t="s">
         <v>281</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E173" s="18"/>
-      <c r="F173" s="9" t="s">
+      <c r="E173" s="68"/>
+      <c r="F173" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G173" s="15"/>
-      <c r="H173" s="46"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="44"/>
     </row>
     <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="45"/>
-      <c r="B174" s="45"/>
-      <c r="C174" s="45"/>
+      <c r="A174" s="42"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="42"/>
       <c r="D174" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E174" s="15"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="46"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="44"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="45"/>
-      <c r="B175" s="45"/>
-      <c r="C175" s="45"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="42"/>
+      <c r="C175" s="42"/>
       <c r="D175" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E175" s="15"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="46"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="44"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="45"/>
-      <c r="B176" s="45"/>
-      <c r="C176" s="45"/>
+      <c r="A176" s="42"/>
+      <c r="B176" s="42"/>
+      <c r="C176" s="42"/>
       <c r="D176" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E176" s="18"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="46"/>
+      <c r="E176" s="68"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="44"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="45"/>
-      <c r="B177" s="45"/>
-      <c r="C177" s="44" t="s">
+      <c r="A177" s="42"/>
+      <c r="B177" s="42"/>
+      <c r="C177" s="48" t="s">
         <v>287</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E177" s="18"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="46"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="44"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="45"/>
-      <c r="B178" s="45"/>
-      <c r="C178" s="45"/>
+      <c r="A178" s="42"/>
+      <c r="B178" s="42"/>
+      <c r="C178" s="42"/>
       <c r="D178" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E178" s="15"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="46"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="44"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="45"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="45"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="42"/>
+      <c r="C179" s="42"/>
       <c r="D179" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E179" s="15"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="46"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="44"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="45"/>
-      <c r="B180" s="45"/>
-      <c r="C180" s="44" t="s">
+      <c r="A180" s="42"/>
+      <c r="B180" s="42"/>
+      <c r="C180" s="48" t="s">
         <v>291</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E180" s="15"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="46"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="44"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="45"/>
-      <c r="B181" s="45"/>
-      <c r="C181" s="45"/>
+      <c r="A181" s="42"/>
+      <c r="B181" s="42"/>
+      <c r="C181" s="42"/>
       <c r="D181" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E181" s="18"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="46"/>
+      <c r="E181" s="68"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="44"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="45"/>
-      <c r="B182" s="45"/>
-      <c r="C182" s="44" t="s">
+      <c r="A182" s="42"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="48" t="s">
         <v>294</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E182" s="18"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="46"/>
+      <c r="E182" s="68"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="44"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="45"/>
-      <c r="B183" s="45"/>
-      <c r="C183" s="45"/>
+      <c r="A183" s="42"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="42"/>
       <c r="D183" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E183" s="15"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="46"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="44"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="45"/>
-      <c r="B184" s="45"/>
-      <c r="C184" s="45"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
       <c r="D184" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E184" s="15"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="46"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="44"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="45"/>
-      <c r="B185" s="44" t="s">
+      <c r="A185" s="42"/>
+      <c r="B185" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="C185" s="44" t="s">
+      <c r="C185" s="48" t="s">
         <v>299</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E185" s="18"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="46"/>
+      <c r="E185" s="68"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="44"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="45"/>
-      <c r="B186" s="45"/>
-      <c r="C186" s="45"/>
+      <c r="A186" s="42"/>
+      <c r="B186" s="42"/>
+      <c r="C186" s="42"/>
       <c r="D186" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E186" s="15"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="46"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="44"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="45"/>
-      <c r="B187" s="45"/>
-      <c r="C187" s="44" t="s">
+      <c r="A187" s="42"/>
+      <c r="B187" s="42"/>
+      <c r="C187" s="48" t="s">
         <v>302</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E187" s="18"/>
-      <c r="F187" s="9" t="s">
+      <c r="E187" s="68"/>
+      <c r="F187" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="G187" s="15"/>
-      <c r="H187" s="46"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="44"/>
     </row>
     <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="45"/>
-      <c r="B188" s="45"/>
-      <c r="C188" s="45"/>
+      <c r="A188" s="42"/>
+      <c r="B188" s="42"/>
+      <c r="C188" s="42"/>
       <c r="D188" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E188" s="18"/>
-      <c r="F188" s="9" t="s">
+      <c r="E188" s="68"/>
+      <c r="F188" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G188" s="15"/>
-      <c r="H188" s="46"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="44"/>
     </row>
     <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="45"/>
-      <c r="B189" s="45"/>
-      <c r="C189" s="45"/>
+      <c r="A189" s="42"/>
+      <c r="B189" s="42"/>
+      <c r="C189" s="42"/>
       <c r="D189" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E189" s="15"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="46"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="44"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="45"/>
-      <c r="B190" s="45"/>
-      <c r="C190" s="45"/>
+      <c r="A190" s="42"/>
+      <c r="B190" s="42"/>
+      <c r="C190" s="42"/>
       <c r="D190" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E190" s="15"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="46"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="44"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="45"/>
-      <c r="B191" s="45"/>
-      <c r="C191" s="45"/>
+      <c r="A191" s="42"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="42"/>
       <c r="D191" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E191" s="15"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="46"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="44"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="45"/>
-      <c r="B192" s="45"/>
-      <c r="C192" s="45"/>
+      <c r="A192" s="42"/>
+      <c r="B192" s="42"/>
+      <c r="C192" s="42"/>
       <c r="D192" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E192" s="15"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="46"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="44"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="45"/>
-      <c r="B193" s="45"/>
-      <c r="C193" s="45"/>
+      <c r="A193" s="42"/>
+      <c r="B193" s="42"/>
+      <c r="C193" s="42"/>
       <c r="D193" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E193" s="18"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="15"/>
-      <c r="H193" s="46"/>
+      <c r="E193" s="68"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="44"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="45"/>
-      <c r="B194" s="45"/>
-      <c r="C194" s="44" t="s">
+      <c r="A194" s="42"/>
+      <c r="B194" s="42"/>
+      <c r="C194" s="48" t="s">
         <v>312</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E194" s="18"/>
-      <c r="F194" s="9" t="s">
+      <c r="E194" s="68"/>
+      <c r="F194" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="G194" s="15"/>
-      <c r="H194" s="46"/>
-    </row>
-    <row r="195" spans="1:8" ht="27" customHeight="1">
-      <c r="A195" s="45"/>
-      <c r="B195" s="45"/>
-      <c r="C195" s="45"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="44"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A195" s="42"/>
+      <c r="B195" s="42"/>
+      <c r="C195" s="42"/>
       <c r="D195" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E195" s="18"/>
-      <c r="F195" s="16" t="s">
+      <c r="E195" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="F195" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G195" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="H195" s="44"/>
+    </row>
+    <row r="196" spans="1:8" ht="27" customHeight="1">
+      <c r="A196" s="42"/>
+      <c r="B196" s="42"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G195" s="17"/>
-      <c r="H195" s="46"/>
-    </row>
-    <row r="196" spans="1:8" ht="27" customHeight="1">
-      <c r="A196" s="45"/>
-      <c r="B196" s="45"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="5" t="s">
+      <c r="E196" s="68"/>
+      <c r="F196" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="E196" s="18"/>
-      <c r="F196" s="42" t="s">
+      <c r="G196" s="30"/>
+      <c r="H196" s="44"/>
+    </row>
+    <row r="197" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A197" s="42"/>
+      <c r="B197" s="42"/>
+      <c r="C197" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="G196" s="43"/>
-      <c r="H196" s="46"/>
-    </row>
-    <row r="197" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A197" s="45"/>
-      <c r="B197" s="45"/>
-      <c r="C197" s="44" t="s">
+      <c r="D197" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="E197" s="32"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="44"/>
+    </row>
+    <row r="198" spans="1:8" ht="27" customHeight="1">
+      <c r="A198" s="42"/>
+      <c r="B198" s="42"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E197" s="15"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="46"/>
-    </row>
-    <row r="198" spans="1:8" ht="27" customHeight="1">
-      <c r="A198" s="45"/>
-      <c r="B198" s="45"/>
-      <c r="C198" s="45"/>
-      <c r="D198" s="8" t="s">
+      <c r="E198" s="32"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="44"/>
+    </row>
+    <row r="199" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A199" s="42"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E198" s="15"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="46"/>
-    </row>
-    <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="45"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="45"/>
-      <c r="D199" s="8" t="s">
+      <c r="E199" s="32"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="44"/>
+    </row>
+    <row r="200" spans="1:8" ht="29.1" customHeight="1">
+      <c r="A200" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E199" s="15"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="46"/>
-    </row>
-    <row r="200" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A200" s="44" t="s">
+      <c r="B200" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="C200" s="42"/>
+      <c r="D200" s="43"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="44"/>
+    </row>
+    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
+      <c r="A201" s="42"/>
+      <c r="B201" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C200" s="45"/>
-      <c r="D200" s="49"/>
-      <c r="E200" s="49"/>
-      <c r="F200" s="53"/>
-      <c r="G200" s="53"/>
-      <c r="H200" s="46"/>
-    </row>
-    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A201" s="45"/>
-      <c r="B201" s="4" t="s">
+      <c r="C201" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="C201" s="54" t="s">
+      <c r="D201" s="46"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="46"/>
+      <c r="G201" s="46"/>
+      <c r="H201" s="47"/>
+    </row>
+    <row r="202" spans="1:8" ht="114.6" customHeight="1">
+      <c r="A202" s="42"/>
+      <c r="B202" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D201" s="55"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="55"/>
-      <c r="G201" s="55"/>
-      <c r="H201" s="56"/>
-    </row>
-    <row r="202" spans="1:8" ht="114.6" customHeight="1">
-      <c r="A202" s="45"/>
-      <c r="B202" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C202" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="D202" s="55"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="55"/>
-      <c r="G202" s="55"/>
-      <c r="H202" s="56"/>
+      <c r="C202" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="D202" s="46"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
@@ -6630,6 +7093,46 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="H3:H39"/>
+    <mergeCell ref="H40:H56"/>
+    <mergeCell ref="H57:H74"/>
+    <mergeCell ref="H75:H95"/>
+    <mergeCell ref="H96:H118"/>
+    <mergeCell ref="H119:H164"/>
+    <mergeCell ref="H165:H184"/>
+    <mergeCell ref="H185:H199"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C193"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C201:H201"/>
@@ -6646,48 +7149,8 @@
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="H3:H39"/>
-    <mergeCell ref="H40:H56"/>
-    <mergeCell ref="H57:H74"/>
-    <mergeCell ref="H75:H95"/>
-    <mergeCell ref="H96:H118"/>
-    <mergeCell ref="H119:H164"/>
-    <mergeCell ref="H165:H184"/>
-    <mergeCell ref="H185:H199"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C193"/>
-    <mergeCell ref="C151:C155"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
@@ -6697,9 +7160,10 @@
     <hyperlink ref="G16" r:id="rId6"/>
     <hyperlink ref="F39" r:id="rId7" location="issuecomment-646935572"/>
     <hyperlink ref="G92" r:id="rId8"/>
+    <hyperlink ref="G195" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="344">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>CSS所有选择器及其优先级、使用场景，哪些可以继承，如何运用at规则</t>
-  </si>
-  <si>
-    <t>HTML文档流的排版规则，CSS几种定位的规则、定位参照物、对文档流的影响，如何选择最好的定位方式，雪碧图实现原理</t>
   </si>
   <si>
     <t>水平垂直居中的方案、可以实现6种以上并对比它们的优缺点</t>
@@ -1417,268 +1414,6 @@
   </si>
   <si>
     <r>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用的是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>堆</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">(Heap) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栈</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>( Stack)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基本类型数据都是直接按值存储在栈中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>(Undefined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、不是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出来的布尔、数字和字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，每种类型的数据占用的内存空间的大小是确定的，并由系统自动分配和自动释放。这样带来的好处就是，内存可以及时得到回收，相对于堆来说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，更加容易管理内存空间。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>引用类型数据被存储于堆中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如对象、数组、函数等，它们是通过拷贝和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出来的）。数据的地址指针是存储于栈中的，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在通过地址指针找到堆中的所需要的数据。</t>
-    </r>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1.typeof </t>
     </r>
     <r>
@@ -2650,6 +2385,310 @@
       </rPr>
       <t>有兼容；</t>
     </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">(Heap) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>( Stack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本类型数据都是直接按值存储在栈中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(Undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来的布尔、数字和字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每种类型的数据占用的内存空间的大小是确定的，并由系统自动分配和自动释放。这样带来的好处就是，内存可以及时得到回收，相对于堆来说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，更加容易管理内存空间。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用类型数据被存储于堆中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如对象、数组、函数等，它们是通过拷贝和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来的）。数据的地址指针是存储于栈中的，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在通过地址指针找到堆中的所需要的数据。</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档流的排版规则，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几种定位的规则、定位参照物、对文档流的影响，如何选择最好的定位方式，雪碧图实现原理</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -3035,45 +3074,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3127,6 +3127,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4284,8 +4323,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4294,23 +4333,23 @@
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="69" customWidth="1"/>
-    <col min="6" max="7" width="68.625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="5" style="56" customWidth="1"/>
+    <col min="6" max="7" width="68.625" style="51" customWidth="1"/>
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4339,13 +4378,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4358,12 +4397,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="44"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4371,35 +4410,35 @@
         <v>16</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4412,12 +4451,12 @@
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
@@ -4428,12 +4467,12 @@
         <v>26</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="44"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -4444,12 +4483,12 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="44"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:8" ht="141" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
@@ -4457,15 +4496,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="44"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
@@ -4476,16 +4515,16 @@
         <v>31</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="44"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -4494,18 +4533,18 @@
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -4514,12 +4553,12 @@
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4530,28 +4569,28 @@
         <v>40</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="44"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="41" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="44"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
@@ -4562,157 +4601,157 @@
         <v>44</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="44"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="E17" s="35" t="s">
         <v>329</v>
-      </c>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>331</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="44"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="44"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="44"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="F20" s="55" t="s">
+      <c r="E20" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="44"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="44"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="66" t="s">
-        <v>333</v>
+      <c r="E22" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="44"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="44"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="66" t="s">
-        <v>333</v>
+      <c r="E24" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="44"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="48" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="57" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="67" t="s">
-        <v>333</v>
+      <c r="E25" s="54" t="s">
+        <v>331</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>59</v>
@@ -4720,2367 +4759,2373 @@
       <c r="G25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="66" t="s">
-        <v>333</v>
+      <c r="E26" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="44"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="67" t="s">
-        <v>333</v>
+      <c r="E27" s="54" t="s">
+        <v>331</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="44"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="44"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="66" t="s">
-        <v>333</v>
+      <c r="E29" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="44"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="66" t="s">
-        <v>333</v>
+      <c r="E30" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="44"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="66" t="s">
-        <v>333</v>
+      <c r="E31" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="44"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="66" t="s">
-        <v>333</v>
+      <c r="E32" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="44"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="48" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="57" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="44"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="67" t="s">
-        <v>331</v>
+      <c r="E34" s="54" t="s">
+        <v>329</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="44"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="44"/>
+      <c r="H35" s="59"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="44"/>
+      <c r="H36" s="59"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="44"/>
+      <c r="H37" s="59"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="66" t="s">
-        <v>333</v>
+      <c r="E38" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="66" t="s">
-        <v>331</v>
+      <c r="E39" s="53" t="s">
+        <v>329</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="48" t="s">
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A40" s="58"/>
+      <c r="B40" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="57" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="66" t="s">
-        <v>331</v>
+      <c r="E40" s="53" t="s">
+        <v>329</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="F41" s="52" t="s">
+      <c r="E41" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="F41" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
+      <c r="H41" s="59"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="66" t="s">
-        <v>331</v>
+      <c r="E42" s="53" t="s">
+        <v>329</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="44"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="H42" s="59"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="F43" s="56" t="s">
+      <c r="E43" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43" s="43" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="44"/>
+      <c r="H43" s="59"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="66" t="s">
-        <v>333</v>
+      <c r="E44" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="44"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="48" t="s">
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="57" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="66" t="s">
-        <v>331</v>
+      <c r="E45" s="53" t="s">
+        <v>329</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="44"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="66" t="s">
-        <v>331</v>
+      <c r="E46" s="53" t="s">
+        <v>329</v>
       </c>
       <c r="F46" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="E47" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>337</v>
-      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="44"/>
+      <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:8" ht="27" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="32"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>342</v>
+      </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="44"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>343</v>
+      </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="44"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="81" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="54" t="s">
+      <c r="G50" s="7"/>
+      <c r="H50" s="59"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="44"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="44"/>
+      <c r="H52" s="59"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="55"/>
+      <c r="F53" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="68"/>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="13"/>
+      <c r="H53" s="59"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="44"/>
-    </row>
-    <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="44"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="44"/>
+      <c r="H55" s="59"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="44"/>
+      <c r="H56" s="59"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="42"/>
-      <c r="B57" s="48" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="D57" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="44"/>
+      <c r="H57" s="59"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="55"/>
+      <c r="F58" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="68"/>
-      <c r="F58" s="8" t="s">
+      <c r="G58" s="13"/>
+      <c r="H58" s="59"/>
+    </row>
+    <row r="59" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="44"/>
-    </row>
-    <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="44"/>
+      <c r="H59" s="59"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="55"/>
+      <c r="F60" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="68"/>
-      <c r="F60" s="8" t="s">
+      <c r="G60" s="13"/>
+      <c r="H60" s="59"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="44"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="44"/>
+      <c r="H61" s="59"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="48" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="55"/>
+      <c r="F62" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="68"/>
-      <c r="F62" s="8" t="s">
+      <c r="G62" s="13"/>
+      <c r="H62" s="59"/>
+    </row>
+    <row r="63" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="44"/>
-    </row>
-    <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="44"/>
+      <c r="H63" s="59"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="44"/>
+      <c r="H64" s="59"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
       <c r="D65" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="44"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
       <c r="D66" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="44"/>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
       <c r="D67" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="44"/>
+      <c r="H67" s="59"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
       <c r="D68" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="44"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
       <c r="D69" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="44"/>
+      <c r="H69" s="59"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="44"/>
+      <c r="H70" s="59"/>
     </row>
     <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="55"/>
+      <c r="F71" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="58" t="s">
+      <c r="G71" s="22"/>
+      <c r="H71" s="59"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="44"/>
-    </row>
-    <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="48" t="s">
+      <c r="D72" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="44"/>
+      <c r="H72" s="59"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="55"/>
+      <c r="F73" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="68"/>
-      <c r="F73" s="8" t="s">
+      <c r="G73" s="13"/>
+      <c r="H73" s="59"/>
+    </row>
+    <row r="74" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="44"/>
-    </row>
-    <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="44"/>
+      <c r="H74" s="59"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="42"/>
-      <c r="B75" s="48" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="D75" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="44"/>
+      <c r="H75" s="59"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="55"/>
+      <c r="F76" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="68"/>
-      <c r="F76" s="8" t="s">
+      <c r="G76" s="13"/>
+      <c r="H76" s="59"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="44"/>
-    </row>
-    <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="44"/>
+      <c r="H77" s="59"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="44"/>
+      <c r="H78" s="59"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="55"/>
+      <c r="F79" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="68"/>
-      <c r="F79" s="8" t="s">
+      <c r="G79" s="13"/>
+      <c r="H79" s="59"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="44"/>
-    </row>
-    <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="48" t="s">
+      <c r="D80" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="E80" s="32"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="44"/>
+      <c r="H80" s="59"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="58"/>
       <c r="D81" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="44"/>
+      <c r="H81" s="59"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="55"/>
+      <c r="F82" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="68"/>
-      <c r="F82" s="8" t="s">
+      <c r="G82" s="13"/>
+      <c r="H82" s="59"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="44"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="55"/>
+      <c r="F83" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E83" s="68"/>
-      <c r="F83" s="25" t="s">
+      <c r="G83" s="23"/>
+      <c r="H83" s="59"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="44"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="44"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
       <c r="D85" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="44"/>
+      <c r="H85" s="59"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
       <c r="D86" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="44"/>
+      <c r="H86" s="59"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="48" t="s">
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="44"/>
+      <c r="H87" s="59"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" s="55"/>
+      <c r="F88" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E88" s="68"/>
-      <c r="F88" s="8" t="s">
+      <c r="G88" s="13"/>
+      <c r="H88" s="59"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="44"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="44"/>
+      <c r="H89" s="59"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="49"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="44"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="48" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="44"/>
+      <c r="H91" s="59"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" s="55"/>
+      <c r="F92" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="68"/>
-      <c r="F92" s="24" t="s">
+      <c r="G92" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G92" s="24" t="s">
+      <c r="H92" s="59"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H92" s="44"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="44"/>
+      <c r="H93" s="59"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="44"/>
+      <c r="H94" s="59"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E95" s="55"/>
+      <c r="F95" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="68"/>
-      <c r="F95" s="25" t="s">
+      <c r="G95" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G95" s="25" t="s">
+      <c r="H95" s="59"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="58"/>
+      <c r="B96" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="H95" s="44"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="48" t="s">
+      <c r="C96" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="D96" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="44"/>
+      <c r="H96" s="59"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="43"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="62"/>
       <c r="D97" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="44"/>
+      <c r="H97" s="59"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="43"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E98" s="55"/>
+      <c r="F98" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E98" s="68"/>
-      <c r="F98" s="8" t="s">
+      <c r="G98" s="13"/>
+      <c r="H98" s="59"/>
+    </row>
+    <row r="99" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="44"/>
-    </row>
-    <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="44"/>
+      <c r="H99" s="59"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="43"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="44"/>
+      <c r="H100" s="59"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="43"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="44"/>
+      <c r="H101" s="59"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="43"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="62"/>
       <c r="D102" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="44"/>
+      <c r="H102" s="59"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="43"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="62"/>
       <c r="D103" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="44"/>
+      <c r="H103" s="59"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="43"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E104" s="55"/>
+      <c r="F104" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E104" s="68"/>
-      <c r="F104" s="8" t="s">
+      <c r="G104" s="13"/>
+      <c r="H104" s="59"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="44"/>
-    </row>
-    <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="42"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="48" t="s">
+      <c r="D105" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="44"/>
+      <c r="H105" s="59"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="44"/>
+      <c r="H106" s="59"/>
     </row>
     <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" s="55"/>
+      <c r="F107" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="E107" s="68"/>
-      <c r="F107" s="54" t="s">
+      <c r="G107" s="7"/>
+      <c r="H107" s="59"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="44"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="42"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="44"/>
+      <c r="H108" s="59"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
       <c r="D109" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="44"/>
+      <c r="H109" s="59"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
       <c r="D110" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="44"/>
+      <c r="H110" s="59"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="42"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="42"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="58"/>
       <c r="D111" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="44"/>
+      <c r="H111" s="59"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="42"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
       <c r="D112" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" s="55"/>
+      <c r="F112" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E112" s="68"/>
-      <c r="F112" s="54" t="s">
+      <c r="G112" s="7"/>
+      <c r="H112" s="59"/>
+    </row>
+    <row r="113" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A113" s="58"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="44"/>
-    </row>
-    <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="44"/>
+      <c r="H113" s="59"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="42"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="48" t="s">
+      <c r="A114" s="58"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="44"/>
+      <c r="H114" s="59"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="42"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
       <c r="D115" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E115" s="68"/>
+        <v>191</v>
+      </c>
+      <c r="E115" s="55"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="44"/>
+      <c r="H115" s="59"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="44"/>
+      <c r="H116" s="59"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="42"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="58"/>
       <c r="D117" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E117" s="55"/>
+      <c r="F117" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E117" s="68"/>
-      <c r="F117" s="8" t="s">
+      <c r="G117" s="13"/>
+      <c r="H117" s="59"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A118" s="58"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="44"/>
-    </row>
-    <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="42"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="E118" s="32"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="44"/>
+      <c r="H118" s="59"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="42"/>
-      <c r="B119" s="48" t="s">
+      <c r="A119" s="58"/>
+      <c r="B119" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="D119" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="E119" s="55"/>
+      <c r="F119" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="68"/>
-      <c r="F119" s="8" t="s">
+      <c r="G119" s="13"/>
+      <c r="H119" s="59"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="58"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="44"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="42"/>
-      <c r="B120" s="42"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="5" t="s">
+      <c r="E120" s="55"/>
+      <c r="F120" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E120" s="68"/>
-      <c r="F120" s="8" t="s">
+      <c r="G120" s="13"/>
+      <c r="H120" s="59"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="58"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="44"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="42"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="5" t="s">
+      <c r="E121" s="55"/>
+      <c r="F121" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E121" s="68"/>
-      <c r="F121" s="8" t="s">
+      <c r="G121" s="13"/>
+      <c r="H121" s="59"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="58"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="44"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="42"/>
-      <c r="B122" s="42"/>
-      <c r="C122" s="48" t="s">
+      <c r="D122" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="44"/>
+      <c r="H122" s="59"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="42"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E123" s="55"/>
+      <c r="F123" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E123" s="68"/>
-      <c r="F123" s="8" t="s">
+      <c r="G123" s="13"/>
+      <c r="H123" s="59"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A124" s="58"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="44"/>
-    </row>
-    <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="44"/>
+      <c r="H124" s="59"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="44"/>
+      <c r="H125" s="59"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="48" t="s">
+      <c r="A126" s="58"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="44"/>
+      <c r="H126" s="59"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E127" s="55"/>
+      <c r="F127" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E127" s="68"/>
-      <c r="F127" s="8" t="s">
+      <c r="G127" s="13"/>
+      <c r="H127" s="59"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A128" s="58"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="44"/>
-    </row>
-    <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="42"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="44"/>
+      <c r="H128" s="59"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
+      <c r="A129" s="58"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="44"/>
+      <c r="H129" s="59"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="42"/>
+      <c r="A130" s="58"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E130" s="55"/>
+      <c r="F130" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E130" s="68"/>
-      <c r="F130" s="8" t="s">
+      <c r="G130" s="13"/>
+      <c r="H130" s="59"/>
+    </row>
+    <row r="131" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A131" s="58"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="G130" s="13"/>
-      <c r="H130" s="44"/>
-    </row>
-    <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="44"/>
+      <c r="H131" s="59"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="42"/>
+      <c r="A132" s="58"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="58"/>
       <c r="D132" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="44"/>
+      <c r="H132" s="59"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="42"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="44"/>
+      <c r="H133" s="59"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
-      <c r="C134" s="42"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
       <c r="D134" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E134" s="32"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="44"/>
+      <c r="H134" s="59"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
-      <c r="C135" s="42"/>
+      <c r="A135" s="58"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="58"/>
       <c r="D135" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E135" s="55"/>
+      <c r="F135" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E135" s="68"/>
-      <c r="F135" s="8" t="s">
+      <c r="G135" s="13"/>
+      <c r="H135" s="59"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A136" s="58"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="G135" s="13"/>
-      <c r="H135" s="44"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="44"/>
+      <c r="H136" s="59"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="42"/>
-      <c r="B137" s="42"/>
-      <c r="C137" s="42"/>
+      <c r="A137" s="58"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="58"/>
       <c r="D137" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E137" s="55"/>
+      <c r="F137" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E137" s="68"/>
-      <c r="F137" s="59" t="s">
+      <c r="G137" s="26"/>
+      <c r="H137" s="59"/>
+    </row>
+    <row r="138" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A138" s="58"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="44"/>
-    </row>
-    <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="42"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="5" t="s">
+      <c r="E138" s="55"/>
+      <c r="F138" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E138" s="68"/>
-      <c r="F138" s="8" t="s">
+      <c r="G138" s="13"/>
+      <c r="H138" s="59"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" customHeight="1">
+      <c r="A139" s="58"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="44"/>
-    </row>
-    <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
-      <c r="C139" s="48" t="s">
+      <c r="D139" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="E139" s="55"/>
+      <c r="F139" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="E139" s="68"/>
-      <c r="F139" s="54" t="s">
+      <c r="G139" s="7"/>
+      <c r="H139" s="59"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A140" s="58"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="44"/>
-    </row>
-    <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="44"/>
+      <c r="H140" s="59"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
-      <c r="C141" s="42"/>
+      <c r="A141" s="58"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58"/>
       <c r="D141" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E141" s="55"/>
+      <c r="F141" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E141" s="68"/>
-      <c r="F141" s="8" t="s">
+      <c r="G141" s="13"/>
+      <c r="H141" s="59"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A142" s="58"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="44"/>
-    </row>
-    <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="5" t="s">
+      <c r="E142" s="55"/>
+      <c r="F142" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="E142" s="68"/>
-      <c r="F142" s="60" t="s">
+      <c r="G142" s="27"/>
+      <c r="H142" s="59"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="44"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="42"/>
-      <c r="B143" s="42"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
-      <c r="H143" s="44"/>
+      <c r="H143" s="59"/>
     </row>
     <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
-      <c r="C144" s="48" t="s">
+      <c r="A144" s="58"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="44"/>
+      <c r="H144" s="59"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
-      <c r="C145" s="42"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="58"/>
       <c r="D145" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E145" s="55"/>
+      <c r="F145" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E145" s="68"/>
-      <c r="F145" s="8" t="s">
+      <c r="G145" s="13"/>
+      <c r="H145" s="59"/>
+    </row>
+    <row r="146" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A146" s="58"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="44"/>
-    </row>
-    <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="42"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="44"/>
+      <c r="H146" s="59"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="42"/>
-      <c r="B147" s="42"/>
-      <c r="C147" s="42"/>
+      <c r="A147" s="58"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="58"/>
       <c r="D147" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="44"/>
+      <c r="H147" s="59"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="42"/>
-      <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
+      <c r="A148" s="58"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="44"/>
+      <c r="H148" s="59"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="42"/>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="58"/>
       <c r="D149" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="44"/>
+      <c r="H149" s="59"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="42"/>
-      <c r="B150" s="42"/>
-      <c r="C150" s="42"/>
+      <c r="A150" s="58"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="44"/>
+      <c r="H150" s="59"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="42"/>
-      <c r="B151" s="42"/>
-      <c r="C151" s="48" t="s">
+      <c r="A151" s="58"/>
+      <c r="B151" s="58"/>
+      <c r="C151" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="E151" s="55"/>
+      <c r="F151" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E151" s="68"/>
-      <c r="F151" s="8" t="s">
+      <c r="G151" s="13"/>
+      <c r="H151" s="59"/>
+    </row>
+    <row r="152" spans="1:8" ht="27" customHeight="1">
+      <c r="A152" s="58"/>
+      <c r="B152" s="58"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="44"/>
-    </row>
-    <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="42"/>
-      <c r="B152" s="42"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="5" t="s">
+      <c r="E152" s="55"/>
+      <c r="F152" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="E152" s="68"/>
-      <c r="F152" s="61" t="s">
+      <c r="G152" s="28"/>
+      <c r="H152" s="59"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A153" s="58"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="G152" s="28"/>
-      <c r="H152" s="44"/>
-    </row>
-    <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="42"/>
-      <c r="B153" s="42"/>
-      <c r="C153" s="42"/>
-      <c r="D153" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="44"/>
+      <c r="H153" s="59"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="42"/>
-      <c r="B154" s="42"/>
-      <c r="C154" s="42"/>
+      <c r="A154" s="58"/>
+      <c r="B154" s="58"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E154" s="55"/>
+      <c r="F154" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="E154" s="68"/>
-      <c r="F154" s="54" t="s">
+      <c r="G154" s="7"/>
+      <c r="H154" s="59"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A155" s="58"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="44"/>
-    </row>
-    <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="42"/>
-      <c r="B155" s="42"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="44"/>
+      <c r="H155" s="59"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="42"/>
-      <c r="B156" s="42"/>
-      <c r="C156" s="48" t="s">
+      <c r="A156" s="58"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="44"/>
+      <c r="H156" s="59"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="42"/>
-      <c r="B157" s="42"/>
-      <c r="C157" s="42"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="58"/>
       <c r="D157" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E157" s="68"/>
+        <v>258</v>
+      </c>
+      <c r="E157" s="55"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="44"/>
+      <c r="H157" s="59"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="42"/>
-      <c r="B158" s="42"/>
-      <c r="C158" s="42"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
       <c r="D158" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="44"/>
+      <c r="H158" s="59"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="42"/>
-      <c r="B159" s="42"/>
-      <c r="C159" s="42"/>
+      <c r="A159" s="58"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="58"/>
       <c r="D159" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="44"/>
+      <c r="H159" s="59"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="42"/>
-      <c r="B160" s="42"/>
-      <c r="C160" s="42"/>
+      <c r="A160" s="58"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="58"/>
       <c r="D160" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E160" s="68"/>
+        <v>261</v>
+      </c>
+      <c r="E160" s="55"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="44"/>
+      <c r="H160" s="59"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="42"/>
-      <c r="B161" s="42"/>
-      <c r="C161" s="48" t="s">
+      <c r="A161" s="58"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="E161" s="55"/>
+      <c r="F161" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E161" s="68"/>
-      <c r="F161" s="8" t="s">
+      <c r="G161" s="13"/>
+      <c r="H161" s="59"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A162" s="58"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="58"/>
+      <c r="D162" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="G161" s="13"/>
-      <c r="H161" s="44"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="42"/>
-      <c r="B162" s="42"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="E162" s="32"/>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="44"/>
+      <c r="H162" s="59"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
-      <c r="C163" s="42"/>
+      <c r="A163" s="58"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="58"/>
       <c r="D163" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="44"/>
+      <c r="H163" s="59"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="42"/>
-      <c r="B164" s="42"/>
-      <c r="C164" s="42"/>
+      <c r="A164" s="58"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="58"/>
       <c r="D164" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E164" s="55"/>
+      <c r="F164" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E164" s="68"/>
-      <c r="F164" s="18" t="s">
+      <c r="G164" s="29"/>
+      <c r="H164" s="59"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="58"/>
+      <c r="B165" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="G164" s="29"/>
-      <c r="H164" s="44"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="42"/>
-      <c r="B165" s="48" t="s">
+      <c r="C165" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="C165" s="48" t="s">
+      <c r="D165" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="E165" s="55"/>
+      <c r="F165" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E165" s="68"/>
-      <c r="F165" s="8" t="s">
+      <c r="G165" s="13"/>
+      <c r="H165" s="59"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A166" s="58"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="58"/>
+      <c r="D166" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="44"/>
-    </row>
-    <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="42"/>
-      <c r="B166" s="42"/>
-      <c r="C166" s="42"/>
-      <c r="D166" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="E166" s="32"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="44"/>
+      <c r="H166" s="59"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="42"/>
-      <c r="B167" s="42"/>
-      <c r="C167" s="42"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="58"/>
       <c r="D167" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E167" s="32"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="44"/>
+      <c r="H167" s="59"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
-      <c r="C168" s="42"/>
+      <c r="A168" s="58"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="58"/>
       <c r="D168" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E168" s="32"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="44"/>
+      <c r="H168" s="59"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="42"/>
-      <c r="B169" s="42"/>
-      <c r="C169" s="42"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
       <c r="D169" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E169" s="32"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="44"/>
+      <c r="H169" s="59"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="42"/>
-      <c r="B170" s="42"/>
-      <c r="C170" s="42"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E170" s="32"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="44"/>
+      <c r="H170" s="59"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
-      <c r="C171" s="42"/>
+      <c r="A171" s="58"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58"/>
       <c r="D171" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E171" s="68"/>
+        <v>278</v>
+      </c>
+      <c r="E171" s="55"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="44"/>
+      <c r="H171" s="59"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="42"/>
-      <c r="B172" s="42"/>
-      <c r="C172" s="42"/>
+      <c r="A172" s="58"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="58"/>
       <c r="D172" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E172" s="32"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="44"/>
+      <c r="H172" s="59"/>
     </row>
     <row r="173" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A173" s="42"/>
-      <c r="B173" s="42"/>
-      <c r="C173" s="48" t="s">
+      <c r="A173" s="58"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="E173" s="55"/>
+      <c r="F173" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E173" s="68"/>
-      <c r="F173" s="8" t="s">
+      <c r="G173" s="13"/>
+      <c r="H173" s="59"/>
+    </row>
+    <row r="174" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A174" s="58"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="G173" s="13"/>
-      <c r="H173" s="44"/>
-    </row>
-    <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="44"/>
+      <c r="H174" s="59"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="42"/>
-      <c r="B175" s="42"/>
-      <c r="C175" s="42"/>
+      <c r="A175" s="58"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
       <c r="D175" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="44"/>
+      <c r="H175" s="59"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="42"/>
-      <c r="B176" s="42"/>
-      <c r="C176" s="42"/>
+      <c r="A176" s="58"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
       <c r="D176" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E176" s="68"/>
+        <v>285</v>
+      </c>
+      <c r="E176" s="55"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="44"/>
+      <c r="H176" s="59"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="42"/>
-      <c r="B177" s="42"/>
-      <c r="C177" s="48" t="s">
+      <c r="A177" s="58"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E177" s="68"/>
+      <c r="E177" s="55"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="44"/>
+      <c r="H177" s="59"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="42"/>
-      <c r="B178" s="42"/>
-      <c r="C178" s="42"/>
+      <c r="A178" s="58"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58"/>
       <c r="D178" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="44"/>
+      <c r="H178" s="59"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="42"/>
-      <c r="B179" s="42"/>
-      <c r="C179" s="42"/>
+      <c r="A179" s="58"/>
+      <c r="B179" s="58"/>
+      <c r="C179" s="58"/>
       <c r="D179" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="44"/>
+      <c r="H179" s="59"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="42"/>
-      <c r="B180" s="42"/>
-      <c r="C180" s="48" t="s">
+      <c r="A180" s="58"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D180" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="44"/>
+      <c r="H180" s="59"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="42"/>
-      <c r="B181" s="42"/>
-      <c r="C181" s="42"/>
+      <c r="A181" s="58"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="58"/>
       <c r="D181" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E181" s="68"/>
+        <v>292</v>
+      </c>
+      <c r="E181" s="55"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="44"/>
+      <c r="H181" s="59"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="42"/>
-      <c r="B182" s="42"/>
-      <c r="C182" s="48" t="s">
+      <c r="A182" s="58"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E182" s="68"/>
+      <c r="E182" s="55"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="44"/>
+      <c r="H182" s="59"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="42"/>
-      <c r="B183" s="42"/>
-      <c r="C183" s="42"/>
+      <c r="A183" s="58"/>
+      <c r="B183" s="58"/>
+      <c r="C183" s="58"/>
       <c r="D183" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E183" s="32"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="44"/>
+      <c r="H183" s="59"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
-      <c r="C184" s="42"/>
+      <c r="A184" s="58"/>
+      <c r="B184" s="58"/>
+      <c r="C184" s="58"/>
       <c r="D184" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="44"/>
+      <c r="H184" s="59"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="42"/>
-      <c r="B185" s="48" t="s">
+      <c r="A185" s="58"/>
+      <c r="B185" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C185" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C185" s="48" t="s">
+      <c r="D185" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D185" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E185" s="68"/>
+      <c r="E185" s="55"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="44"/>
+      <c r="H185" s="59"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="42"/>
-      <c r="B186" s="42"/>
-      <c r="C186" s="42"/>
+      <c r="A186" s="58"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="58"/>
       <c r="D186" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="44"/>
+      <c r="H186" s="59"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="42"/>
-      <c r="C187" s="48" t="s">
+      <c r="A187" s="58"/>
+      <c r="B187" s="58"/>
+      <c r="C187" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="E187" s="55"/>
+      <c r="F187" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E187" s="68"/>
-      <c r="F187" s="8" t="s">
+      <c r="G187" s="13"/>
+      <c r="H187" s="59"/>
+    </row>
+    <row r="188" spans="1:8" ht="27" customHeight="1">
+      <c r="A188" s="58"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="58"/>
+      <c r="D188" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G187" s="13"/>
-      <c r="H187" s="44"/>
-    </row>
-    <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="42"/>
-      <c r="B188" s="42"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="5" t="s">
+      <c r="E188" s="55"/>
+      <c r="F188" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E188" s="68"/>
-      <c r="F188" s="8" t="s">
+      <c r="G188" s="13"/>
+      <c r="H188" s="59"/>
+    </row>
+    <row r="189" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A189" s="58"/>
+      <c r="B189" s="58"/>
+      <c r="C189" s="58"/>
+      <c r="D189" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="G188" s="13"/>
-      <c r="H188" s="44"/>
-    </row>
-    <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="42"/>
-      <c r="B189" s="42"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="44"/>
+      <c r="H189" s="59"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
-      <c r="C190" s="42"/>
+      <c r="A190" s="58"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="58"/>
       <c r="D190" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="44"/>
+      <c r="H190" s="59"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="42"/>
-      <c r="C191" s="42"/>
+      <c r="A191" s="58"/>
+      <c r="B191" s="58"/>
+      <c r="C191" s="58"/>
       <c r="D191" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="44"/>
+      <c r="H191" s="59"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="42"/>
-      <c r="B192" s="42"/>
-      <c r="C192" s="42"/>
+      <c r="A192" s="58"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="58"/>
       <c r="D192" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="44"/>
+      <c r="H192" s="59"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="42"/>
-      <c r="B193" s="42"/>
-      <c r="C193" s="42"/>
+      <c r="A193" s="58"/>
+      <c r="B193" s="58"/>
+      <c r="C193" s="58"/>
       <c r="D193" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E193" s="68"/>
+        <v>310</v>
+      </c>
+      <c r="E193" s="55"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="44"/>
+      <c r="H193" s="59"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="42"/>
-      <c r="B194" s="42"/>
-      <c r="C194" s="48" t="s">
+      <c r="A194" s="58"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E194" s="55"/>
+      <c r="F194" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E194" s="68"/>
-      <c r="F194" s="8" t="s">
+      <c r="G194" s="13"/>
+      <c r="H194" s="59"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
+      <c r="A195" s="58"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="58"/>
+      <c r="D195" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="44"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="42"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="5" t="s">
+      <c r="E195" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F195" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G195" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="H195" s="59"/>
+    </row>
+    <row r="196" spans="1:8" ht="27" customHeight="1">
+      <c r="A196" s="58"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E195" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="F195" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="G195" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="H195" s="44"/>
-    </row>
-    <row r="196" spans="1:8" ht="27" customHeight="1">
-      <c r="A196" s="42"/>
-      <c r="B196" s="42"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="5" t="s">
+      <c r="E196" s="55"/>
+      <c r="F196" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="E196" s="68"/>
-      <c r="F196" s="63" t="s">
+      <c r="G196" s="30"/>
+      <c r="H196" s="59"/>
+    </row>
+    <row r="197" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A197" s="58"/>
+      <c r="B197" s="58"/>
+      <c r="C197" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="G196" s="30"/>
-      <c r="H196" s="44"/>
-    </row>
-    <row r="197" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A197" s="42"/>
-      <c r="B197" s="42"/>
-      <c r="C197" s="48" t="s">
+      <c r="D197" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="44"/>
+      <c r="H197" s="59"/>
     </row>
     <row r="198" spans="1:8" ht="27" customHeight="1">
-      <c r="A198" s="42"/>
-      <c r="B198" s="42"/>
-      <c r="C198" s="42"/>
+      <c r="A198" s="58"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="58"/>
       <c r="D198" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="44"/>
+      <c r="H198" s="59"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="42"/>
-      <c r="C199" s="42"/>
+      <c r="A199" s="58"/>
+      <c r="B199" s="58"/>
+      <c r="C199" s="58"/>
       <c r="D199" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="44"/>
+      <c r="H199" s="59"/>
     </row>
     <row r="200" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A200" s="48" t="s">
+      <c r="A200" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="C200" s="58"/>
+      <c r="D200" s="62"/>
+      <c r="E200" s="62"/>
+      <c r="F200" s="62"/>
+      <c r="G200" s="62"/>
+      <c r="H200" s="59"/>
+    </row>
+    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
+      <c r="A201" s="58"/>
+      <c r="B201" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C200" s="42"/>
-      <c r="D200" s="43"/>
-      <c r="E200" s="43"/>
-      <c r="F200" s="43"/>
-      <c r="G200" s="43"/>
-      <c r="H200" s="44"/>
-    </row>
-    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="4" t="s">
+      <c r="C201" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="C201" s="45" t="s">
+      <c r="D201" s="67"/>
+      <c r="E201" s="62"/>
+      <c r="F201" s="67"/>
+      <c r="G201" s="67"/>
+      <c r="H201" s="68"/>
+    </row>
+    <row r="202" spans="1:8" ht="114.6" customHeight="1">
+      <c r="A202" s="58"/>
+      <c r="B202" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D201" s="46"/>
-      <c r="E201" s="43"/>
-      <c r="F201" s="46"/>
-      <c r="G201" s="46"/>
-      <c r="H201" s="47"/>
-    </row>
-    <row r="202" spans="1:8" ht="114.6" customHeight="1">
-      <c r="A202" s="42"/>
-      <c r="B202" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C202" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="D202" s="46"/>
-      <c r="E202" s="43"/>
-      <c r="F202" s="46"/>
-      <c r="G202" s="46"/>
-      <c r="H202" s="47"/>
+      <c r="C202" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D202" s="67"/>
+      <c r="E202" s="62"/>
+      <c r="F202" s="67"/>
+      <c r="G202" s="67"/>
+      <c r="H202" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
@@ -7093,6 +7138,46 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="B40:B56"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B95"/>
+    <mergeCell ref="B96:B118"/>
+    <mergeCell ref="B119:B164"/>
+    <mergeCell ref="B165:B184"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
     <mergeCell ref="C194:C196"/>
     <mergeCell ref="C197:C199"/>
     <mergeCell ref="H3:H39"/>
@@ -7109,46 +7194,6 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="C187:C193"/>
     <mergeCell ref="C151:C155"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="B40:B56"/>
-    <mergeCell ref="B57:B74"/>
-    <mergeCell ref="B75:B95"/>
-    <mergeCell ref="B96:B118"/>
-    <mergeCell ref="B119:B164"/>
-    <mergeCell ref="B165:B184"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="345">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -2689,6 +2689,10 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -3128,24 +3132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3154,6 +3140,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3166,6 +3161,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4323,8 +4327,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D111" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4340,16 +4344,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4378,13 +4382,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="67" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4397,12 +4401,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4415,12 +4419,12 @@
       <c r="G4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
@@ -4433,12 +4437,12 @@
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4451,12 +4455,12 @@
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
@@ -4467,12 +4471,12 @@
         <v>26</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="59"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -4483,12 +4487,12 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="141" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
@@ -4499,12 +4503,12 @@
         <v>326</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="59"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
@@ -4515,12 +4519,12 @@
         <v>31</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="59"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
@@ -4533,12 +4537,12 @@
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="57" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="67" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4553,12 +4557,12 @@
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4569,12 +4573,12 @@
         <v>40</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="59"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
@@ -4585,12 +4589,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="59"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
@@ -4601,12 +4605,12 @@
         <v>44</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="59"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
@@ -4619,12 +4623,12 @@
       <c r="G16" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="57" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="67" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -4635,12 +4639,12 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="59"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
@@ -4649,12 +4653,12 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="59"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
@@ -4665,12 +4669,12 @@
         <v>49</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="59"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
@@ -4681,12 +4685,12 @@
         <v>51</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
@@ -4697,12 +4701,12 @@
         <v>53</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="59"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
@@ -4711,12 +4715,12 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="59"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
@@ -4725,12 +4729,12 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="59"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
@@ -4739,12 +4743,12 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="59"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="57" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="67" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -4759,12 +4763,12 @@
       <c r="G25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
@@ -4773,12 +4777,12 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
@@ -4789,12 +4793,12 @@
         <v>63</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="59"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="8" t="s">
         <v>64</v>
       </c>
@@ -4803,12 +4807,12 @@
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="59"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="8" t="s">
         <v>65</v>
       </c>
@@ -4817,12 +4821,12 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="59"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
@@ -4831,12 +4835,12 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="59"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
@@ -4845,12 +4849,12 @@
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="59"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
@@ -4859,12 +4863,12 @@
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="59"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="57" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="67" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -4875,12 +4879,12 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="59"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
@@ -4891,12 +4895,12 @@
         <v>72</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
@@ -4905,12 +4909,12 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="59"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
@@ -4919,12 +4923,12 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="59"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
@@ -4935,12 +4939,12 @@
         <v>76</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="59"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="8" t="s">
         <v>77</v>
       </c>
@@ -4949,12 +4953,12 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="59"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
@@ -4965,14 +4969,14 @@
         <v>79</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="59"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="67" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -4983,12 +4987,12 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="59"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
@@ -4999,12 +5003,12 @@
         <v>84</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
@@ -5013,12 +5017,12 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="59"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
@@ -5029,12 +5033,12 @@
         <v>87</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="59"/>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
@@ -5043,12 +5047,12 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="59"/>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="57" t="s">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="67" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -5059,12 +5063,12 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="59"/>
+      <c r="H45" s="62"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
@@ -5075,12 +5079,12 @@
         <v>333</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="59"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="38" t="s">
         <v>334</v>
       </c>
@@ -5091,12 +5095,12 @@
         <v>335</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="59"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" ht="27" customHeight="1">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="38" t="s">
         <v>341</v>
       </c>
@@ -5105,12 +5109,12 @@
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="59"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="8" t="s">
         <v>92</v>
       </c>
@@ -5119,12 +5123,12 @@
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="62"/>
     </row>
     <row r="50" spans="1:8" ht="81" customHeight="1">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="5" t="s">
         <v>93</v>
       </c>
@@ -5135,36 +5139,36 @@
         <v>94</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="59"/>
+      <c r="H50" s="62"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="59"/>
+      <c r="H51" s="62"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="59"/>
+      <c r="H52" s="62"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="5" t="s">
         <v>97</v>
       </c>
@@ -5173,50 +5177,50 @@
         <v>98</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="59"/>
+      <c r="H53" s="62"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="59"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="59"/>
+      <c r="H56" s="62"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="58"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="60"/>
+      <c r="B57" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="67" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -5225,12 +5229,12 @@
       <c r="E57" s="32"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="59"/>
+      <c r="H57" s="62"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="5" t="s">
         <v>105</v>
       </c>
@@ -5239,24 +5243,24 @@
         <v>106</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="59"/>
+      <c r="H58" s="62"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="59"/>
+      <c r="H59" s="62"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="5" t="s">
         <v>108</v>
       </c>
@@ -5265,24 +5269,24 @@
         <v>109</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="59"/>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="8" t="s">
         <v>110</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="59"/>
+      <c r="H61" s="62"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="57" t="s">
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="67" t="s">
         <v>111</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -5293,108 +5297,108 @@
         <v>113</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="59"/>
+      <c r="H62" s="62"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="59"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="59"/>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="59"/>
+      <c r="H65" s="62"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="59"/>
+      <c r="H66" s="62"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="59"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="59"/>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="59"/>
+      <c r="H69" s="62"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="59"/>
+      <c r="H70" s="62"/>
     </row>
     <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="5" t="s">
         <v>122</v>
       </c>
@@ -5403,12 +5407,12 @@
         <v>123</v>
       </c>
       <c r="G71" s="22"/>
-      <c r="H71" s="59"/>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="57" t="s">
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="67" t="s">
         <v>124</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -5417,12 +5421,12 @@
       <c r="E72" s="32"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="59"/>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="5" t="s">
         <v>126</v>
       </c>
@@ -5431,26 +5435,26 @@
         <v>127</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="59"/>
+      <c r="H73" s="62"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="59"/>
+      <c r="H74" s="62"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="58"/>
-      <c r="B75" s="57" t="s">
+      <c r="A75" s="60"/>
+      <c r="B75" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="67" t="s">
         <v>130</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -5459,12 +5463,12 @@
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="59"/>
+      <c r="H75" s="62"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="5" t="s">
         <v>132</v>
       </c>
@@ -5473,90 +5477,98 @@
         <v>133</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="59"/>
+      <c r="H76" s="62"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="59"/>
+      <c r="H77" s="62"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
       <c r="D78" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="32"/>
+      <c r="E78" s="53" t="s">
+        <v>344</v>
+      </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="59"/>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="58"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="55"/>
+      <c r="E79" s="54" t="s">
+        <v>344</v>
+      </c>
       <c r="F79" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G79" s="13"/>
-      <c r="H79" s="59"/>
+      <c r="H79" s="62"/>
     </row>
     <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="58"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="57" t="s">
+      <c r="A80" s="60"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="67" t="s">
         <v>138</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="32"/>
+      <c r="E80" s="53" t="s">
+        <v>344</v>
+      </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="59"/>
+      <c r="H80" s="62"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="58"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="58"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="8" t="s">
         <v>140</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="59"/>
+      <c r="H81" s="62"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="58"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E82" s="55"/>
+      <c r="E82" s="54" t="s">
+        <v>344</v>
+      </c>
       <c r="F82" s="8" t="s">
         <v>142</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="59"/>
+      <c r="H82" s="62"/>
     </row>
     <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="58"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="5" t="s">
         <v>143</v>
       </c>
@@ -5565,48 +5577,48 @@
         <v>144</v>
       </c>
       <c r="G83" s="23"/>
-      <c r="H83" s="59"/>
+      <c r="H83" s="62"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="59"/>
+      <c r="H84" s="62"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="58"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="59"/>
+      <c r="H85" s="62"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="59"/>
+      <c r="H86" s="62"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="58"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="57" t="s">
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="67" t="s">
         <v>148</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -5615,12 +5627,12 @@
       <c r="E87" s="32"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="59"/>
+      <c r="H87" s="62"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="5" t="s">
         <v>150</v>
       </c>
@@ -5629,36 +5641,36 @@
         <v>151</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="59"/>
+      <c r="H88" s="62"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="58"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="59"/>
+      <c r="H89" s="62"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="60"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="68"/>
       <c r="D90" s="8" t="s">
         <v>153</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="59"/>
+      <c r="H90" s="62"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="58"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="57" t="s">
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="67" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -5667,12 +5679,12 @@
       <c r="E91" s="32"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="59"/>
+      <c r="H91" s="62"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
       <c r="D92" s="5" t="s">
         <v>156</v>
       </c>
@@ -5683,36 +5695,36 @@
       <c r="G92" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="H92" s="59"/>
+      <c r="H92" s="62"/>
     </row>
     <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="58"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="59"/>
+      <c r="H93" s="62"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="59"/>
+      <c r="H94" s="62"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
       <c r="D95" s="5" t="s">
         <v>161</v>
       </c>
@@ -5723,14 +5735,14 @@
       <c r="G95" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H95" s="59"/>
+      <c r="H95" s="62"/>
     </row>
     <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="58"/>
-      <c r="B96" s="57" t="s">
+      <c r="A96" s="60"/>
+      <c r="B96" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="61" t="s">
+      <c r="C96" s="69" t="s">
         <v>165</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -5739,24 +5751,24 @@
       <c r="E96" s="32"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="59"/>
+      <c r="H96" s="62"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="58"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="62"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="61"/>
       <c r="D97" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="59"/>
+      <c r="H97" s="62"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="58"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="62"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="61"/>
       <c r="D98" s="5" t="s">
         <v>168</v>
       </c>
@@ -5765,72 +5777,72 @@
         <v>169</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="59"/>
+      <c r="H98" s="62"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="58"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="62"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="61"/>
       <c r="D99" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="59"/>
+      <c r="H99" s="62"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="58"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="62"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="61"/>
       <c r="D100" s="8" t="s">
         <v>171</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="59"/>
+      <c r="H100" s="62"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="58"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="62"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="61"/>
       <c r="D101" s="8" t="s">
         <v>172</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="59"/>
+      <c r="H101" s="62"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="58"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="62"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="61"/>
       <c r="D102" s="8" t="s">
         <v>173</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="59"/>
+      <c r="H102" s="62"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="58"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="62"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="61"/>
       <c r="D103" s="8" t="s">
         <v>174</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="59"/>
+      <c r="H103" s="62"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="58"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="62"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="61"/>
       <c r="D104" s="5" t="s">
         <v>175</v>
       </c>
@@ -5839,12 +5851,12 @@
         <v>176</v>
       </c>
       <c r="G104" s="13"/>
-      <c r="H104" s="59"/>
+      <c r="H104" s="62"/>
     </row>
     <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="58"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="57" t="s">
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="67" t="s">
         <v>177</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -5853,24 +5865,24 @@
       <c r="E105" s="32"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="59"/>
+      <c r="H105" s="62"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="58"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
       <c r="D106" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="59"/>
+      <c r="H106" s="62"/>
     </row>
     <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="58"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="5" t="s">
         <v>180</v>
       </c>
@@ -5879,60 +5891,60 @@
         <v>181</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="59"/>
+      <c r="H107" s="62"/>
     </row>
     <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="58"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
       <c r="D108" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="59"/>
+      <c r="H108" s="62"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="58"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
       <c r="D109" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="59"/>
+      <c r="H109" s="62"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="58"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
       <c r="D110" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="59"/>
+      <c r="H110" s="62"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="58"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
       <c r="D111" s="8" t="s">
         <v>185</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="59"/>
+      <c r="H111" s="62"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="58"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
+      <c r="A112" s="60"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="60"/>
       <c r="D112" s="5" t="s">
         <v>186</v>
       </c>
@@ -5941,24 +5953,24 @@
         <v>187</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="59"/>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="58"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
+      <c r="A113" s="60"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
       <c r="D113" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="59"/>
+      <c r="H113" s="62"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="58"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="57" t="s">
+      <c r="A114" s="60"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="67" t="s">
         <v>189</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -5967,36 +5979,36 @@
       <c r="E114" s="32"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="59"/>
+      <c r="H114" s="62"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="58"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
       <c r="D115" s="5" t="s">
         <v>191</v>
       </c>
       <c r="E115" s="55"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="59"/>
+      <c r="H115" s="62"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="58"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
       <c r="D116" s="8" t="s">
         <v>192</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="59"/>
+      <c r="H116" s="62"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="58"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="58"/>
+      <c r="A117" s="60"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
       <c r="D117" s="5" t="s">
         <v>193</v>
       </c>
@@ -6005,42 +6017,44 @@
         <v>194</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="59"/>
+      <c r="H117" s="62"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="58"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="8" t="s">
         <v>195</v>
       </c>
       <c r="E118" s="32"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="59"/>
+      <c r="H118" s="62"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="58"/>
-      <c r="B119" s="57" t="s">
+      <c r="A119" s="60"/>
+      <c r="B119" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="C119" s="57" t="s">
+      <c r="C119" s="67" t="s">
         <v>197</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E119" s="55"/>
+      <c r="E119" s="54" t="s">
+        <v>344</v>
+      </c>
       <c r="F119" s="8" t="s">
         <v>199</v>
       </c>
       <c r="G119" s="13"/>
-      <c r="H119" s="59"/>
+      <c r="H119" s="62"/>
     </row>
     <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="58"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
       <c r="D120" s="5" t="s">
         <v>200</v>
       </c>
@@ -6049,26 +6063,28 @@
         <v>201</v>
       </c>
       <c r="G120" s="13"/>
-      <c r="H120" s="59"/>
+      <c r="H120" s="62"/>
     </row>
     <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="58"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
       <c r="D121" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E121" s="55"/>
+      <c r="E121" s="54" t="s">
+        <v>344</v>
+      </c>
       <c r="F121" s="8" t="s">
         <v>203</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" s="59"/>
+      <c r="H121" s="62"/>
     </row>
     <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="58"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="57" t="s">
+      <c r="A122" s="60"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="67" t="s">
         <v>204</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -6077,12 +6093,12 @@
       <c r="E122" s="32"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="59"/>
+      <c r="H122" s="62"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="58"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
       <c r="D123" s="5" t="s">
         <v>206</v>
       </c>
@@ -6091,36 +6107,36 @@
         <v>207</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="59"/>
+      <c r="H123" s="62"/>
     </row>
     <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="58"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="60"/>
       <c r="D124" s="8" t="s">
         <v>208</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="59"/>
+      <c r="H124" s="62"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="58"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
+      <c r="A125" s="60"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="60"/>
       <c r="D125" s="8" t="s">
         <v>209</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="59"/>
+      <c r="H125" s="62"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="58"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="57" t="s">
+      <c r="A126" s="60"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="67" t="s">
         <v>210</v>
       </c>
       <c r="D126" s="8" t="s">
@@ -6129,12 +6145,12 @@
       <c r="E126" s="32"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="59"/>
+      <c r="H126" s="62"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="58"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="60"/>
       <c r="D127" s="5" t="s">
         <v>212</v>
       </c>
@@ -6143,36 +6159,36 @@
         <v>213</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="59"/>
+      <c r="H127" s="62"/>
     </row>
     <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="58"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="60"/>
       <c r="D128" s="8" t="s">
         <v>214</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="59"/>
+      <c r="H128" s="62"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="58"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
       <c r="D129" s="8" t="s">
         <v>215</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="59"/>
+      <c r="H129" s="62"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="58"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58"/>
+      <c r="A130" s="60"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="60"/>
       <c r="D130" s="5" t="s">
         <v>216</v>
       </c>
@@ -6181,60 +6197,60 @@
         <v>217</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="59"/>
+      <c r="H130" s="62"/>
     </row>
     <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="58"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="60"/>
       <c r="D131" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="59"/>
+      <c r="H131" s="62"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="58"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58"/>
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
       <c r="D132" s="8" t="s">
         <v>219</v>
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="59"/>
+      <c r="H132" s="62"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="58"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
       <c r="D133" s="8" t="s">
         <v>220</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="59"/>
+      <c r="H133" s="62"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="58"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
       <c r="D134" s="8" t="s">
         <v>221</v>
       </c>
       <c r="E134" s="32"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="59"/>
+      <c r="H134" s="62"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="58"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
       <c r="D135" s="5" t="s">
         <v>222</v>
       </c>
@@ -6243,24 +6259,24 @@
         <v>223</v>
       </c>
       <c r="G135" s="13"/>
-      <c r="H135" s="59"/>
+      <c r="H135" s="62"/>
     </row>
     <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="58"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="60"/>
       <c r="D136" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="59"/>
+      <c r="H136" s="62"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="58"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="60"/>
       <c r="D137" s="5" t="s">
         <v>225</v>
       </c>
@@ -6269,12 +6285,12 @@
         <v>226</v>
       </c>
       <c r="G137" s="26"/>
-      <c r="H137" s="59"/>
+      <c r="H137" s="62"/>
     </row>
     <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="58"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
+      <c r="A138" s="60"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="60"/>
       <c r="D138" s="5" t="s">
         <v>227</v>
       </c>
@@ -6283,12 +6299,12 @@
         <v>228</v>
       </c>
       <c r="G138" s="13"/>
-      <c r="H138" s="59"/>
+      <c r="H138" s="62"/>
     </row>
     <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="58"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="57" t="s">
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="67" t="s">
         <v>229</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -6299,24 +6315,24 @@
         <v>231</v>
       </c>
       <c r="G139" s="7"/>
-      <c r="H139" s="59"/>
+      <c r="H139" s="62"/>
     </row>
     <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="58"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
+      <c r="A140" s="60"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
       <c r="D140" s="8" t="s">
         <v>232</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="59"/>
+      <c r="H140" s="62"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="58"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58"/>
+      <c r="A141" s="60"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
       <c r="D141" s="5" t="s">
         <v>233</v>
       </c>
@@ -6325,12 +6341,12 @@
         <v>234</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="59"/>
+      <c r="H141" s="62"/>
     </row>
     <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="58"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="58"/>
+      <c r="A142" s="60"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="60"/>
       <c r="D142" s="5" t="s">
         <v>235</v>
       </c>
@@ -6339,24 +6355,24 @@
         <v>236</v>
       </c>
       <c r="G142" s="27"/>
-      <c r="H142" s="59"/>
+      <c r="H142" s="62"/>
     </row>
     <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="58"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58"/>
+      <c r="A143" s="60"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="60"/>
       <c r="D143" s="8" t="s">
         <v>237</v>
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
-      <c r="H143" s="59"/>
+      <c r="H143" s="62"/>
     </row>
     <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="58"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="57" t="s">
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="67" t="s">
         <v>238</v>
       </c>
       <c r="D144" s="8" t="s">
@@ -6365,12 +6381,12 @@
       <c r="E144" s="32"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="59"/>
+      <c r="H144" s="62"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="58"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
       <c r="D145" s="5" t="s">
         <v>240</v>
       </c>
@@ -6379,72 +6395,72 @@
         <v>241</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="59"/>
+      <c r="H145" s="62"/>
     </row>
     <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="58"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
+      <c r="A146" s="60"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
       <c r="D146" s="8" t="s">
         <v>242</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="59"/>
+      <c r="H146" s="62"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="58"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
       <c r="D147" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="59"/>
+      <c r="H147" s="62"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="58"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
+      <c r="A148" s="60"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
       <c r="D148" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="59"/>
+      <c r="H148" s="62"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="58"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58"/>
+      <c r="A149" s="60"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="60"/>
       <c r="D149" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="59"/>
+      <c r="H149" s="62"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="58"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
       <c r="D150" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="59"/>
+      <c r="H150" s="62"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="58"/>
-      <c r="B151" s="58"/>
-      <c r="C151" s="57" t="s">
+      <c r="A151" s="60"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="67" t="s">
         <v>247</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -6455,12 +6471,12 @@
         <v>249</v>
       </c>
       <c r="G151" s="13"/>
-      <c r="H151" s="59"/>
+      <c r="H151" s="62"/>
     </row>
     <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="58"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
+      <c r="A152" s="60"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
       <c r="D152" s="5" t="s">
         <v>250</v>
       </c>
@@ -6469,24 +6485,24 @@
         <v>251</v>
       </c>
       <c r="G152" s="28"/>
-      <c r="H152" s="59"/>
+      <c r="H152" s="62"/>
     </row>
     <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="58"/>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
+      <c r="A153" s="60"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
       <c r="D153" s="8" t="s">
         <v>252</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="59"/>
+      <c r="H153" s="62"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="58"/>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
+      <c r="A154" s="60"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
       <c r="D154" s="5" t="s">
         <v>253</v>
       </c>
@@ -6495,24 +6511,24 @@
         <v>254</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="59"/>
+      <c r="H154" s="62"/>
     </row>
     <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="58"/>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
+      <c r="A155" s="60"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
       <c r="D155" s="8" t="s">
         <v>255</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="59"/>
+      <c r="H155" s="62"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="58"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="57" t="s">
+      <c r="A156" s="60"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="67" t="s">
         <v>256</v>
       </c>
       <c r="D156" s="8" t="s">
@@ -6521,60 +6537,60 @@
       <c r="E156" s="32"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="59"/>
+      <c r="H156" s="62"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="58"/>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
       <c r="D157" s="5" t="s">
         <v>258</v>
       </c>
       <c r="E157" s="55"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="59"/>
+      <c r="H157" s="62"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="58"/>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
       <c r="D158" s="8" t="s">
         <v>259</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="59"/>
+      <c r="H158" s="62"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="58"/>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
       <c r="D159" s="8" t="s">
         <v>260</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="59"/>
+      <c r="H159" s="62"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="58"/>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
       <c r="D160" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E160" s="55"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="59"/>
+      <c r="H160" s="62"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="58"/>
-      <c r="B161" s="58"/>
-      <c r="C161" s="57" t="s">
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="67" t="s">
         <v>262</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -6585,36 +6601,36 @@
         <v>264</v>
       </c>
       <c r="G161" s="13"/>
-      <c r="H161" s="59"/>
+      <c r="H161" s="62"/>
     </row>
     <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="58"/>
-      <c r="B162" s="58"/>
-      <c r="C162" s="58"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
       <c r="D162" s="8" t="s">
         <v>265</v>
       </c>
       <c r="E162" s="32"/>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="59"/>
+      <c r="H162" s="62"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="58"/>
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
       <c r="D163" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="59"/>
+      <c r="H163" s="62"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="58"/>
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
       <c r="D164" s="5" t="s">
         <v>267</v>
       </c>
@@ -6623,14 +6639,14 @@
         <v>268</v>
       </c>
       <c r="G164" s="29"/>
-      <c r="H164" s="59"/>
+      <c r="H164" s="62"/>
     </row>
     <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="58"/>
-      <c r="B165" s="57" t="s">
+      <c r="A165" s="60"/>
+      <c r="B165" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="C165" s="57" t="s">
+      <c r="C165" s="67" t="s">
         <v>270</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -6641,96 +6657,96 @@
         <v>272</v>
       </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="59"/>
+      <c r="H165" s="62"/>
     </row>
     <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="58"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
       <c r="D166" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E166" s="32"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="59"/>
+      <c r="H166" s="62"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="58"/>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
+      <c r="A167" s="60"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
       <c r="D167" s="8" t="s">
         <v>274</v>
       </c>
       <c r="E167" s="32"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="59"/>
+      <c r="H167" s="62"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="58"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
+      <c r="A168" s="60"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
       <c r="D168" s="8" t="s">
         <v>275</v>
       </c>
       <c r="E168" s="32"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="59"/>
+      <c r="H168" s="62"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="58"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
       <c r="D169" s="8" t="s">
         <v>276</v>
       </c>
       <c r="E169" s="32"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="59"/>
+      <c r="H169" s="62"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="58"/>
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
+      <c r="A170" s="60"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="60"/>
       <c r="D170" s="8" t="s">
         <v>277</v>
       </c>
       <c r="E170" s="32"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="59"/>
+      <c r="H170" s="62"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="58"/>
-      <c r="B171" s="58"/>
-      <c r="C171" s="58"/>
+      <c r="A171" s="60"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="60"/>
       <c r="D171" s="5" t="s">
         <v>278</v>
       </c>
       <c r="E171" s="55"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="59"/>
+      <c r="H171" s="62"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="58"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
+      <c r="A172" s="60"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
       <c r="D172" s="8" t="s">
         <v>279</v>
       </c>
       <c r="E172" s="32"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="59"/>
+      <c r="H172" s="62"/>
     </row>
     <row r="173" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A173" s="58"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="57" t="s">
+      <c r="A173" s="60"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="67" t="s">
         <v>280</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -6741,48 +6757,48 @@
         <v>282</v>
       </c>
       <c r="G173" s="13"/>
-      <c r="H173" s="59"/>
+      <c r="H173" s="62"/>
     </row>
     <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="58"/>
-      <c r="B174" s="58"/>
-      <c r="C174" s="58"/>
+      <c r="A174" s="60"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
       <c r="D174" s="8" t="s">
         <v>283</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="59"/>
+      <c r="H174" s="62"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="58"/>
-      <c r="B175" s="58"/>
-      <c r="C175" s="58"/>
+      <c r="A175" s="60"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
       <c r="D175" s="8" t="s">
         <v>284</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="59"/>
+      <c r="H175" s="62"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="58"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
+      <c r="A176" s="60"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
       <c r="D176" s="5" t="s">
         <v>285</v>
       </c>
       <c r="E176" s="55"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="59"/>
+      <c r="H176" s="62"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="58"/>
-      <c r="B177" s="58"/>
-      <c r="C177" s="57" t="s">
+      <c r="A177" s="60"/>
+      <c r="B177" s="60"/>
+      <c r="C177" s="67" t="s">
         <v>286</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -6791,36 +6807,36 @@
       <c r="E177" s="55"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="59"/>
+      <c r="H177" s="62"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="58"/>
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
+      <c r="A178" s="60"/>
+      <c r="B178" s="60"/>
+      <c r="C178" s="60"/>
       <c r="D178" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="59"/>
+      <c r="H178" s="62"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="58"/>
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
+      <c r="A179" s="60"/>
+      <c r="B179" s="60"/>
+      <c r="C179" s="60"/>
       <c r="D179" s="8" t="s">
         <v>289</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="59"/>
+      <c r="H179" s="62"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="58"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="57" t="s">
+      <c r="A180" s="60"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="67" t="s">
         <v>290</v>
       </c>
       <c r="D180" s="8" t="s">
@@ -6829,24 +6845,24 @@
       <c r="E180" s="32"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="59"/>
+      <c r="H180" s="62"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="58"/>
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
+      <c r="A181" s="60"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="60"/>
       <c r="D181" s="5" t="s">
         <v>292</v>
       </c>
       <c r="E181" s="55"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="59"/>
+      <c r="H181" s="62"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="58"/>
-      <c r="B182" s="58"/>
-      <c r="C182" s="57" t="s">
+      <c r="A182" s="60"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="67" t="s">
         <v>293</v>
       </c>
       <c r="D182" s="5" t="s">
@@ -6855,38 +6871,38 @@
       <c r="E182" s="55"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="59"/>
+      <c r="H182" s="62"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="58"/>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
+      <c r="A183" s="60"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="60"/>
       <c r="D183" s="8" t="s">
         <v>295</v>
       </c>
       <c r="E183" s="32"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="59"/>
+      <c r="H183" s="62"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="58"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="58"/>
+      <c r="A184" s="60"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="60"/>
       <c r="D184" s="8" t="s">
         <v>296</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="59"/>
+      <c r="H184" s="62"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="58"/>
-      <c r="B185" s="57" t="s">
+      <c r="A185" s="60"/>
+      <c r="B185" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="C185" s="57" t="s">
+      <c r="C185" s="67" t="s">
         <v>298</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -6895,24 +6911,24 @@
       <c r="E185" s="55"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="59"/>
+      <c r="H185" s="62"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="58"/>
-      <c r="B186" s="58"/>
-      <c r="C186" s="58"/>
+      <c r="A186" s="60"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="60"/>
       <c r="D186" s="8" t="s">
         <v>300</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="59"/>
+      <c r="H186" s="62"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="58"/>
-      <c r="B187" s="58"/>
-      <c r="C187" s="57" t="s">
+      <c r="A187" s="60"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="67" t="s">
         <v>301</v>
       </c>
       <c r="D187" s="5" t="s">
@@ -6923,12 +6939,12 @@
         <v>303</v>
       </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="59"/>
+      <c r="H187" s="62"/>
     </row>
     <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="58"/>
-      <c r="B188" s="58"/>
-      <c r="C188" s="58"/>
+      <c r="A188" s="60"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="60"/>
       <c r="D188" s="5" t="s">
         <v>304</v>
       </c>
@@ -6937,72 +6953,72 @@
         <v>305</v>
       </c>
       <c r="G188" s="13"/>
-      <c r="H188" s="59"/>
+      <c r="H188" s="62"/>
     </row>
     <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="58"/>
-      <c r="B189" s="58"/>
-      <c r="C189" s="58"/>
+      <c r="A189" s="60"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="60"/>
       <c r="D189" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="59"/>
+      <c r="H189" s="62"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="58"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
+      <c r="A190" s="60"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="60"/>
       <c r="D190" s="8" t="s">
         <v>307</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="59"/>
+      <c r="H190" s="62"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="58"/>
-      <c r="B191" s="58"/>
-      <c r="C191" s="58"/>
+      <c r="A191" s="60"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="60"/>
       <c r="D191" s="8" t="s">
         <v>308</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="59"/>
+      <c r="H191" s="62"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="58"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
+      <c r="A192" s="60"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="60"/>
       <c r="D192" s="8" t="s">
         <v>309</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="59"/>
+      <c r="H192" s="62"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="58"/>
-      <c r="B193" s="58"/>
-      <c r="C193" s="58"/>
+      <c r="A193" s="60"/>
+      <c r="B193" s="60"/>
+      <c r="C193" s="60"/>
       <c r="D193" s="5" t="s">
         <v>310</v>
       </c>
       <c r="E193" s="55"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="59"/>
+      <c r="H193" s="62"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="58"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="57" t="s">
+      <c r="A194" s="60"/>
+      <c r="B194" s="60"/>
+      <c r="C194" s="67" t="s">
         <v>311</v>
       </c>
       <c r="D194" s="5" t="s">
@@ -7013,12 +7029,12 @@
         <v>313</v>
       </c>
       <c r="G194" s="13"/>
-      <c r="H194" s="59"/>
+      <c r="H194" s="62"/>
     </row>
     <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
-      <c r="A195" s="58"/>
-      <c r="B195" s="58"/>
-      <c r="C195" s="58"/>
+      <c r="A195" s="60"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="60"/>
       <c r="D195" s="5" t="s">
         <v>314</v>
       </c>
@@ -7031,12 +7047,12 @@
       <c r="G195" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="H195" s="59"/>
+      <c r="H195" s="62"/>
     </row>
     <row r="196" spans="1:8" ht="27" customHeight="1">
-      <c r="A196" s="58"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
+      <c r="A196" s="60"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="60"/>
       <c r="D196" s="5" t="s">
         <v>315</v>
       </c>
@@ -7045,12 +7061,12 @@
         <v>316</v>
       </c>
       <c r="G196" s="30"/>
-      <c r="H196" s="59"/>
+      <c r="H196" s="62"/>
     </row>
     <row r="197" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A197" s="58"/>
-      <c r="B197" s="58"/>
-      <c r="C197" s="57" t="s">
+      <c r="A197" s="60"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="67" t="s">
         <v>317</v>
       </c>
       <c r="D197" s="8" t="s">
@@ -7059,73 +7075,73 @@
       <c r="E197" s="32"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="59"/>
+      <c r="H197" s="62"/>
     </row>
     <row r="198" spans="1:8" ht="27" customHeight="1">
-      <c r="A198" s="58"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="58"/>
+      <c r="A198" s="60"/>
+      <c r="B198" s="60"/>
+      <c r="C198" s="60"/>
       <c r="D198" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="59"/>
+      <c r="H198" s="62"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="58"/>
-      <c r="B199" s="58"/>
-      <c r="C199" s="58"/>
+      <c r="A199" s="60"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="60"/>
       <c r="D199" s="8" t="s">
         <v>320</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="59"/>
+      <c r="H199" s="62"/>
     </row>
     <row r="200" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A200" s="57" t="s">
+      <c r="A200" s="67" t="s">
         <v>321</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C200" s="58"/>
-      <c r="D200" s="62"/>
-      <c r="E200" s="62"/>
-      <c r="F200" s="62"/>
-      <c r="G200" s="62"/>
-      <c r="H200" s="59"/>
+      <c r="C200" s="60"/>
+      <c r="D200" s="61"/>
+      <c r="E200" s="61"/>
+      <c r="F200" s="61"/>
+      <c r="G200" s="61"/>
+      <c r="H200" s="62"/>
     </row>
     <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A201" s="58"/>
+      <c r="A201" s="60"/>
       <c r="B201" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C201" s="66" t="s">
+      <c r="C201" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="D201" s="67"/>
-      <c r="E201" s="62"/>
-      <c r="F201" s="67"/>
-      <c r="G201" s="67"/>
-      <c r="H201" s="68"/>
+      <c r="D201" s="64"/>
+      <c r="E201" s="61"/>
+      <c r="F201" s="64"/>
+      <c r="G201" s="64"/>
+      <c r="H201" s="65"/>
     </row>
     <row r="202" spans="1:8" ht="114.6" customHeight="1">
-      <c r="A202" s="58"/>
+      <c r="A202" s="60"/>
       <c r="B202" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C202" s="69" t="s">
+      <c r="C202" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="D202" s="67"/>
-      <c r="E202" s="62"/>
-      <c r="F202" s="67"/>
-      <c r="G202" s="67"/>
-      <c r="H202" s="68"/>
+      <c r="D202" s="64"/>
+      <c r="E202" s="61"/>
+      <c r="F202" s="64"/>
+      <c r="G202" s="64"/>
+      <c r="H202" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
@@ -7138,6 +7154,46 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="H3:H39"/>
+    <mergeCell ref="H40:H56"/>
+    <mergeCell ref="H57:H74"/>
+    <mergeCell ref="H75:H95"/>
+    <mergeCell ref="H96:H118"/>
+    <mergeCell ref="H119:H164"/>
+    <mergeCell ref="H165:H184"/>
+    <mergeCell ref="H185:H199"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C193"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C201:H201"/>
@@ -7154,46 +7210,6 @@
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="H3:H39"/>
-    <mergeCell ref="H40:H56"/>
-    <mergeCell ref="H57:H74"/>
-    <mergeCell ref="H75:H95"/>
-    <mergeCell ref="H96:H118"/>
-    <mergeCell ref="H119:H164"/>
-    <mergeCell ref="H165:H184"/>
-    <mergeCell ref="H185:H199"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C193"/>
-    <mergeCell ref="C151:C155"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="347">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -680,9 +680,6 @@
     <t>引擎 DFA、NFA， 使用字符组代替分支条件、优化选择最左端的匹配结果、标准量词是匹配优先的</t>
   </si>
   <si>
-    <t>如何将JavaScript代码解析成抽象语法树(AST)</t>
-  </si>
-  <si>
     <t>base64的编码原理</t>
   </si>
   <si>
@@ -699,9 +696,6 @@
   </si>
   <si>
     <t>应用层、传输层、互连网络层、网络接口层</t>
-  </si>
-  <si>
-    <t>三次握手和四次挥手详细原理，为什么要使用这种机制</t>
   </si>
   <si>
     <t>有哪些协议是可靠，TCP有哪些手段保证可靠交付</t>
@@ -2693,6 +2687,57 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码解析成抽象语法树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(AST)</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>三次握手和四次挥手详细原理，为什么要使用这种机制</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -2964,7 +3009,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3132,6 +3177,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3140,15 +3203,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3162,14 +3216,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4327,8 +4375,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D111" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C196" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4344,16 +4392,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4382,13 +4430,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4401,12 +4449,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="62"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4414,17 +4462,17 @@
         <v>16</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="62"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
@@ -4437,12 +4485,12 @@
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="62"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4455,12 +4503,12 @@
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
@@ -4471,12 +4519,12 @@
         <v>26</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="62"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -4487,12 +4535,12 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="62"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:8" ht="141" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
@@ -4500,15 +4548,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="62"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
@@ -4519,12 +4567,12 @@
         <v>31</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
@@ -4537,12 +4585,12 @@
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="67" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4557,12 +4605,12 @@
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="62"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4573,12 +4621,12 @@
         <v>40</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="62"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
@@ -4589,12 +4637,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="62"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
@@ -4605,12 +4653,12 @@
         <v>44</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="62"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
@@ -4618,144 +4666,144 @@
         <v>16</v>
       </c>
       <c r="F16" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="E17" s="35" t="s">
         <v>327</v>
-      </c>
-      <c r="H16" s="62"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>329</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="62"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="62"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="62"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="62"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="62"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="62"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="62"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="62"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="67" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="57" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>59</v>
@@ -4763,412 +4811,412 @@
       <c r="G25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="62"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="62"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="62"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="62"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="62"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="62"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="62"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="67" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="57" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="62"/>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="62"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="62"/>
+      <c r="H35" s="59"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="62"/>
+      <c r="H36" s="59"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="62"/>
+      <c r="H37" s="59"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="62"/>
+      <c r="H38" s="59"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="62"/>
+      <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A40" s="60"/>
-      <c r="B40" s="67" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="57" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="62"/>
+      <c r="H40" s="59"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="62"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="62"/>
+      <c r="H42" s="59"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F43" s="43" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="62"/>
+      <c r="H43" s="59"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="62"/>
+      <c r="H44" s="59"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="67" t="s">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="57" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="62"/>
+      <c r="H45" s="59"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F46" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="62"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>335</v>
-      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="62"/>
+      <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:8" ht="27" customHeight="1">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="62"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="62"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="81" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="62"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="62"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="62"/>
+      <c r="H52" s="59"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="5" t="s">
         <v>97</v>
       </c>
@@ -5177,50 +5225,50 @@
         <v>98</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="62"/>
+      <c r="H53" s="59"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="62"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="62"/>
+      <c r="H55" s="59"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="62"/>
+      <c r="H56" s="59"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="60"/>
-      <c r="B57" s="67" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="57" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -5229,12 +5277,12 @@
       <c r="E57" s="32"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="62"/>
+      <c r="H57" s="59"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="5" t="s">
         <v>105</v>
       </c>
@@ -5243,1905 +5291,1917 @@
         <v>106</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="62"/>
+      <c r="H58" s="59"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="8" t="s">
-        <v>107</v>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="38" t="s">
+        <v>343</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="62"/>
+      <c r="H59" s="59"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="8" t="s">
+      <c r="G60" s="13"/>
+      <c r="H60" s="59"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="62"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="62"/>
+      <c r="H61" s="59"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="67" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="E62" s="55"/>
       <c r="F62" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="62"/>
+      <c r="H62" s="59"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="8" t="s">
-        <v>114</v>
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="70" t="s">
+        <v>345</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="62"/>
+      <c r="H63" s="59"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="62"/>
+      <c r="H64" s="59"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
       <c r="D65" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="62"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
       <c r="D66" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="62"/>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
       <c r="D67" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="32"/>
+        <v>116</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>346</v>
+      </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="62"/>
+      <c r="H67" s="59"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
       <c r="D68" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E68" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>346</v>
+      </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="62"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
       <c r="D69" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="62"/>
+      <c r="H69" s="59"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="32"/>
+        <v>119</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>344</v>
+      </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="62"/>
+      <c r="H70" s="59"/>
     </row>
     <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="22"/>
+      <c r="H71" s="59"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="55"/>
-      <c r="F71" s="45" t="s">
+      <c r="D72" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="62"/>
-    </row>
-    <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="62"/>
+      <c r="H72" s="59"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E73" s="55"/>
       <c r="F73" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="62"/>
+      <c r="H73" s="59"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="62"/>
+      <c r="H74" s="59"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="60"/>
-      <c r="B75" s="67" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="C75" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="62"/>
+      <c r="H75" s="59"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E76" s="55"/>
       <c r="F76" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="62"/>
+      <c r="H76" s="59"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>344</v>
+      </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="62"/>
+      <c r="H77" s="59"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E78" s="53" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="62"/>
+      <c r="H78" s="59"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="59"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="62"/>
-    </row>
-    <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="E80" s="53" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="62"/>
+      <c r="H80" s="59"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="58"/>
       <c r="D81" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="62"/>
+      <c r="H81" s="59"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="59"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="62"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E83" s="55"/>
       <c r="F83" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G83" s="23"/>
-      <c r="H83" s="62"/>
+      <c r="H83" s="59"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="62"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
       <c r="D85" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="62"/>
+      <c r="H85" s="59"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="60"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
       <c r="D86" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="62"/>
+      <c r="H86" s="59"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="60"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="67" t="s">
-        <v>148</v>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="57" t="s">
+        <v>146</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="62"/>
+      <c r="H87" s="59"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E88" s="55"/>
       <c r="F88" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="62"/>
+      <c r="H88" s="59"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="60"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
       <c r="D89" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="62"/>
+      <c r="H89" s="59"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="60"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="68"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="62"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="60"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="67" t="s">
-        <v>154</v>
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="57" t="s">
+        <v>152</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="62"/>
+      <c r="H91" s="59"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="60"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="60"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E92" s="55"/>
       <c r="F92" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" s="59"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="G92" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H92" s="62"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="60"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="62"/>
+      <c r="H93" s="59"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="60"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="62"/>
+      <c r="H94" s="59"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E95" s="55"/>
       <c r="F95" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H95" s="59"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="58"/>
+      <c r="B96" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="G95" s="25" t="s">
+      <c r="C96" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="H95" s="62"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="60"/>
-      <c r="B96" s="67" t="s">
+      <c r="D96" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C96" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="62"/>
+      <c r="H96" s="59"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="60"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="61"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="62"/>
       <c r="D97" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="62"/>
+      <c r="H97" s="59"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="61"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E98" s="55"/>
       <c r="F98" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="62"/>
+      <c r="H98" s="59"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="60"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="61"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="62"/>
       <c r="D99" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="62"/>
+      <c r="H99" s="59"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="61"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="62"/>
+      <c r="H100" s="59"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="60"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="61"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="62"/>
+      <c r="H101" s="59"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="60"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="61"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="62"/>
       <c r="D102" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="62"/>
+      <c r="H102" s="59"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="60"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="61"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="62"/>
       <c r="D103" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="62"/>
+      <c r="H103" s="59"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="60"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="61"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E104" s="55"/>
       <c r="F104" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="59"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="62"/>
-    </row>
-    <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="60"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="62"/>
+      <c r="H105" s="59"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="60"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="62"/>
+      <c r="H106" s="59"/>
     </row>
     <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="60"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E107" s="55"/>
       <c r="F107" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="62"/>
+      <c r="H107" s="59"/>
     </row>
     <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
       <c r="D108" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="62"/>
+      <c r="H108" s="59"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="60"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="60"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
       <c r="D109" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="62"/>
+      <c r="H109" s="59"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="60"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="60"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
       <c r="D110" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="62"/>
+      <c r="H110" s="59"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="60"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="58"/>
       <c r="D111" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="62"/>
+      <c r="H111" s="59"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="60"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
       <c r="D112" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E112" s="55"/>
       <c r="F112" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="62"/>
+      <c r="H112" s="59"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="60"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
       <c r="D113" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="62"/>
+      <c r="H113" s="59"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="60"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="67" t="s">
-        <v>189</v>
+      <c r="A114" s="58"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="57" t="s">
+        <v>187</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="62"/>
+      <c r="H114" s="59"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="60"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
       <c r="D115" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E115" s="55"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="62"/>
+      <c r="H115" s="59"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="60"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="62"/>
+      <c r="H116" s="59"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="60"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="58"/>
       <c r="D117" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E117" s="55"/>
       <c r="F117" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="62"/>
+      <c r="H117" s="59"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="60"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="60"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
       <c r="D118" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E118" s="32"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="62"/>
+      <c r="H118" s="59"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="60"/>
-      <c r="B119" s="67" t="s">
+      <c r="A119" s="58"/>
+      <c r="B119" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C119" s="67" t="s">
+      <c r="E119" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="G119" s="13"/>
+      <c r="H119" s="59"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="58"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="E119" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="62"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="60"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="E120" s="55"/>
       <c r="F120" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="59"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="58"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="62"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="60"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="5" t="s">
+      <c r="G121" s="13"/>
+      <c r="H121" s="59"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="58"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="E121" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="D122" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="62"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="60"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="62"/>
+      <c r="H122" s="59"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="60"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E123" s="55"/>
       <c r="F123" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="62"/>
+      <c r="H123" s="59"/>
     </row>
     <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="60"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="60"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="62"/>
+      <c r="H124" s="59"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="60"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="60"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="62"/>
+      <c r="H125" s="59"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="60"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="67" t="s">
-        <v>210</v>
+      <c r="A126" s="58"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="57" t="s">
+        <v>208</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="62"/>
+      <c r="H126" s="59"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="60"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E127" s="55"/>
       <c r="F127" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="62"/>
+      <c r="H127" s="59"/>
     </row>
     <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="60"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="60"/>
+      <c r="A128" s="58"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58"/>
       <c r="D128" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="62"/>
+      <c r="H128" s="59"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="60"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="60"/>
+      <c r="A129" s="58"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="62"/>
+      <c r="H129" s="59"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="60"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="60"/>
+      <c r="A130" s="58"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E130" s="55"/>
       <c r="F130" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="62"/>
+      <c r="H130" s="59"/>
     </row>
     <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="58"/>
       <c r="D131" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="62"/>
+      <c r="H131" s="59"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="60"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="60"/>
+      <c r="A132" s="58"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="58"/>
       <c r="D132" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="62"/>
+      <c r="H132" s="59"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="60"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="62"/>
+      <c r="H133" s="59"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="60"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
       <c r="D134" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E134" s="32"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="62"/>
+      <c r="H134" s="59"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="60"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60"/>
+      <c r="A135" s="58"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="58"/>
       <c r="D135" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E135" s="55"/>
       <c r="F135" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G135" s="13"/>
-      <c r="H135" s="62"/>
+      <c r="H135" s="59"/>
     </row>
     <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="60"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="60"/>
+      <c r="A136" s="58"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58"/>
       <c r="D136" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="62"/>
+      <c r="H136" s="59"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="60"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="60"/>
+      <c r="A137" s="58"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="58"/>
       <c r="D137" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E137" s="55"/>
       <c r="F137" s="46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G137" s="26"/>
-      <c r="H137" s="62"/>
+      <c r="H137" s="59"/>
     </row>
     <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="60"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="60"/>
+      <c r="A138" s="58"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58"/>
       <c r="D138" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E138" s="55"/>
       <c r="F138" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="59"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" customHeight="1">
+      <c r="A139" s="58"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="62"/>
-    </row>
-    <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="60"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="E139" s="55"/>
       <c r="F139" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G139" s="7"/>
-      <c r="H139" s="62"/>
+      <c r="H139" s="59"/>
     </row>
     <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="60"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="60"/>
+      <c r="A140" s="58"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
       <c r="D140" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="62"/>
+      <c r="H140" s="59"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="60"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="60"/>
+      <c r="A141" s="58"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58"/>
       <c r="D141" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E141" s="55"/>
       <c r="F141" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="62"/>
+      <c r="H141" s="59"/>
     </row>
     <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="60"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="60"/>
+      <c r="A142" s="58"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="58"/>
       <c r="D142" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E142" s="55"/>
       <c r="F142" s="47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G142" s="27"/>
-      <c r="H142" s="62"/>
+      <c r="H142" s="59"/>
     </row>
     <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="60"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="60"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58"/>
       <c r="D143" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
-      <c r="H143" s="62"/>
+      <c r="H143" s="59"/>
     </row>
     <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="60"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="67" t="s">
-        <v>238</v>
+      <c r="A144" s="58"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="57" t="s">
+        <v>236</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="62"/>
+      <c r="H144" s="59"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="60"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="60"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="58"/>
       <c r="D145" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E145" s="55"/>
       <c r="F145" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="62"/>
+      <c r="H145" s="59"/>
     </row>
     <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="60"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
+      <c r="A146" s="58"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="58"/>
       <c r="D146" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="62"/>
+      <c r="H146" s="59"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="60"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="60"/>
+      <c r="A147" s="58"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="58"/>
       <c r="D147" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="62"/>
+      <c r="H147" s="59"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="60"/>
-      <c r="B148" s="60"/>
-      <c r="C148" s="60"/>
+      <c r="A148" s="58"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="62"/>
+      <c r="H148" s="59"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="60"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="60"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="58"/>
       <c r="D149" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="62"/>
+      <c r="H149" s="59"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="60"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
+      <c r="A150" s="58"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="62"/>
+      <c r="H150" s="59"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="60"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="67" t="s">
-        <v>247</v>
+      <c r="A151" s="58"/>
+      <c r="B151" s="58"/>
+      <c r="C151" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E151" s="55"/>
       <c r="F151" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G151" s="13"/>
-      <c r="H151" s="62"/>
+      <c r="H151" s="59"/>
     </row>
     <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="60"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
+      <c r="A152" s="58"/>
+      <c r="B152" s="58"/>
+      <c r="C152" s="58"/>
       <c r="D152" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E152" s="55"/>
       <c r="F152" s="48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G152" s="28"/>
-      <c r="H152" s="62"/>
+      <c r="H152" s="59"/>
     </row>
     <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="60"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="60"/>
+      <c r="A153" s="58"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="58"/>
       <c r="D153" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="62"/>
+      <c r="H153" s="59"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="60"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
+      <c r="A154" s="58"/>
+      <c r="B154" s="58"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E154" s="55"/>
       <c r="F154" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="62"/>
+      <c r="H154" s="59"/>
     </row>
     <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="60"/>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
+      <c r="A155" s="58"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="62"/>
+      <c r="H155" s="59"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="60"/>
-      <c r="B156" s="60"/>
-      <c r="C156" s="67" t="s">
-        <v>256</v>
+      <c r="A156" s="58"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="57" t="s">
+        <v>254</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="62"/>
+      <c r="H156" s="59"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="60"/>
-      <c r="B157" s="60"/>
-      <c r="C157" s="60"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="58"/>
       <c r="D157" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E157" s="55"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="62"/>
+      <c r="H157" s="59"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="60"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
       <c r="D158" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="62"/>
+      <c r="H158" s="59"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="60"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="60"/>
+      <c r="A159" s="58"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="58"/>
       <c r="D159" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="62"/>
+      <c r="H159" s="59"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="60"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
+      <c r="A160" s="58"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="58"/>
       <c r="D160" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E160" s="55"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="62"/>
+      <c r="H160" s="59"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="60"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="67" t="s">
-        <v>262</v>
+      <c r="A161" s="58"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="57" t="s">
+        <v>260</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E161" s="55"/>
       <c r="F161" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G161" s="13"/>
-      <c r="H161" s="62"/>
+      <c r="H161" s="59"/>
     </row>
     <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="60"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="60"/>
+      <c r="A162" s="58"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="58"/>
       <c r="D162" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E162" s="32"/>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="62"/>
+      <c r="H162" s="59"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="60"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="60"/>
+      <c r="A163" s="58"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="58"/>
       <c r="D163" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="62"/>
+      <c r="H163" s="59"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="60"/>
-      <c r="B164" s="60"/>
-      <c r="C164" s="60"/>
+      <c r="A164" s="58"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="58"/>
       <c r="D164" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E164" s="55"/>
       <c r="F164" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G164" s="29"/>
+      <c r="H164" s="59"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="58"/>
+      <c r="B165" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C165" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="G164" s="29"/>
-      <c r="H164" s="62"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="60"/>
-      <c r="B165" s="67" t="s">
+      <c r="D165" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="C165" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="E165" s="55"/>
       <c r="F165" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="62"/>
+      <c r="H165" s="59"/>
     </row>
     <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="60"/>
-      <c r="B166" s="60"/>
-      <c r="C166" s="60"/>
+      <c r="A166" s="58"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="58"/>
       <c r="D166" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E166" s="32"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="62"/>
+      <c r="H166" s="59"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="60"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="60"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="58"/>
       <c r="D167" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E167" s="32"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="62"/>
+      <c r="H167" s="59"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="60"/>
-      <c r="B168" s="60"/>
-      <c r="C168" s="60"/>
+      <c r="A168" s="58"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="58"/>
       <c r="D168" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E168" s="32"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="62"/>
+      <c r="H168" s="59"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="60"/>
-      <c r="B169" s="60"/>
-      <c r="C169" s="60"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
       <c r="D169" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E169" s="32"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="62"/>
+      <c r="H169" s="59"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="60"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="60"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E170" s="32"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="62"/>
+      <c r="H170" s="59"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="60"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="60"/>
+      <c r="A171" s="58"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58"/>
       <c r="D171" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E171" s="55"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="62"/>
+      <c r="H171" s="59"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="60"/>
-      <c r="B172" s="60"/>
-      <c r="C172" s="60"/>
+      <c r="A172" s="58"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="58"/>
       <c r="D172" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E172" s="32"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="62"/>
+      <c r="H172" s="59"/>
     </row>
     <row r="173" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A173" s="60"/>
-      <c r="B173" s="60"/>
-      <c r="C173" s="67" t="s">
-        <v>280</v>
+      <c r="A173" s="58"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="57" t="s">
+        <v>278</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E173" s="55"/>
       <c r="F173" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G173" s="13"/>
-      <c r="H173" s="62"/>
+      <c r="H173" s="59"/>
     </row>
     <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="60"/>
-      <c r="B174" s="60"/>
-      <c r="C174" s="60"/>
+      <c r="A174" s="58"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
       <c r="D174" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="62"/>
+      <c r="H174" s="59"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="60"/>
-      <c r="B175" s="60"/>
-      <c r="C175" s="60"/>
+      <c r="A175" s="58"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
       <c r="D175" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="62"/>
+      <c r="H175" s="59"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="60"/>
-      <c r="B176" s="60"/>
-      <c r="C176" s="60"/>
+      <c r="A176" s="58"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
       <c r="D176" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E176" s="55"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="62"/>
+      <c r="H176" s="59"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="60"/>
-      <c r="B177" s="60"/>
-      <c r="C177" s="67" t="s">
-        <v>286</v>
+      <c r="A177" s="58"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E177" s="55"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="62"/>
+      <c r="H177" s="59"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="60"/>
-      <c r="B178" s="60"/>
-      <c r="C178" s="60"/>
+      <c r="A178" s="58"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58"/>
       <c r="D178" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="62"/>
+      <c r="H178" s="59"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="60"/>
-      <c r="B179" s="60"/>
-      <c r="C179" s="60"/>
+      <c r="A179" s="58"/>
+      <c r="B179" s="58"/>
+      <c r="C179" s="58"/>
       <c r="D179" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="62"/>
+      <c r="H179" s="59"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="60"/>
-      <c r="B180" s="60"/>
-      <c r="C180" s="67" t="s">
-        <v>290</v>
+      <c r="A180" s="58"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="57" t="s">
+        <v>288</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="62"/>
+      <c r="H180" s="59"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="60"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="60"/>
+      <c r="A181" s="58"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="58"/>
       <c r="D181" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E181" s="55"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="62"/>
+      <c r="H181" s="59"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="60"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="67" t="s">
-        <v>293</v>
+      <c r="A182" s="58"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E182" s="55"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="62"/>
+      <c r="H182" s="59"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="60"/>
-      <c r="B183" s="60"/>
-      <c r="C183" s="60"/>
+      <c r="A183" s="58"/>
+      <c r="B183" s="58"/>
+      <c r="C183" s="58"/>
       <c r="D183" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E183" s="32"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="62"/>
+      <c r="H183" s="59"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="60"/>
-      <c r="B184" s="60"/>
-      <c r="C184" s="60"/>
+      <c r="A184" s="58"/>
+      <c r="B184" s="58"/>
+      <c r="C184" s="58"/>
       <c r="D184" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="62"/>
+      <c r="H184" s="59"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="60"/>
-      <c r="B185" s="67" t="s">
+      <c r="A185" s="58"/>
+      <c r="B185" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C185" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C185" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="E185" s="55"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="62"/>
+      <c r="H185" s="59"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="60"/>
-      <c r="B186" s="60"/>
-      <c r="C186" s="60"/>
+      <c r="A186" s="58"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="58"/>
       <c r="D186" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="62"/>
+      <c r="H186" s="59"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="60"/>
-      <c r="B187" s="60"/>
-      <c r="C187" s="67" t="s">
-        <v>301</v>
+      <c r="A187" s="58"/>
+      <c r="B187" s="58"/>
+      <c r="C187" s="57" t="s">
+        <v>299</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E187" s="55"/>
       <c r="F187" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="62"/>
+      <c r="H187" s="59"/>
     </row>
     <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="60"/>
-      <c r="B188" s="60"/>
-      <c r="C188" s="60"/>
+      <c r="A188" s="58"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="58"/>
       <c r="D188" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E188" s="55"/>
       <c r="F188" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G188" s="13"/>
-      <c r="H188" s="62"/>
+      <c r="H188" s="59"/>
     </row>
     <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="60"/>
-      <c r="B189" s="60"/>
-      <c r="C189" s="60"/>
+      <c r="A189" s="58"/>
+      <c r="B189" s="58"/>
+      <c r="C189" s="58"/>
       <c r="D189" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="62"/>
+      <c r="H189" s="59"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="60"/>
-      <c r="B190" s="60"/>
-      <c r="C190" s="60"/>
+      <c r="A190" s="58"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="58"/>
       <c r="D190" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="62"/>
+      <c r="H190" s="59"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="60"/>
-      <c r="B191" s="60"/>
-      <c r="C191" s="60"/>
+      <c r="A191" s="58"/>
+      <c r="B191" s="58"/>
+      <c r="C191" s="58"/>
       <c r="D191" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="62"/>
+      <c r="H191" s="59"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="60"/>
-      <c r="B192" s="60"/>
-      <c r="C192" s="60"/>
+      <c r="A192" s="58"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="58"/>
       <c r="D192" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="62"/>
+      <c r="H192" s="59"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="60"/>
-      <c r="B193" s="60"/>
-      <c r="C193" s="60"/>
+      <c r="A193" s="58"/>
+      <c r="B193" s="58"/>
+      <c r="C193" s="58"/>
       <c r="D193" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E193" s="55"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="62"/>
+      <c r="H193" s="59"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="60"/>
-      <c r="B194" s="60"/>
-      <c r="C194" s="67" t="s">
-        <v>311</v>
+      <c r="A194" s="58"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="57" t="s">
+        <v>309</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E194" s="55"/>
       <c r="F194" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G194" s="13"/>
+      <c r="H194" s="59"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
+      <c r="A195" s="58"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="58"/>
+      <c r="D195" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E195" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="F195" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G195" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="H195" s="59"/>
+    </row>
+    <row r="196" spans="1:8" ht="27" customHeight="1">
+      <c r="A196" s="58"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="62"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
-      <c r="A195" s="60"/>
-      <c r="B195" s="60"/>
-      <c r="C195" s="60"/>
-      <c r="D195" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E195" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="F195" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="G195" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="H195" s="62"/>
-    </row>
-    <row r="196" spans="1:8" ht="27" customHeight="1">
-      <c r="A196" s="60"/>
-      <c r="B196" s="60"/>
-      <c r="C196" s="60"/>
-      <c r="D196" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="E196" s="55"/>
       <c r="F196" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="G196" s="30"/>
+      <c r="H196" s="59"/>
+    </row>
+    <row r="197" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A197" s="58"/>
+      <c r="B197" s="58"/>
+      <c r="C197" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="D197" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="G196" s="30"/>
-      <c r="H196" s="62"/>
-    </row>
-    <row r="197" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A197" s="60"/>
-      <c r="B197" s="60"/>
-      <c r="C197" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="62"/>
+      <c r="H197" s="59"/>
     </row>
     <row r="198" spans="1:8" ht="27" customHeight="1">
-      <c r="A198" s="60"/>
-      <c r="B198" s="60"/>
-      <c r="C198" s="60"/>
+      <c r="A198" s="58"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="58"/>
       <c r="D198" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="62"/>
+      <c r="H198" s="59"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="60"/>
-      <c r="B199" s="60"/>
-      <c r="C199" s="60"/>
+      <c r="A199" s="58"/>
+      <c r="B199" s="58"/>
+      <c r="C199" s="58"/>
       <c r="D199" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="62"/>
+      <c r="H199" s="59"/>
     </row>
     <row r="200" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A200" s="67" t="s">
+      <c r="A200" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C200" s="58"/>
+      <c r="D200" s="62"/>
+      <c r="E200" s="62"/>
+      <c r="F200" s="62"/>
+      <c r="G200" s="62"/>
+      <c r="H200" s="59"/>
+    </row>
+    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
+      <c r="A201" s="58"/>
+      <c r="B201" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="C201" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="C200" s="60"/>
-      <c r="D200" s="61"/>
-      <c r="E200" s="61"/>
-      <c r="F200" s="61"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="62"/>
-    </row>
-    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A201" s="60"/>
-      <c r="B201" s="4" t="s">
+      <c r="D201" s="67"/>
+      <c r="E201" s="62"/>
+      <c r="F201" s="67"/>
+      <c r="G201" s="67"/>
+      <c r="H201" s="68"/>
+    </row>
+    <row r="202" spans="1:8" ht="114.6" customHeight="1">
+      <c r="A202" s="58"/>
+      <c r="B202" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C201" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="D201" s="64"/>
-      <c r="E201" s="61"/>
-      <c r="F201" s="64"/>
-      <c r="G201" s="64"/>
-      <c r="H201" s="65"/>
-    </row>
-    <row r="202" spans="1:8" ht="114.6" customHeight="1">
-      <c r="A202" s="60"/>
-      <c r="B202" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C202" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="D202" s="64"/>
-      <c r="E202" s="61"/>
-      <c r="F202" s="64"/>
-      <c r="G202" s="64"/>
-      <c r="H202" s="65"/>
+      <c r="C202" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="D202" s="67"/>
+      <c r="E202" s="62"/>
+      <c r="F202" s="67"/>
+      <c r="G202" s="67"/>
+      <c r="H202" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
@@ -7154,6 +7214,46 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="B40:B56"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B95"/>
+    <mergeCell ref="B96:B118"/>
+    <mergeCell ref="B119:B164"/>
+    <mergeCell ref="B165:B184"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
     <mergeCell ref="C194:C196"/>
     <mergeCell ref="C197:C199"/>
     <mergeCell ref="H3:H39"/>
@@ -7170,46 +7270,6 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="C187:C193"/>
     <mergeCell ref="C151:C155"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="B40:B56"/>
-    <mergeCell ref="B57:B74"/>
-    <mergeCell ref="B75:B95"/>
-    <mergeCell ref="B96:B118"/>
-    <mergeCell ref="B119:B164"/>
-    <mergeCell ref="B165:B184"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="348">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -1272,9 +1272,6 @@
     <t>正向代理与反向代理的特点和实例</t>
   </si>
   <si>
-    <t>在客户端还是在服务器</t>
-  </si>
-  <si>
     <t>可手动搭建一个简单的nginx服务器</t>
   </si>
   <si>
@@ -1363,9 +1360,6 @@
   </si>
   <si>
     <t>XSS攻击的原理、分类、具体案例，前端如何防御</t>
-  </si>
-  <si>
-    <t>正则校验</t>
   </si>
   <si>
     <t>CSRF攻击的原理、具体案例，前端如何防御</t>
@@ -2742,6 +2736,31 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cookie: httpOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，服务端输出转义</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向代理：正向代理就是顺着请求的方向进行的代理，即代理服务器他是由你配置为你服务，去请求目标服务器地址。如VPS代理上谷歌。
+反向代理：代理服务器是为目标服务器服务的。如域名下的负载均衡服务。</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -3177,23 +3196,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3203,6 +3207,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3216,8 +3229,14 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4375,8 +4394,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C196" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D154" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4392,16 +4411,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4430,13 +4449,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="68" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4449,12 +4468,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4462,17 +4481,17 @@
         <v>16</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
@@ -4485,12 +4504,12 @@
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4503,12 +4522,12 @@
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
@@ -4519,12 +4538,12 @@
         <v>26</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="59"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -4535,12 +4554,12 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="141" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
@@ -4548,15 +4567,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="59"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
@@ -4567,12 +4586,12 @@
         <v>31</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="59"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
@@ -4585,12 +4604,12 @@
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="57" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="68" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4605,12 +4624,12 @@
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4621,12 +4640,12 @@
         <v>40</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="59"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
@@ -4637,12 +4656,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="59"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
@@ -4653,12 +4672,12 @@
         <v>44</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="59"/>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
@@ -4666,144 +4685,144 @@
         <v>16</v>
       </c>
       <c r="F16" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="E17" s="35" t="s">
         <v>325</v>
-      </c>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>327</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="59"/>
+      <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="59"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="59"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="59"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="59"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="59"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="59"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="57" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="68" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>59</v>
@@ -4811,412 +4830,412 @@
       <c r="G25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="59"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="59"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="59"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="59"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="59"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="59"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="57" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="68" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="59"/>
+      <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="59"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="59"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="59"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="59"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="59"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="68" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="59"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="59"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F43" s="43" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="59"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="59"/>
+      <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="57" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="68" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="59"/>
+      <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F46" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="63"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="59"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>333</v>
-      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="59"/>
+      <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="27" customHeight="1">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="59"/>
+      <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="81" customHeight="1">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="59"/>
+      <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="59"/>
+      <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="59"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="5" t="s">
         <v>97</v>
       </c>
@@ -5225,50 +5244,50 @@
         <v>98</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="59"/>
+      <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="59"/>
+      <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="59"/>
+      <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="58"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="68" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -5277,12 +5296,12 @@
       <c r="E57" s="32"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="59"/>
+      <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="5" t="s">
         <v>105</v>
       </c>
@@ -5291,52 +5310,52 @@
         <v>106</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="59"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="59"/>
+      <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="59"/>
+      <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="59"/>
+      <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="57" t="s">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="68" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -5347,130 +5366,130 @@
         <v>112</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="59"/>
+      <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="70" t="s">
-        <v>345</v>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="57" t="s">
+        <v>343</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="59"/>
+      <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="59"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="59"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="59"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="59"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="59"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
       <c r="D69" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="59"/>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="59"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
       <c r="D71" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F71" s="45" t="s">
         <v>121</v>
       </c>
       <c r="G71" s="22"/>
-      <c r="H71" s="59"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="57" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="68" t="s">
         <v>122</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -5479,12 +5498,12 @@
       <c r="E72" s="32"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="59"/>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="5" t="s">
         <v>124</v>
       </c>
@@ -5493,26 +5512,26 @@
         <v>125</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="59"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
       <c r="D74" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="59"/>
+      <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="58"/>
-      <c r="B75" s="57" t="s">
+      <c r="A75" s="61"/>
+      <c r="B75" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="68" t="s">
         <v>128</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -5521,12 +5540,12 @@
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="59"/>
+      <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="5" t="s">
         <v>130</v>
       </c>
@@ -5535,100 +5554,100 @@
         <v>131</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="59"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E77" s="53" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="59"/>
+      <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
       <c r="D78" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E78" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="59"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="58"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E79" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>135</v>
       </c>
       <c r="G79" s="13"/>
-      <c r="H79" s="59"/>
+      <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="58"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="57" t="s">
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="68" t="s">
         <v>136</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="59"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="58"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="58"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
       <c r="D81" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="59"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="58"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E82" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>140</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="59"/>
+      <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="58"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="5" t="s">
         <v>141</v>
       </c>
@@ -5637,48 +5656,48 @@
         <v>142</v>
       </c>
       <c r="G83" s="23"/>
-      <c r="H83" s="59"/>
+      <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="59"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="58"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="59"/>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
       <c r="D86" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="59"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="58"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="57" t="s">
+      <c r="A87" s="61"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="68" t="s">
         <v>146</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -5687,12 +5706,12 @@
       <c r="E87" s="32"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="59"/>
+      <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="5" t="s">
         <v>148</v>
       </c>
@@ -5701,36 +5720,36 @@
         <v>149</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="59"/>
+      <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="58"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
       <c r="D89" s="8" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="59"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="60"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="69"/>
       <c r="D90" s="8" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="59"/>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="58"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="57" t="s">
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="68" t="s">
         <v>152</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -5739,12 +5758,12 @@
       <c r="E91" s="32"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="59"/>
+      <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="61"/>
       <c r="D92" s="5" t="s">
         <v>154</v>
       </c>
@@ -5755,36 +5774,36 @@
       <c r="G92" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="H92" s="59"/>
+      <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="58"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61"/>
       <c r="D93" s="8" t="s">
         <v>157</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="59"/>
+      <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="61"/>
       <c r="D94" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="59"/>
+      <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="61"/>
       <c r="D95" s="5" t="s">
         <v>159</v>
       </c>
@@ -5795,14 +5814,14 @@
       <c r="G95" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H95" s="59"/>
+      <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="58"/>
-      <c r="B96" s="57" t="s">
+      <c r="A96" s="61"/>
+      <c r="B96" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="61" t="s">
+      <c r="C96" s="70" t="s">
         <v>163</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -5811,11 +5830,11 @@
       <c r="E96" s="32"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="59"/>
+      <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="58"/>
-      <c r="B97" s="58"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
       <c r="C97" s="62"/>
       <c r="D97" s="8" t="s">
         <v>165</v>
@@ -5823,11 +5842,11 @@
       <c r="E97" s="32"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="59"/>
+      <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="58"/>
-      <c r="B98" s="58"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
       <c r="C98" s="62"/>
       <c r="D98" s="5" t="s">
         <v>166</v>
@@ -5837,11 +5856,11 @@
         <v>167</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="59"/>
+      <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="58"/>
-      <c r="B99" s="58"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
       <c r="C99" s="62"/>
       <c r="D99" s="8" t="s">
         <v>168</v>
@@ -5849,11 +5868,11 @@
       <c r="E99" s="32"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="59"/>
+      <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="58"/>
-      <c r="B100" s="58"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
       <c r="C100" s="62"/>
       <c r="D100" s="8" t="s">
         <v>169</v>
@@ -5861,11 +5880,11 @@
       <c r="E100" s="32"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="59"/>
+      <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="58"/>
-      <c r="B101" s="58"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
       <c r="C101" s="62"/>
       <c r="D101" s="8" t="s">
         <v>170</v>
@@ -5873,11 +5892,11 @@
       <c r="E101" s="32"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="59"/>
+      <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="58"/>
-      <c r="B102" s="58"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="62"/>
       <c r="D102" s="8" t="s">
         <v>171</v>
@@ -5885,11 +5904,11 @@
       <c r="E102" s="32"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="59"/>
+      <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="58"/>
-      <c r="B103" s="58"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="61"/>
       <c r="C103" s="62"/>
       <c r="D103" s="8" t="s">
         <v>172</v>
@@ -5897,11 +5916,11 @@
       <c r="E103" s="32"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="59"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="58"/>
-      <c r="B104" s="58"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
       <c r="C104" s="62"/>
       <c r="D104" s="5" t="s">
         <v>173</v>
@@ -5911,12 +5930,12 @@
         <v>174</v>
       </c>
       <c r="G104" s="13"/>
-      <c r="H104" s="59"/>
+      <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="58"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="57" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="68" t="s">
         <v>175</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -5925,24 +5944,24 @@
       <c r="E105" s="32"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="59"/>
+      <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="58"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="61"/>
       <c r="D106" s="8" t="s">
         <v>177</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="59"/>
+      <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="58"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="61"/>
       <c r="D107" s="5" t="s">
         <v>178</v>
       </c>
@@ -5951,60 +5970,60 @@
         <v>179</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="59"/>
+      <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="58"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="61"/>
       <c r="D108" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="59"/>
+      <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="58"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
       <c r="D109" s="8" t="s">
         <v>181</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="59"/>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="58"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
       <c r="D110" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="59"/>
+      <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="58"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
       <c r="D111" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="59"/>
+      <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="58"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
       <c r="D112" s="5" t="s">
         <v>184</v>
       </c>
@@ -6013,24 +6032,24 @@
         <v>185</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="59"/>
+      <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="58"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
       <c r="D113" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="59"/>
+      <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="58"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="57" t="s">
+      <c r="A114" s="61"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="68" t="s">
         <v>187</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -6039,36 +6058,36 @@
       <c r="E114" s="32"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="59"/>
+      <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="58"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="61"/>
       <c r="D115" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E115" s="55"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="59"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="58"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
       <c r="D116" s="8" t="s">
         <v>190</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="59"/>
+      <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="58"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="58"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="61"/>
       <c r="D117" s="5" t="s">
         <v>191</v>
       </c>
@@ -6077,44 +6096,44 @@
         <v>192</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="59"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="58"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="61"/>
       <c r="D118" s="8" t="s">
         <v>193</v>
       </c>
       <c r="E118" s="32"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="59"/>
+      <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="58"/>
-      <c r="B119" s="57" t="s">
+      <c r="A119" s="61"/>
+      <c r="B119" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="C119" s="57" t="s">
+      <c r="C119" s="68" t="s">
         <v>195</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>196</v>
       </c>
       <c r="E119" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G119" s="13"/>
-      <c r="H119" s="59"/>
+      <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="58"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="61"/>
       <c r="D120" s="5" t="s">
         <v>198</v>
       </c>
@@ -6123,28 +6142,28 @@
         <v>199</v>
       </c>
       <c r="G120" s="13"/>
-      <c r="H120" s="59"/>
+      <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="58"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
       <c r="D121" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E121" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>201</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" s="59"/>
+      <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="58"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="57" t="s">
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="68" t="s">
         <v>202</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -6153,12 +6172,12 @@
       <c r="E122" s="32"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="59"/>
+      <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="58"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="61"/>
       <c r="D123" s="5" t="s">
         <v>204</v>
       </c>
@@ -6167,36 +6186,36 @@
         <v>205</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="59"/>
+      <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="58"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
+      <c r="A124" s="61"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="61"/>
       <c r="D124" s="8" t="s">
         <v>206</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="59"/>
+      <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="58"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="61"/>
       <c r="D125" s="8" t="s">
         <v>207</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="59"/>
+      <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="58"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="57" t="s">
+      <c r="A126" s="61"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="68" t="s">
         <v>208</v>
       </c>
       <c r="D126" s="8" t="s">
@@ -6205,12 +6224,12 @@
       <c r="E126" s="32"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="59"/>
+      <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="58"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61"/>
       <c r="D127" s="5" t="s">
         <v>210</v>
       </c>
@@ -6219,36 +6238,36 @@
         <v>211</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="59"/>
+      <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="58"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61"/>
       <c r="D128" s="8" t="s">
         <v>212</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="59"/>
+      <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="58"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="61"/>
       <c r="D129" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="59"/>
+      <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="58"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="61"/>
       <c r="D130" s="5" t="s">
         <v>214</v>
       </c>
@@ -6257,60 +6276,60 @@
         <v>215</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="59"/>
+      <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="58"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58"/>
+      <c r="A131" s="61"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61"/>
       <c r="D131" s="8" t="s">
         <v>216</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="59"/>
+      <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="58"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="61"/>
       <c r="D132" s="8" t="s">
         <v>217</v>
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="59"/>
+      <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="58"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="61"/>
       <c r="D133" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="59"/>
+      <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="58"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="61"/>
       <c r="D134" s="8" t="s">
         <v>219</v>
       </c>
       <c r="E134" s="32"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="59"/>
+      <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="58"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="61"/>
       <c r="D135" s="5" t="s">
         <v>220</v>
       </c>
@@ -6319,24 +6338,24 @@
         <v>221</v>
       </c>
       <c r="G135" s="13"/>
-      <c r="H135" s="59"/>
+      <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="58"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="61"/>
       <c r="D136" s="8" t="s">
         <v>222</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="59"/>
+      <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="58"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="61"/>
       <c r="D137" s="5" t="s">
         <v>223</v>
       </c>
@@ -6345,12 +6364,12 @@
         <v>224</v>
       </c>
       <c r="G137" s="26"/>
-      <c r="H137" s="59"/>
+      <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="58"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="61"/>
       <c r="D138" s="5" t="s">
         <v>225</v>
       </c>
@@ -6359,12 +6378,12 @@
         <v>226</v>
       </c>
       <c r="G138" s="13"/>
-      <c r="H138" s="59"/>
+      <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="58"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="57" t="s">
+      <c r="A139" s="61"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="68" t="s">
         <v>227</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -6375,24 +6394,24 @@
         <v>229</v>
       </c>
       <c r="G139" s="7"/>
-      <c r="H139" s="59"/>
+      <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="58"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="61"/>
       <c r="D140" s="8" t="s">
         <v>230</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="59"/>
+      <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="58"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58"/>
+      <c r="A141" s="61"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="61"/>
       <c r="D141" s="5" t="s">
         <v>231</v>
       </c>
@@ -6401,12 +6420,12 @@
         <v>232</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="59"/>
+      <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="58"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="58"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="61"/>
       <c r="D142" s="5" t="s">
         <v>233</v>
       </c>
@@ -6415,24 +6434,24 @@
         <v>234</v>
       </c>
       <c r="G142" s="27"/>
-      <c r="H142" s="59"/>
+      <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="58"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="61"/>
       <c r="D143" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
-      <c r="H143" s="59"/>
+      <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="58"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="57" t="s">
+      <c r="A144" s="61"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="68" t="s">
         <v>236</v>
       </c>
       <c r="D144" s="8" t="s">
@@ -6441,12 +6460,12 @@
       <c r="E144" s="32"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="59"/>
+      <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="58"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="61"/>
       <c r="D145" s="5" t="s">
         <v>238</v>
       </c>
@@ -6455,72 +6474,72 @@
         <v>239</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="59"/>
+      <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="58"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
+      <c r="A146" s="61"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="61"/>
       <c r="D146" s="8" t="s">
         <v>240</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="59"/>
+      <c r="H146" s="63"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="58"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
+      <c r="A147" s="61"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="61"/>
       <c r="D147" s="8" t="s">
         <v>241</v>
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="59"/>
+      <c r="H147" s="63"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="58"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
+      <c r="A148" s="61"/>
+      <c r="B148" s="61"/>
+      <c r="C148" s="61"/>
       <c r="D148" s="8" t="s">
         <v>242</v>
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="59"/>
+      <c r="H148" s="63"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="58"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58"/>
+      <c r="A149" s="61"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="61"/>
       <c r="D149" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="59"/>
+      <c r="H149" s="63"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="58"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="61"/>
       <c r="D150" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="59"/>
+      <c r="H150" s="63"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="58"/>
-      <c r="B151" s="58"/>
-      <c r="C151" s="57" t="s">
+      <c r="A151" s="61"/>
+      <c r="B151" s="61"/>
+      <c r="C151" s="68" t="s">
         <v>245</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -6531,12 +6550,12 @@
         <v>247</v>
       </c>
       <c r="G151" s="13"/>
-      <c r="H151" s="59"/>
+      <c r="H151" s="63"/>
     </row>
     <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="58"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
+      <c r="A152" s="61"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="61"/>
       <c r="D152" s="5" t="s">
         <v>248</v>
       </c>
@@ -6545,24 +6564,24 @@
         <v>249</v>
       </c>
       <c r="G152" s="28"/>
-      <c r="H152" s="59"/>
+      <c r="H152" s="63"/>
     </row>
     <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="58"/>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
+      <c r="A153" s="61"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="61"/>
       <c r="D153" s="8" t="s">
         <v>250</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="59"/>
+      <c r="H153" s="63"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="58"/>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
+      <c r="A154" s="61"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="61"/>
       <c r="D154" s="5" t="s">
         <v>251</v>
       </c>
@@ -6571,24 +6590,24 @@
         <v>252</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="59"/>
+      <c r="H154" s="63"/>
     </row>
     <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="58"/>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
+      <c r="A155" s="61"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="61"/>
       <c r="D155" s="8" t="s">
         <v>253</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="59"/>
+      <c r="H155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="58"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="57" t="s">
+      <c r="A156" s="61"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="68" t="s">
         <v>254</v>
       </c>
       <c r="D156" s="8" t="s">
@@ -6597,100 +6616,104 @@
       <c r="E156" s="32"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="59"/>
+      <c r="H156" s="63"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="58"/>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="61"/>
       <c r="D157" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E157" s="55"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="59"/>
+      <c r="H157" s="63"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="58"/>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
+      <c r="A158" s="61"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="61"/>
       <c r="D158" s="8" t="s">
         <v>257</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="59"/>
+      <c r="H158" s="63"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="58"/>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
+      <c r="A159" s="61"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="61"/>
       <c r="D159" s="8" t="s">
         <v>258</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="59"/>
+      <c r="H159" s="63"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="58"/>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58"/>
+      <c r="A160" s="61"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="61"/>
       <c r="D160" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E160" s="55"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="59"/>
+      <c r="H160" s="63"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="58"/>
-      <c r="B161" s="58"/>
-      <c r="C161" s="57" t="s">
+      <c r="A161" s="61"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="68" t="s">
         <v>260</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E161" s="55"/>
+      <c r="E161" s="54" t="s">
+        <v>346</v>
+      </c>
       <c r="F161" s="8" t="s">
         <v>262</v>
       </c>
       <c r="G161" s="13"/>
-      <c r="H161" s="59"/>
+      <c r="H161" s="63"/>
     </row>
     <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="58"/>
-      <c r="B162" s="58"/>
-      <c r="C162" s="58"/>
+      <c r="A162" s="61"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="61"/>
       <c r="D162" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E162" s="32"/>
+      <c r="E162" s="53" t="s">
+        <v>346</v>
+      </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="59"/>
+      <c r="H162" s="63"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="58"/>
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
+      <c r="A163" s="61"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="61"/>
       <c r="D163" s="8" t="s">
         <v>264</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="59"/>
+      <c r="H163" s="63"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="58"/>
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
+      <c r="A164" s="61"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="61"/>
       <c r="D164" s="5" t="s">
         <v>265</v>
       </c>
@@ -6699,14 +6722,14 @@
         <v>266</v>
       </c>
       <c r="G164" s="29"/>
-      <c r="H164" s="59"/>
+      <c r="H164" s="63"/>
     </row>
     <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="58"/>
-      <c r="B165" s="57" t="s">
+      <c r="A165" s="61"/>
+      <c r="B165" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="C165" s="57" t="s">
+      <c r="C165" s="68" t="s">
         <v>268</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -6717,491 +6740,495 @@
         <v>270</v>
       </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="59"/>
+      <c r="H165" s="63"/>
     </row>
     <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="58"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
+      <c r="A166" s="61"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="61"/>
       <c r="D166" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E166" s="32"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="59"/>
+      <c r="H166" s="63"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="58"/>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="61"/>
       <c r="D167" s="8" t="s">
         <v>272</v>
       </c>
       <c r="E167" s="32"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="59"/>
+      <c r="H167" s="63"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="58"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
+      <c r="A168" s="61"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="61"/>
       <c r="D168" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E168" s="32"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="59"/>
+      <c r="H168" s="63"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="58"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="61"/>
       <c r="D169" s="8" t="s">
         <v>274</v>
       </c>
       <c r="E169" s="32"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="59"/>
+      <c r="H169" s="63"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="58"/>
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
+      <c r="A170" s="61"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="61"/>
       <c r="D170" s="8" t="s">
         <v>275</v>
       </c>
       <c r="E170" s="32"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="59"/>
+      <c r="H170" s="63"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="58"/>
-      <c r="B171" s="58"/>
-      <c r="C171" s="58"/>
+      <c r="A171" s="61"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="61"/>
       <c r="D171" s="5" t="s">
         <v>276</v>
       </c>
       <c r="E171" s="55"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="59"/>
+      <c r="H171" s="63"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="58"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
+      <c r="A172" s="61"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="61"/>
       <c r="D172" s="8" t="s">
         <v>277</v>
       </c>
       <c r="E172" s="32"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="59"/>
-    </row>
-    <row r="173" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A173" s="58"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="57" t="s">
+      <c r="H172" s="63"/>
+    </row>
+    <row r="173" spans="1:8" ht="40.5">
+      <c r="A173" s="61"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="68" t="s">
         <v>278</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E173" s="55"/>
-      <c r="F173" s="8" t="s">
+      <c r="E173" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="F173" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="63"/>
+    </row>
+    <row r="174" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A174" s="61"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="G173" s="13"/>
-      <c r="H173" s="59"/>
-    </row>
-    <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="58"/>
-      <c r="B174" s="58"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="59"/>
+      <c r="H174" s="63"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="58"/>
-      <c r="B175" s="58"/>
-      <c r="C175" s="58"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="61"/>
       <c r="D175" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="59"/>
+      <c r="H175" s="63"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="58"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
+      <c r="A176" s="61"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="61"/>
       <c r="D176" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E176" s="55"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="59"/>
+      <c r="H176" s="63"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="58"/>
-      <c r="B177" s="58"/>
-      <c r="C177" s="57" t="s">
+      <c r="A177" s="61"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="E177" s="55"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="59"/>
+      <c r="H177" s="63"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="58"/>
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
+      <c r="A178" s="61"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="61"/>
       <c r="D178" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="59"/>
+      <c r="H178" s="63"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="58"/>
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
+      <c r="A179" s="61"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="61"/>
       <c r="D179" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="59"/>
+      <c r="H179" s="63"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="58"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="57" t="s">
+      <c r="A180" s="61"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="D180" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="59"/>
+      <c r="H180" s="63"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="58"/>
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
+      <c r="A181" s="61"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="61"/>
       <c r="D181" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E181" s="55"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="59"/>
+      <c r="H181" s="63"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="58"/>
-      <c r="B182" s="58"/>
-      <c r="C182" s="57" t="s">
+      <c r="A182" s="61"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="E182" s="55"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="59"/>
+      <c r="H182" s="63"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="58"/>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
+      <c r="A183" s="61"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="61"/>
       <c r="D183" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E183" s="32"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="59"/>
+      <c r="H183" s="63"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="58"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="58"/>
+      <c r="A184" s="61"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="61"/>
       <c r="D184" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="59"/>
+      <c r="H184" s="63"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="58"/>
-      <c r="B185" s="57" t="s">
+      <c r="A185" s="61"/>
+      <c r="B185" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="C185" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="C185" s="57" t="s">
+      <c r="D185" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E185" s="55"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="59"/>
+      <c r="H185" s="63"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="58"/>
-      <c r="B186" s="58"/>
-      <c r="C186" s="58"/>
+      <c r="A186" s="61"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="61"/>
       <c r="D186" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="59"/>
+      <c r="H186" s="63"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="58"/>
-      <c r="B187" s="58"/>
-      <c r="C187" s="57" t="s">
+      <c r="A187" s="61"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E187" s="55"/>
       <c r="F187" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G187" s="13"/>
+      <c r="H187" s="63"/>
+    </row>
+    <row r="188" spans="1:8" ht="27" customHeight="1">
+      <c r="A188" s="61"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="61"/>
+      <c r="D188" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G187" s="13"/>
-      <c r="H187" s="59"/>
-    </row>
-    <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="58"/>
-      <c r="B188" s="58"/>
-      <c r="C188" s="58"/>
-      <c r="D188" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E188" s="55"/>
       <c r="F188" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G188" s="13"/>
+      <c r="H188" s="63"/>
+    </row>
+    <row r="189" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A189" s="61"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="G188" s="13"/>
-      <c r="H188" s="59"/>
-    </row>
-    <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="58"/>
-      <c r="B189" s="58"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="59"/>
+      <c r="H189" s="63"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="58"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
+      <c r="A190" s="61"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="61"/>
       <c r="D190" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="59"/>
+      <c r="H190" s="63"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="58"/>
-      <c r="B191" s="58"/>
-      <c r="C191" s="58"/>
+      <c r="A191" s="61"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="61"/>
       <c r="D191" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="59"/>
+      <c r="H191" s="63"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="58"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="61"/>
       <c r="D192" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="59"/>
+      <c r="H192" s="63"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="58"/>
-      <c r="B193" s="58"/>
-      <c r="C193" s="58"/>
+      <c r="A193" s="61"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="61"/>
       <c r="D193" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E193" s="55"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="59"/>
+      <c r="H193" s="63"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="58"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="57" t="s">
+      <c r="A194" s="61"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E194" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="F194" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G194" s="13"/>
+      <c r="H194" s="63"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
+      <c r="A195" s="61"/>
+      <c r="B195" s="61"/>
+      <c r="C195" s="61"/>
+      <c r="D195" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E194" s="55"/>
-      <c r="F194" s="8" t="s">
+      <c r="E195" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="F195" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G195" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="H195" s="63"/>
+    </row>
+    <row r="196" spans="1:8" ht="28.5">
+      <c r="A196" s="61"/>
+      <c r="B196" s="61"/>
+      <c r="C196" s="61"/>
+      <c r="D196" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="59"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
-      <c r="A195" s="58"/>
-      <c r="B195" s="58"/>
-      <c r="C195" s="58"/>
-      <c r="D195" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E195" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="F195" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="G195" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="H195" s="59"/>
-    </row>
-    <row r="196" spans="1:8" ht="27" customHeight="1">
-      <c r="A196" s="58"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="E196" s="55"/>
       <c r="F196" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="G196" s="30"/>
+      <c r="H196" s="63"/>
+    </row>
+    <row r="197" spans="1:8" ht="14.25">
+      <c r="A197" s="61"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="D197" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="G196" s="30"/>
-      <c r="H196" s="59"/>
-    </row>
-    <row r="197" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A197" s="58"/>
-      <c r="B197" s="58"/>
-      <c r="C197" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="59"/>
-    </row>
-    <row r="198" spans="1:8" ht="27" customHeight="1">
-      <c r="A198" s="58"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="58"/>
+      <c r="H197" s="63"/>
+    </row>
+    <row r="198" spans="1:8" ht="28.5">
+      <c r="A198" s="61"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="61"/>
       <c r="D198" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="59"/>
+      <c r="H198" s="63"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="58"/>
-      <c r="B199" s="58"/>
-      <c r="C199" s="58"/>
+      <c r="A199" s="61"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="61"/>
       <c r="D199" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="59"/>
+      <c r="H199" s="63"/>
     </row>
     <row r="200" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A200" s="57" t="s">
-        <v>319</v>
+      <c r="A200" s="68" t="s">
+        <v>317</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C200" s="58"/>
+        <v>318</v>
+      </c>
+      <c r="C200" s="61"/>
       <c r="D200" s="62"/>
       <c r="E200" s="62"/>
       <c r="F200" s="62"/>
       <c r="G200" s="62"/>
-      <c r="H200" s="59"/>
+      <c r="H200" s="63"/>
     </row>
     <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A201" s="58"/>
+      <c r="A201" s="61"/>
       <c r="B201" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C201" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D201" s="65"/>
+      <c r="E201" s="62"/>
+      <c r="F201" s="65"/>
+      <c r="G201" s="65"/>
+      <c r="H201" s="66"/>
+    </row>
+    <row r="202" spans="1:8" ht="114.6" customHeight="1">
+      <c r="A202" s="61"/>
+      <c r="B202" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C201" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="D201" s="67"/>
-      <c r="E201" s="62"/>
-      <c r="F201" s="67"/>
-      <c r="G201" s="67"/>
-      <c r="H201" s="68"/>
-    </row>
-    <row r="202" spans="1:8" ht="114.6" customHeight="1">
-      <c r="A202" s="58"/>
-      <c r="B202" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C202" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="D202" s="67"/>
+      <c r="C202" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D202" s="65"/>
       <c r="E202" s="62"/>
-      <c r="F202" s="67"/>
-      <c r="G202" s="67"/>
-      <c r="H202" s="68"/>
+      <c r="F202" s="65"/>
+      <c r="G202" s="65"/>
+      <c r="H202" s="66"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
@@ -7214,6 +7241,46 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="H3:H39"/>
+    <mergeCell ref="H40:H56"/>
+    <mergeCell ref="H57:H74"/>
+    <mergeCell ref="H75:H95"/>
+    <mergeCell ref="H96:H118"/>
+    <mergeCell ref="H119:H164"/>
+    <mergeCell ref="H165:H184"/>
+    <mergeCell ref="H185:H199"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C193"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C201:H201"/>
@@ -7230,46 +7297,6 @@
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="H3:H39"/>
-    <mergeCell ref="H40:H56"/>
-    <mergeCell ref="H57:H74"/>
-    <mergeCell ref="H75:H95"/>
-    <mergeCell ref="H96:H118"/>
-    <mergeCell ref="H119:H164"/>
-    <mergeCell ref="H165:H184"/>
-    <mergeCell ref="H185:H199"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C193"/>
-    <mergeCell ref="C151:C155"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="353">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -888,9 +888,6 @@
     <t>浏览器提供的几种存储机制、优缺点、开发中正确的选择</t>
   </si>
   <si>
-    <t>浏览器跨标签通信</t>
-  </si>
-  <si>
     <t>websocket、定时器setInterval+cookie、使用localstorage、SharedWorker</t>
   </si>
   <si>
@@ -2761,6 +2758,30 @@
   <si>
     <t>正向代理：正向代理就是顺着请求的方向进行的代理，即代理服务器他是由你配置为你服务，去请求目标服务器地址。如VPS代理上谷歌。
 反向代理：代理服务器是为目标服务器服务的。如域名下的负载均衡服务。</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDocumentFragment</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器跨标签通信</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000011207317</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -3028,7 +3049,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3199,6 +3220,24 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3207,15 +3246,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3229,14 +3259,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4394,8 +4418,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D154" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D90" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4411,16 +4435,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4449,13 +4473,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4468,12 +4492,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="63"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4481,17 +4505,17 @@
         <v>16</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="63"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
@@ -4504,12 +4528,12 @@
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4522,12 +4546,12 @@
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
@@ -4538,12 +4562,12 @@
         <v>26</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="63"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -4554,12 +4578,12 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="63"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" ht="141" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
@@ -4567,15 +4591,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="63"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
@@ -4586,12 +4610,12 @@
         <v>31</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="63"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
@@ -4604,12 +4628,12 @@
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="68" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4624,12 +4648,12 @@
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="63"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4640,12 +4664,12 @@
         <v>40</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="63"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
@@ -4656,12 +4680,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="63"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
@@ -4672,12 +4696,12 @@
         <v>44</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="63"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
@@ -4685,144 +4709,144 @@
         <v>16</v>
       </c>
       <c r="F16" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>324</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>325</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="63"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="63"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="63"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="63"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="63"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="63"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="63"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="63"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="68" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>59</v>
@@ -4830,412 +4854,412 @@
       <c r="G25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="63"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="63"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="63"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="63"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="63"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="63"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="63"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="68" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="58" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="63"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="63"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="63"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="63"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="63"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="63"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="63"/>
+      <c r="H39" s="60"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A40" s="61"/>
-      <c r="B40" s="68" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="63"/>
+      <c r="H40" s="60"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="63"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="63"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F43" s="43" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="63"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="63"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="68" t="s">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="58" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="63"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F46" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="60"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="63"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="38" t="s">
+      <c r="E47" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="E47" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>331</v>
-      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="63"/>
+      <c r="H47" s="60"/>
     </row>
     <row r="48" spans="1:8" ht="27" customHeight="1">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="E48" s="53" t="s">
         <v>337</v>
-      </c>
-      <c r="E48" s="53" t="s">
-        <v>338</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="63"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="63"/>
+      <c r="H49" s="60"/>
     </row>
     <row r="50" spans="1:8" ht="81" customHeight="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="63"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="63"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="63"/>
+      <c r="H52" s="60"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="5" t="s">
         <v>97</v>
       </c>
@@ -5244,50 +5268,50 @@
         <v>98</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="63"/>
+      <c r="H53" s="60"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="63"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="63"/>
+      <c r="H55" s="60"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="63"/>
+      <c r="H56" s="60"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="68" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="58" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -5296,12 +5320,12 @@
       <c r="E57" s="32"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="63"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
       <c r="D58" s="5" t="s">
         <v>105</v>
       </c>
@@ -5310,52 +5334,52 @@
         <v>106</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="63"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="63"/>
+      <c r="H59" s="60"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
       <c r="D60" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="63"/>
+      <c r="H60" s="60"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="63"/>
+      <c r="H61" s="60"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="68" t="s">
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="58" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -5366,130 +5390,130 @@
         <v>112</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="63"/>
+      <c r="H62" s="60"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="63"/>
+      <c r="H63" s="60"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="63"/>
+      <c r="H64" s="60"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="63"/>
+      <c r="H65" s="60"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="63"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="63"/>
+      <c r="H67" s="60"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="63"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="63"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F71" s="45" t="s">
         <v>121</v>
       </c>
       <c r="G71" s="22"/>
-      <c r="H71" s="63"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="68" t="s">
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -5498,12 +5522,12 @@
       <c r="E72" s="32"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="63"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="5" t="s">
         <v>124</v>
       </c>
@@ -5512,26 +5536,26 @@
         <v>125</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="63"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="63"/>
+      <c r="H74" s="60"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="61"/>
-      <c r="B75" s="68" t="s">
+      <c r="A75" s="59"/>
+      <c r="B75" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="58" t="s">
         <v>128</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -5540,12 +5564,12 @@
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="63"/>
+      <c r="H75" s="60"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
       <c r="D76" s="5" t="s">
         <v>130</v>
       </c>
@@ -5554,100 +5578,100 @@
         <v>131</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="63"/>
+      <c r="H76" s="60"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="61"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="61"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
       <c r="D77" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E77" s="53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="63"/>
+      <c r="H77" s="60"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="61"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E78" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="63"/>
+      <c r="H78" s="60"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="61"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E79" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>135</v>
       </c>
       <c r="G79" s="13"/>
-      <c r="H79" s="63"/>
+      <c r="H79" s="60"/>
     </row>
     <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="61"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="68" t="s">
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="58" t="s">
         <v>136</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="63"/>
+      <c r="H80" s="60"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="61"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
       <c r="D81" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="63"/>
+      <c r="H81" s="60"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E82" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>140</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="63"/>
+      <c r="H82" s="60"/>
     </row>
     <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
       <c r="D83" s="5" t="s">
         <v>141</v>
       </c>
@@ -5656,48 +5680,48 @@
         <v>142</v>
       </c>
       <c r="G83" s="23"/>
-      <c r="H83" s="63"/>
+      <c r="H83" s="60"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="61"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
       <c r="D84" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="63"/>
+      <c r="H84" s="60"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="61"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
       <c r="D85" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="63"/>
+      <c r="H85" s="60"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="61"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
       <c r="D86" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="63"/>
+      <c r="H86" s="60"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="61"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="68" t="s">
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="58" t="s">
         <v>146</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -5706,12 +5730,12 @@
       <c r="E87" s="32"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="63"/>
+      <c r="H87" s="60"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
       <c r="D88" s="5" t="s">
         <v>148</v>
       </c>
@@ -5720,36 +5744,36 @@
         <v>149</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="63"/>
+      <c r="H88" s="60"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="61"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
       <c r="D89" s="8" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="63"/>
+      <c r="H89" s="60"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="61"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="69"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="61"/>
       <c r="D90" s="8" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="63"/>
+      <c r="H90" s="60"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="61"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="68" t="s">
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="58" t="s">
         <v>152</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -5758,12 +5782,12 @@
       <c r="E91" s="32"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="63"/>
+      <c r="H91" s="60"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="61"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="61"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
       <c r="D92" s="5" t="s">
         <v>154</v>
       </c>
@@ -5774,36 +5798,36 @@
       <c r="G92" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="H92" s="63"/>
+      <c r="H92" s="60"/>
     </row>
     <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="61"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="61"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
       <c r="D93" s="8" t="s">
         <v>157</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="63"/>
+      <c r="H93" s="60"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
       <c r="D94" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="63"/>
+      <c r="H94" s="60"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="61"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="61"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
       <c r="D95" s="5" t="s">
         <v>159</v>
       </c>
@@ -5814,14 +5838,14 @@
       <c r="G95" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H95" s="63"/>
+      <c r="H95" s="60"/>
     </row>
     <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="61"/>
-      <c r="B96" s="68" t="s">
+      <c r="A96" s="59"/>
+      <c r="B96" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="70" t="s">
+      <c r="C96" s="62" t="s">
         <v>163</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -5830,24 +5854,24 @@
       <c r="E96" s="32"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="63"/>
+      <c r="H96" s="60"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="62"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="63"/>
       <c r="D97" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="63"/>
+      <c r="H97" s="60"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="62"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="5" t="s">
         <v>166</v>
       </c>
@@ -5856,1379 +5880,1389 @@
         <v>167</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="63"/>
+      <c r="H98" s="60"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="62"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="63"/>
       <c r="D99" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="63"/>
+      <c r="H99" s="60"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="62"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="8" t="s">
         <v>169</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="63"/>
+      <c r="H100" s="60"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="61"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="63"/>
+      <c r="H101" s="60"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="61"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="8" t="s">
         <v>171</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="63"/>
+      <c r="H102" s="60"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="61"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="62"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="63"/>
       <c r="D103" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E103" s="32"/>
+      <c r="E103" s="53" t="s">
+        <v>349</v>
+      </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="63"/>
+      <c r="H103" s="60"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="61"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="5" t="s">
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="E104" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E104" s="55"/>
-      <c r="F104" s="8" t="s">
+      <c r="G104" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="H104" s="60"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="59"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="63"/>
-    </row>
-    <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="61"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="68" t="s">
+      <c r="D105" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="63"/>
+      <c r="H105" s="60"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="61"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="61"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
       <c r="D106" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="63"/>
+      <c r="H106" s="60"/>
     </row>
     <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="61"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="61"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
       <c r="D107" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E107" s="55"/>
       <c r="F107" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="60"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A108" s="59"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="63"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="61"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="63"/>
+      <c r="H108" s="60"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="61"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
       <c r="D109" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="63"/>
+      <c r="H109" s="60"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="61"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="61"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
       <c r="D110" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="63"/>
+      <c r="H110" s="60"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="61"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
       <c r="D111" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="63"/>
+      <c r="H111" s="60"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="61"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
       <c r="D112" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E112" s="55"/>
       <c r="F112" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="60"/>
+    </row>
+    <row r="113" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A113" s="59"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="63"/>
-    </row>
-    <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="61"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="61"/>
-      <c r="D113" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="63"/>
+      <c r="H113" s="60"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="61"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="68" t="s">
+      <c r="A114" s="59"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="63"/>
+      <c r="H114" s="60"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="61"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="61"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
       <c r="D115" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E115" s="55"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="63"/>
+      <c r="H115" s="60"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="61"/>
-      <c r="B116" s="61"/>
-      <c r="C116" s="61"/>
+      <c r="A116" s="59"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="59"/>
       <c r="D116" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="63"/>
+      <c r="H116" s="60"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="61"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="61"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="59"/>
       <c r="D117" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E117" s="55"/>
       <c r="F117" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="60"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A118" s="59"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="63"/>
-    </row>
-    <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="61"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="61"/>
-      <c r="D118" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="E118" s="32"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="63"/>
+      <c r="H118" s="60"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="61"/>
-      <c r="B119" s="68" t="s">
+      <c r="A119" s="59"/>
+      <c r="B119" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="C119" s="68" t="s">
+      <c r="D119" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="E119" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E119" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="F119" s="8" t="s">
+      <c r="G119" s="13"/>
+      <c r="H119" s="60"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="63"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="61"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="61"/>
-      <c r="D120" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="E120" s="55"/>
       <c r="F120" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="60"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="59"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="63"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="61"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="5" t="s">
+      <c r="E121" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E121" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="G121" s="13"/>
+      <c r="H121" s="60"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="59"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="63"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="61"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="68" t="s">
+      <c r="D122" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="63"/>
+      <c r="H122" s="60"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="61"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="61"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="59"/>
       <c r="D123" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E123" s="55"/>
       <c r="F123" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="60"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A124" s="59"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="63"/>
-    </row>
-    <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="61"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="63"/>
+      <c r="H124" s="60"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="61"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="61"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="63"/>
+      <c r="H125" s="60"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="61"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="68" t="s">
+      <c r="A126" s="59"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="63"/>
+      <c r="H126" s="60"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="61"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="61"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="59"/>
       <c r="D127" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E127" s="55"/>
       <c r="F127" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="60"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A128" s="59"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="63"/>
-    </row>
-    <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="61"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="61"/>
-      <c r="D128" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="63"/>
+      <c r="H128" s="60"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="61"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="61"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="59"/>
       <c r="D129" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="63"/>
+      <c r="H129" s="60"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="61"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="61"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="59"/>
       <c r="D130" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E130" s="55"/>
       <c r="F130" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="60"/>
+    </row>
+    <row r="131" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A131" s="59"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="G130" s="13"/>
-      <c r="H130" s="63"/>
-    </row>
-    <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="61"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="61"/>
-      <c r="D131" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="63"/>
+      <c r="H131" s="60"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="61"/>
-      <c r="B132" s="61"/>
-      <c r="C132" s="61"/>
+      <c r="A132" s="59"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="59"/>
       <c r="D132" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="63"/>
+      <c r="H132" s="60"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="61"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="61"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="59"/>
       <c r="D133" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="63"/>
+      <c r="H133" s="60"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="61"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="61"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
       <c r="D134" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E134" s="32"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="63"/>
+      <c r="H134" s="60"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="61"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="61"/>
+      <c r="A135" s="59"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="59"/>
       <c r="D135" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E135" s="55"/>
       <c r="F135" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="60"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A136" s="59"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="G135" s="13"/>
-      <c r="H135" s="63"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="61"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="61"/>
-      <c r="D136" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="63"/>
+      <c r="H136" s="60"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="61"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="61"/>
+      <c r="A137" s="59"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="59"/>
       <c r="D137" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E137" s="55"/>
       <c r="F137" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="G137" s="26"/>
+      <c r="H137" s="60"/>
+    </row>
+    <row r="138" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A138" s="59"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="63"/>
-    </row>
-    <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="61"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="61"/>
-      <c r="D138" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="E138" s="55"/>
       <c r="F138" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="60"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" customHeight="1">
+      <c r="A139" s="59"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="63"/>
-    </row>
-    <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="61"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="68" t="s">
+      <c r="D139" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E139" s="55"/>
       <c r="F139" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="60"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A140" s="59"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="63"/>
-    </row>
-    <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="61"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="61"/>
-      <c r="D140" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="63"/>
+      <c r="H140" s="60"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="61"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="61"/>
+      <c r="A141" s="59"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="59"/>
       <c r="D141" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E141" s="55"/>
       <c r="F141" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="60"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A142" s="59"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="63"/>
-    </row>
-    <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="61"/>
-      <c r="B142" s="61"/>
-      <c r="C142" s="61"/>
-      <c r="D142" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="E142" s="55"/>
       <c r="F142" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G142" s="27"/>
+      <c r="H142" s="60"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="59"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="63"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="61"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="8" t="s">
+      <c r="E143" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="F143" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="60"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A144" s="59"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="E143" s="32"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="63"/>
-    </row>
-    <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="61"/>
-      <c r="B144" s="61"/>
-      <c r="C144" s="68" t="s">
+      <c r="D144" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="63"/>
+      <c r="H144" s="60"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="61"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="61"/>
+      <c r="A145" s="59"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59"/>
       <c r="D145" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E145" s="55"/>
       <c r="F145" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="60"/>
+    </row>
+    <row r="146" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A146" s="59"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="63"/>
-    </row>
-    <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="61"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="61"/>
-      <c r="D146" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="63"/>
+      <c r="H146" s="60"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="61"/>
-      <c r="B147" s="61"/>
-      <c r="C147" s="61"/>
+      <c r="A147" s="59"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="59"/>
       <c r="D147" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="63"/>
+      <c r="H147" s="60"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="61"/>
-      <c r="B148" s="61"/>
-      <c r="C148" s="61"/>
+      <c r="A148" s="59"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="59"/>
       <c r="D148" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="63"/>
+      <c r="H148" s="60"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="61"/>
-      <c r="B149" s="61"/>
-      <c r="C149" s="61"/>
+      <c r="A149" s="59"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="59"/>
       <c r="D149" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="63"/>
+      <c r="H149" s="60"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="61"/>
-      <c r="B150" s="61"/>
-      <c r="C150" s="61"/>
+      <c r="A150" s="59"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
       <c r="D150" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="63"/>
+      <c r="H150" s="60"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="61"/>
-      <c r="B151" s="61"/>
-      <c r="C151" s="68" t="s">
+      <c r="A151" s="59"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="E151" s="55"/>
       <c r="F151" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="60"/>
+    </row>
+    <row r="152" spans="1:8" ht="27" customHeight="1">
+      <c r="A152" s="59"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="63"/>
-    </row>
-    <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="61"/>
-      <c r="B152" s="61"/>
-      <c r="C152" s="61"/>
-      <c r="D152" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="E152" s="55"/>
       <c r="F152" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="G152" s="28"/>
+      <c r="H152" s="60"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A153" s="59"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="G152" s="28"/>
-      <c r="H152" s="63"/>
-    </row>
-    <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="61"/>
-      <c r="B153" s="61"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="63"/>
+      <c r="H153" s="60"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="61"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="61"/>
+      <c r="A154" s="59"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
       <c r="D154" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E154" s="55"/>
       <c r="F154" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="60"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A155" s="59"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="63"/>
-    </row>
-    <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="61"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="61"/>
-      <c r="D155" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="63"/>
+      <c r="H155" s="60"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="61"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="68" t="s">
+      <c r="A156" s="59"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="63"/>
+      <c r="H156" s="60"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="61"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="61"/>
+      <c r="A157" s="59"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="59"/>
       <c r="D157" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E157" s="55"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="63"/>
+      <c r="H157" s="60"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="61"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="61"/>
+      <c r="A158" s="59"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="59"/>
       <c r="D158" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="63"/>
+      <c r="H158" s="60"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="61"/>
-      <c r="B159" s="61"/>
-      <c r="C159" s="61"/>
+      <c r="A159" s="59"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="59"/>
       <c r="D159" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="63"/>
+      <c r="H159" s="60"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="61"/>
-      <c r="B160" s="61"/>
-      <c r="C160" s="61"/>
+      <c r="A160" s="59"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="59"/>
       <c r="D160" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E160" s="55"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="63"/>
+      <c r="H160" s="60"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="61"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="68" t="s">
+      <c r="A161" s="59"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="E161" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E161" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="F161" s="8" t="s">
+      <c r="G161" s="13"/>
+      <c r="H161" s="60"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A162" s="59"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="59"/>
+      <c r="D162" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G161" s="13"/>
-      <c r="H161" s="63"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="61"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="61"/>
-      <c r="D162" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="E162" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="63"/>
+      <c r="H162" s="60"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="61"/>
-      <c r="B163" s="61"/>
-      <c r="C163" s="61"/>
+      <c r="A163" s="59"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
       <c r="D163" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="63"/>
+      <c r="H163" s="60"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="61"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="61"/>
+      <c r="A164" s="59"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="59"/>
       <c r="D164" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E164" s="55"/>
       <c r="F164" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G164" s="29"/>
+      <c r="H164" s="60"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="59"/>
+      <c r="B165" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="G164" s="29"/>
-      <c r="H164" s="63"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="61"/>
-      <c r="B165" s="68" t="s">
+      <c r="C165" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="C165" s="68" t="s">
+      <c r="D165" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="E165" s="55"/>
       <c r="F165" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="60"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A166" s="59"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="63"/>
-    </row>
-    <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="61"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="61"/>
-      <c r="D166" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="E166" s="32"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="63"/>
+      <c r="H166" s="60"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="61"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="61"/>
+      <c r="A167" s="59"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="59"/>
       <c r="D167" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E167" s="32"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="63"/>
+      <c r="H167" s="60"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="61"/>
-      <c r="B168" s="61"/>
-      <c r="C168" s="61"/>
+      <c r="A168" s="59"/>
+      <c r="B168" s="59"/>
+      <c r="C168" s="59"/>
       <c r="D168" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E168" s="32"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="63"/>
+      <c r="H168" s="60"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="61"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="61"/>
+      <c r="A169" s="59"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="59"/>
       <c r="D169" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E169" s="32"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="63"/>
+      <c r="H169" s="60"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="61"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="61"/>
+      <c r="A170" s="59"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
       <c r="D170" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E170" s="32"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="63"/>
+      <c r="H170" s="60"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="61"/>
-      <c r="B171" s="61"/>
-      <c r="C171" s="61"/>
+      <c r="A171" s="59"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
       <c r="D171" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E171" s="55"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="63"/>
+      <c r="H171" s="60"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="61"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="61"/>
+      <c r="A172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
       <c r="D172" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E172" s="32"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="63"/>
+      <c r="H172" s="60"/>
     </row>
     <row r="173" spans="1:8" ht="40.5">
-      <c r="A173" s="61"/>
-      <c r="B173" s="61"/>
-      <c r="C173" s="68" t="s">
+      <c r="A173" s="59"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="E173" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="F173" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="60"/>
+    </row>
+    <row r="174" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A174" s="59"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="59"/>
+      <c r="D174" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="E173" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="F173" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="G173" s="13"/>
-      <c r="H173" s="63"/>
-    </row>
-    <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="61"/>
-      <c r="B174" s="61"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="63"/>
+      <c r="H174" s="60"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="61"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="61"/>
+      <c r="A175" s="59"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="59"/>
       <c r="D175" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="63"/>
+      <c r="H175" s="60"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="61"/>
-      <c r="B176" s="61"/>
-      <c r="C176" s="61"/>
+      <c r="A176" s="59"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="59"/>
       <c r="D176" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E176" s="55"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="63"/>
+      <c r="H176" s="60"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="61"/>
-      <c r="B177" s="61"/>
-      <c r="C177" s="68" t="s">
+      <c r="A177" s="59"/>
+      <c r="B177" s="59"/>
+      <c r="C177" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="E177" s="55"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="63"/>
+      <c r="H177" s="60"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="61"/>
-      <c r="B178" s="61"/>
-      <c r="C178" s="61"/>
+      <c r="A178" s="59"/>
+      <c r="B178" s="59"/>
+      <c r="C178" s="59"/>
       <c r="D178" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="63"/>
+      <c r="H178" s="60"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="61"/>
-      <c r="B179" s="61"/>
-      <c r="C179" s="61"/>
+      <c r="A179" s="59"/>
+      <c r="B179" s="59"/>
+      <c r="C179" s="59"/>
       <c r="D179" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="63"/>
+      <c r="H179" s="60"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="61"/>
-      <c r="B180" s="61"/>
-      <c r="C180" s="68" t="s">
+      <c r="A180" s="59"/>
+      <c r="B180" s="59"/>
+      <c r="C180" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D180" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="63"/>
+      <c r="H180" s="60"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
+      <c r="A181" s="59"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="59"/>
       <c r="D181" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E181" s="55"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="63"/>
+      <c r="H181" s="60"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="61"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="68" t="s">
+      <c r="A182" s="59"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="E182" s="55"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="63"/>
+      <c r="H182" s="60"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="61"/>
-      <c r="B183" s="61"/>
-      <c r="C183" s="61"/>
+      <c r="A183" s="59"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="59"/>
       <c r="D183" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E183" s="32"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="63"/>
+      <c r="H183" s="60"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="61"/>
-      <c r="B184" s="61"/>
-      <c r="C184" s="61"/>
+      <c r="A184" s="59"/>
+      <c r="B184" s="59"/>
+      <c r="C184" s="59"/>
       <c r="D184" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="63"/>
+      <c r="H184" s="60"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="61"/>
-      <c r="B185" s="68" t="s">
+      <c r="A185" s="59"/>
+      <c r="B185" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="C185" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="C185" s="68" t="s">
+      <c r="D185" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E185" s="55"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="63"/>
+      <c r="H185" s="60"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="61"/>
-      <c r="B186" s="61"/>
-      <c r="C186" s="61"/>
+      <c r="A186" s="59"/>
+      <c r="B186" s="59"/>
+      <c r="C186" s="59"/>
       <c r="D186" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="63"/>
+      <c r="H186" s="60"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="61"/>
-      <c r="B187" s="61"/>
-      <c r="C187" s="68" t="s">
+      <c r="A187" s="59"/>
+      <c r="B187" s="59"/>
+      <c r="C187" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="E187" s="55"/>
       <c r="F187" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G187" s="13"/>
+      <c r="H187" s="60"/>
+    </row>
+    <row r="188" spans="1:8" ht="27" customHeight="1">
+      <c r="A188" s="59"/>
+      <c r="B188" s="59"/>
+      <c r="C188" s="59"/>
+      <c r="D188" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="G187" s="13"/>
-      <c r="H187" s="63"/>
-    </row>
-    <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="61"/>
-      <c r="B188" s="61"/>
-      <c r="C188" s="61"/>
-      <c r="D188" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="E188" s="55"/>
       <c r="F188" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G188" s="13"/>
+      <c r="H188" s="60"/>
+    </row>
+    <row r="189" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A189" s="59"/>
+      <c r="B189" s="59"/>
+      <c r="C189" s="59"/>
+      <c r="D189" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="G188" s="13"/>
-      <c r="H188" s="63"/>
-    </row>
-    <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="61"/>
-      <c r="B189" s="61"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="63"/>
+      <c r="H189" s="60"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="61"/>
-      <c r="B190" s="61"/>
-      <c r="C190" s="61"/>
+      <c r="A190" s="59"/>
+      <c r="B190" s="59"/>
+      <c r="C190" s="59"/>
       <c r="D190" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="63"/>
+      <c r="H190" s="60"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="61"/>
-      <c r="B191" s="61"/>
-      <c r="C191" s="61"/>
+      <c r="A191" s="59"/>
+      <c r="B191" s="59"/>
+      <c r="C191" s="59"/>
       <c r="D191" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="63"/>
+      <c r="H191" s="60"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="61"/>
-      <c r="B192" s="61"/>
-      <c r="C192" s="61"/>
+      <c r="A192" s="59"/>
+      <c r="B192" s="59"/>
+      <c r="C192" s="59"/>
       <c r="D192" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="63"/>
+      <c r="H192" s="60"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="61"/>
-      <c r="B193" s="61"/>
-      <c r="C193" s="61"/>
+      <c r="A193" s="59"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="59"/>
       <c r="D193" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E193" s="55"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="63"/>
+      <c r="H193" s="60"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="61"/>
-      <c r="B194" s="61"/>
-      <c r="C194" s="68" t="s">
+      <c r="A194" s="59"/>
+      <c r="B194" s="59"/>
+      <c r="C194" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E194" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="F194" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G194" s="13"/>
+      <c r="H194" s="60"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
+      <c r="A195" s="59"/>
+      <c r="B195" s="59"/>
+      <c r="C195" s="59"/>
+      <c r="D195" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E194" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="F194" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="63"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
-      <c r="A195" s="61"/>
-      <c r="B195" s="61"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="5" t="s">
+      <c r="E195" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="F195" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G195" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="H195" s="60"/>
+    </row>
+    <row r="196" spans="1:8" ht="28.5">
+      <c r="A196" s="59"/>
+      <c r="B196" s="59"/>
+      <c r="C196" s="59"/>
+      <c r="D196" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="E195" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="F195" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="G195" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="H195" s="63"/>
-    </row>
-    <row r="196" spans="1:8" ht="28.5">
-      <c r="A196" s="61"/>
-      <c r="B196" s="61"/>
-      <c r="C196" s="61"/>
-      <c r="D196" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="E196" s="55"/>
       <c r="F196" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="G196" s="30"/>
+      <c r="H196" s="60"/>
+    </row>
+    <row r="197" spans="1:8" ht="14.25">
+      <c r="A197" s="59"/>
+      <c r="B197" s="59"/>
+      <c r="C197" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="G196" s="30"/>
-      <c r="H196" s="63"/>
-    </row>
-    <row r="197" spans="1:8" ht="14.25">
-      <c r="A197" s="61"/>
-      <c r="B197" s="61"/>
-      <c r="C197" s="68" t="s">
+      <c r="D197" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="63"/>
+      <c r="H197" s="60"/>
     </row>
     <row r="198" spans="1:8" ht="28.5">
-      <c r="A198" s="61"/>
-      <c r="B198" s="61"/>
-      <c r="C198" s="61"/>
+      <c r="A198" s="59"/>
+      <c r="B198" s="59"/>
+      <c r="C198" s="59"/>
       <c r="D198" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="63"/>
+      <c r="H198" s="60"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="61"/>
-      <c r="B199" s="61"/>
-      <c r="C199" s="61"/>
+      <c r="A199" s="59"/>
+      <c r="B199" s="59"/>
+      <c r="C199" s="59"/>
       <c r="D199" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="63"/>
+      <c r="H199" s="60"/>
     </row>
     <row r="200" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A200" s="68" t="s">
+      <c r="A200" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="C200" s="59"/>
+      <c r="D200" s="63"/>
+      <c r="E200" s="63"/>
+      <c r="F200" s="63"/>
+      <c r="G200" s="63"/>
+      <c r="H200" s="60"/>
+    </row>
+    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
+      <c r="A201" s="59"/>
+      <c r="B201" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C200" s="61"/>
-      <c r="D200" s="62"/>
-      <c r="E200" s="62"/>
-      <c r="F200" s="62"/>
-      <c r="G200" s="62"/>
-      <c r="H200" s="63"/>
-    </row>
-    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A201" s="61"/>
-      <c r="B201" s="4" t="s">
+      <c r="C201" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="C201" s="64" t="s">
+      <c r="D201" s="68"/>
+      <c r="E201" s="63"/>
+      <c r="F201" s="68"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="69"/>
+    </row>
+    <row r="202" spans="1:8" ht="114.6" customHeight="1">
+      <c r="A202" s="59"/>
+      <c r="B202" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D201" s="65"/>
-      <c r="E201" s="62"/>
-      <c r="F201" s="65"/>
-      <c r="G201" s="65"/>
-      <c r="H201" s="66"/>
-    </row>
-    <row r="202" spans="1:8" ht="114.6" customHeight="1">
-      <c r="A202" s="61"/>
-      <c r="B202" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C202" s="67" t="s">
-        <v>332</v>
-      </c>
-      <c r="D202" s="65"/>
-      <c r="E202" s="62"/>
-      <c r="F202" s="65"/>
-      <c r="G202" s="65"/>
-      <c r="H202" s="66"/>
+      <c r="C202" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="D202" s="68"/>
+      <c r="E202" s="63"/>
+      <c r="F202" s="68"/>
+      <c r="G202" s="68"/>
+      <c r="H202" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
@@ -7241,6 +7275,46 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="B40:B56"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B95"/>
+    <mergeCell ref="B96:B118"/>
+    <mergeCell ref="B119:B164"/>
+    <mergeCell ref="B165:B184"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
     <mergeCell ref="C194:C196"/>
     <mergeCell ref="C197:C199"/>
     <mergeCell ref="H3:H39"/>
@@ -7257,46 +7331,6 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="C187:C193"/>
     <mergeCell ref="C151:C155"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="B40:B56"/>
-    <mergeCell ref="B57:B74"/>
-    <mergeCell ref="B75:B95"/>
-    <mergeCell ref="B96:B118"/>
-    <mergeCell ref="B119:B164"/>
-    <mergeCell ref="B165:B184"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -7309,9 +7343,10 @@
     <hyperlink ref="F39" r:id="rId7" location="issuecomment-646935572"/>
     <hyperlink ref="G92" r:id="rId8"/>
     <hyperlink ref="G195" r:id="rId9"/>
+    <hyperlink ref="G104" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="364">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -106,84 +106,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Boolean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">装箱：把基本数据类型转化为对应的引用数据类型的操作；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拆箱：将引用类型对象转换为对应的值类型对象</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <u/>
         <sz val="12"/>
         <color indexed="14"/>
@@ -370,9 +292,6 @@
 undefined是一个表示"无"的原始值，转为数值时为NaN</t>
   </si>
   <si>
-    <t>至少可以说出三种判断JavaScript数据类型的方式，以及他们的优缺点，如何准确的判断数组类型</t>
-  </si>
-  <si>
     <t>可能发生隐式类型转换的场景以及转换原则，应如何避免或巧妙应用</t>
   </si>
   <si>
@@ -406,24 +325,10 @@
 原型规则：可自由扩展、_proto_ 、prototype</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="14"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>https://juejin.im/post/5db6b1966fb9a0204b15480d</t>
-    </r>
-  </si>
-  <si>
     <t>instanceof的底层实现原理，手动实现一个instanceof</t>
   </si>
   <si>
     <t>作用就是判断一个实例是否属于某种类型，只要右边变量的 prototype 在左边变量的原型链上即可</t>
-  </si>
-  <si>
-    <t>实现继承的几种方式以及他们的优缺点</t>
   </si>
   <si>
     <t>原型继承，缺点: 子类实例共享属性，造成实例间的属性会相互影响；
@@ -505,12 +410,6 @@
     <t>执行机制</t>
   </si>
   <si>
-    <t>为何try里面放return，finally还会执行，理解其内部机制</t>
-  </si>
-  <si>
-    <t>Completion Record 类型</t>
-  </si>
-  <si>
     <t>https://segmentfault.com/a/1190000019566803</t>
   </si>
   <si>
@@ -597,9 +496,6 @@
     <t>元信息类标签(head、title、meta)的使用目的和配置方法</t>
   </si>
   <si>
-    <t>HTML5离线缓存原理</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -636,14 +532,6 @@
     <t>BFC实现原理，可以解决的问题，如何创建BFC</t>
   </si>
   <si>
-    <t xml:space="preserve">块级格式化上下文，隔离了的独立容器，创建条件：body 根元素
-浮动元素：float 除 none 以外的值
-绝对定位元素：position (absolute、fixed)
-display 为 inline-block、table-cells、flex
-overflow 除了 visible 以外的值 (hidden、auto、scroll)
-</t>
-  </si>
-  <si>
     <t>可使用CSS函数复用代码，实现特殊效果</t>
   </si>
   <si>
@@ -714,15 +602,6 @@
   </si>
   <si>
     <t>HTTP1.1、HTTP2.0带来的改变</t>
-  </si>
-  <si>
-    <t>HTTPS的加密原理，如何开启HTTPS，如何劫持HTTPS请求</t>
-  </si>
-  <si>
-    <t>理解WebSocket协议的底层原理、与HTTP的区别</t>
-  </si>
-  <si>
-    <t>双向数据传输、基于TCP协议</t>
   </si>
   <si>
     <t>设计模式</t>
@@ -738,16 +617,10 @@
 与松耦合</t>
   </si>
   <si>
-    <t>可以说出几种设计模式在开发中的实际应用，理解框架源码中对设计模式的应用</t>
-  </si>
-  <si>
     <t>数据结构&amp;算法</t>
   </si>
   <si>
     <t>JavaScript编译能力</t>
-  </si>
-  <si>
-    <t>多种方式实现数组去重、扁平化、对比优缺点</t>
   </si>
   <si>
     <t>多种方式实现深拷贝、对比优缺点</t>
@@ -1390,311 +1263,11 @@
     <t>结论描述</t>
   </si>
   <si>
-    <t>1、工作经历（实际大数据工作年限、与本公司相关项目和行业经验）
-2、沟通表达能力
-3、技术评价（能力程度、技术优势、弱点、自行钻研领域）</t>
-  </si>
-  <si>
     <t>考评规则</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.typeof </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只能判断出基础类型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>object, function(null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>也是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">bug)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">2.instanceof </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据原型来判断两个对象是否属于实例关系，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">而不能判断一个对象实例具体属于哪种类型。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3.constructor 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3.1. null </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> undefined </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是无效的对象，因此是不会有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">存在的，这两种类型的数据需要通过其他方式来判断。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3.2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>函数的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是不稳定的，这个主要体现在自定义对象上，当开发者重写</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> prototype </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后，原有的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>引用会丢失，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会默认为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> Object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>4.Object.prototype.toString.call</t>
-    </r>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>https://segmentfault.com/a/1190000014798678</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1746,23 +1319,23 @@
       </rPr>
       <t>，寄生继承</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>理解词法作用域和动态作用域</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1778,7 +1351,7 @@
       </rPr>
       <t>等</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1794,7 +1367,7 @@
       </rPr>
       <t>伪类和伪元素有哪些，它们的区别和实际应用</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2163,7 +1736,7 @@
       </rPr>
       <t>；</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>https://www.jianshu.com/p/5c1e90817bdf</t>
@@ -2370,11 +1943,11 @@
       </rPr>
       <t>有兼容；</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2636,7 +2209,7 @@
       </rPr>
       <t>出来的）。数据的地址指针是存储于栈中的，当我们想要访问引用类型的值的时候，需要先从栈中获得对象的地址指针，然后，在通过地址指针找到堆中的所需要的数据。</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2670,19 +2243,19 @@
       </rPr>
       <t>几种定位的规则、定位参照物、对文档流的影响，如何选择最好的定位方式，雪碧图实现原理</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2721,19 +2294,19 @@
       </rPr>
       <t>(AST)</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>三次握手和四次挥手详细原理，为什么要使用这种机制</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2749,47 +2322,2079 @@
       </rPr>
       <t>，服务端输出转义</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>正向代理：正向代理就是顺着请求的方向进行的代理，即代理服务器他是由你配置为你服务，去请求目标服务器地址。如VPS代理上谷歌。
 反向代理：代理服务器是为目标服务器服务的。如域名下的负载均衡服务。</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>createDocumentFragment</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>浏览器跨标签通信</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>https://segmentfault.com/a/1190000011207317</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.typeof </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只能判断出基础类型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>object, function(null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">bug)
+2.instanceof </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据原型来判断两个对象是否属于实例关系，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">而不能判断一个对象实例具体属于哪种类型。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">3.constructor 
+3.1. null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> undefined </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是无效的对象，因此是不会有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">存在的，这两种类型的数据需要通过其他方式来判断。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">3.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是不稳定的，这个主要体现在自定义对象上，当开发者重写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> prototype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，原有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用会丢失，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+4.Object.prototype.toString.call</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至少可以说出三种判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型的方式，以及他们的优缺点，如何准确的判断数组类型</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+装箱：把基本数据类型转化为对应的引用数据类型的操作；
+拆箱：将引用类型对象转换为对应的值类型对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> num.toFixed(2); // '123.00'
+    //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上方代码在后台的真正步骤为
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">    var c = new Number(123);
+    c.toFixed(2);
+    c = null;</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/ef9ecb5a432d</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5db6b1966fb9a0204b15480d</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现继承的几种方式以及他们的优缺点</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juejin.im/post/6844903569317953543
+https://juejin.im/post/6844903839175278600</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Completion Record </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="19"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为何</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里面放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>finally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还会执行，理解其内部机制</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46124214/article/details/104202031</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">microtask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在事件循环的各个阶段之间执行
+浏览器端，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">microtask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在事件循环的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> macrotask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">执行完之后执行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浏览器端运行结果：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>timer1=&gt;promise1=&gt;timer2=&gt;promise2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+Node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端运行结果分两种情况：
+如果是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>node11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本一旦执行一个阶段里的一个宏任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(setTimeout,setInterval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>setImmediate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就立刻执行微任务队列，这就跟浏览器端运行一致，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后的结果为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>timer1=&gt;promise1=&gt;timer2=&gt;promise2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>node10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">及其之前版本：要看第一个定时器执行完，第二个定时器是否在完成队列中。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是第二个定时器还未在完成队列中，最后的结果为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">timer1=&gt;promise1=&gt;timer2=&gt;promise2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是第二个定时器已经在完成队列中，则最后的结果为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>timer1=&gt;timer2=&gt;promise1=&gt;promise2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout(()=&gt;{
+    console.log('timer1')
+    Promise.resolve().then(function() {
+        console.log('promise1')
+    })
+}, 0)
+setTimeout(()=&gt;{
+    console.log('timer2')
+    Promise.resolve().then(function() {
+        console.log('promise2')
+    })
+}, 0)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.manman.io/2019/03/21/promise_series/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>raf.html</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怪异：块的总宽度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>= width(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>border) + margin(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>----border-box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准：块的总宽度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>= width + margin(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>) + padding(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>) + border(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HTML5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离线缓存原理</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000006984353</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块级格式化上下文，隔离了的独立容器，创建条件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根元素
+浮动元素：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> none </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以外的值
+绝对定位元素：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>position (absolute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">fixed)
+display </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> inline-block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>table-cells</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">flex
+overflow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> visible </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以外的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> (hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>scroll)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的加密原理，如何开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如何劫持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Linuxprobe18/article/details/79619339</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议的底层原理、与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的区别</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以说出几种设计模式在开发中的实际应用，理解框架源码中对设计模式的应用</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种方式实现数组去重、扁平化、对比优缺点</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/f666da1b1835</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>底层原理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">客户端发起请求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">new WebSocket('ws://localhost:8888');
+1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">客户端请求关键信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">Connection: Upgrade
+Upgrade: WebSocket
+Sec-WebSocket-Version: 13
+Sec-WebSocket-Key: +0jgXtYyVeG28Gn1CLUKIg==
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">服务端收到请求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>buffer,toString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>'\r\n'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分割，舍弃第一行和最后两行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(\r\n\r\n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，取得所有数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">2.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断数据中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Upgrade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Sec-WebSocket-Version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">是否相符。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">2.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Sec-WebSocket-Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>mask(RFC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里是固定值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>sha1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算，再转成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>base64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>key2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+2.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">服务端返回
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">HTTP/1.1 101 Switching Protocols
+Upgrade: WebSocket
+Connection: Upgrade
+Sec-WebSocket-Accept: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>key2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+都是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>TCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的应用层协议。
+都使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Request/Response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型进行连接的建立。
+在连接的建立过程中对错误的处理方式相同，在这个阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能返回和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">相同的返回码。
+都可以在网络中传输数据。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来建立连接，但是定义了一系列新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>域，这些域在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中并不会使用。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的连接不能通过中间人来转发，它必须是一个直接连接。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">连接建立之后，通信双方都可以在任何时刻向另一方发送数据。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接建立之后，数据的传输使用帧来传递，不再需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">消息。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>WS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据帧有序。</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、工作经历（实际大数据工作年限、与本公司相关项目和行业经验）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、沟通表达能力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、技术评价（能力程度、技术优势、弱点、自行钻研领域）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2884,11 +4489,6 @@
       <name val="等线"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="22"/>
-      <name val="等线"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -2942,14 +4542,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -2960,6 +4552,74 @@
       <color rgb="FFFF502C"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="19"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="22"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="22"/>
+      <name val="等线"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3044,12 +4704,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3109,19 +4769,16 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,28 +4787,13 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3178,10 +4820,10 @@
     <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3190,13 +4832,10 @@
     <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3214,29 +4853,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3247,8 +4877,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3259,8 +4895,45 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4415,11 +6088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D90" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201:H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4428,23 +6100,23 @@
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="56" customWidth="1"/>
-    <col min="6" max="7" width="68.625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="5" style="68" customWidth="1"/>
+    <col min="6" max="7" width="68.625" style="44" customWidth="1"/>
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4465,2816 +6137,2871 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:8" ht="51" customHeight="1">
+      <c r="A3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="63" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:8" ht="159.94999999999999" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8" ht="141">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="34" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="1:8" ht="126.75">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:8" ht="51" customHeight="1">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:8" ht="126.75">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="1:8" ht="51" customHeight="1">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:8" ht="141" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="1:8" ht="99" customHeight="1">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="F14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:8" ht="51" customHeight="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="60"/>
-    </row>
-    <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="41" t="s">
+      <c r="F16" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="60"/>
-    </row>
-    <row r="15" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>324</v>
+      <c r="D17" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>309</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
+      <c r="H17" s="59"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>324</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="60"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" ht="66.95" customHeight="1">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" customHeight="1">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E21" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="60"/>
-    </row>
-    <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="8" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="59"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="60"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>326</v>
+      <c r="E22" s="46" t="s">
+        <v>311</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>324</v>
+        <v>51</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="60"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>326</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>311</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="60"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="58" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="G27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="60"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="60"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>324</v>
+      <c r="E28" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="60"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>326</v>
+        <v>59</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>311</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="60"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>350</v>
+      </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="60"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
+      <c r="H30" s="59"/>
+    </row>
+    <row r="31" spans="1:8" ht="196.5">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="60"/>
+        <v>61</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F32" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>351</v>
+      </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="58" t="s">
-        <v>69</v>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="63" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>324</v>
+        <v>64</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="60"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>324</v>
+        <v>65</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>309</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="60"/>
-    </row>
-    <row r="35" spans="1:8" ht="35.1" hidden="1" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>324</v>
+        <v>67</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="60"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>324</v>
+        <v>68</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="60"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
+      <c r="H36" s="59"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>324</v>
+        <v>69</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>309</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="60"/>
+      <c r="H37" s="59"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>326</v>
+        <v>71</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>311</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="60"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>324</v>
+        <v>72</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="60"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A40" s="59"/>
-      <c r="B40" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>81</v>
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A40" s="57"/>
+      <c r="B40" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>324</v>
+        <v>76</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="60"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="60"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+      <c r="H41" s="59"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>324</v>
+        <v>79</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="60"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="60"/>
+      <c r="H42" s="59"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="H43" s="59"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>326</v>
+        <v>81</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>311</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="60"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="58" t="s">
-        <v>89</v>
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:8" ht="29.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="F45" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>352</v>
+      </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="60"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>328</v>
+        <v>84</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="60"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" hidden="1" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>330</v>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>315</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="60"/>
-    </row>
-    <row r="48" spans="1:8" ht="27" customHeight="1">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="E48" s="53" t="s">
-        <v>337</v>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:8" ht="27.75">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>322</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="60"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="53" t="s">
-        <v>338</v>
+        <v>85</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>323</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="60"/>
-    </row>
-    <row r="50" spans="1:8" ht="81" customHeight="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="1:8" ht="71.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>355</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="60"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="32"/>
+        <v>87</v>
+      </c>
+      <c r="E51" s="51"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="60"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="32"/>
+        <v>88</v>
+      </c>
+      <c r="E52" s="51"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="60"/>
+      <c r="H52" s="59"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="E53" s="48"/>
       <c r="F53" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="60"/>
+      <c r="H53" s="59"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="32"/>
+        <v>91</v>
+      </c>
+      <c r="E54" s="51"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="60"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="E55" s="51"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="60"/>
+      <c r="H55" s="59"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="32"/>
+        <v>93</v>
+      </c>
+      <c r="E56" s="51"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="60"/>
+      <c r="H56" s="59"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>103</v>
+      <c r="A57" s="57"/>
+      <c r="B57" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>95</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="32"/>
+        <v>96</v>
+      </c>
+      <c r="E57" s="51"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="60"/>
+      <c r="H57" s="59"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="55"/>
+        <v>97</v>
+      </c>
+      <c r="E58" s="48"/>
       <c r="F58" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="60"/>
+      <c r="H58" s="59"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="E59" s="32"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E59" s="51"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="60"/>
+      <c r="H59" s="59"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>341</v>
+        <v>99</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>326</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="60"/>
+      <c r="H60" s="59"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="32"/>
+        <v>101</v>
+      </c>
+      <c r="E61" s="51"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="60"/>
+      <c r="H61" s="59"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="58" t="s">
-        <v>110</v>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="63" t="s">
+        <v>102</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="55"/>
+        <v>103</v>
+      </c>
+      <c r="E62" s="48"/>
       <c r="F62" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="60"/>
+      <c r="H62" s="59"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="E63" s="32"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63" s="51"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="60"/>
+      <c r="H63" s="59"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="32"/>
+        <v>105</v>
+      </c>
+      <c r="E64" s="51"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="60"/>
+      <c r="H64" s="59"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E65" s="32"/>
+        <v>106</v>
+      </c>
+      <c r="E65" s="51"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="60"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="32"/>
+        <v>107</v>
+      </c>
+      <c r="E66" s="51"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="60"/>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>343</v>
+        <v>108</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>328</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="60"/>
+      <c r="H67" s="59"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>343</v>
+        <v>109</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>328</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="60"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="32"/>
+        <v>110</v>
+      </c>
+      <c r="E69" s="51"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="60"/>
+      <c r="H69" s="59"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="60"/>
-    </row>
-    <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="F71" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="60"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="H70" s="59"/>
+    </row>
+    <row r="71" spans="1:8" ht="369">
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="F71" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71" s="59"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="58" t="s">
-        <v>122</v>
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="63" t="s">
+        <v>111</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="32"/>
+        <v>112</v>
+      </c>
+      <c r="E72" s="51"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="60"/>
+      <c r="H72" s="59"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="55"/>
+        <v>113</v>
+      </c>
+      <c r="E73" s="48"/>
       <c r="F73" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="60"/>
+      <c r="H73" s="59"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="32"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="51"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="60"/>
+      <c r="H74" s="59"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="32"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="E75" s="51"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="60"/>
+      <c r="H75" s="59"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="55"/>
+        <v>117</v>
+      </c>
+      <c r="E76" s="48"/>
       <c r="F76" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="60"/>
+      <c r="H76" s="59"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" s="53" t="s">
-        <v>341</v>
+        <v>119</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>326</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="60"/>
+      <c r="H77" s="59"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="59"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" s="53" t="s">
-        <v>339</v>
+        <v>120</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>324</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="60"/>
+      <c r="H78" s="59"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>339</v>
+        <v>121</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>324</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G79" s="13"/>
-      <c r="H79" s="60"/>
+      <c r="H79" s="59"/>
     </row>
     <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="59"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="58" t="s">
-        <v>136</v>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="63" t="s">
+        <v>123</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="53" t="s">
-        <v>339</v>
+        <v>124</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>324</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="60"/>
+      <c r="H80" s="59"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="32"/>
+        <v>125</v>
+      </c>
+      <c r="E81" s="51"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="60"/>
+      <c r="H81" s="59"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>339</v>
+        <v>126</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>324</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="60"/>
+      <c r="H82" s="59"/>
     </row>
     <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
       <c r="D83" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="55"/>
-      <c r="F83" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="60"/>
+        <v>128</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="59"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="E84" s="51"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="60"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
       <c r="D85" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" s="32"/>
+        <v>131</v>
+      </c>
+      <c r="E85" s="51"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="60"/>
+      <c r="H85" s="59"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E86" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="E86" s="51"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="60"/>
+      <c r="H86" s="59"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="59"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="58" t="s">
-        <v>146</v>
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="63" t="s">
+        <v>133</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="32"/>
+        <v>134</v>
+      </c>
+      <c r="E87" s="51"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="60"/>
+      <c r="H87" s="59"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
       <c r="D88" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" s="55"/>
+        <v>135</v>
+      </c>
+      <c r="E88" s="48"/>
       <c r="F88" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="60"/>
+      <c r="H88" s="59"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="59"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
       <c r="D89" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" s="32"/>
+        <v>137</v>
+      </c>
+      <c r="E89" s="51"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="60"/>
+      <c r="H89" s="59"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="59"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="61"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="E90" s="51"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="60"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="59"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="58" t="s">
-        <v>152</v>
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="63" t="s">
+        <v>139</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" s="32"/>
+        <v>140</v>
+      </c>
+      <c r="E91" s="51"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="60"/>
+      <c r="H91" s="59"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="59"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="59"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" s="55"/>
-      <c r="F92" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G92" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H92" s="60"/>
+        <v>141</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H92" s="59"/>
     </row>
     <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E93" s="32"/>
+        <v>144</v>
+      </c>
+      <c r="E93" s="51"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="60"/>
+      <c r="H93" s="59"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
       <c r="D94" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E94" s="32"/>
+        <v>145</v>
+      </c>
+      <c r="E94" s="51"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="60"/>
+      <c r="H94" s="59"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E95" s="55"/>
-      <c r="F95" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H95" s="60"/>
+        <v>146</v>
+      </c>
+      <c r="E95" s="48"/>
+      <c r="F95" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H95" s="59"/>
     </row>
     <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="59"/>
-      <c r="B96" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96" s="62" t="s">
-        <v>163</v>
+      <c r="A96" s="57"/>
+      <c r="B96" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="65" t="s">
+        <v>150</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E96" s="32"/>
+        <v>151</v>
+      </c>
+      <c r="E96" s="51"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="60"/>
+      <c r="H96" s="59"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="63"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="58"/>
       <c r="D97" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E97" s="32"/>
+        <v>152</v>
+      </c>
+      <c r="E97" s="51"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="60"/>
+      <c r="H97" s="59"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="63"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="58"/>
       <c r="D98" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E98" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="E98" s="48"/>
       <c r="F98" s="8" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="60"/>
+      <c r="H98" s="59"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="63"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
       <c r="D99" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E99" s="32"/>
+        <v>155</v>
+      </c>
+      <c r="E99" s="51"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="60"/>
+      <c r="H99" s="59"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="63"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E100" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="E100" s="51"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="60"/>
+      <c r="H100" s="59"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="63"/>
+      <c r="A101" s="57"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E101" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="E101" s="51"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="60"/>
+      <c r="H101" s="59"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="63"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E102" s="32"/>
+        <v>158</v>
+      </c>
+      <c r="E102" s="51"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="60"/>
+      <c r="H102" s="59"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="63"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E103" s="53" t="s">
-        <v>349</v>
+        <v>159</v>
+      </c>
+      <c r="E103" s="46" t="s">
+        <v>334</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="60"/>
+      <c r="H103" s="59"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="59"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E104" s="54" t="s">
-        <v>352</v>
+      <c r="A104" s="57"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E104" s="47" t="s">
+        <v>337</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G104" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="H104" s="60"/>
+        <v>160</v>
+      </c>
+      <c r="G104" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="H104" s="59"/>
     </row>
     <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="59"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="58" t="s">
-        <v>174</v>
+      <c r="A105" s="57"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="63" t="s">
+        <v>161</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E105" s="32"/>
+        <v>162</v>
+      </c>
+      <c r="E105" s="51"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="60"/>
+      <c r="H105" s="59"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="59"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="59"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E106" s="32"/>
+        <v>163</v>
+      </c>
+      <c r="E106" s="51"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="60"/>
+      <c r="H106" s="59"/>
     </row>
     <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="59"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E107" s="55"/>
-      <c r="F107" s="41" t="s">
-        <v>178</v>
+        <v>164</v>
+      </c>
+      <c r="E107" s="48"/>
+      <c r="F107" s="35" t="s">
+        <v>165</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="60"/>
+      <c r="H107" s="59"/>
     </row>
     <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="59"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E108" s="32"/>
+        <v>166</v>
+      </c>
+      <c r="E108" s="51"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="60"/>
+      <c r="H108" s="59"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="59"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="59"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E109" s="32"/>
+        <v>167</v>
+      </c>
+      <c r="E109" s="51"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="60"/>
+      <c r="H109" s="59"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="59"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="59"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
       <c r="D110" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E110" s="32"/>
+        <v>168</v>
+      </c>
+      <c r="E110" s="51"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="60"/>
+      <c r="H110" s="59"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="59"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="59"/>
+      <c r="A111" s="57"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
       <c r="D111" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E111" s="32"/>
+        <v>169</v>
+      </c>
+      <c r="E111" s="51"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="60"/>
+      <c r="H111" s="59"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="59"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="59"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="57"/>
       <c r="D112" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E112" s="55"/>
-      <c r="F112" s="41" t="s">
-        <v>184</v>
+        <v>170</v>
+      </c>
+      <c r="E112" s="48"/>
+      <c r="F112" s="35" t="s">
+        <v>171</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="60"/>
+      <c r="H112" s="59"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="59"/>
-      <c r="B113" s="59"/>
-      <c r="C113" s="59"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E113" s="32"/>
+        <v>172</v>
+      </c>
+      <c r="E113" s="51"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="60"/>
+      <c r="H113" s="59"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="59"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="58" t="s">
-        <v>186</v>
+      <c r="A114" s="57"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="63" t="s">
+        <v>173</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E114" s="32"/>
+        <v>174</v>
+      </c>
+      <c r="E114" s="51"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="60"/>
+      <c r="H114" s="59"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="59"/>
-      <c r="B115" s="59"/>
-      <c r="C115" s="59"/>
+      <c r="A115" s="57"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="57"/>
       <c r="D115" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E115" s="55"/>
+        <v>175</v>
+      </c>
+      <c r="E115" s="48"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="60"/>
+      <c r="H115" s="59"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="59"/>
-      <c r="B116" s="59"/>
-      <c r="C116" s="59"/>
+      <c r="A116" s="57"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
       <c r="D116" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E116" s="32"/>
+        <v>176</v>
+      </c>
+      <c r="E116" s="51"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="60"/>
+      <c r="H116" s="59"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="59"/>
-      <c r="B117" s="59"/>
-      <c r="C117" s="59"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="57"/>
       <c r="D117" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E117" s="55"/>
+        <v>177</v>
+      </c>
+      <c r="E117" s="48"/>
       <c r="F117" s="8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="60"/>
+      <c r="H117" s="59"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="59"/>
-      <c r="B118" s="59"/>
-      <c r="C118" s="59"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E118" s="32"/>
+        <v>179</v>
+      </c>
+      <c r="E118" s="51"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="60"/>
+      <c r="H118" s="59"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="59"/>
-      <c r="B119" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C119" s="58" t="s">
-        <v>194</v>
+      <c r="A119" s="57"/>
+      <c r="B119" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="63" t="s">
+        <v>181</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E119" s="54" t="s">
-        <v>339</v>
+        <v>182</v>
+      </c>
+      <c r="E119" s="47" t="s">
+        <v>324</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G119" s="13"/>
-      <c r="H119" s="60"/>
+      <c r="H119" s="59"/>
     </row>
     <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="59"/>
-      <c r="B120" s="59"/>
-      <c r="C120" s="59"/>
+      <c r="A120" s="57"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E120" s="55"/>
+        <v>184</v>
+      </c>
+      <c r="E120" s="48"/>
       <c r="F120" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G120" s="13"/>
-      <c r="H120" s="60"/>
+      <c r="H120" s="59"/>
     </row>
     <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="59"/>
-      <c r="B121" s="59"/>
-      <c r="C121" s="59"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E121" s="54" t="s">
-        <v>339</v>
+        <v>186</v>
+      </c>
+      <c r="E121" s="47" t="s">
+        <v>324</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" s="60"/>
+      <c r="H121" s="59"/>
     </row>
     <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="59"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="58" t="s">
-        <v>201</v>
+      <c r="A122" s="57"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="63" t="s">
+        <v>188</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E122" s="32"/>
+        <v>189</v>
+      </c>
+      <c r="E122" s="51"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="60"/>
+      <c r="H122" s="59"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="59"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="59"/>
+      <c r="A123" s="57"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E123" s="55"/>
+        <v>190</v>
+      </c>
+      <c r="E123" s="48"/>
       <c r="F123" s="8" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="60"/>
+      <c r="H123" s="59"/>
     </row>
     <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="59"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="59"/>
+      <c r="A124" s="57"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="57"/>
       <c r="D124" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E124" s="32"/>
+        <v>192</v>
+      </c>
+      <c r="E124" s="51"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="60"/>
+      <c r="H124" s="59"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="59"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="59"/>
+      <c r="A125" s="57"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E125" s="32"/>
+        <v>193</v>
+      </c>
+      <c r="E125" s="51"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="60"/>
+      <c r="H125" s="59"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="59"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="58" t="s">
-        <v>207</v>
+      <c r="A126" s="57"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="63" t="s">
+        <v>194</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E126" s="32"/>
+        <v>195</v>
+      </c>
+      <c r="E126" s="51"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="60"/>
+      <c r="H126" s="59"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="59"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="59"/>
+      <c r="A127" s="57"/>
+      <c r="B127" s="57"/>
+      <c r="C127" s="57"/>
       <c r="D127" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E127" s="55"/>
+        <v>196</v>
+      </c>
+      <c r="E127" s="48"/>
       <c r="F127" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="60"/>
+      <c r="H127" s="59"/>
     </row>
     <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="59"/>
-      <c r="B128" s="59"/>
-      <c r="C128" s="59"/>
+      <c r="A128" s="57"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="57"/>
       <c r="D128" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E128" s="32"/>
+        <v>198</v>
+      </c>
+      <c r="E128" s="51"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="60"/>
+      <c r="H128" s="59"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="59"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="59"/>
+      <c r="A129" s="57"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="57"/>
       <c r="D129" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E129" s="32"/>
+        <v>199</v>
+      </c>
+      <c r="E129" s="51"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="60"/>
+      <c r="H129" s="59"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="59"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="59"/>
+      <c r="A130" s="57"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E130" s="55"/>
+        <v>200</v>
+      </c>
+      <c r="E130" s="48"/>
       <c r="F130" s="8" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="60"/>
+      <c r="H130" s="59"/>
     </row>
     <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="59"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="59"/>
+      <c r="A131" s="57"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
       <c r="D131" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E131" s="32"/>
+        <v>202</v>
+      </c>
+      <c r="E131" s="51"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="60"/>
+      <c r="H131" s="59"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="59"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="59"/>
+      <c r="A132" s="57"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E132" s="32"/>
+        <v>203</v>
+      </c>
+      <c r="E132" s="51"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="60"/>
+      <c r="H132" s="59"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="59"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="59"/>
+      <c r="A133" s="57"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="57"/>
       <c r="D133" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E133" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="E133" s="51"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="60"/>
+      <c r="H133" s="59"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="59"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="59"/>
+      <c r="A134" s="57"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
       <c r="D134" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E134" s="32"/>
+        <v>205</v>
+      </c>
+      <c r="E134" s="51"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="60"/>
+      <c r="H134" s="59"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="59"/>
-      <c r="B135" s="59"/>
-      <c r="C135" s="59"/>
+      <c r="A135" s="57"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="57"/>
       <c r="D135" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E135" s="55"/>
+        <v>206</v>
+      </c>
+      <c r="E135" s="48"/>
       <c r="F135" s="8" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G135" s="13"/>
-      <c r="H135" s="60"/>
+      <c r="H135" s="59"/>
     </row>
     <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="59"/>
-      <c r="B136" s="59"/>
-      <c r="C136" s="59"/>
+      <c r="A136" s="57"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E136" s="32"/>
+        <v>208</v>
+      </c>
+      <c r="E136" s="51"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="60"/>
+      <c r="H136" s="59"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="59"/>
-      <c r="B137" s="59"/>
-      <c r="C137" s="59"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="57"/>
       <c r="D137" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E137" s="55"/>
-      <c r="F137" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="60"/>
+        <v>209</v>
+      </c>
+      <c r="E137" s="48"/>
+      <c r="F137" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G137" s="24"/>
+      <c r="H137" s="59"/>
     </row>
     <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="59"/>
-      <c r="B138" s="59"/>
-      <c r="C138" s="59"/>
+      <c r="A138" s="57"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="57"/>
       <c r="D138" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E138" s="55"/>
+        <v>211</v>
+      </c>
+      <c r="E138" s="48"/>
       <c r="F138" s="8" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G138" s="13"/>
-      <c r="H138" s="60"/>
+      <c r="H138" s="59"/>
     </row>
     <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="59"/>
-      <c r="B139" s="59"/>
-      <c r="C139" s="58" t="s">
-        <v>226</v>
+      <c r="A139" s="57"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E139" s="55"/>
-      <c r="F139" s="41" t="s">
-        <v>228</v>
+        <v>214</v>
+      </c>
+      <c r="E139" s="48"/>
+      <c r="F139" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="G139" s="7"/>
-      <c r="H139" s="60"/>
+      <c r="H139" s="59"/>
     </row>
     <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="59"/>
-      <c r="B140" s="59"/>
-      <c r="C140" s="59"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="57"/>
       <c r="D140" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E140" s="32"/>
+        <v>216</v>
+      </c>
+      <c r="E140" s="51"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="60"/>
+      <c r="H140" s="59"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="59"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="59"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="57"/>
       <c r="D141" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E141" s="55"/>
+        <v>217</v>
+      </c>
+      <c r="E141" s="48"/>
       <c r="F141" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="60"/>
+      <c r="H141" s="59"/>
     </row>
     <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="59"/>
-      <c r="B142" s="59"/>
-      <c r="C142" s="59"/>
+      <c r="A142" s="57"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="57"/>
       <c r="D142" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E142" s="55"/>
-      <c r="F142" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="60"/>
+        <v>219</v>
+      </c>
+      <c r="E142" s="48"/>
+      <c r="F142" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G142" s="25"/>
+      <c r="H142" s="59"/>
     </row>
     <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="59"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="59"/>
+      <c r="A143" s="57"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="57"/>
       <c r="D143" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E143" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="F143" s="36" t="s">
-        <v>348</v>
+        <v>221</v>
+      </c>
+      <c r="E143" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="G143" s="13"/>
-      <c r="H143" s="60"/>
+      <c r="H143" s="59"/>
     </row>
     <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="59"/>
-      <c r="B144" s="59"/>
-      <c r="C144" s="58" t="s">
-        <v>235</v>
+      <c r="A144" s="57"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E144" s="32"/>
+        <v>223</v>
+      </c>
+      <c r="E144" s="51"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="60"/>
+      <c r="H144" s="59"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="59"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="59"/>
+      <c r="A145" s="57"/>
+      <c r="B145" s="57"/>
+      <c r="C145" s="57"/>
       <c r="D145" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E145" s="55"/>
+        <v>224</v>
+      </c>
+      <c r="E145" s="48"/>
       <c r="F145" s="8" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="60"/>
+      <c r="H145" s="59"/>
     </row>
     <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="59"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="59"/>
+      <c r="A146" s="57"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="57"/>
       <c r="D146" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E146" s="32"/>
+        <v>226</v>
+      </c>
+      <c r="E146" s="51"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="60"/>
+      <c r="H146" s="59"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="59"/>
-      <c r="B147" s="59"/>
-      <c r="C147" s="59"/>
+      <c r="A147" s="57"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="57"/>
       <c r="D147" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E147" s="32"/>
+        <v>227</v>
+      </c>
+      <c r="E147" s="51"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="60"/>
+      <c r="H147" s="59"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="59"/>
-      <c r="B148" s="59"/>
-      <c r="C148" s="59"/>
+      <c r="A148" s="57"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="57"/>
       <c r="D148" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E148" s="32"/>
+        <v>228</v>
+      </c>
+      <c r="E148" s="51"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="60"/>
+      <c r="H148" s="59"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="59"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="59"/>
+      <c r="A149" s="57"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
       <c r="D149" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E149" s="32"/>
+        <v>229</v>
+      </c>
+      <c r="E149" s="51"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="60"/>
+      <c r="H149" s="59"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="59"/>
-      <c r="B150" s="59"/>
-      <c r="C150" s="59"/>
+      <c r="A150" s="57"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="57"/>
       <c r="D150" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E150" s="32"/>
+        <v>230</v>
+      </c>
+      <c r="E150" s="51"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="60"/>
+      <c r="H150" s="59"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="59"/>
-      <c r="B151" s="59"/>
-      <c r="C151" s="58" t="s">
-        <v>244</v>
+      <c r="A151" s="57"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="63" t="s">
+        <v>231</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E151" s="55"/>
+        <v>232</v>
+      </c>
+      <c r="E151" s="48"/>
       <c r="F151" s="8" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G151" s="13"/>
-      <c r="H151" s="60"/>
+      <c r="H151" s="59"/>
     </row>
     <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="59"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="59"/>
+      <c r="A152" s="57"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="57"/>
       <c r="D152" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E152" s="55"/>
-      <c r="F152" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="G152" s="28"/>
-      <c r="H152" s="60"/>
+        <v>234</v>
+      </c>
+      <c r="E152" s="48"/>
+      <c r="F152" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G152" s="26"/>
+      <c r="H152" s="59"/>
     </row>
     <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="59"/>
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
+      <c r="A153" s="57"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
       <c r="D153" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E153" s="32"/>
+        <v>236</v>
+      </c>
+      <c r="E153" s="51"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="60"/>
+      <c r="H153" s="59"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="59"/>
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
+      <c r="A154" s="57"/>
+      <c r="B154" s="57"/>
+      <c r="C154" s="57"/>
       <c r="D154" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E154" s="55"/>
-      <c r="F154" s="41" t="s">
-        <v>251</v>
+        <v>237</v>
+      </c>
+      <c r="E154" s="48"/>
+      <c r="F154" s="35" t="s">
+        <v>238</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="60"/>
+      <c r="H154" s="59"/>
     </row>
     <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="59"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="59"/>
+      <c r="A155" s="57"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="57"/>
       <c r="D155" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E155" s="32"/>
+        <v>239</v>
+      </c>
+      <c r="E155" s="51"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="60"/>
+      <c r="H155" s="59"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="59"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="58" t="s">
-        <v>253</v>
+      <c r="A156" s="57"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="63" t="s">
+        <v>240</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E156" s="32"/>
+        <v>241</v>
+      </c>
+      <c r="E156" s="51"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="60"/>
+      <c r="H156" s="59"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="59"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="59"/>
+      <c r="A157" s="57"/>
+      <c r="B157" s="57"/>
+      <c r="C157" s="57"/>
       <c r="D157" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E157" s="55"/>
+        <v>242</v>
+      </c>
+      <c r="E157" s="48"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="60"/>
+      <c r="H157" s="59"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="59"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="59"/>
+      <c r="A158" s="57"/>
+      <c r="B158" s="57"/>
+      <c r="C158" s="57"/>
       <c r="D158" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E158" s="32"/>
+        <v>243</v>
+      </c>
+      <c r="E158" s="51"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="60"/>
+      <c r="H158" s="59"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="59"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="59"/>
+      <c r="A159" s="57"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="57"/>
       <c r="D159" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E159" s="32"/>
+        <v>244</v>
+      </c>
+      <c r="E159" s="51"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="60"/>
+      <c r="H159" s="59"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="59"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="59"/>
+      <c r="A160" s="57"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="57"/>
       <c r="D160" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E160" s="55"/>
+        <v>245</v>
+      </c>
+      <c r="E160" s="48"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="60"/>
+      <c r="H160" s="59"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="59"/>
-      <c r="B161" s="59"/>
-      <c r="C161" s="58" t="s">
-        <v>259</v>
+      <c r="A161" s="57"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E161" s="54" t="s">
-        <v>345</v>
+        <v>247</v>
+      </c>
+      <c r="E161" s="47" t="s">
+        <v>330</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G161" s="13"/>
-      <c r="H161" s="60"/>
+      <c r="H161" s="59"/>
     </row>
     <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="59"/>
-      <c r="B162" s="59"/>
-      <c r="C162" s="59"/>
+      <c r="A162" s="57"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="57"/>
       <c r="D162" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E162" s="53" t="s">
-        <v>345</v>
+        <v>249</v>
+      </c>
+      <c r="E162" s="46" t="s">
+        <v>330</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="60"/>
+      <c r="H162" s="59"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="59"/>
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
+      <c r="A163" s="57"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="57"/>
       <c r="D163" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E163" s="32"/>
+        <v>250</v>
+      </c>
+      <c r="E163" s="51"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="60"/>
+      <c r="H163" s="59"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="59"/>
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
+      <c r="A164" s="57"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="57"/>
       <c r="D164" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E164" s="55"/>
+        <v>251</v>
+      </c>
+      <c r="E164" s="48"/>
       <c r="F164" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="G164" s="29"/>
-      <c r="H164" s="60"/>
+        <v>252</v>
+      </c>
+      <c r="G164" s="27"/>
+      <c r="H164" s="59"/>
     </row>
     <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="59"/>
-      <c r="B165" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="C165" s="58" t="s">
-        <v>267</v>
+      <c r="A165" s="57"/>
+      <c r="B165" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C165" s="63" t="s">
+        <v>254</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E165" s="55"/>
+        <v>255</v>
+      </c>
+      <c r="E165" s="48"/>
       <c r="F165" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="60"/>
+      <c r="H165" s="59"/>
     </row>
     <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="59"/>
-      <c r="B166" s="59"/>
-      <c r="C166" s="59"/>
+      <c r="A166" s="57"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="57"/>
       <c r="D166" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E166" s="32"/>
+        <v>257</v>
+      </c>
+      <c r="E166" s="51"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="60"/>
+      <c r="H166" s="59"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="59"/>
-      <c r="B167" s="59"/>
-      <c r="C167" s="59"/>
+      <c r="A167" s="57"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="57"/>
       <c r="D167" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E167" s="32"/>
+        <v>258</v>
+      </c>
+      <c r="E167" s="51"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="60"/>
+      <c r="H167" s="59"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="59"/>
-      <c r="B168" s="59"/>
-      <c r="C168" s="59"/>
+      <c r="A168" s="57"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="57"/>
       <c r="D168" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E168" s="32"/>
+        <v>259</v>
+      </c>
+      <c r="E168" s="51"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="60"/>
+      <c r="H168" s="59"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="59"/>
-      <c r="B169" s="59"/>
-      <c r="C169" s="59"/>
+      <c r="A169" s="57"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="57"/>
       <c r="D169" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E169" s="32"/>
+        <v>260</v>
+      </c>
+      <c r="E169" s="51"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="60"/>
+      <c r="H169" s="59"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="59"/>
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
+      <c r="A170" s="57"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="57"/>
       <c r="D170" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E170" s="32"/>
+        <v>261</v>
+      </c>
+      <c r="E170" s="51"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="60"/>
+      <c r="H170" s="59"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="59"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
+      <c r="A171" s="57"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="57"/>
       <c r="D171" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E171" s="55"/>
+        <v>262</v>
+      </c>
+      <c r="E171" s="48"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="60"/>
+      <c r="H171" s="59"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="59"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
+      <c r="A172" s="57"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="57"/>
       <c r="D172" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E172" s="32"/>
+        <v>263</v>
+      </c>
+      <c r="E172" s="51"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="60"/>
+      <c r="H172" s="59"/>
     </row>
     <row r="173" spans="1:8" ht="40.5">
-      <c r="A173" s="59"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="58" t="s">
-        <v>277</v>
+      <c r="A173" s="57"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="63" t="s">
+        <v>264</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E173" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="F173" s="57" t="s">
-        <v>346</v>
+        <v>265</v>
+      </c>
+      <c r="E173" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" s="49" t="s">
+        <v>331</v>
       </c>
       <c r="G173" s="13"/>
-      <c r="H173" s="60"/>
+      <c r="H173" s="59"/>
     </row>
     <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="59"/>
-      <c r="B174" s="59"/>
-      <c r="C174" s="59"/>
+      <c r="A174" s="57"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="57"/>
       <c r="D174" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E174" s="32"/>
+        <v>266</v>
+      </c>
+      <c r="E174" s="51"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="60"/>
+      <c r="H174" s="59"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="59"/>
-      <c r="B175" s="59"/>
-      <c r="C175" s="59"/>
+      <c r="A175" s="57"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="57"/>
       <c r="D175" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E175" s="32"/>
+        <v>267</v>
+      </c>
+      <c r="E175" s="51"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="60"/>
+      <c r="H175" s="59"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="59"/>
-      <c r="B176" s="59"/>
-      <c r="C176" s="59"/>
+      <c r="A176" s="57"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
       <c r="D176" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E176" s="55"/>
+        <v>268</v>
+      </c>
+      <c r="E176" s="48"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="60"/>
+      <c r="H176" s="59"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="59"/>
-      <c r="B177" s="59"/>
-      <c r="C177" s="58" t="s">
-        <v>282</v>
+      <c r="A177" s="57"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="63" t="s">
+        <v>269</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E177" s="55"/>
+        <v>270</v>
+      </c>
+      <c r="E177" s="48"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="60"/>
+      <c r="H177" s="59"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="59"/>
-      <c r="B178" s="59"/>
-      <c r="C178" s="59"/>
+      <c r="A178" s="57"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="57"/>
       <c r="D178" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E178" s="32"/>
+        <v>271</v>
+      </c>
+      <c r="E178" s="51"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="60"/>
+      <c r="H178" s="59"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="59"/>
-      <c r="B179" s="59"/>
-      <c r="C179" s="59"/>
+      <c r="A179" s="57"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="57"/>
       <c r="D179" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E179" s="32"/>
+        <v>272</v>
+      </c>
+      <c r="E179" s="51"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="60"/>
+      <c r="H179" s="59"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="59"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="58" t="s">
-        <v>286</v>
+      <c r="A180" s="57"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="63" t="s">
+        <v>273</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E180" s="32"/>
+        <v>274</v>
+      </c>
+      <c r="E180" s="51"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="60"/>
+      <c r="H180" s="59"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="59"/>
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
+      <c r="A181" s="57"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
       <c r="D181" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E181" s="55"/>
+        <v>275</v>
+      </c>
+      <c r="E181" s="48"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="60"/>
+      <c r="H181" s="59"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="59"/>
-      <c r="B182" s="59"/>
-      <c r="C182" s="58" t="s">
-        <v>289</v>
+      <c r="A182" s="57"/>
+      <c r="B182" s="57"/>
+      <c r="C182" s="63" t="s">
+        <v>276</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E182" s="55"/>
+        <v>277</v>
+      </c>
+      <c r="E182" s="48"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="60"/>
+      <c r="H182" s="59"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="59"/>
-      <c r="B183" s="59"/>
-      <c r="C183" s="59"/>
+      <c r="A183" s="57"/>
+      <c r="B183" s="57"/>
+      <c r="C183" s="57"/>
       <c r="D183" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E183" s="32"/>
+        <v>278</v>
+      </c>
+      <c r="E183" s="51"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="60"/>
+      <c r="H183" s="59"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="59"/>
-      <c r="B184" s="59"/>
-      <c r="C184" s="59"/>
+      <c r="A184" s="57"/>
+      <c r="B184" s="57"/>
+      <c r="C184" s="57"/>
       <c r="D184" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E184" s="32"/>
+        <v>279</v>
+      </c>
+      <c r="E184" s="51"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="60"/>
+      <c r="H184" s="59"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="59"/>
-      <c r="B185" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="C185" s="58" t="s">
-        <v>294</v>
+      <c r="A185" s="57"/>
+      <c r="B185" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C185" s="63" t="s">
+        <v>281</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E185" s="55"/>
+        <v>282</v>
+      </c>
+      <c r="E185" s="48"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="60"/>
+      <c r="H185" s="59"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="59"/>
-      <c r="B186" s="59"/>
-      <c r="C186" s="59"/>
+      <c r="A186" s="57"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="57"/>
       <c r="D186" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E186" s="32"/>
+        <v>283</v>
+      </c>
+      <c r="E186" s="51"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="60"/>
+      <c r="H186" s="59"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="59"/>
-      <c r="B187" s="59"/>
-      <c r="C187" s="58" t="s">
-        <v>297</v>
+      <c r="A187" s="57"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="63" t="s">
+        <v>284</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E187" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="E187" s="48"/>
       <c r="F187" s="8" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="60"/>
+      <c r="H187" s="59"/>
     </row>
     <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="59"/>
-      <c r="B188" s="59"/>
-      <c r="C188" s="59"/>
+      <c r="A188" s="57"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="57"/>
       <c r="D188" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E188" s="55"/>
+        <v>287</v>
+      </c>
+      <c r="E188" s="48"/>
       <c r="F188" s="8" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G188" s="13"/>
-      <c r="H188" s="60"/>
+      <c r="H188" s="59"/>
     </row>
     <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="59"/>
-      <c r="B189" s="59"/>
-      <c r="C189" s="59"/>
+      <c r="A189" s="57"/>
+      <c r="B189" s="57"/>
+      <c r="C189" s="57"/>
       <c r="D189" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E189" s="32"/>
+        <v>289</v>
+      </c>
+      <c r="E189" s="51"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="60"/>
+      <c r="H189" s="59"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="59"/>
-      <c r="B190" s="59"/>
-      <c r="C190" s="59"/>
+      <c r="A190" s="57"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="57"/>
       <c r="D190" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E190" s="32"/>
+        <v>290</v>
+      </c>
+      <c r="E190" s="51"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="60"/>
+      <c r="H190" s="59"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="59"/>
-      <c r="B191" s="59"/>
-      <c r="C191" s="59"/>
+      <c r="A191" s="57"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="57"/>
       <c r="D191" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E191" s="32"/>
+        <v>291</v>
+      </c>
+      <c r="E191" s="51"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="60"/>
+      <c r="H191" s="59"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="59"/>
-      <c r="B192" s="59"/>
-      <c r="C192" s="59"/>
+      <c r="A192" s="57"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="57"/>
       <c r="D192" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E192" s="32"/>
+        <v>292</v>
+      </c>
+      <c r="E192" s="51"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="60"/>
+      <c r="H192" s="59"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="59"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="59"/>
+      <c r="A193" s="57"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="57"/>
       <c r="D193" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E193" s="55"/>
+        <v>293</v>
+      </c>
+      <c r="E193" s="48"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="60"/>
+      <c r="H193" s="59"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="59"/>
-      <c r="B194" s="59"/>
-      <c r="C194" s="58" t="s">
-        <v>307</v>
+      <c r="A194" s="57"/>
+      <c r="B194" s="57"/>
+      <c r="C194" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E194" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="F194" s="38" t="s">
-        <v>344</v>
+        <v>295</v>
+      </c>
+      <c r="E194" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="F194" s="32" t="s">
+        <v>329</v>
       </c>
       <c r="G194" s="13"/>
-      <c r="H194" s="60"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" hidden="1" customHeight="1">
-      <c r="A195" s="59"/>
-      <c r="B195" s="59"/>
-      <c r="C195" s="59"/>
+      <c r="H194" s="59"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A195" s="57"/>
+      <c r="B195" s="57"/>
+      <c r="C195" s="57"/>
       <c r="D195" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E195" s="54" t="s">
-        <v>334</v>
-      </c>
-      <c r="F195" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="G195" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="H195" s="60"/>
+        <v>296</v>
+      </c>
+      <c r="E195" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="G195" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="H195" s="59"/>
     </row>
     <row r="196" spans="1:8" ht="28.5">
-      <c r="A196" s="59"/>
-      <c r="B196" s="59"/>
-      <c r="C196" s="59"/>
+      <c r="A196" s="57"/>
+      <c r="B196" s="57"/>
+      <c r="C196" s="57"/>
       <c r="D196" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E196" s="55"/>
-      <c r="F196" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="G196" s="30"/>
-      <c r="H196" s="60"/>
+        <v>297</v>
+      </c>
+      <c r="E196" s="48"/>
+      <c r="F196" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G196" s="28"/>
+      <c r="H196" s="59"/>
     </row>
     <row r="197" spans="1:8" ht="14.25">
-      <c r="A197" s="59"/>
-      <c r="B197" s="59"/>
-      <c r="C197" s="58" t="s">
-        <v>312</v>
+      <c r="A197" s="57"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="63" t="s">
+        <v>299</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E197" s="32"/>
+        <v>300</v>
+      </c>
+      <c r="E197" s="51"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="60"/>
+      <c r="H197" s="59"/>
     </row>
     <row r="198" spans="1:8" ht="28.5">
-      <c r="A198" s="59"/>
-      <c r="B198" s="59"/>
-      <c r="C198" s="59"/>
+      <c r="A198" s="57"/>
+      <c r="B198" s="57"/>
+      <c r="C198" s="57"/>
       <c r="D198" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E198" s="32"/>
+        <v>301</v>
+      </c>
+      <c r="E198" s="51"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="60"/>
+      <c r="H198" s="59"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="59"/>
-      <c r="B199" s="59"/>
-      <c r="C199" s="59"/>
+      <c r="A199" s="57"/>
+      <c r="B199" s="57"/>
+      <c r="C199" s="57"/>
       <c r="D199" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E199" s="32"/>
+        <v>302</v>
+      </c>
+      <c r="E199" s="51"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="60"/>
-    </row>
-    <row r="200" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A200" s="58" t="s">
+      <c r="H199" s="59"/>
+    </row>
+    <row r="200" spans="1:8" ht="14.25">
+      <c r="A200" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C200" s="57"/>
+      <c r="D200" s="58"/>
+      <c r="E200" s="58"/>
+      <c r="F200" s="58"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="59"/>
+    </row>
+    <row r="201" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A201" s="57"/>
+      <c r="B201" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C201" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="D201" s="60"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="60"/>
+      <c r="G201" s="60"/>
+      <c r="H201" s="61"/>
+    </row>
+    <row r="202" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A202" s="57"/>
+      <c r="B202" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C202" s="73" t="s">
         <v>316</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C200" s="59"/>
-      <c r="D200" s="63"/>
-      <c r="E200" s="63"/>
-      <c r="F200" s="63"/>
-      <c r="G200" s="63"/>
-      <c r="H200" s="60"/>
-    </row>
-    <row r="201" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A201" s="59"/>
-      <c r="B201" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C201" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="D201" s="68"/>
-      <c r="E201" s="63"/>
-      <c r="F201" s="68"/>
-      <c r="G201" s="68"/>
-      <c r="H201" s="69"/>
-    </row>
-    <row r="202" spans="1:8" ht="114.6" customHeight="1">
-      <c r="A202" s="59"/>
-      <c r="B202" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C202" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="D202" s="68"/>
-      <c r="E202" s="63"/>
-      <c r="F202" s="68"/>
-      <c r="G202" s="68"/>
-      <c r="H202" s="69"/>
+      <c r="D202" s="74"/>
+      <c r="E202" s="75"/>
+      <c r="F202" s="74"/>
+      <c r="G202" s="74"/>
+      <c r="H202" s="76"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="B"/>
-        <filter val="C"/>
-        <filter val="熟练"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="H3:H39"/>
+    <mergeCell ref="H40:H56"/>
+    <mergeCell ref="H57:H74"/>
+    <mergeCell ref="H75:H95"/>
+    <mergeCell ref="H96:H118"/>
+    <mergeCell ref="H119:H164"/>
+    <mergeCell ref="H165:H184"/>
+    <mergeCell ref="H185:H199"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C193"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C201:H201"/>
@@ -7291,48 +9018,8 @@
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="H3:H39"/>
-    <mergeCell ref="H40:H56"/>
-    <mergeCell ref="H57:H74"/>
-    <mergeCell ref="H75:H95"/>
-    <mergeCell ref="H96:H118"/>
-    <mergeCell ref="H119:H164"/>
-    <mergeCell ref="H165:H184"/>
-    <mergeCell ref="H185:H199"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C193"/>
-    <mergeCell ref="C151:C155"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
@@ -7344,9 +9031,15 @@
     <hyperlink ref="G92" r:id="rId8"/>
     <hyperlink ref="G195" r:id="rId9"/>
     <hyperlink ref="G104" r:id="rId10"/>
+    <hyperlink ref="G9" r:id="rId11"/>
+    <hyperlink ref="G25" r:id="rId12"/>
+    <hyperlink ref="F30" r:id="rId13"/>
+    <hyperlink ref="G43" r:id="rId14"/>
+    <hyperlink ref="G70" r:id="rId15"/>
+    <hyperlink ref="G71" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="366">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -629,9 +629,6 @@
     <t>JSON方法实现；用for…in实现遍历和复制；利用数组的Array.prototype.forEach进copy</t>
   </si>
   <si>
-    <t>手写函数柯里化工具函数、并理解其应用场景和优势</t>
-  </si>
-  <si>
     <t>手写防抖和节流工具函数、并理解其内部原理和应用场景</t>
   </si>
   <si>
@@ -1409,334 +1406,6 @@
       </rPr>
       <t>来表示。</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评分规则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>:(10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、回答不到关键字，定义为【了解】程度及以下，评分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>&lt;=6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、能答到关键字，但是讲解不清楚，定义为【应用】程度，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>6&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>&lt;=8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、能回答到关键字，且能完整表述正确答案，定义为【熟悉】程度，评分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>&gt;8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评级规则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以工作能力为主，工作年限仅为参考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、工作三年左右，对于大部分考核项目达到【应用】程度的，属于能够独立进行开发的，评级为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>T2.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、工作五年左右，对于大部分考核项目达到【熟悉】程度的，属于能够担任主力开发的，评级为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>T2.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>T2.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>https://www.jianshu.com/p/5c1e90817bdf</t>
@@ -4388,6 +4057,426 @@
       <t>、技术评价（能力程度、技术优势、弱点、自行钻研领域）</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写函数柯里化工具函数、并理解其应用场景和优势</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>:(10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、回答不到关键字，定义为【了解】程度及以下，评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&lt;=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、能答到关键字，但是讲解不清楚，定义为【应用】程度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>6&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&lt;=8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、能回答到关键字，且能完整表述正确答案，定义为【熟悉】程度，评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&gt;8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以工作能力为主，工作年限仅为参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作三年左右，对于大部分考核项目达到【应用】程度的，属于能够独立进行开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作五年左右，对于大部分考核项目达到【熟悉】程度的，属于能够担任主力开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场景：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>before,after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/u011500781/article/details/80004517</t>
   </si>
 </sst>
 </file>
@@ -4868,42 +4957,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4922,6 +4975,42 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6090,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201:H201"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -6100,23 +6189,23 @@
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="68" customWidth="1"/>
+    <col min="5" max="5" width="5" style="56" customWidth="1"/>
     <col min="6" max="7" width="68.625" style="44" customWidth="1"/>
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6137,7 +6226,7 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -6145,13 +6234,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6164,30 +6253,30 @@
         <v>14</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="141">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>320</v>
+      <c r="F4" s="55" t="s">
+        <v>318</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
@@ -6200,30 +6289,30 @@
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="126.75">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="66" t="s">
-        <v>340</v>
+      <c r="F6" s="54" t="s">
+        <v>338</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
@@ -6234,12 +6323,12 @@
         <v>25</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="59"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
@@ -6250,30 +6339,30 @@
         <v>27</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="126.75">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>338</v>
+      <c r="F9" s="55" t="s">
+        <v>336</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="H9" s="59"/>
+        <v>339</v>
+      </c>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
@@ -6284,12 +6373,12 @@
         <v>29</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="59"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
@@ -6302,12 +6391,12 @@
       <c r="G11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -6320,14 +6409,14 @@
         <v>35</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="H12" s="59"/>
+        <v>340</v>
+      </c>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
@@ -6338,14 +6427,14 @@
         <v>37</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="59"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>16</v>
@@ -6354,14 +6443,14 @@
         <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H14" s="59"/>
+        <v>342</v>
+      </c>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="51" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="8" t="s">
         <v>39</v>
       </c>
@@ -6372,12 +6461,12 @@
         <v>40</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="59"/>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
@@ -6385,176 +6474,176 @@
         <v>16</v>
       </c>
       <c r="F16" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>308</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>309</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="59"/>
+      <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="59"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="59"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="51" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="59"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="59"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="59"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="59"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="63" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="71" t="s">
-        <v>346</v>
+      <c r="D25" s="59" t="s">
+        <v>344</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="G25" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>57</v>
@@ -6562,394 +6651,394 @@
       <c r="G27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="59"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="59"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>350</v>
+        <v>310</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>348</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="59"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="196.5">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="59"/>
+        <v>347</v>
+      </c>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="59"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="63" t="s">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="61" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="59"/>
+      <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="59"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="59"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>70</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="59"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="59"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="59"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="63" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="61" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="59"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>78</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="59"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="59"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="71" t="s">
-        <v>353</v>
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="59" t="s">
+        <v>351</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>80</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="H43" s="59"/>
+        <v>352</v>
+      </c>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="59"/>
+      <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="29.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="63" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="61" t="s">
         <v>82</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="59"/>
+      <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F46" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="63"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="59"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="32" t="s">
+      <c r="E47" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>315</v>
-      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="59"/>
+      <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="27.75">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="59"/>
+      <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="71.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="59"/>
+      <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E51" s="51"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="59"/>
+      <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="8" t="s">
         <v>88</v>
       </c>
       <c r="E52" s="51"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="59"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="5" t="s">
         <v>89</v>
       </c>
@@ -6958,50 +7047,50 @@
         <v>90</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="59"/>
+      <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="51"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E55" s="51"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="59"/>
+      <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E56" s="51"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="59"/>
+      <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="57"/>
-      <c r="B57" s="63" t="s">
+      <c r="A57" s="62"/>
+      <c r="B57" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="61" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -7010,12 +7099,12 @@
       <c r="E57" s="51"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="59"/>
+      <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="5" t="s">
         <v>97</v>
       </c>
@@ -7024,52 +7113,52 @@
         <v>98</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="59"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E59" s="51"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="59"/>
+      <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="59"/>
+      <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E61" s="51"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="59"/>
+      <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="63" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="61" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -7080,133 +7169,133 @@
         <v>104</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="59"/>
+      <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E63" s="51"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="59"/>
+      <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E64" s="51"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="59"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E65" s="51"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="59"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E66" s="51"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="59"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="59"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E68" s="46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="59"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="8" t="s">
         <v>110</v>
       </c>
       <c r="E69" s="51"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="59"/>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G70" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="H70" s="63"/>
+    </row>
+    <row r="71" spans="1:8" ht="369">
+      <c r="A71" s="62"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="E70" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="G70" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="H70" s="59"/>
-    </row>
-    <row r="71" spans="1:8" ht="369">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="71" t="s">
-        <v>358</v>
-      </c>
       <c r="E71" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="F71" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="G71" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="H71" s="59"/>
+        <v>324</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="G71" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="63" t="s">
+      <c r="A72" s="62"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="61" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -7215,12 +7304,12 @@
       <c r="E72" s="51"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="59"/>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="5" t="s">
         <v>113</v>
       </c>
@@ -7229,40 +7318,40 @@
         <v>114</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="59"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="49" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E74" s="51"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="59"/>
+      <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="57"/>
-      <c r="B75" s="63" t="s">
+      <c r="A75" s="62"/>
+      <c r="B75" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="61" t="s">
         <v>116</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E75" s="51"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="59"/>
+      <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="5" t="s">
         <v>117</v>
       </c>
@@ -7271,1685 +7360,1689 @@
         <v>118</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="59"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="8" t="s">
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="H77" s="63"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="59"/>
-    </row>
-    <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="E78" s="46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="59"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="G79" s="13"/>
+      <c r="H79" s="63"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="62"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="59"/>
-    </row>
-    <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="57"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="63" t="s">
+      <c r="D80" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="E80" s="46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="59"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E81" s="51"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="59"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="57"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="F82" s="8" t="s">
+      <c r="G82" s="13"/>
+      <c r="H82" s="63"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A83" s="62"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="59"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="57"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E83" s="48"/>
       <c r="F83" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="63"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A84" s="62"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="59"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="E84" s="51"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="59"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" s="51"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="59"/>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="51"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="59"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="63" t="s">
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="E87" s="51"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="59"/>
+      <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E88" s="48"/>
       <c r="F88" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="63"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A89" s="62"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="59"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="E89" s="51"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="59"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="62"/>
       <c r="C90" s="64"/>
       <c r="D90" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E90" s="51"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="59"/>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="63" t="s">
+      <c r="A91" s="62"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="E91" s="51"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="59"/>
+      <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E92" s="48"/>
       <c r="F92" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="H92" s="63"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A93" s="62"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="H92" s="59"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="E93" s="51"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="59"/>
+      <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E94" s="51"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="59"/>
+      <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="57"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="48"/>
       <c r="F95" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G95" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="H95" s="63"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="62"/>
+      <c r="B96" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="H95" s="59"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="57"/>
-      <c r="B96" s="63" t="s">
+      <c r="C96" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="65" t="s">
+      <c r="D96" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="E96" s="51"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="59"/>
+      <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="57"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="58"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="66"/>
       <c r="D97" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97" s="51"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="59"/>
+      <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="58"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="66"/>
       <c r="D98" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98" s="48"/>
       <c r="F98" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" s="13"/>
+      <c r="H98" s="63"/>
+    </row>
+    <row r="99" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A99" s="62"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="59"/>
-    </row>
-    <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E99" s="51"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="59"/>
+      <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
+      <c r="A100" s="62"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="66"/>
       <c r="D100" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E100" s="51"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="59"/>
+      <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="58"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E101" s="51"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="59"/>
+      <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="58"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="66"/>
       <c r="D102" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102" s="51"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="59"/>
+      <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="62"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="66"/>
       <c r="D103" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="59"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="57"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="58"/>
+      <c r="A104" s="62"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="66"/>
       <c r="D104" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="E104" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="E104" s="47" t="s">
-        <v>337</v>
-      </c>
       <c r="F104" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="H104" s="63"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="62"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="H104" s="59"/>
-    </row>
-    <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="63" t="s">
+      <c r="D105" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="E105" s="51"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="59"/>
+      <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E106" s="51"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="59"/>
-    </row>
-    <row r="107" spans="1:8" ht="27" customHeight="1">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
+      <c r="H106" s="63"/>
+    </row>
+    <row r="107" spans="1:8" ht="28.5">
+      <c r="A107" s="62"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
       <c r="D107" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E107" s="48"/>
       <c r="F107" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="63"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A108" s="62"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="59"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="57"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="E108" s="51"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="59"/>
+      <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
       <c r="D109" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E109" s="51"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="59"/>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E110" s="51"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="59"/>
+      <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
+      <c r="A111" s="62"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
       <c r="D111" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E111" s="51"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="59"/>
+      <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="62"/>
       <c r="D112" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E112" s="48"/>
       <c r="F112" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="63"/>
+    </row>
+    <row r="113" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A113" s="62"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="59"/>
-    </row>
-    <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="57"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="E113" s="51"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="59"/>
+      <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="63" t="s">
+      <c r="A114" s="62"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="E114" s="51"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="59"/>
+      <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="57"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
+      <c r="A115" s="62"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
       <c r="D115" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E115" s="48"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="59"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="57"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
+      <c r="A116" s="62"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
       <c r="D116" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E116" s="51"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="59"/>
+      <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="57"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="57"/>
+      <c r="A117" s="62"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
       <c r="D117" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E117" s="48"/>
       <c r="F117" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="63"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A118" s="62"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="59"/>
-    </row>
-    <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="57"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E118" s="51"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="59"/>
+      <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="57"/>
-      <c r="B119" s="63" t="s">
+      <c r="A119" s="62"/>
+      <c r="B119" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="63" t="s">
+      <c r="D119" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="E119" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E119" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="F119" s="8" t="s">
+      <c r="G119" s="13"/>
+      <c r="H119" s="63"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="62"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="59"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="57"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E120" s="48"/>
       <c r="F120" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="63"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="62"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="59"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="57"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="5" t="s">
+      <c r="E121" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E121" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="G121" s="13"/>
+      <c r="H121" s="63"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="62"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="59"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="57"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="63" t="s">
+      <c r="D122" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="E122" s="51"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="59"/>
+      <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="57"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="57"/>
+      <c r="A123" s="62"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="62"/>
       <c r="D123" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E123" s="48"/>
       <c r="F123" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="63"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A124" s="62"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="59"/>
-    </row>
-    <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="57"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="E124" s="51"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="59"/>
+      <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="57"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
+      <c r="A125" s="62"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
       <c r="D125" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E125" s="51"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="59"/>
+      <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="57"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="63" t="s">
+      <c r="A126" s="62"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="E126" s="51"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="59"/>
+      <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="57"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="57"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="62"/>
       <c r="D127" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E127" s="48"/>
       <c r="F127" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="63"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A128" s="62"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="59"/>
-    </row>
-    <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="57"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="E128" s="51"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="59"/>
+      <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
       <c r="D129" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E129" s="51"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="59"/>
+      <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="57"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E130" s="48"/>
       <c r="F130" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="63"/>
+    </row>
+    <row r="131" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A131" s="62"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="G130" s="13"/>
-      <c r="H130" s="59"/>
-    </row>
-    <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="57"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="E131" s="51"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="59"/>
+      <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
+      <c r="A132" s="62"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
       <c r="D132" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E132" s="51"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="59"/>
+      <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="57"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="57"/>
+      <c r="A133" s="62"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
       <c r="D133" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E133" s="51"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="59"/>
+      <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="57"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
+      <c r="A134" s="62"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="62"/>
       <c r="D134" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E134" s="51"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="59"/>
+      <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="57"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
+      <c r="A135" s="62"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
       <c r="D135" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E135" s="48"/>
       <c r="F135" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="63"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A136" s="62"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="G135" s="13"/>
-      <c r="H135" s="59"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="57"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="E136" s="51"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="59"/>
+      <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="57"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
+      <c r="A137" s="62"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
       <c r="D137" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E137" s="48"/>
       <c r="F137" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="G137" s="24"/>
+      <c r="H137" s="63"/>
+    </row>
+    <row r="138" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A138" s="62"/>
+      <c r="B138" s="62"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="G137" s="24"/>
-      <c r="H137" s="59"/>
-    </row>
-    <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="57"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="E138" s="48"/>
       <c r="F138" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="63"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" customHeight="1">
+      <c r="A139" s="62"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="59"/>
-    </row>
-    <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="57"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="63" t="s">
+      <c r="D139" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E139" s="48"/>
       <c r="F139" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="63"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A140" s="62"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="59"/>
-    </row>
-    <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="57"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="E140" s="51"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="59"/>
+      <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="57"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
+      <c r="A141" s="62"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="62"/>
       <c r="D141" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E141" s="48"/>
       <c r="F141" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="63"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A142" s="62"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="59"/>
-    </row>
-    <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="57"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="E142" s="48"/>
       <c r="F142" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G142" s="25"/>
+      <c r="H142" s="63"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="62"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G142" s="25"/>
-      <c r="H142" s="59"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="57"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="8" t="s">
+      <c r="E143" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="63"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A144" s="62"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="E143" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G143" s="13"/>
-      <c r="H143" s="59"/>
-    </row>
-    <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="57"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="63" t="s">
+      <c r="D144" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="E144" s="51"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="59"/>
+      <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="57"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
+      <c r="A145" s="62"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
       <c r="D145" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E145" s="48"/>
       <c r="F145" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="63"/>
+    </row>
+    <row r="146" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A146" s="62"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="59"/>
-    </row>
-    <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="57"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="E146" s="51"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="59"/>
+      <c r="H146" s="63"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="57"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="57"/>
+      <c r="A147" s="62"/>
+      <c r="B147" s="62"/>
+      <c r="C147" s="62"/>
       <c r="D147" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E147" s="51"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="59"/>
+      <c r="H147" s="63"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="57"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
+      <c r="A148" s="62"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
       <c r="D148" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E148" s="51"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="59"/>
+      <c r="H148" s="63"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="57"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
+      <c r="A149" s="62"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="62"/>
       <c r="D149" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E149" s="51"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="59"/>
+      <c r="H149" s="63"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="57"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
+      <c r="A150" s="62"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="62"/>
       <c r="D150" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E150" s="51"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="59"/>
+      <c r="H150" s="63"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="57"/>
-      <c r="B151" s="57"/>
-      <c r="C151" s="63" t="s">
+      <c r="A151" s="62"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="E151" s="48"/>
       <c r="F151" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="63"/>
+    </row>
+    <row r="152" spans="1:8" ht="27" customHeight="1">
+      <c r="A152" s="62"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="59"/>
-    </row>
-    <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="57"/>
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="E152" s="48"/>
       <c r="F152" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G152" s="26"/>
+      <c r="H152" s="63"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A153" s="62"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="62"/>
+      <c r="D153" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="G152" s="26"/>
-      <c r="H152" s="59"/>
-    </row>
-    <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="57"/>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="E153" s="51"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="59"/>
+      <c r="H153" s="63"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="57"/>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
+      <c r="A154" s="62"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="62"/>
       <c r="D154" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E154" s="48"/>
       <c r="F154" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="63"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A155" s="62"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="59"/>
-    </row>
-    <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="57"/>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="E155" s="51"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="59"/>
+      <c r="H155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="57"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="63" t="s">
+      <c r="A156" s="62"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="E156" s="51"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="59"/>
+      <c r="H156" s="63"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="57"/>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
+      <c r="A157" s="62"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="62"/>
       <c r="D157" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E157" s="48"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="59"/>
+      <c r="H157" s="63"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="57"/>
-      <c r="B158" s="57"/>
-      <c r="C158" s="57"/>
+      <c r="A158" s="62"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="62"/>
       <c r="D158" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E158" s="51"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="59"/>
+      <c r="H158" s="63"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="57"/>
-      <c r="B159" s="57"/>
-      <c r="C159" s="57"/>
+      <c r="A159" s="62"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="62"/>
       <c r="D159" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E159" s="51"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="59"/>
+      <c r="H159" s="63"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="57"/>
-      <c r="B160" s="57"/>
-      <c r="C160" s="57"/>
+      <c r="A160" s="62"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="62"/>
       <c r="D160" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E160" s="48"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="59"/>
+      <c r="H160" s="63"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="57"/>
-      <c r="B161" s="57"/>
-      <c r="C161" s="63" t="s">
+      <c r="A161" s="62"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="E161" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E161" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="F161" s="8" t="s">
+      <c r="G161" s="13"/>
+      <c r="H161" s="63"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A162" s="62"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="62"/>
+      <c r="D162" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G161" s="13"/>
-      <c r="H161" s="59"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="57"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
-      <c r="D162" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="E162" s="46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="59"/>
+      <c r="H162" s="63"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="57"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
+      <c r="A163" s="62"/>
+      <c r="B163" s="62"/>
+      <c r="C163" s="62"/>
       <c r="D163" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E163" s="51"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="59"/>
+      <c r="H163" s="63"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="57"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
+      <c r="A164" s="62"/>
+      <c r="B164" s="62"/>
+      <c r="C164" s="62"/>
       <c r="D164" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E164" s="48"/>
       <c r="F164" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G164" s="27"/>
+      <c r="H164" s="63"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="62"/>
+      <c r="B165" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="G164" s="27"/>
-      <c r="H164" s="59"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="57"/>
-      <c r="B165" s="63" t="s">
+      <c r="C165" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="C165" s="63" t="s">
+      <c r="D165" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="E165" s="48"/>
       <c r="F165" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="63"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A166" s="62"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="62"/>
+      <c r="D166" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="59"/>
-    </row>
-    <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="57"/>
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
-      <c r="D166" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="E166" s="51"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="59"/>
+      <c r="H166" s="63"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="57"/>
-      <c r="B167" s="57"/>
-      <c r="C167" s="57"/>
+      <c r="A167" s="62"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="62"/>
       <c r="D167" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E167" s="51"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="59"/>
+      <c r="H167" s="63"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="57"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
+      <c r="A168" s="62"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="62"/>
       <c r="D168" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E168" s="51"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="59"/>
+      <c r="H168" s="63"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="57"/>
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
+      <c r="A169" s="62"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="62"/>
       <c r="D169" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E169" s="51"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="59"/>
+      <c r="H169" s="63"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="57"/>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
+      <c r="A170" s="62"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="62"/>
       <c r="D170" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E170" s="51"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="59"/>
+      <c r="H170" s="63"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="57"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
+      <c r="A171" s="62"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="62"/>
       <c r="D171" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E171" s="48"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="59"/>
+      <c r="H171" s="63"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="57"/>
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
+      <c r="A172" s="62"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="62"/>
       <c r="D172" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E172" s="51"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="59"/>
+      <c r="H172" s="63"/>
     </row>
     <row r="173" spans="1:8" ht="40.5">
-      <c r="A173" s="57"/>
-      <c r="B173" s="57"/>
-      <c r="C173" s="63" t="s">
+      <c r="A173" s="62"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="E173" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F173" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="63"/>
+    </row>
+    <row r="174" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A174" s="62"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="62"/>
+      <c r="D174" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="E173" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="F173" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="G173" s="13"/>
-      <c r="H173" s="59"/>
-    </row>
-    <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="57"/>
-      <c r="B174" s="57"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="E174" s="51"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="59"/>
+      <c r="H174" s="63"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="57"/>
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
+      <c r="A175" s="62"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="62"/>
       <c r="D175" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E175" s="51"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="59"/>
+      <c r="H175" s="63"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="57"/>
-      <c r="B176" s="57"/>
-      <c r="C176" s="57"/>
+      <c r="A176" s="62"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="62"/>
       <c r="D176" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E176" s="48"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="59"/>
+      <c r="H176" s="63"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="57"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="63" t="s">
+      <c r="A177" s="62"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="E177" s="48"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="59"/>
+      <c r="H177" s="63"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="57"/>
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
+      <c r="A178" s="62"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="62"/>
       <c r="D178" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E178" s="51"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="59"/>
+      <c r="H178" s="63"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="57"/>
-      <c r="B179" s="57"/>
-      <c r="C179" s="57"/>
+      <c r="A179" s="62"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="62"/>
       <c r="D179" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E179" s="51"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="59"/>
+      <c r="H179" s="63"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="57"/>
-      <c r="B180" s="57"/>
-      <c r="C180" s="63" t="s">
+      <c r="A180" s="62"/>
+      <c r="B180" s="62"/>
+      <c r="C180" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="D180" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="E180" s="51"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="59"/>
+      <c r="H180" s="63"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="57"/>
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
+      <c r="A181" s="62"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="62"/>
       <c r="D181" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E181" s="48"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="59"/>
+      <c r="H181" s="63"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="57"/>
-      <c r="B182" s="57"/>
-      <c r="C182" s="63" t="s">
+      <c r="A182" s="62"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="E182" s="48"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="59"/>
+      <c r="H182" s="63"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="57"/>
-      <c r="B183" s="57"/>
-      <c r="C183" s="57"/>
+      <c r="A183" s="62"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="62"/>
       <c r="D183" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E183" s="51"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="59"/>
+      <c r="H183" s="63"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="57"/>
-      <c r="B184" s="57"/>
-      <c r="C184" s="57"/>
+      <c r="A184" s="62"/>
+      <c r="B184" s="62"/>
+      <c r="C184" s="62"/>
       <c r="D184" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E184" s="51"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="59"/>
+      <c r="H184" s="63"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="57"/>
-      <c r="B185" s="63" t="s">
+      <c r="A185" s="62"/>
+      <c r="B185" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="C185" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C185" s="63" t="s">
+      <c r="D185" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="E185" s="48"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="59"/>
+      <c r="H185" s="63"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="57"/>
-      <c r="B186" s="57"/>
-      <c r="C186" s="57"/>
+      <c r="A186" s="62"/>
+      <c r="B186" s="62"/>
+      <c r="C186" s="62"/>
       <c r="D186" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E186" s="51"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="59"/>
+      <c r="H186" s="63"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="57"/>
-      <c r="B187" s="57"/>
-      <c r="C187" s="63" t="s">
+      <c r="A187" s="62"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="E187" s="48"/>
       <c r="F187" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G187" s="13"/>
+      <c r="H187" s="63"/>
+    </row>
+    <row r="188" spans="1:8" ht="27" customHeight="1">
+      <c r="A188" s="62"/>
+      <c r="B188" s="62"/>
+      <c r="C188" s="62"/>
+      <c r="D188" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="G187" s="13"/>
-      <c r="H187" s="59"/>
-    </row>
-    <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="57"/>
-      <c r="B188" s="57"/>
-      <c r="C188" s="57"/>
-      <c r="D188" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="E188" s="48"/>
       <c r="F188" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G188" s="13"/>
+      <c r="H188" s="63"/>
+    </row>
+    <row r="189" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A189" s="62"/>
+      <c r="B189" s="62"/>
+      <c r="C189" s="62"/>
+      <c r="D189" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="G188" s="13"/>
-      <c r="H188" s="59"/>
-    </row>
-    <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="57"/>
-      <c r="B189" s="57"/>
-      <c r="C189" s="57"/>
-      <c r="D189" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="E189" s="51"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="59"/>
+      <c r="H189" s="63"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="57"/>
-      <c r="B190" s="57"/>
-      <c r="C190" s="57"/>
+      <c r="A190" s="62"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="62"/>
       <c r="D190" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E190" s="51"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="59"/>
+      <c r="H190" s="63"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="57"/>
-      <c r="B191" s="57"/>
-      <c r="C191" s="57"/>
+      <c r="A191" s="62"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="62"/>
       <c r="D191" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E191" s="51"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="59"/>
+      <c r="H191" s="63"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="57"/>
-      <c r="B192" s="57"/>
-      <c r="C192" s="57"/>
+      <c r="A192" s="62"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="62"/>
       <c r="D192" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E192" s="51"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="59"/>
+      <c r="H192" s="63"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="57"/>
-      <c r="B193" s="57"/>
-      <c r="C193" s="57"/>
+      <c r="A193" s="62"/>
+      <c r="B193" s="62"/>
+      <c r="C193" s="62"/>
       <c r="D193" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E193" s="48"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="59"/>
+      <c r="H193" s="63"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="57"/>
-      <c r="B194" s="57"/>
-      <c r="C194" s="63" t="s">
+      <c r="A194" s="62"/>
+      <c r="B194" s="62"/>
+      <c r="C194" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E194" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F194" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="G194" s="13"/>
+      <c r="H194" s="63"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A195" s="62"/>
+      <c r="B195" s="62"/>
+      <c r="C195" s="62"/>
+      <c r="D195" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E194" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="F194" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="59"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A195" s="57"/>
-      <c r="B195" s="57"/>
-      <c r="C195" s="57"/>
-      <c r="D195" s="5" t="s">
+      <c r="E195" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G195" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="H195" s="63"/>
+    </row>
+    <row r="196" spans="1:8" ht="28.5">
+      <c r="A196" s="62"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="62"/>
+      <c r="D196" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E195" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="F195" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="G195" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="H195" s="59"/>
-    </row>
-    <row r="196" spans="1:8" ht="28.5">
-      <c r="A196" s="57"/>
-      <c r="B196" s="57"/>
-      <c r="C196" s="57"/>
-      <c r="D196" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E196" s="48"/>
       <c r="F196" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G196" s="28"/>
+      <c r="H196" s="63"/>
+    </row>
+    <row r="197" spans="1:8" ht="14.25">
+      <c r="A197" s="62"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="G196" s="28"/>
-      <c r="H196" s="59"/>
-    </row>
-    <row r="197" spans="1:8" ht="14.25">
-      <c r="A197" s="57"/>
-      <c r="B197" s="57"/>
-      <c r="C197" s="63" t="s">
+      <c r="D197" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="E197" s="51"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="59"/>
+      <c r="H197" s="63"/>
     </row>
     <row r="198" spans="1:8" ht="28.5">
-      <c r="A198" s="57"/>
-      <c r="B198" s="57"/>
-      <c r="C198" s="57"/>
+      <c r="A198" s="62"/>
+      <c r="B198" s="62"/>
+      <c r="C198" s="62"/>
       <c r="D198" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E198" s="51"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="59"/>
+      <c r="H198" s="63"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="57"/>
-      <c r="B199" s="57"/>
-      <c r="C199" s="57"/>
+      <c r="A199" s="62"/>
+      <c r="B199" s="62"/>
+      <c r="C199" s="62"/>
       <c r="D199" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E199" s="51"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="59"/>
+      <c r="H199" s="63"/>
     </row>
     <row r="200" spans="1:8" ht="14.25">
-      <c r="A200" s="63" t="s">
+      <c r="A200" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="C200" s="62"/>
+      <c r="D200" s="66"/>
+      <c r="E200" s="66"/>
+      <c r="F200" s="66"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="63"/>
+    </row>
+    <row r="201" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A201" s="62"/>
+      <c r="B201" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C200" s="57"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="58"/>
-      <c r="F200" s="58"/>
-      <c r="G200" s="58"/>
-      <c r="H200" s="59"/>
-    </row>
-    <row r="201" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A201" s="57"/>
-      <c r="B201" s="4" t="s">
+      <c r="C201" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D201" s="71"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="71"/>
+      <c r="G201" s="71"/>
+      <c r="H201" s="72"/>
+    </row>
+    <row r="202" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A202" s="62"/>
+      <c r="B202" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C201" s="62" t="s">
+      <c r="C202" s="73" t="s">
         <v>363</v>
-      </c>
-      <c r="D201" s="60"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="60"/>
-      <c r="H201" s="61"/>
-    </row>
-    <row r="202" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A202" s="57"/>
-      <c r="B202" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C202" s="73" t="s">
-        <v>316</v>
       </c>
       <c r="D202" s="74"/>
       <c r="E202" s="75"/>
@@ -8962,6 +9055,46 @@
     <filterColumn colId="0"/>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="B40:B56"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B95"/>
+    <mergeCell ref="B96:B118"/>
+    <mergeCell ref="B119:B164"/>
+    <mergeCell ref="B165:B184"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
     <mergeCell ref="C194:C196"/>
     <mergeCell ref="C197:C199"/>
     <mergeCell ref="H3:H39"/>
@@ -8978,46 +9111,6 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="C187:C193"/>
     <mergeCell ref="C151:C155"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="B40:B56"/>
-    <mergeCell ref="B57:B74"/>
-    <mergeCell ref="B75:B95"/>
-    <mergeCell ref="B96:B118"/>
-    <mergeCell ref="B119:B164"/>
-    <mergeCell ref="B165:B184"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
@@ -9037,9 +9130,10 @@
     <hyperlink ref="G43" r:id="rId14"/>
     <hyperlink ref="G70" r:id="rId15"/>
     <hyperlink ref="G71" r:id="rId16"/>
+    <hyperlink ref="G77" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="368">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>数字（number）、字符串（string）、布尔值（boolean）、undefined、null、对象（Object）;其中对象类型包括：数组（Array）、函数（Function）、还有两个特殊的对象：正则（RegExp）和日期（Date）。</t>
   </si>
   <si>
     <t>JavaScript对象的底层数据结构是什么</t>
@@ -786,12 +783,6 @@
   </si>
   <si>
     <t>浏览器回流与重绘的底层原理，引发原因，如何有效避免</t>
-  </si>
-  <si>
-    <t>浏览器的垃圾回收机制，如何避免内存泄漏</t>
-  </si>
-  <si>
-    <t>自动垃圾回收机制(GC:Garbage Collecation)；意外的全局变量、被遗忘的计时器或回调函、脱离 DOM 的引用数、</t>
   </si>
   <si>
     <t>浏览器采用的缓存方案，如何选择和控制合适的缓存方案</t>
@@ -4478,12 +4469,480 @@
   <si>
     <t>https://blog.csdn.net/u011500781/article/details/80004517</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、字符串（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、布尔值（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>symbol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>bigint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、对象（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中对象类型包括：数组（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、函数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、还有两个特殊的对象：正则（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>RegExp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和日期（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>BigInt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有范围</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器的垃圾回收机制，如何避免内存泄漏</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juejin.im/post/6844903978069655565</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通常情况下，垃圾数据回收分为手动回收和自动回收两种策略。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动回收策略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，何时分配内存、何时销毁内存都是由代码控制的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动回收策略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，产生的垃圾数据是由垃圾回收器来释放的，并不需要手动通过代码来释放。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">JavaScript </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中调用栈中的数据回收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">JavaScript </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引擎会通过向下移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> ESP(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录当前执行状态的指针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">来销毁该函数保存在栈中的执行上下文。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">JavaScript </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆中的数据回收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> V8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中会把堆分为新生代和老生代两个区域，新生代中存放的是生存时间短的对象，老生代中存放的生存时间久的对象。
+执行过程
+第一步是标记空间中活动对象和非活动对象。
+第二步是回收非活动对象所占据的内存。
+第三步是做内存整理。</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juejin.im/post/6844904063570542599</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="38">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4710,6 +5169,30 @@
       <color indexed="22"/>
       <name val="等线"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4798,7 +5281,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4976,24 +5459,6 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5002,6 +5467,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5023,6 +5497,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6179,8 +6665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -6196,16 +6682,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6234,13 +6720,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="74" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6250,2811 +6736,2855 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="66"/>
+    </row>
+    <row r="4" spans="1:8" ht="141">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="63"/>
-    </row>
-    <row r="4" spans="1:8" ht="141">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="F4" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" spans="1:8" ht="126.75">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="1:8" ht="126.75">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" spans="1:8" ht="51" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" s="63"/>
-    </row>
-    <row r="7" spans="1:8" ht="51" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="63"/>
-    </row>
-    <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:8" ht="126.75">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="66"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="1:8" ht="126.75">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="32" t="s">
+      <c r="E10" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="66"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="1:8" ht="51" customHeight="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="H9" s="63"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="H12" s="63"/>
-    </row>
-    <row r="13" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:8" ht="99" customHeight="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="63"/>
-    </row>
-    <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="35" t="s">
+      <c r="G14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:8" ht="51" customHeight="1">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H14" s="63"/>
-    </row>
-    <row r="15" spans="1:8" ht="51" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="D17" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>309</v>
-      </c>
       <c r="E17" s="47" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="63"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="63"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:8" ht="66.95" customHeight="1">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" customHeight="1">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="5" t="s">
+      <c r="F21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="63"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="63"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="63"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="61" t="s">
-        <v>53</v>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="74" t="s">
+        <v>52</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="H25" s="63"/>
+        <v>342</v>
+      </c>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="63"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="66"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="E28" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="63"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="63"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="66"/>
+    </row>
+    <row r="31" spans="1:8" ht="196.5">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="63"/>
-    </row>
-    <row r="31" spans="1:8" ht="196.5">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" s="66"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="E32" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="H31" s="63"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="8" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="66"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="61" t="s">
+      <c r="D33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E33" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="63"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="66"/>
+    </row>
+    <row r="35" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="63"/>
-    </row>
-    <row r="35" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E35" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="63"/>
+      <c r="H35" s="66"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="63"/>
+      <c r="H36" s="66"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="66"/>
+    </row>
+    <row r="38" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="63"/>
-    </row>
-    <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="E38" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="63"/>
+      <c r="H38" s="66"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="G39" s="13"/>
+      <c r="H39" s="66"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A40" s="64"/>
+      <c r="B40" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="63"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A40" s="62"/>
-      <c r="B40" s="61" t="s">
+      <c r="C40" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="D40" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E40" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="63"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="F41" s="33" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="63"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="E42" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="63"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="59" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F43" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="H43" s="66"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="H43" s="63"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="E44" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="63"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" spans="1:8" ht="29.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="61" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="66"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="63"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="E46" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="63"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="63"/>
+      <c r="H47" s="66"/>
     </row>
     <row r="48" spans="1:8" ht="27.75">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="63"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="63"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="1:8" ht="71.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="66"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="63"/>
-    </row>
-    <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="E51" s="51"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="63"/>
+      <c r="H51" s="66"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="51"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="63"/>
+      <c r="H52" s="66"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="48"/>
       <c r="F53" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="66"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="63"/>
-    </row>
-    <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="E54" s="51"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="63"/>
+      <c r="H54" s="66"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="62"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="51"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="63"/>
+      <c r="H55" s="66"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="62"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" s="51"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="63"/>
+      <c r="H56" s="66"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="62"/>
-      <c r="B57" s="61" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="D57" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E57" s="51"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="63"/>
+      <c r="H57" s="66"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="62"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="63"/>
+      <c r="H58" s="66"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="62"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E59" s="51"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="63"/>
+      <c r="H59" s="66"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="G60" s="13"/>
+      <c r="H60" s="66"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="63"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="62"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="E61" s="51"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="63"/>
+      <c r="H61" s="66"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="62"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="61" t="s">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="63"/>
+      <c r="H62" s="66"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E63" s="51"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="63"/>
+      <c r="H63" s="66"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="51"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="63"/>
+      <c r="H64" s="66"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="62"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E65" s="51"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="63"/>
+      <c r="H65" s="66"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="62"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" s="51"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="63"/>
+      <c r="H66" s="66"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="63"/>
+      <c r="H67" s="66"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="62"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" s="46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="66"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="62"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E69" s="51"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="63"/>
+      <c r="H69" s="66"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="62"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E70" s="46" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G70" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="H70" s="63"/>
+        <v>352</v>
+      </c>
+      <c r="H70" s="66"/>
     </row>
     <row r="71" spans="1:8" ht="369">
-      <c r="A71" s="62"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="G71" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="E71" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="F71" s="60" t="s">
-        <v>360</v>
-      </c>
-      <c r="G71" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="H71" s="63"/>
+      <c r="H71" s="66"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="62"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="61" t="s">
+      <c r="A72" s="64"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="E72" s="51"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="63"/>
+      <c r="H72" s="66"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="62"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E73" s="48"/>
       <c r="F73" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="63"/>
+      <c r="H73" s="66"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E74" s="51"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="63"/>
+      <c r="H74" s="66"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="62"/>
-      <c r="B75" s="61" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="61" t="s">
-        <v>116</v>
-      </c>
       <c r="D75" s="49" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E75" s="51"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="63"/>
+      <c r="H75" s="66"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="62"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E76" s="48"/>
       <c r="F76" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="66"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="H77" s="66"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="63"/>
-    </row>
-    <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="62"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="E77" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G77" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="H77" s="63"/>
-    </row>
-    <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="62"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E78" s="46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="63"/>
+      <c r="H78" s="66"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="G79" s="13"/>
+      <c r="H79" s="66"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="63"/>
-    </row>
-    <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="62"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="61" t="s">
+      <c r="D80" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="E80" s="46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="63"/>
+      <c r="H80" s="66"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="62"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="62"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
       <c r="D81" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E81" s="51"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="63"/>
+      <c r="H81" s="66"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="62"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="F82" s="8" t="s">
+      <c r="G82" s="13"/>
+      <c r="H82" s="66"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="63"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="62"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="E83" s="48"/>
       <c r="F83" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="66"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A84" s="64"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="63"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="62"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="E84" s="51"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="63"/>
+      <c r="H84" s="66"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="62"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
       <c r="D85" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85" s="51"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="63"/>
+      <c r="H85" s="66"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="62"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E86" s="51"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="63"/>
+      <c r="H86" s="66"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="62"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="61" t="s">
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="E87" s="51"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="63"/>
+      <c r="H87" s="66"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="62"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="62"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" s="48"/>
       <c r="F88" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="66"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="63"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="62"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="E89" s="51"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="63"/>
+      <c r="H89" s="66"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="62"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="64"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="75"/>
       <c r="D90" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E90" s="51"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="63"/>
+      <c r="H90" s="66"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="62"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="61" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="E91" s="51"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="63"/>
+      <c r="H91" s="66"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="62"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
       <c r="D92" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E92" s="48"/>
       <c r="F92" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="H92" s="66"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="H92" s="63"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="62"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="E93" s="51"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="63"/>
+      <c r="H93" s="66"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="62"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" s="51"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="63"/>
+      <c r="H94" s="66"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="62"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E95" s="48"/>
       <c r="F95" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="H95" s="66"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="64"/>
+      <c r="B96" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="H95" s="63"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="62"/>
-      <c r="B96" s="61" t="s">
+      <c r="C96" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C96" s="65" t="s">
+      <c r="D96" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E96" s="51"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="63"/>
+      <c r="H96" s="66"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="62"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="66"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="65"/>
       <c r="D97" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97" s="51"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="63"/>
+      <c r="H97" s="66"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="62"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="66"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="65"/>
       <c r="D98" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E98" s="48"/>
       <c r="F98" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="13"/>
+      <c r="H98" s="66"/>
+    </row>
+    <row r="99" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="63"/>
-    </row>
-    <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="62"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="E99" s="51"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="63"/>
+      <c r="H99" s="66"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="62"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="66"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="65"/>
       <c r="D100" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="51"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="63"/>
+      <c r="H100" s="66"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="62"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="66"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="65"/>
       <c r="D101" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101" s="51"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="63"/>
+      <c r="H101" s="66"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="62"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="66"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="65"/>
       <c r="D102" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E102" s="51"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="63"/>
+      <c r="H102" s="66"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="62"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="66"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="65"/>
       <c r="D103" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" s="46" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="63"/>
+      <c r="H103" s="66"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="62"/>
-      <c r="B104" s="62"/>
-      <c r="C104" s="66"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F104" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G104" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="H104" s="66"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="G104" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="H104" s="63"/>
-    </row>
-    <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="62"/>
-      <c r="B105" s="62"/>
-      <c r="C105" s="61" t="s">
+      <c r="D105" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="E105" s="51"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="63"/>
+      <c r="H105" s="66"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="62"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="62"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E106" s="51"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="63"/>
+      <c r="H106" s="66"/>
     </row>
     <row r="107" spans="1:8" ht="28.5">
-      <c r="A107" s="62"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="62"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E107" s="48"/>
       <c r="F107" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="66"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="63"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="62"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="E108" s="51"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="63"/>
+      <c r="H108" s="66"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="62"/>
-      <c r="B109" s="62"/>
-      <c r="C109" s="62"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109" s="51"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="63"/>
+      <c r="H109" s="66"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="62"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
       <c r="D110" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E110" s="51"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="63"/>
+      <c r="H110" s="66"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="62"/>
-      <c r="B111" s="62"/>
-      <c r="C111" s="62"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
       <c r="D111" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E111" s="51"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="63"/>
-    </row>
-    <row r="112" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A112" s="62"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="5" t="s">
-        <v>169</v>
+      <c r="H111" s="66"/>
+    </row>
+    <row r="112" spans="1:8" ht="159">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="31" t="s">
+        <v>364</v>
       </c>
       <c r="E112" s="48"/>
-      <c r="F112" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="63"/>
+      <c r="F112" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="G112" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="H112" s="66"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="62"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E113" s="51"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="63"/>
+      <c r="H113" s="66"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="62"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="61" t="s">
-        <v>172</v>
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="74" t="s">
+        <v>169</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E114" s="51"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="63"/>
+      <c r="H114" s="66"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="62"/>
-      <c r="B115" s="62"/>
-      <c r="C115" s="62"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
       <c r="D115" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E115" s="48"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="63"/>
+      <c r="H115" s="66"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="62"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
       <c r="D116" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E116" s="51"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="63"/>
+      <c r="H116" s="66"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="62"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
       <c r="D117" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E117" s="48"/>
       <c r="F117" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="63"/>
+      <c r="H117" s="66"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="62"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="62"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
       <c r="D118" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E118" s="51"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="63"/>
+      <c r="H118" s="66"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="62"/>
-      <c r="B119" s="61" t="s">
+      <c r="A119" s="64"/>
+      <c r="B119" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C119" s="61" t="s">
+      <c r="G119" s="13"/>
+      <c r="H119" s="66"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E119" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="63"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="62"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="62"/>
-      <c r="D120" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E120" s="48"/>
       <c r="F120" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G120" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="H120" s="66"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E121" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="66"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="63"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="62"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="5" t="s">
+      <c r="D122" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="E121" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="63"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="62"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="E122" s="51"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="63"/>
+      <c r="H122" s="66"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="62"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
       <c r="D123" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E123" s="48"/>
       <c r="F123" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="63"/>
+      <c r="H123" s="66"/>
     </row>
     <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="62"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="62"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E124" s="51"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="63"/>
+      <c r="H124" s="66"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="62"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="62"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
       <c r="D125" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E125" s="51"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="63"/>
+      <c r="H125" s="66"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="62"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="61" t="s">
-        <v>193</v>
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="74" t="s">
+        <v>190</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E126" s="51"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="63"/>
+      <c r="H126" s="66"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="62"/>
-      <c r="B127" s="62"/>
-      <c r="C127" s="62"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
       <c r="D127" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E127" s="48"/>
       <c r="F127" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="63"/>
+      <c r="H127" s="66"/>
     </row>
     <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="62"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="62"/>
+      <c r="A128" s="64"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
       <c r="D128" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E128" s="51"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="63"/>
+      <c r="H128" s="66"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="62"/>
-      <c r="B129" s="62"/>
-      <c r="C129" s="62"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
       <c r="D129" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E129" s="51"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="63"/>
+      <c r="H129" s="66"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="62"/>
-      <c r="B130" s="62"/>
-      <c r="C130" s="62"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
       <c r="D130" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E130" s="48"/>
       <c r="F130" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="63"/>
+      <c r="H130" s="66"/>
     </row>
     <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="62"/>
-      <c r="B131" s="62"/>
-      <c r="C131" s="62"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
       <c r="D131" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E131" s="51"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="63"/>
+      <c r="H131" s="66"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="62"/>
-      <c r="B132" s="62"/>
-      <c r="C132" s="62"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
       <c r="D132" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E132" s="51"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="63"/>
+      <c r="H132" s="66"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="62"/>
-      <c r="B133" s="62"/>
-      <c r="C133" s="62"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
       <c r="D133" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E133" s="51"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="63"/>
+      <c r="H133" s="66"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="62"/>
-      <c r="B134" s="62"/>
-      <c r="C134" s="62"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
       <c r="D134" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E134" s="51"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="63"/>
+      <c r="H134" s="66"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="62"/>
-      <c r="B135" s="62"/>
-      <c r="C135" s="62"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
       <c r="D135" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E135" s="48"/>
       <c r="F135" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G135" s="13"/>
-      <c r="H135" s="63"/>
+      <c r="H135" s="66"/>
     </row>
     <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="62"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="62"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E136" s="51"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="63"/>
+      <c r="H136" s="66"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="62"/>
-      <c r="B137" s="62"/>
-      <c r="C137" s="62"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
       <c r="D137" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E137" s="48"/>
       <c r="F137" s="39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G137" s="24"/>
-      <c r="H137" s="63"/>
+      <c r="H137" s="66"/>
     </row>
     <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="62"/>
-      <c r="B138" s="62"/>
-      <c r="C138" s="62"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
       <c r="D138" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E138" s="48"/>
       <c r="F138" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G138" s="13"/>
-      <c r="H138" s="63"/>
+      <c r="H138" s="66"/>
     </row>
     <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="62"/>
-      <c r="B139" s="62"/>
-      <c r="C139" s="61" t="s">
-        <v>212</v>
+      <c r="A139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="74" t="s">
+        <v>209</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E139" s="48"/>
       <c r="F139" s="35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G139" s="7"/>
-      <c r="H139" s="63"/>
+      <c r="H139" s="66"/>
     </row>
     <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="62"/>
-      <c r="B140" s="62"/>
-      <c r="C140" s="62"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
       <c r="D140" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E140" s="51"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="63"/>
+      <c r="H140" s="66"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="62"/>
-      <c r="B141" s="62"/>
-      <c r="C141" s="62"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E141" s="48"/>
       <c r="F141" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="63"/>
+      <c r="H141" s="66"/>
     </row>
     <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="62"/>
-      <c r="B142" s="62"/>
-      <c r="C142" s="62"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
       <c r="D142" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E142" s="48"/>
       <c r="F142" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G142" s="25"/>
+      <c r="H142" s="66"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E143" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="66"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="G142" s="25"/>
-      <c r="H142" s="63"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="62"/>
-      <c r="B143" s="62"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E143" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="G143" s="13"/>
-      <c r="H143" s="63"/>
-    </row>
-    <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="62"/>
-      <c r="B144" s="62"/>
-      <c r="C144" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="E144" s="51"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="63"/>
+      <c r="H144" s="66"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="62"/>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
       <c r="D145" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E145" s="48"/>
       <c r="F145" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="63"/>
+      <c r="H145" s="66"/>
     </row>
     <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="62"/>
-      <c r="B146" s="62"/>
-      <c r="C146" s="62"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E146" s="51"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="63"/>
+      <c r="H146" s="66"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="62"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="62"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
       <c r="D147" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E147" s="51"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="63"/>
+      <c r="H147" s="66"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="62"/>
-      <c r="B148" s="62"/>
-      <c r="C148" s="62"/>
+      <c r="A148" s="64"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="64"/>
       <c r="D148" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E148" s="51"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="63"/>
+      <c r="H148" s="66"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="62"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="62"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
       <c r="D149" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E149" s="51"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="63"/>
+      <c r="H149" s="66"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="62"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="62"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
       <c r="D150" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E150" s="51"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="63"/>
+      <c r="H150" s="66"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="62"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="61" t="s">
-        <v>230</v>
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="74" t="s">
+        <v>227</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E151" s="48"/>
       <c r="F151" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G151" s="13"/>
-      <c r="H151" s="63"/>
+      <c r="H151" s="66"/>
     </row>
     <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="62"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="62"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
       <c r="D152" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E152" s="48"/>
       <c r="F152" s="41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G152" s="26"/>
-      <c r="H152" s="63"/>
+      <c r="H152" s="66"/>
     </row>
     <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="62"/>
-      <c r="B153" s="62"/>
-      <c r="C153" s="62"/>
+      <c r="A153" s="64"/>
+      <c r="B153" s="64"/>
+      <c r="C153" s="64"/>
       <c r="D153" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E153" s="51"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="63"/>
+      <c r="H153" s="66"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="62"/>
-      <c r="B154" s="62"/>
-      <c r="C154" s="62"/>
+      <c r="A154" s="64"/>
+      <c r="B154" s="64"/>
+      <c r="C154" s="64"/>
       <c r="D154" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E154" s="48"/>
       <c r="F154" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="63"/>
+      <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="62"/>
-      <c r="B155" s="62"/>
-      <c r="C155" s="62"/>
+      <c r="A155" s="64"/>
+      <c r="B155" s="64"/>
+      <c r="C155" s="64"/>
       <c r="D155" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E155" s="51"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="63"/>
+      <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="62"/>
-      <c r="B156" s="62"/>
-      <c r="C156" s="61" t="s">
-        <v>239</v>
+      <c r="A156" s="64"/>
+      <c r="B156" s="64"/>
+      <c r="C156" s="74" t="s">
+        <v>236</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E156" s="51"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="63"/>
+      <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="62"/>
-      <c r="B157" s="62"/>
-      <c r="C157" s="62"/>
+      <c r="A157" s="64"/>
+      <c r="B157" s="64"/>
+      <c r="C157" s="64"/>
       <c r="D157" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E157" s="48"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="63"/>
+      <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="62"/>
-      <c r="B158" s="62"/>
-      <c r="C158" s="62"/>
+      <c r="A158" s="64"/>
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E158" s="51"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="63"/>
+      <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="62"/>
-      <c r="B159" s="62"/>
-      <c r="C159" s="62"/>
+      <c r="A159" s="64"/>
+      <c r="B159" s="64"/>
+      <c r="C159" s="64"/>
       <c r="D159" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E159" s="51"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="63"/>
+      <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="62"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="62"/>
+      <c r="A160" s="64"/>
+      <c r="B160" s="64"/>
+      <c r="C160" s="64"/>
       <c r="D160" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E160" s="48"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="63"/>
+      <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="62"/>
-      <c r="B161" s="62"/>
-      <c r="C161" s="61" t="s">
+      <c r="A161" s="64"/>
+      <c r="B161" s="64"/>
+      <c r="C161" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E161" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G161" s="13"/>
+      <c r="H161" s="66"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A162" s="64"/>
+      <c r="B162" s="64"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E161" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G161" s="13"/>
-      <c r="H161" s="63"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="62"/>
-      <c r="B162" s="62"/>
-      <c r="C162" s="62"/>
-      <c r="D162" s="8" t="s">
-        <v>248</v>
-      </c>
       <c r="E162" s="46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="63"/>
+      <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="62"/>
-      <c r="B163" s="62"/>
-      <c r="C163" s="62"/>
+      <c r="A163" s="64"/>
+      <c r="B163" s="64"/>
+      <c r="C163" s="64"/>
       <c r="D163" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E163" s="51"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="63"/>
+      <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="62"/>
-      <c r="B164" s="62"/>
-      <c r="C164" s="62"/>
+      <c r="A164" s="64"/>
+      <c r="B164" s="64"/>
+      <c r="C164" s="64"/>
       <c r="D164" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E164" s="48"/>
       <c r="F164" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G164" s="27"/>
+      <c r="H164" s="66"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="64"/>
+      <c r="B165" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="C165" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="G164" s="27"/>
-      <c r="H164" s="63"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="62"/>
-      <c r="B165" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="C165" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E165" s="48"/>
       <c r="F165" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="63"/>
+      <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="62"/>
-      <c r="B166" s="62"/>
-      <c r="C166" s="62"/>
+      <c r="A166" s="64"/>
+      <c r="B166" s="64"/>
+      <c r="C166" s="64"/>
       <c r="D166" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E166" s="51"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="63"/>
+      <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="62"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="62"/>
+      <c r="A167" s="64"/>
+      <c r="B167" s="64"/>
+      <c r="C167" s="64"/>
       <c r="D167" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E167" s="51"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="63"/>
+      <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="62"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="62"/>
+      <c r="A168" s="64"/>
+      <c r="B168" s="64"/>
+      <c r="C168" s="64"/>
       <c r="D168" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E168" s="51"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="63"/>
+      <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="62"/>
-      <c r="B169" s="62"/>
-      <c r="C169" s="62"/>
+      <c r="A169" s="64"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="64"/>
       <c r="D169" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E169" s="51"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="63"/>
+      <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="62"/>
-      <c r="B170" s="62"/>
-      <c r="C170" s="62"/>
+      <c r="A170" s="64"/>
+      <c r="B170" s="64"/>
+      <c r="C170" s="64"/>
       <c r="D170" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E170" s="51"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="63"/>
+      <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="62"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="62"/>
+      <c r="A171" s="64"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="64"/>
       <c r="D171" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E171" s="48"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="63"/>
+      <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="62"/>
-      <c r="B172" s="62"/>
-      <c r="C172" s="62"/>
+      <c r="A172" s="64"/>
+      <c r="B172" s="64"/>
+      <c r="C172" s="64"/>
       <c r="D172" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E172" s="51"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="63"/>
+      <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="40.5">
-      <c r="A173" s="62"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="61" t="s">
-        <v>263</v>
+      <c r="A173" s="64"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="74" t="s">
+        <v>260</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E173" s="47" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F173" s="49" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G173" s="13"/>
-      <c r="H173" s="63"/>
+      <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="62"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="62"/>
+      <c r="A174" s="64"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="64"/>
       <c r="D174" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E174" s="51"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="63"/>
+      <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="62"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="62"/>
+      <c r="A175" s="64"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="64"/>
       <c r="D175" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E175" s="51"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="63"/>
+      <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="62"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="62"/>
+      <c r="A176" s="64"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="64"/>
       <c r="D176" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E176" s="48"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="63"/>
+      <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="62"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="61" t="s">
-        <v>268</v>
+      <c r="A177" s="64"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="74" t="s">
+        <v>265</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E177" s="48"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="63"/>
+      <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="62"/>
-      <c r="B178" s="62"/>
-      <c r="C178" s="62"/>
+      <c r="A178" s="64"/>
+      <c r="B178" s="64"/>
+      <c r="C178" s="64"/>
       <c r="D178" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E178" s="51"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="63"/>
+      <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="62"/>
-      <c r="B179" s="62"/>
-      <c r="C179" s="62"/>
+      <c r="A179" s="64"/>
+      <c r="B179" s="64"/>
+      <c r="C179" s="64"/>
       <c r="D179" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E179" s="51"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="63"/>
+      <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="62"/>
-      <c r="B180" s="62"/>
-      <c r="C180" s="61" t="s">
-        <v>272</v>
+      <c r="A180" s="64"/>
+      <c r="B180" s="64"/>
+      <c r="C180" s="74" t="s">
+        <v>269</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E180" s="51"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="63"/>
+      <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="62"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
+      <c r="A181" s="64"/>
+      <c r="B181" s="64"/>
+      <c r="C181" s="64"/>
       <c r="D181" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E181" s="48"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="63"/>
+      <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="62"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="61" t="s">
-        <v>275</v>
+      <c r="A182" s="64"/>
+      <c r="B182" s="64"/>
+      <c r="C182" s="74" t="s">
+        <v>272</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E182" s="48"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="63"/>
+      <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="62"/>
-      <c r="B183" s="62"/>
-      <c r="C183" s="62"/>
+      <c r="A183" s="64"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="64"/>
       <c r="D183" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E183" s="51"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="63"/>
+      <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="62"/>
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
+      <c r="A184" s="64"/>
+      <c r="B184" s="64"/>
+      <c r="C184" s="64"/>
       <c r="D184" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E184" s="51"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="63"/>
+      <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="62"/>
-      <c r="B185" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="C185" s="61" t="s">
-        <v>280</v>
+      <c r="A185" s="64"/>
+      <c r="B185" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C185" s="74" t="s">
+        <v>277</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E185" s="48"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="63"/>
+      <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="62"/>
-      <c r="B186" s="62"/>
-      <c r="C186" s="62"/>
+      <c r="A186" s="64"/>
+      <c r="B186" s="64"/>
+      <c r="C186" s="64"/>
       <c r="D186" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E186" s="51"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="63"/>
+      <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="62"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="61" t="s">
-        <v>283</v>
+      <c r="A187" s="64"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="74" t="s">
+        <v>280</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E187" s="48"/>
       <c r="F187" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="63"/>
+      <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="62"/>
-      <c r="B188" s="62"/>
-      <c r="C188" s="62"/>
+      <c r="A188" s="64"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="64"/>
       <c r="D188" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E188" s="48"/>
       <c r="F188" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G188" s="13"/>
-      <c r="H188" s="63"/>
+      <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="62"/>
-      <c r="B189" s="62"/>
-      <c r="C189" s="62"/>
+      <c r="A189" s="64"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="64"/>
       <c r="D189" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E189" s="51"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="63"/>
+      <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="62"/>
-      <c r="B190" s="62"/>
-      <c r="C190" s="62"/>
+      <c r="A190" s="64"/>
+      <c r="B190" s="64"/>
+      <c r="C190" s="64"/>
       <c r="D190" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E190" s="51"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="63"/>
+      <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="62"/>
-      <c r="B191" s="62"/>
-      <c r="C191" s="62"/>
+      <c r="A191" s="64"/>
+      <c r="B191" s="64"/>
+      <c r="C191" s="64"/>
       <c r="D191" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E191" s="51"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="63"/>
+      <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="62"/>
-      <c r="B192" s="62"/>
-      <c r="C192" s="62"/>
+      <c r="A192" s="64"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="64"/>
       <c r="D192" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E192" s="51"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="63"/>
+      <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="62"/>
-      <c r="B193" s="62"/>
-      <c r="C193" s="62"/>
+      <c r="A193" s="64"/>
+      <c r="B193" s="64"/>
+      <c r="C193" s="64"/>
       <c r="D193" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E193" s="48"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="63"/>
+      <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="62"/>
-      <c r="B194" s="62"/>
-      <c r="C194" s="61" t="s">
+      <c r="A194" s="64"/>
+      <c r="B194" s="64"/>
+      <c r="C194" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E194" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="F194" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="G194" s="13"/>
+      <c r="H194" s="66"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A195" s="64"/>
+      <c r="B195" s="64"/>
+      <c r="C195" s="64"/>
+      <c r="D195" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E195" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G195" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="H195" s="66"/>
+    </row>
+    <row r="196" spans="1:8" ht="28.5">
+      <c r="A196" s="64"/>
+      <c r="B196" s="64"/>
+      <c r="C196" s="64"/>
+      <c r="D196" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E194" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="F194" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="63"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A195" s="62"/>
-      <c r="B195" s="62"/>
-      <c r="C195" s="62"/>
-      <c r="D195" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E195" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="F195" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="G195" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="H195" s="63"/>
-    </row>
-    <row r="196" spans="1:8" ht="28.5">
-      <c r="A196" s="62"/>
-      <c r="B196" s="62"/>
-      <c r="C196" s="62"/>
-      <c r="D196" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E196" s="48"/>
       <c r="F196" s="43" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G196" s="28"/>
-      <c r="H196" s="63"/>
+      <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="14.25">
-      <c r="A197" s="62"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="61" t="s">
-        <v>298</v>
+      <c r="A197" s="64"/>
+      <c r="B197" s="64"/>
+      <c r="C197" s="74" t="s">
+        <v>295</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E197" s="51"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="63"/>
+      <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="28.5">
-      <c r="A198" s="62"/>
-      <c r="B198" s="62"/>
-      <c r="C198" s="62"/>
+      <c r="A198" s="64"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="64"/>
       <c r="D198" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E198" s="51"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="63"/>
+      <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="62"/>
-      <c r="B199" s="62"/>
-      <c r="C199" s="62"/>
+      <c r="A199" s="64"/>
+      <c r="B199" s="64"/>
+      <c r="C199" s="64"/>
       <c r="D199" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E199" s="51"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="63"/>
+      <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="14.25">
-      <c r="A200" s="61" t="s">
+      <c r="A200" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C200" s="64"/>
+      <c r="D200" s="65"/>
+      <c r="E200" s="65"/>
+      <c r="F200" s="65"/>
+      <c r="G200" s="65"/>
+      <c r="H200" s="66"/>
+    </row>
+    <row r="201" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A201" s="64"/>
+      <c r="B201" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="D201" s="68"/>
+      <c r="E201" s="65"/>
+      <c r="F201" s="68"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="69"/>
+    </row>
+    <row r="202" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A202" s="64"/>
+      <c r="B202" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C200" s="62"/>
-      <c r="D200" s="66"/>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="63"/>
-    </row>
-    <row r="201" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A201" s="62"/>
-      <c r="B201" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C201" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="D201" s="71"/>
-      <c r="E201" s="66"/>
-      <c r="F201" s="71"/>
-      <c r="G201" s="71"/>
-      <c r="H201" s="72"/>
-    </row>
-    <row r="202" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A202" s="62"/>
-      <c r="B202" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C202" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="D202" s="74"/>
-      <c r="E202" s="75"/>
-      <c r="F202" s="74"/>
-      <c r="G202" s="74"/>
-      <c r="H202" s="76"/>
+      <c r="C202" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="D202" s="71"/>
+      <c r="E202" s="72"/>
+      <c r="F202" s="71"/>
+      <c r="G202" s="71"/>
+      <c r="H202" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
     <filterColumn colId="0"/>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="H3:H39"/>
+    <mergeCell ref="H40:H56"/>
+    <mergeCell ref="H57:H74"/>
+    <mergeCell ref="H75:H95"/>
+    <mergeCell ref="H96:H118"/>
+    <mergeCell ref="H119:H164"/>
+    <mergeCell ref="H165:H184"/>
+    <mergeCell ref="H185:H199"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C193"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C201:H201"/>
@@ -9071,46 +9601,6 @@
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="H3:H39"/>
-    <mergeCell ref="H40:H56"/>
-    <mergeCell ref="H57:H74"/>
-    <mergeCell ref="H75:H95"/>
-    <mergeCell ref="H96:H118"/>
-    <mergeCell ref="H119:H164"/>
-    <mergeCell ref="H165:H184"/>
-    <mergeCell ref="H185:H199"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C193"/>
-    <mergeCell ref="C151:C155"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
@@ -9131,9 +9621,11 @@
     <hyperlink ref="G70" r:id="rId15"/>
     <hyperlink ref="G71" r:id="rId16"/>
     <hyperlink ref="G77" r:id="rId17"/>
+    <hyperlink ref="G112" r:id="rId18"/>
+    <hyperlink ref="G120" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -389,12 +389,6 @@
     <t>指代函数当前的运行环境；全局 &amp; 调用普通函数-&gt; window;构造函数-&gt; new 出来的对象;对象方法-&gt;该对象；构造函数 prototype 属性-&gt;new 对象；函数用 call、apply或者 bind 调用-&gt;传入的对象的值;DOM event this-&gt;绑定的 HTML DOM 节点;箭头函数this-&gt;外层调用者 obj</t>
   </si>
   <si>
-    <t>闭包的实现原理和作用，可以列举几个开发中闭包的实际应用</t>
-  </si>
-  <si>
-    <t>基于函数变量作用域链的规则 和 垃圾回收机制的引用计数规则，作用：间接访问函数的内部数据；应用：函数防抖 、单例模式、多个组件独立属性、私有变量、拿到正确的值</t>
-  </si>
-  <si>
     <t>理解堆栈溢出和内存泄漏的原理，如何防止</t>
   </si>
   <si>
@@ -1226,10 +1220,6 @@
     <t>HTTP劫持、页面劫持的原理、防御措施</t>
   </si>
   <si>
-    <t xml:space="preserve">事前加密、事中规避、事后屏蔽
-</t>
-  </si>
-  <si>
     <t>业务相关</t>
   </si>
   <si>
@@ -1400,210 +1390,6 @@
   </si>
   <si>
     <t>https://www.jianshu.com/p/5c1e90817bdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原理：登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>站，再在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>站伪造请求。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>image</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过表单提交。
-防御：验证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> HTTP Referer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">字段——用户可在浏览器设置去掉；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请求地址中添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">参数并验证——提高门槛；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> HTTP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头中自定义属性并验证——局限性，如表单提交，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>formData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有兼容；</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
@@ -4743,9 +4529,292 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>https://juejin.im/post/6844904063570542599</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>事前加密、事中规避、事后屏蔽</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原理：登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站，再在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站伪造请求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过表单提交。
+防御：验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP Referer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">字段——用户可在浏览器设置去掉；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求地址中添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">参数并验证；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">            HTTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头中自定义属性并验证——局限性，如表单提交，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>formData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有兼容；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于函数变量作用域链的规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垃圾回收机制的引用计数规则，作用：间接访问函数的内部数据；应用：函数防抖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、单例模式、多个组件独立属性、私有变量、拿到正确的值</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包的实现原理和作用，可以列举几个开发中闭包的实际应用</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4756,7 +4825,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4766,7 +4835,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4777,7 +4846,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4787,7 +4856,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4798,7 +4867,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
       </rPr>
@@ -4806,7 +4875,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4816,7 +4885,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4827,7 +4896,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="等线"/>
       </rPr>
@@ -4835,7 +4904,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4845,7 +4914,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="等线"/>
       </rPr>
@@ -4853,7 +4922,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4863,7 +4932,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="等线"/>
       </rPr>
@@ -4871,7 +4940,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4882,7 +4951,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
       </rPr>
@@ -4890,7 +4959,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4900,7 +4969,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -4911,7 +4980,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="等线"/>
       </rPr>
@@ -4919,22 +4988,76 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中会把堆分为新生代和老生代两个区域，新生代中存放的是生存时间短的对象，老生代中存放的生存时间久的对象。
+      <t>中会把堆分为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新生代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老生代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两个区域，新生代中存放的是生存时间短的对象，老生代中存放的生存时间久的对象。多回收新生代，少回收老生代减少每次需遍历的对象，从而减少每次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的耗时。
 执行过程
 第一步是标记空间中活动对象和非活动对象。
 第二步是回收非活动对象所占据的内存。
 第三步是做内存整理。</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://juejin.im/post/6844904063570542599</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -4942,7 +5065,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="42">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5170,28 +5293,11 @@
       <name val="等线"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color indexed="26"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5407,9 +5513,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5459,6 +5562,24 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5467,15 +5588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5498,16 +5610,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6665,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -6675,23 +6781,23 @@
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="56" customWidth="1"/>
-    <col min="6" max="7" width="68.625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="5" style="55" customWidth="1"/>
+    <col min="6" max="7" width="68.625" style="43" customWidth="1"/>
     <col min="8" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6712,7 +6818,7 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -6720,53 +6826,53 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="66"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="141">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>315</v>
+      <c r="F4" s="54" t="s">
+        <v>311</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="34" t="s">
@@ -6775,2776 +6881,2816 @@
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="126.75">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>335</v>
+      <c r="F6" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="66"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="66"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="126.75">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="55" t="s">
-        <v>333</v>
+      <c r="F9" s="54" t="s">
+        <v>329</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="66"/>
+        <v>332</v>
+      </c>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="66"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="51" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="74" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="60" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H12" s="66"/>
+        <v>333</v>
+      </c>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="66"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="E14" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H14" s="66"/>
+        <v>335</v>
+      </c>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" ht="51" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="66"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G16" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="H16" s="66"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>305</v>
+      <c r="E17" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="66"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>305</v>
+      <c r="E18" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="66"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>305</v>
+      <c r="E19" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="66"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>307</v>
+      <c r="E20" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="66"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="5" t="s">
+      <c r="H20" s="62"/>
+    </row>
+    <row r="21" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="66"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>307</v>
+      <c r="E22" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="66"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>305</v>
+        <v>48</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="66"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>307</v>
+        <v>49</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="66"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="74" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="H25" s="62"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="66"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="62"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="66"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="5" t="s">
+      <c r="G27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="66"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>305</v>
+      <c r="E28" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="66"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>307</v>
+        <v>56</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="66"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="62"/>
+    </row>
+    <row r="31" spans="1:8" ht="196.5">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="H31" s="62"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="66"/>
-    </row>
-    <row r="31" spans="1:8" ht="196.5">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="8" t="s">
+      <c r="E32" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="62"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="H31" s="66"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="66"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>305</v>
+      <c r="E33" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="66"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="62"/>
+    </row>
+    <row r="35" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="66"/>
-    </row>
-    <row r="35" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>305</v>
+      <c r="E35" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="66"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>305</v>
+        <v>65</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="66"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="62"/>
+    </row>
+    <row r="38" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="66"/>
-    </row>
-    <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>307</v>
+      <c r="E38" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="66"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="62"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A40" s="61"/>
+      <c r="B40" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="C40" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="66"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="74" t="s">
+      <c r="D40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>305</v>
+      <c r="E40" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="66"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="62"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="66"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>305</v>
+      <c r="E42" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="66"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>305</v>
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="H43" s="66"/>
+        <v>77</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>307</v>
+        <v>78</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="66"/>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:8" ht="29.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="74" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="62"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="66"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>305</v>
+      <c r="E46" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="66"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="66"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" ht="27.75">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>317</v>
+        <v>312</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>313</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="66"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>318</v>
+        <v>82</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>314</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="66"/>
+      <c r="H49" s="62"/>
     </row>
     <row r="50" spans="1:8" ht="71.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>318</v>
+        <v>83</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>314</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="66"/>
+      <c r="H50" s="62"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="E51" s="50"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="66"/>
+      <c r="H51" s="62"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="51"/>
+        <v>85</v>
+      </c>
+      <c r="E52" s="50"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="66"/>
+      <c r="H52" s="62"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="47"/>
+      <c r="F53" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="62"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="66"/>
-    </row>
-    <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="66"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="51"/>
+        <v>89</v>
+      </c>
+      <c r="E55" s="50"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="66"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="51"/>
+        <v>90</v>
+      </c>
+      <c r="E56" s="50"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="66"/>
+      <c r="H56" s="62"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="74" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="50"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="66"/>
+      <c r="H57" s="62"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="48"/>
+        <v>94</v>
+      </c>
+      <c r="E58" s="47"/>
       <c r="F58" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="66"/>
+      <c r="H58" s="62"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59" s="51"/>
+        <v>316</v>
+      </c>
+      <c r="E59" s="50"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="66"/>
+      <c r="H59" s="62"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="62"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="66"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="50"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="66"/>
+      <c r="H61" s="62"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="74" t="s">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="66"/>
+      <c r="H62" s="62"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="51"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="E63" s="50"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="66"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="51"/>
+        <v>102</v>
+      </c>
+      <c r="E64" s="50"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="66"/>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="51"/>
+        <v>103</v>
+      </c>
+      <c r="E65" s="50"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="66"/>
+      <c r="H65" s="62"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="51"/>
+        <v>104</v>
+      </c>
+      <c r="E66" s="50"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="66"/>
+      <c r="H66" s="62"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="46" t="s">
-        <v>323</v>
+        <v>105</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>319</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="66"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="46" t="s">
-        <v>323</v>
+        <v>106</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>319</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="66"/>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
       <c r="D69" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="51"/>
+        <v>107</v>
+      </c>
+      <c r="E69" s="50"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="66"/>
+      <c r="H69" s="62"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="E70" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="G70" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G70" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="H70" s="62"/>
+    </row>
+    <row r="71" spans="1:8" ht="369">
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="G71" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="H70" s="66"/>
-    </row>
-    <row r="71" spans="1:8" ht="369">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="F71" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="G71" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="H71" s="66"/>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="64"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="74" t="s">
-        <v>110</v>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="51"/>
+        <v>109</v>
+      </c>
+      <c r="E72" s="50"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="66"/>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="E73" s="47"/>
       <c r="F73" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="66"/>
+      <c r="H73" s="62"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="E74" s="51"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E74" s="50"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="66"/>
+      <c r="H74" s="62"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="64"/>
-      <c r="B75" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="E75" s="51"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E75" s="50"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="66"/>
+      <c r="H75" s="62"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="47"/>
+      <c r="F76" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="62"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G77" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="H77" s="62"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="66"/>
-    </row>
-    <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="E77" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G77" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="H77" s="66"/>
-    </row>
-    <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="64"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E78" s="46" t="s">
-        <v>319</v>
+      <c r="E78" s="45" t="s">
+        <v>315</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="66"/>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="62"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="66"/>
-    </row>
-    <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="64"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>319</v>
+      <c r="E80" s="45" t="s">
+        <v>315</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="66"/>
+      <c r="H80" s="62"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
       <c r="D81" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" s="51"/>
+        <v>121</v>
+      </c>
+      <c r="E81" s="50"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="66"/>
+      <c r="H81" s="62"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="64"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="62"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="F82" s="8" t="s">
+      <c r="E83" s="47"/>
+      <c r="F83" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="66"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="5" t="s">
+      <c r="G83" s="21"/>
+      <c r="H83" s="62"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A84" s="61"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="66"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="64"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="51"/>
+      <c r="E84" s="50"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="66"/>
+      <c r="H84" s="62"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E85" s="51"/>
+        <v>127</v>
+      </c>
+      <c r="E85" s="50"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="66"/>
+      <c r="H85" s="62"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="64"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
       <c r="D86" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="51"/>
+        <v>128</v>
+      </c>
+      <c r="E86" s="50"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="66"/>
+      <c r="H86" s="62"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="74" t="s">
-        <v>131</v>
+      <c r="A87" s="61"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="60" t="s">
+        <v>129</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="51"/>
+        <v>130</v>
+      </c>
+      <c r="E87" s="50"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="66"/>
+      <c r="H87" s="62"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="47"/>
+      <c r="F88" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="62"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="66"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="51"/>
+      <c r="E89" s="50"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="66"/>
+      <c r="H89" s="62"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="64"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="75"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="E90" s="50"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="66"/>
+      <c r="H90" s="62"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="74" t="s">
-        <v>137</v>
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="60" t="s">
+        <v>135</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="51"/>
+        <v>136</v>
+      </c>
+      <c r="E91" s="50"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="66"/>
+      <c r="H91" s="62"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="64"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="61"/>
       <c r="D92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="47"/>
+      <c r="F92" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="22" t="s">
+      <c r="H92" s="62"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G92" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H92" s="66"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E93" s="51"/>
+      <c r="E93" s="50"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="66"/>
+      <c r="H93" s="62"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="64"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="61"/>
       <c r="D94" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E94" s="51"/>
+        <v>141</v>
+      </c>
+      <c r="E94" s="50"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="66"/>
+      <c r="H94" s="62"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="61"/>
       <c r="D95" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="47"/>
+      <c r="F95" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E95" s="48"/>
-      <c r="F95" s="23" t="s">
+      <c r="H95" s="62"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="61"/>
+      <c r="B96" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="C96" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="H95" s="66"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="64"/>
-      <c r="B96" s="74" t="s">
+      <c r="D96" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E96" s="51"/>
+      <c r="E96" s="50"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="66"/>
+      <c r="H96" s="62"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
       <c r="C97" s="65"/>
       <c r="D97" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E97" s="51"/>
+        <v>148</v>
+      </c>
+      <c r="E97" s="50"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="66"/>
+      <c r="H97" s="62"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="64"/>
-      <c r="B98" s="64"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
       <c r="C98" s="65"/>
       <c r="D98" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="48"/>
+        <v>149</v>
+      </c>
+      <c r="E98" s="47"/>
       <c r="F98" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="66"/>
+      <c r="H98" s="62"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
       <c r="C99" s="65"/>
       <c r="D99" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" s="51"/>
+        <v>151</v>
+      </c>
+      <c r="E99" s="50"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="66"/>
+      <c r="H99" s="62"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="64"/>
-      <c r="B100" s="64"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
       <c r="C100" s="65"/>
       <c r="D100" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E100" s="51"/>
+        <v>152</v>
+      </c>
+      <c r="E100" s="50"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="66"/>
+      <c r="H100" s="62"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
       <c r="C101" s="65"/>
       <c r="D101" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" s="51"/>
+        <v>153</v>
+      </c>
+      <c r="E101" s="50"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="66"/>
+      <c r="H101" s="62"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="64"/>
-      <c r="B102" s="64"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="65"/>
       <c r="D102" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E102" s="51"/>
+        <v>154</v>
+      </c>
+      <c r="E102" s="50"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="66"/>
+      <c r="H102" s="62"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="61"/>
       <c r="C103" s="65"/>
       <c r="D103" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" s="46" t="s">
-        <v>329</v>
+        <v>155</v>
+      </c>
+      <c r="E103" s="45" t="s">
+        <v>325</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="66"/>
+      <c r="H103" s="62"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="64"/>
-      <c r="B104" s="64"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
       <c r="C104" s="65"/>
       <c r="D104" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="E104" s="47" t="s">
-        <v>332</v>
+        <v>326</v>
+      </c>
+      <c r="E104" s="46" t="s">
+        <v>328</v>
       </c>
       <c r="F104" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G104" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="H104" s="62"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G104" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="H104" s="66"/>
-    </row>
-    <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E105" s="51"/>
+      <c r="E105" s="50"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="66"/>
+      <c r="H105" s="62"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="61"/>
       <c r="D106" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E106" s="51"/>
+        <v>159</v>
+      </c>
+      <c r="E106" s="50"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="66"/>
+      <c r="H106" s="62"/>
     </row>
     <row r="107" spans="1:8" ht="28.5">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="61"/>
       <c r="D107" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="47"/>
+      <c r="F107" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="62"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A108" s="61"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E107" s="48"/>
-      <c r="F107" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="66"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="64"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="50"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="66"/>
+      <c r="H108" s="62"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
       <c r="D109" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="51"/>
+        <v>163</v>
+      </c>
+      <c r="E109" s="50"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="66"/>
+      <c r="H109" s="62"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
       <c r="D110" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E110" s="51"/>
+        <v>164</v>
+      </c>
+      <c r="E110" s="50"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="66"/>
+      <c r="H110" s="62"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
       <c r="D111" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E111" s="51"/>
+        <v>165</v>
+      </c>
+      <c r="E111" s="50"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="66"/>
-    </row>
-    <row r="112" spans="1:8" ht="159">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
+      <c r="H111" s="62"/>
+    </row>
+    <row r="112" spans="1:8" ht="206.25">
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
       <c r="D112" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="E112" s="48"/>
+        <v>360</v>
+      </c>
+      <c r="E112" s="47"/>
       <c r="F112" s="77" t="s">
-        <v>366</v>
-      </c>
-      <c r="G112" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="H112" s="66"/>
+        <v>367</v>
+      </c>
+      <c r="G112" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
       <c r="D113" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" s="51"/>
+        <v>166</v>
+      </c>
+      <c r="E113" s="50"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="66"/>
+      <c r="H113" s="62"/>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="74" t="s">
-        <v>169</v>
+      <c r="A114" s="61"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="60" t="s">
+        <v>167</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E114" s="51"/>
+        <v>168</v>
+      </c>
+      <c r="E114" s="50"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="66"/>
+      <c r="H114" s="62"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="61"/>
       <c r="D115" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E115" s="48"/>
+        <v>169</v>
+      </c>
+      <c r="E115" s="47"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="66"/>
+      <c r="H115" s="62"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
       <c r="D116" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E116" s="51"/>
+        <v>170</v>
+      </c>
+      <c r="E116" s="50"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="66"/>
+      <c r="H116" s="62"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="61"/>
       <c r="D117" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="47"/>
+      <c r="F117" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="62"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A118" s="61"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E117" s="48"/>
-      <c r="F117" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="66"/>
-    </row>
-    <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="51"/>
+      <c r="E118" s="50"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="66"/>
+      <c r="H118" s="62"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="64"/>
-      <c r="B119" s="74" t="s">
+      <c r="A119" s="61"/>
+      <c r="B119" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C119" s="74" t="s">
+      <c r="E119" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="G119" s="13"/>
+      <c r="H119" s="62"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="61"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="61"/>
+      <c r="D120" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E119" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="F119" s="8" t="s">
+      <c r="E120" s="47"/>
+      <c r="F120" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="66"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="5" t="s">
+      <c r="G120" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="H120" s="62"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="61"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E120" s="48"/>
-      <c r="F120" s="8" t="s">
+      <c r="E121" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G120" s="53" t="s">
-        <v>367</v>
-      </c>
-      <c r="H120" s="66"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="5" t="s">
+      <c r="G121" s="13"/>
+      <c r="H121" s="62"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="E121" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="D122" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="66"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E122" s="51"/>
+      <c r="E122" s="50"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="66"/>
+      <c r="H122" s="62"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="61"/>
       <c r="D123" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123" s="47"/>
+      <c r="F123" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="62"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A124" s="61"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E123" s="48"/>
-      <c r="F123" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="66"/>
-    </row>
-    <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E124" s="51"/>
+      <c r="E124" s="50"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="66"/>
+      <c r="H124" s="62"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="64"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="61"/>
       <c r="D125" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E125" s="51"/>
+        <v>187</v>
+      </c>
+      <c r="E125" s="50"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="66"/>
+      <c r="H125" s="62"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="64"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="74" t="s">
-        <v>190</v>
+      <c r="A126" s="61"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="60" t="s">
+        <v>188</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E126" s="51"/>
+        <v>189</v>
+      </c>
+      <c r="E126" s="50"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="66"/>
+      <c r="H126" s="62"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61"/>
       <c r="D127" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E127" s="47"/>
+      <c r="F127" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="62"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E127" s="48"/>
-      <c r="F127" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="66"/>
-    </row>
-    <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="64"/>
-      <c r="B128" s="64"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E128" s="51"/>
+      <c r="E128" s="50"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="66"/>
+      <c r="H128" s="62"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="64"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="61"/>
       <c r="D129" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E129" s="51"/>
+        <v>193</v>
+      </c>
+      <c r="E129" s="50"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="66"/>
+      <c r="H129" s="62"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="64"/>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="61"/>
       <c r="D130" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E130" s="47"/>
+      <c r="F130" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="62"/>
+    </row>
+    <row r="131" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A131" s="61"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E130" s="48"/>
-      <c r="F130" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G130" s="13"/>
-      <c r="H130" s="66"/>
-    </row>
-    <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="64"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E131" s="51"/>
+      <c r="E131" s="50"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="66"/>
+      <c r="H131" s="62"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="61"/>
       <c r="D132" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E132" s="51"/>
+        <v>197</v>
+      </c>
+      <c r="E132" s="50"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="66"/>
+      <c r="H132" s="62"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="64"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="61"/>
       <c r="D133" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E133" s="51"/>
+        <v>198</v>
+      </c>
+      <c r="E133" s="50"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="66"/>
+      <c r="H133" s="62"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="64"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="61"/>
       <c r="D134" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E134" s="51"/>
+        <v>199</v>
+      </c>
+      <c r="E134" s="50"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="66"/>
+      <c r="H134" s="62"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="61"/>
       <c r="D135" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E135" s="47"/>
+      <c r="F135" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="62"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A136" s="61"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="61"/>
+      <c r="D136" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E135" s="48"/>
-      <c r="F135" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G135" s="13"/>
-      <c r="H135" s="66"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E136" s="51"/>
+      <c r="E136" s="50"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
-      <c r="H136" s="66"/>
+      <c r="H136" s="62"/>
     </row>
     <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="61"/>
       <c r="D137" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E137" s="47"/>
+      <c r="F137" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G137" s="24"/>
+      <c r="H137" s="62"/>
+    </row>
+    <row r="138" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A138" s="61"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="61"/>
+      <c r="D138" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E137" s="48"/>
-      <c r="F137" s="39" t="s">
+      <c r="E138" s="47"/>
+      <c r="F138" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G137" s="24"/>
-      <c r="H137" s="66"/>
-    </row>
-    <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="5" t="s">
+      <c r="G138" s="13"/>
+      <c r="H138" s="62"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" customHeight="1">
+      <c r="A139" s="61"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="E138" s="48"/>
-      <c r="F138" s="8" t="s">
+      <c r="D139" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="66"/>
-    </row>
-    <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="64"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="74" t="s">
+      <c r="E139" s="47"/>
+      <c r="F139" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="G139" s="7"/>
+      <c r="H139" s="62"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A140" s="61"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="61"/>
+      <c r="D140" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E139" s="48"/>
-      <c r="F139" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="66"/>
-    </row>
-    <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="64"/>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E140" s="51"/>
+      <c r="E140" s="50"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="66"/>
+      <c r="H140" s="62"/>
     </row>
     <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
+      <c r="A141" s="61"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="61"/>
       <c r="D141" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E141" s="47"/>
+      <c r="F141" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="62"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A142" s="61"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E141" s="48"/>
-      <c r="F141" s="8" t="s">
+      <c r="E142" s="47"/>
+      <c r="F142" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="66"/>
-    </row>
-    <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="5" t="s">
+      <c r="G142" s="25"/>
+      <c r="H142" s="62"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="61"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E142" s="48"/>
-      <c r="F142" s="40" t="s">
+      <c r="E143" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="62"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A144" s="61"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="G142" s="25"/>
-      <c r="H142" s="66"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="64"/>
-      <c r="B143" s="64"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E143" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="G143" s="13"/>
-      <c r="H143" s="66"/>
-    </row>
-    <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="64"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E144" s="51"/>
+      <c r="E144" s="50"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
-      <c r="H144" s="66"/>
+      <c r="H144" s="62"/>
     </row>
     <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="61"/>
       <c r="D145" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E145" s="47"/>
+      <c r="F145" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="62"/>
+    </row>
+    <row r="146" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A146" s="61"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="61"/>
+      <c r="D146" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E145" s="48"/>
-      <c r="F145" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="66"/>
-    </row>
-    <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="64"/>
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E146" s="51"/>
+      <c r="E146" s="50"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="66"/>
+      <c r="H146" s="62"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
+      <c r="A147" s="61"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="61"/>
       <c r="D147" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E147" s="51"/>
+        <v>221</v>
+      </c>
+      <c r="E147" s="50"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="66"/>
+      <c r="H147" s="62"/>
     </row>
     <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="64"/>
-      <c r="B148" s="64"/>
-      <c r="C148" s="64"/>
+      <c r="A148" s="61"/>
+      <c r="B148" s="61"/>
+      <c r="C148" s="61"/>
       <c r="D148" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E148" s="51"/>
+        <v>222</v>
+      </c>
+      <c r="E148" s="50"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="66"/>
+      <c r="H148" s="62"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="64"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
+      <c r="A149" s="61"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="61"/>
       <c r="D149" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E149" s="51"/>
+        <v>223</v>
+      </c>
+      <c r="E149" s="50"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="66"/>
+      <c r="H149" s="62"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="64"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="61"/>
       <c r="D150" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E150" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="E150" s="50"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
-      <c r="H150" s="66"/>
+      <c r="H150" s="62"/>
     </row>
     <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="74" t="s">
+      <c r="A151" s="61"/>
+      <c r="B151" s="61"/>
+      <c r="C151" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E151" s="47"/>
+      <c r="F151" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="G151" s="13"/>
+      <c r="H151" s="62"/>
+    </row>
+    <row r="152" spans="1:8" ht="27" customHeight="1">
+      <c r="A152" s="61"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="61"/>
+      <c r="D152" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E151" s="48"/>
-      <c r="F151" s="8" t="s">
+      <c r="E152" s="47"/>
+      <c r="F152" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="66"/>
-    </row>
-    <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="64"/>
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="5" t="s">
+      <c r="G152" s="26"/>
+      <c r="H152" s="62"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A153" s="61"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E152" s="48"/>
-      <c r="F152" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G152" s="26"/>
-      <c r="H152" s="66"/>
-    </row>
-    <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="64"/>
-      <c r="B153" s="64"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E153" s="51"/>
+      <c r="E153" s="50"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-      <c r="H153" s="66"/>
+      <c r="H153" s="62"/>
     </row>
     <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="64"/>
-      <c r="B154" s="64"/>
-      <c r="C154" s="64"/>
+      <c r="A154" s="61"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="61"/>
       <c r="D154" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E154" s="47"/>
+      <c r="F154" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="62"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A155" s="61"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="61"/>
+      <c r="D155" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E154" s="48"/>
-      <c r="F154" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="66"/>
-    </row>
-    <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="64"/>
-      <c r="B155" s="64"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E155" s="51"/>
+      <c r="E155" s="50"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="66"/>
+      <c r="H155" s="62"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="64"/>
-      <c r="B156" s="64"/>
-      <c r="C156" s="74" t="s">
-        <v>236</v>
+      <c r="A156" s="61"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="60" t="s">
+        <v>234</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E156" s="51"/>
+        <v>235</v>
+      </c>
+      <c r="E156" s="50"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="66"/>
+      <c r="H156" s="62"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="64"/>
-      <c r="B157" s="64"/>
-      <c r="C157" s="64"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="61"/>
       <c r="D157" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E157" s="48"/>
+        <v>236</v>
+      </c>
+      <c r="E157" s="47"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="66"/>
+      <c r="H157" s="62"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="64"/>
-      <c r="B158" s="64"/>
-      <c r="C158" s="64"/>
+      <c r="A158" s="61"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="61"/>
       <c r="D158" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E158" s="51"/>
+        <v>237</v>
+      </c>
+      <c r="E158" s="50"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="66"/>
+      <c r="H158" s="62"/>
     </row>
     <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="64"/>
-      <c r="B159" s="64"/>
-      <c r="C159" s="64"/>
+      <c r="A159" s="61"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="61"/>
       <c r="D159" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E159" s="51"/>
+        <v>238</v>
+      </c>
+      <c r="E159" s="50"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="66"/>
+      <c r="H159" s="62"/>
     </row>
     <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="64"/>
-      <c r="B160" s="64"/>
-      <c r="C160" s="64"/>
+      <c r="A160" s="61"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="61"/>
       <c r="D160" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E160" s="48"/>
+        <v>239</v>
+      </c>
+      <c r="E160" s="47"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-      <c r="H160" s="66"/>
+      <c r="H160" s="62"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="64"/>
-      <c r="B161" s="64"/>
-      <c r="C161" s="74" t="s">
+      <c r="A161" s="61"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E161" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="G161" s="13"/>
+      <c r="H161" s="62"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A162" s="61"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="61"/>
+      <c r="D162" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E161" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G161" s="13"/>
-      <c r="H161" s="66"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="64"/>
-      <c r="B162" s="64"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E162" s="46" t="s">
-        <v>325</v>
+      <c r="E162" s="45" t="s">
+        <v>321</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="66"/>
+      <c r="H162" s="62"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="64"/>
-      <c r="B163" s="64"/>
-      <c r="C163" s="64"/>
+      <c r="A163" s="61"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="61"/>
       <c r="D163" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E163" s="51"/>
+        <v>244</v>
+      </c>
+      <c r="E163" s="50"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-      <c r="H163" s="66"/>
+      <c r="H163" s="62"/>
     </row>
     <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="64"/>
-      <c r="B164" s="64"/>
-      <c r="C164" s="64"/>
+      <c r="A164" s="61"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="61"/>
       <c r="D164" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E164" s="47"/>
+      <c r="F164" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G164" s="27"/>
+      <c r="H164" s="62"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="61"/>
+      <c r="B165" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E164" s="48"/>
-      <c r="F164" s="18" t="s">
+      <c r="C165" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="G164" s="27"/>
-      <c r="H164" s="66"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="64"/>
-      <c r="B165" s="74" t="s">
+      <c r="D165" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C165" s="74" t="s">
+      <c r="E165" s="47"/>
+      <c r="F165" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="G165" s="13"/>
+      <c r="H165" s="62"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A166" s="61"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="61"/>
+      <c r="D166" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E165" s="48"/>
-      <c r="F165" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="66"/>
-    </row>
-    <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="64"/>
-      <c r="B166" s="64"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E166" s="51"/>
+      <c r="E166" s="50"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="66"/>
+      <c r="H166" s="62"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="64"/>
-      <c r="B167" s="64"/>
-      <c r="C167" s="64"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="61"/>
       <c r="D167" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E167" s="51"/>
+        <v>252</v>
+      </c>
+      <c r="E167" s="50"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="66"/>
+      <c r="H167" s="62"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="64"/>
-      <c r="B168" s="64"/>
-      <c r="C168" s="64"/>
+      <c r="A168" s="61"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="61"/>
       <c r="D168" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E168" s="51"/>
+        <v>253</v>
+      </c>
+      <c r="E168" s="50"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="66"/>
+      <c r="H168" s="62"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="64"/>
-      <c r="B169" s="64"/>
-      <c r="C169" s="64"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="61"/>
       <c r="D169" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E169" s="51"/>
+        <v>254</v>
+      </c>
+      <c r="E169" s="50"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="66"/>
+      <c r="H169" s="62"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="64"/>
-      <c r="B170" s="64"/>
-      <c r="C170" s="64"/>
+      <c r="A170" s="61"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="61"/>
       <c r="D170" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E170" s="51"/>
+        <v>255</v>
+      </c>
+      <c r="E170" s="50"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="66"/>
+      <c r="H170" s="62"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="64"/>
-      <c r="B171" s="64"/>
-      <c r="C171" s="64"/>
+      <c r="A171" s="61"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="61"/>
       <c r="D171" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E171" s="48"/>
+        <v>256</v>
+      </c>
+      <c r="E171" s="47"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="66"/>
+      <c r="H171" s="62"/>
     </row>
     <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="64"/>
-      <c r="B172" s="64"/>
-      <c r="C172" s="64"/>
+      <c r="A172" s="61"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="61"/>
       <c r="D172" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E172" s="51"/>
+        <v>257</v>
+      </c>
+      <c r="E172" s="50"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-      <c r="H172" s="66"/>
+      <c r="H172" s="62"/>
     </row>
     <row r="173" spans="1:8" ht="40.5">
-      <c r="A173" s="64"/>
-      <c r="B173" s="64"/>
-      <c r="C173" s="74" t="s">
+      <c r="A173" s="61"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E173" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="F173" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="62"/>
+    </row>
+    <row r="174" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A174" s="61"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E173" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="F173" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="G173" s="13"/>
-      <c r="H173" s="66"/>
-    </row>
-    <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="64"/>
-      <c r="B174" s="64"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E174" s="51"/>
+      <c r="E174" s="50"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="66"/>
+      <c r="H174" s="62"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="64"/>
-      <c r="B175" s="64"/>
-      <c r="C175" s="64"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="61"/>
       <c r="D175" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E175" s="51"/>
+        <v>261</v>
+      </c>
+      <c r="E175" s="50"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="66"/>
+      <c r="H175" s="62"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="64"/>
-      <c r="B176" s="64"/>
-      <c r="C176" s="64"/>
+      <c r="A176" s="61"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="61"/>
       <c r="D176" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E176" s="48"/>
+        <v>262</v>
+      </c>
+      <c r="E176" s="47"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="66"/>
+      <c r="H176" s="62"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="64"/>
-      <c r="B177" s="64"/>
-      <c r="C177" s="74" t="s">
-        <v>265</v>
+      <c r="A177" s="61"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="60" t="s">
+        <v>263</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E177" s="48"/>
+        <v>264</v>
+      </c>
+      <c r="E177" s="47"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="66"/>
+      <c r="H177" s="62"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="64"/>
-      <c r="B178" s="64"/>
-      <c r="C178" s="64"/>
+      <c r="A178" s="61"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="61"/>
       <c r="D178" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E178" s="51"/>
+        <v>265</v>
+      </c>
+      <c r="E178" s="50"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="66"/>
+      <c r="H178" s="62"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="64"/>
-      <c r="B179" s="64"/>
-      <c r="C179" s="64"/>
+      <c r="A179" s="61"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="61"/>
       <c r="D179" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E179" s="51"/>
+        <v>266</v>
+      </c>
+      <c r="E179" s="50"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="66"/>
+      <c r="H179" s="62"/>
     </row>
     <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="64"/>
-      <c r="B180" s="64"/>
-      <c r="C180" s="74" t="s">
-        <v>269</v>
+      <c r="A180" s="61"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="60" t="s">
+        <v>267</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E180" s="51"/>
+        <v>268</v>
+      </c>
+      <c r="E180" s="50"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="66"/>
+      <c r="H180" s="62"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="64"/>
-      <c r="B181" s="64"/>
-      <c r="C181" s="64"/>
+      <c r="A181" s="61"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="61"/>
       <c r="D181" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E181" s="48"/>
+        <v>269</v>
+      </c>
+      <c r="E181" s="47"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="66"/>
+      <c r="H181" s="62"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="64"/>
-      <c r="B182" s="64"/>
-      <c r="C182" s="74" t="s">
-        <v>272</v>
+      <c r="A182" s="61"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="60" t="s">
+        <v>270</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E182" s="48"/>
+        <v>271</v>
+      </c>
+      <c r="E182" s="47"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="66"/>
+      <c r="H182" s="62"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="64"/>
-      <c r="B183" s="64"/>
-      <c r="C183" s="64"/>
+      <c r="A183" s="61"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="61"/>
       <c r="D183" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E183" s="51"/>
+        <v>272</v>
+      </c>
+      <c r="E183" s="50"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="66"/>
+      <c r="H183" s="62"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="64"/>
-      <c r="B184" s="64"/>
-      <c r="C184" s="64"/>
+      <c r="A184" s="61"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="61"/>
       <c r="D184" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E184" s="51"/>
+        <v>273</v>
+      </c>
+      <c r="E184" s="50"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="66"/>
+      <c r="H184" s="62"/>
     </row>
     <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="64"/>
-      <c r="B185" s="74" t="s">
+      <c r="A185" s="61"/>
+      <c r="B185" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C185" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C185" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E185" s="48"/>
+      <c r="E185" s="47"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="66"/>
+      <c r="H185" s="62"/>
     </row>
     <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="64"/>
-      <c r="B186" s="64"/>
-      <c r="C186" s="64"/>
+      <c r="A186" s="61"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="61"/>
       <c r="D186" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E186" s="51"/>
+        <v>277</v>
+      </c>
+      <c r="E186" s="50"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-      <c r="H186" s="66"/>
+      <c r="H186" s="62"/>
     </row>
     <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="64"/>
-      <c r="B187" s="64"/>
-      <c r="C187" s="74" t="s">
+      <c r="A187" s="61"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E187" s="47"/>
+      <c r="F187" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="G187" s="13"/>
+      <c r="H187" s="62"/>
+    </row>
+    <row r="188" spans="1:8" ht="27" customHeight="1">
+      <c r="A188" s="61"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="61"/>
+      <c r="D188" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E187" s="48"/>
-      <c r="F187" s="8" t="s">
+      <c r="E188" s="47"/>
+      <c r="F188" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G187" s="13"/>
-      <c r="H187" s="66"/>
-    </row>
-    <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="64"/>
-      <c r="B188" s="64"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="5" t="s">
+      <c r="G188" s="13"/>
+      <c r="H188" s="62"/>
+    </row>
+    <row r="189" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A189" s="61"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E188" s="48"/>
-      <c r="F188" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G188" s="13"/>
-      <c r="H188" s="66"/>
-    </row>
-    <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="64"/>
-      <c r="B189" s="64"/>
-      <c r="C189" s="64"/>
-      <c r="D189" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E189" s="51"/>
+      <c r="E189" s="50"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="66"/>
+      <c r="H189" s="62"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="64"/>
-      <c r="B190" s="64"/>
-      <c r="C190" s="64"/>
+      <c r="A190" s="61"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="61"/>
       <c r="D190" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E190" s="51"/>
+        <v>284</v>
+      </c>
+      <c r="E190" s="50"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="66"/>
+      <c r="H190" s="62"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="64"/>
-      <c r="B191" s="64"/>
-      <c r="C191" s="64"/>
+      <c r="A191" s="61"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="61"/>
       <c r="D191" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E191" s="51"/>
+        <v>285</v>
+      </c>
+      <c r="E191" s="50"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="66"/>
+      <c r="H191" s="62"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="64"/>
-      <c r="B192" s="64"/>
-      <c r="C192" s="64"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="61"/>
       <c r="D192" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E192" s="51"/>
+        <v>286</v>
+      </c>
+      <c r="E192" s="50"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="66"/>
+      <c r="H192" s="62"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="64"/>
-      <c r="B193" s="64"/>
-      <c r="C193" s="64"/>
+      <c r="A193" s="61"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="61"/>
       <c r="D193" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E193" s="48"/>
+        <v>287</v>
+      </c>
+      <c r="E193" s="47"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-      <c r="H193" s="66"/>
+      <c r="H193" s="62"/>
     </row>
     <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="64"/>
-      <c r="B194" s="64"/>
-      <c r="C194" s="74" t="s">
+      <c r="A194" s="61"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E194" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="F194" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="G194" s="13"/>
+      <c r="H194" s="62"/>
+    </row>
+    <row r="195" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A195" s="61"/>
+      <c r="B195" s="61"/>
+      <c r="C195" s="61"/>
+      <c r="D195" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E195" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G195" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="H195" s="62"/>
+    </row>
+    <row r="196" spans="1:8" ht="14.25">
+      <c r="A196" s="61"/>
+      <c r="B196" s="61"/>
+      <c r="C196" s="61"/>
+      <c r="D196" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E194" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="F194" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="66"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A195" s="64"/>
-      <c r="B195" s="64"/>
-      <c r="C195" s="64"/>
-      <c r="D195" s="5" t="s">
+      <c r="E196" s="47"/>
+      <c r="F196" s="76" t="s">
+        <v>363</v>
+      </c>
+      <c r="G196" s="28"/>
+      <c r="H196" s="62"/>
+    </row>
+    <row r="197" spans="1:8" ht="14.25">
+      <c r="A197" s="61"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="E195" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="F195" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="G195" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="H195" s="66"/>
-    </row>
-    <row r="196" spans="1:8" ht="28.5">
-      <c r="A196" s="64"/>
-      <c r="B196" s="64"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="5" t="s">
+      <c r="D197" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E196" s="48"/>
-      <c r="F196" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="G196" s="28"/>
-      <c r="H196" s="66"/>
-    </row>
-    <row r="197" spans="1:8" ht="14.25">
-      <c r="A197" s="64"/>
-      <c r="B197" s="64"/>
-      <c r="C197" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E197" s="51"/>
+      <c r="E197" s="50"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="66"/>
+      <c r="H197" s="62"/>
     </row>
     <row r="198" spans="1:8" ht="28.5">
-      <c r="A198" s="64"/>
-      <c r="B198" s="64"/>
-      <c r="C198" s="64"/>
+      <c r="A198" s="61"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="61"/>
       <c r="D198" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E198" s="51"/>
+        <v>294</v>
+      </c>
+      <c r="E198" s="50"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="66"/>
+      <c r="H198" s="62"/>
     </row>
     <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="64"/>
-      <c r="B199" s="64"/>
-      <c r="C199" s="64"/>
+      <c r="A199" s="61"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="61"/>
       <c r="D199" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E199" s="51"/>
+        <v>295</v>
+      </c>
+      <c r="E199" s="50"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-      <c r="H199" s="66"/>
+      <c r="H199" s="62"/>
     </row>
     <row r="200" spans="1:8" ht="14.25">
-      <c r="A200" s="74" t="s">
-        <v>299</v>
+      <c r="A200" s="60" t="s">
+        <v>296</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C200" s="64"/>
+        <v>297</v>
+      </c>
+      <c r="C200" s="61"/>
       <c r="D200" s="65"/>
       <c r="E200" s="65"/>
       <c r="F200" s="65"/>
       <c r="G200" s="65"/>
-      <c r="H200" s="66"/>
+      <c r="H200" s="62"/>
     </row>
     <row r="201" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A201" s="64"/>
+      <c r="A201" s="61"/>
       <c r="B201" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C201" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="D201" s="68"/>
+        <v>298</v>
+      </c>
+      <c r="C201" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="D201" s="70"/>
       <c r="E201" s="65"/>
-      <c r="F201" s="68"/>
-      <c r="G201" s="68"/>
-      <c r="H201" s="69"/>
+      <c r="F201" s="70"/>
+      <c r="G201" s="70"/>
+      <c r="H201" s="71"/>
     </row>
     <row r="202" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A202" s="64"/>
+      <c r="A202" s="61"/>
       <c r="B202" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C202" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="D202" s="71"/>
-      <c r="E202" s="72"/>
-      <c r="F202" s="71"/>
-      <c r="G202" s="71"/>
-      <c r="H202" s="73"/>
+        <v>299</v>
+      </c>
+      <c r="C202" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="D202" s="73"/>
+      <c r="E202" s="74"/>
+      <c r="F202" s="73"/>
+      <c r="G202" s="73"/>
+      <c r="H202" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E202">
     <filterColumn colId="0"/>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="B40:B56"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B95"/>
+    <mergeCell ref="B96:B118"/>
+    <mergeCell ref="B119:B164"/>
+    <mergeCell ref="B165:B184"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C144:C150"/>
     <mergeCell ref="C194:C196"/>
     <mergeCell ref="C197:C199"/>
     <mergeCell ref="H3:H39"/>
@@ -9561,46 +9707,6 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="C187:C193"/>
     <mergeCell ref="C151:C155"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="B40:B56"/>
-    <mergeCell ref="B57:B74"/>
-    <mergeCell ref="B75:B95"/>
-    <mergeCell ref="B96:B118"/>
-    <mergeCell ref="B119:B164"/>
-    <mergeCell ref="B165:B184"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -10,14 +10,14 @@
     <sheet name="前端" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">前端!$E$1:$E$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">前端!$E$1:$E$201</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="369">
   <si>
     <t>前端开发面试评估表</t>
   </si>
@@ -526,13 +526,7 @@
     <t>可使用CSS函数复用代码，实现特殊效果</t>
   </si>
   <si>
-    <t>PostCSS、Sass、Less的异同，以及使用配置，至少掌握一种</t>
-  </si>
-  <si>
     <t>CSS模块化方案、如何配置按需加载、如何防止CSS阻塞渲染</t>
-  </si>
-  <si>
-    <t>1 直接用js，Radium，jsxstyle，react-style ；2js管理依赖  CSS Modules；按需加载webpack，放在阻塞：cdn加速、压缩、缓存、减少请求次数</t>
   </si>
   <si>
     <t>熟练使用CSS实现常见动画，如渐变、移动、旋转、缩放等等</t>
@@ -626,9 +620,6 @@
     <t>实现一个sleep函数</t>
   </si>
   <si>
-    <t>await +Promise+ setTimeout；第三方库 coroutine</t>
-  </si>
-  <si>
     <t>手动实现前端轮子</t>
   </si>
   <si>
@@ -881,15 +872,9 @@
     <t>基于React的特性和原理，可以手动实现一个简单的React</t>
   </si>
   <si>
-    <t>redux 原理</t>
-  </si>
-  <si>
     <t>flux，subscribe相应框架(库)的内部方法</t>
   </si>
   <si>
-    <t>connect</t>
-  </si>
-  <si>
     <t>高阶组件</t>
   </si>
   <si>
@@ -1029,12 +1014,6 @@
   </si>
   <si>
     <t>熟练使用Redux管理数据流，并理解其实现原理，中间件实现原理</t>
-  </si>
-  <si>
-    <t>Action 、Store、Reducers、Component（借书类别）；action -&gt; middleware -&gt;</t>
-  </si>
-  <si>
-    <t>熟练使用Mobx管理数据流，并理解其实现原理，相比Redux有什么优势</t>
   </si>
   <si>
     <t>熟练使用Vuex管理数据流，并理解其实现原理</t>
@@ -1805,259 +1784,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.typeof </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只能判断出基础类型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>object, function(null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>也是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">bug)
-2.instanceof </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据原型来判断两个对象是否属于实例关系，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">而不能判断一个对象实例具体属于哪种类型。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3.constructor 
-3.1. null </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> undefined </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是无效的对象，因此是不会有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">存在的，这两种类型的数据需要通过其他方式来判断。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">3.2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>函数的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是不稳定的，这个主要体现在自定义对象上，当开发者重写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> prototype </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后，原有的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>引用会丢失，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">constructor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会默认为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> Object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">
-4.Object.prototype.toString.call</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
@@ -2084,99 +1810,6 @@
         <charset val="134"/>
       </rPr>
       <t>数据类型的方式，以及他们的优缺点，如何准确的判断数组类型</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Boolean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-装箱：把基本数据类型转化为对应的引用数据类型的操作；
-拆箱：将引用类型对象转换为对应的值类型对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> num.toFixed(2); // '123.00'
-    //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">上方代码在后台的真正步骤为
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">    var c = new Number(123);
-    c.toFixed(2);
-    c = null;</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3105,6 +2738,1708 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、工作经历（实际大数据工作年限、与本公司相关项目和行业经验）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、沟通表达能力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、技术评价（能力程度、技术优势、弱点、自行钻研领域）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写函数柯里化工具函数、并理解其应用场景和优势</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>:(10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、回答不到关键字，定义为【了解】程度及以下，评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&lt;=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、能答到关键字，但是讲解不清楚，定义为【应用】程度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>6&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&lt;=8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、能回答到关键字，且能完整表述正确答案，定义为【熟悉】程度，评分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>&gt;8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以工作能力为主，工作年限仅为参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作三年左右，对于大部分考核项目达到【应用】程度的，属于能够独立进行开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作五年左右，对于大部分考核项目达到【熟悉】程度的，属于能够担任主力开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>T2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场景：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>before,after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/u011500781/article/details/80004517</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、字符串（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、布尔值（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>symbol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>bigint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、对象（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中对象类型包括：数组（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、函数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、还有两个特殊的对象：正则（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>RegExp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和日期（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>BigInt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有范围</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器的垃圾回收机制，如何避免内存泄漏</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juejin.im/post/6844903978069655565</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juejin.im/post/6844904063570542599</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>事前加密、事中规避、事后屏蔽</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原理：登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站，再在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站伪造请求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过表单提交。
+防御：验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP Referer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">字段——用户可在浏览器设置去掉；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求地址中添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">参数并验证；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">            HTTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头中自定义属性并验证——局限性，如表单提交，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>formData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有兼容；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于函数变量作用域链的规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垃圾回收机制的引用计数规则，作用：间接访问函数的内部数据；应用：函数防抖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、单例模式、多个组件独立属性、私有变量、拿到正确的值</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包的实现原理和作用，可以列举几个开发中闭包的实际应用</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+装箱：把基本数据类型转化为对应的引用数据类型的操作；
+拆箱：将引用类型对象转换为对应的值类型对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> num.toFixed(2); // '123.00'
+    //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上方代码在底层的真正步骤为
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">    var c = new Number(123);
+    c.toFixed(2);
+    c = null;</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.typeof </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只能判断出基础类型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>object, function(null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">bug)
+2.instanceof </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据原型来判断两个对象是否属于实例关系，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">而不能判断一个对象实例具体属于哪种类型。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">3.constructor 
+3.1. null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> undefined </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是无效的对象，因此是不会有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在的，这两种类型的数据需要通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>typeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">来判断。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">3.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是不稳定的，这个主要体现在自定义对象上，当开发者重写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> prototype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，原有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用会丢失，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">constructor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">
+4.Object.prototype.toString.call</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PostCSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Sass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的异同，以及使用配置，至少掌握一种</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>postcss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是对本身的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>sass/less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行语言逻辑上的增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Radium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>jsxstyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">react-style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>2js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理依赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">  CSS Modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；按需加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>webpack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，放在阻塞：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>cdn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加速、压缩、缓存、减少请求次数</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -3568,7 +4903,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="22"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
       </rPr>
       <t>HTTP</t>
@@ -3576,7 +4911,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="22"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3586,7 +4921,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="22"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
       </rPr>
       <t>WebSocket</t>
@@ -3637,7 +4972,7 @@
         <color indexed="22"/>
         <rFont val="等线"/>
       </rPr>
-      <t>HTTP</t>
+      <t>TCP</t>
     </r>
     <r>
       <rPr>
@@ -3782,1033 +5117,11 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、工作经历（实际大数据工作年限、与本公司相关项目和行业经验）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、沟通表达能力
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、技术评价（能力程度、技术优势、弱点、自行钻研领域）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>手写函数柯里化工具函数、并理解其应用场景和优势</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评分规则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>:(10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、回答不到关键字，定义为【了解】程度及以下，评分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>&lt;=6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、能答到关键字，但是讲解不清楚，定义为【应用】程度，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>6&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>&lt;=8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、能回答到关键字，且能完整表述正确答案，定义为【熟悉】程度，评分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>&gt;8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评级规则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以工作能力为主，工作年限仅为参考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、工作三年左右，对于大部分考核项目达到【应用】程度的，属于能够独立进行开发的，评级为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>T2.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、工作五年左右，对于大部分考核项目达到【熟悉】程度的，属于能够担任主力开发的，评级为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>T2.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、工作五年及以上，对于绝大部分考核项目达到【熟悉】及以上程度的，属于能够指导他人开发的，评级为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>T2.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>场景：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>bind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>before,after</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/u011500781/article/details/80004517</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数字（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、字符串（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、布尔值（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>boolean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>symbol</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>bigint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>undefined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、对象（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其中对象类型包括：数组（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、函数（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、还有两个特殊的对象：正则（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>RegExp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）和日期（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>BigInt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有范围</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器的垃圾回收机制，如何避免内存泄漏</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://juejin.im/post/6844903978069655565</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://juejin.im/post/6844904063570542599</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>事前加密、事中规避、事后屏蔽</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原理：登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>站，再在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>站伪造请求。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>img</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过表单提交。
-防御：验证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> HTTP Referer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">字段——用户可在浏览器设置去掉；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请求地址中添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">参数并验证；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">            HTTP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头中自定义属性并验证——局限性，如表单提交，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>formData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有兼容；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于函数变量作用域链的规则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>垃圾回收机制的引用计数规则，作用：间接访问函数的内部数据；应用：函数防抖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、单例模式、多个组件独立属性、私有变量、拿到正确的值</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭包的实现原理和作用，可以列举几个开发中闭包的实际应用</t>
+    <t>function sleep(time) {
+ return new Promise((res, rej) =&gt; {
+  setTimeout(res, time)
+ })
+}</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -5060,12 +5373,193 @@
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Action </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Store</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Reducers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>action -&gt; middleware -&gt;</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熟练使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Mobx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理数据流，并理解其实现原理，相比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>Redux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有什么优势</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codesandbox.io/s/dongshoushixianreduxhereact-redux-0hcf7</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">redux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>react-redux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>(connect, provider)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5299,6 +5793,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5562,23 +6076,11 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5588,6 +6090,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5610,11 +6121,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6769,10 +7283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -6788,16 +7302,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6826,13 +7340,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6842,15 +7356,15 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="62"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="141">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
@@ -6858,17 +7372,17 @@
         <v>15</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="62"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -6881,12 +7395,12 @@
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="62"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="126.75">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
@@ -6894,17 +7408,17 @@
         <v>13</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
@@ -6915,12 +7429,12 @@
         <v>24</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="62"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
@@ -6931,30 +7445,30 @@
         <v>26</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="1:8" ht="126.75">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="H8" s="67"/>
+    </row>
+    <row r="9" spans="1:8" ht="127.5">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="32" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="H9" s="62"/>
+        <v>323</v>
+      </c>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
@@ -6965,12 +7479,12 @@
         <v>28</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6983,12 +7497,12 @@
       <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="75" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -7001,14 +7515,14 @@
         <v>34</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="62"/>
+        <v>324</v>
+      </c>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
@@ -7019,14 +7533,14 @@
         <v>36</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="62"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="31" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>15</v>
@@ -7035,14 +7549,14 @@
         <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H14" s="62"/>
+        <v>326</v>
+      </c>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8" ht="51" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
@@ -7053,12 +7567,12 @@
         <v>39</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="62"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
@@ -7066,176 +7580,176 @@
         <v>15</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="H16" s="62"/>
+        <v>293</v>
+      </c>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="75" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="62"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="62"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="62"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="62"/>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="31" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="62"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="62"/>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="62"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="62"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="60" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="75" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>338</v>
-      </c>
-      <c r="H25" s="62"/>
+        <v>329</v>
+      </c>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="52"/>
-      <c r="H26" s="62"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>54</v>
@@ -7243,2470 +7757,2462 @@
       <c r="G27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="62"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="62"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="62"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="62"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="196.5">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="H31" s="62"/>
+        <v>331</v>
+      </c>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="62"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="60" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="75" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="62"/>
+      <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="62"/>
+      <c r="H34" s="67"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="62"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="62"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>67</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="62"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="62"/>
+      <c r="H38" s="67"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="62"/>
+      <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A40" s="61"/>
-      <c r="B40" s="60" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="75" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="62"/>
+      <c r="H40" s="67"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>75</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="62"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="62"/>
+      <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="58" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>77</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="H43" s="62"/>
+        <v>336</v>
+      </c>
+      <c r="H43" s="67"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="62"/>
+      <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:8" ht="29.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="60" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="75" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="62"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F46" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="67"/>
+    </row>
+    <row r="48" spans="1:8" ht="27.75">
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" s="45" t="s">
         <v>306</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="62"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="62"/>
-    </row>
-    <row r="48" spans="1:8" ht="27.75">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>313</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="62"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="62"/>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="1:8" ht="71.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="62"/>
+      <c r="H50" s="67"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="62"/>
+      <c r="H51" s="67"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="8" t="s">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E52" s="50"/>
+      <c r="F52" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="1:8" ht="27" customHeight="1">
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="62"/>
-    </row>
-    <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="47"/>
+      <c r="F53" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="67"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="62"/>
-    </row>
-    <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="62"/>
+      <c r="H54" s="67"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="62"/>
+      <c r="H55" s="67"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" s="50"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="62"/>
+      <c r="H56" s="67"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="60" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="E57" s="50"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="62"/>
+      <c r="H57" s="67"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="62"/>
+      <c r="H58" s="67"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="32" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E59" s="50"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="62"/>
+      <c r="H59" s="67"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="67"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E60" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="62"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="E61" s="50"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="62"/>
+      <c r="H61" s="67"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="60" t="s">
-        <v>99</v>
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="75" t="s">
+        <v>97</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E62" s="47"/>
       <c r="F62" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="62"/>
+      <c r="H62" s="67"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="48" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E63" s="50"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="62"/>
+      <c r="H63" s="67"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E64" s="50"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="62"/>
+      <c r="H64" s="67"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E65" s="50"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="62"/>
+      <c r="H65" s="67"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E66" s="50"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="62"/>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="62"/>
+      <c r="H67" s="67"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="62"/>
+      <c r="H68" s="67"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E69" s="50"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="62"/>
+      <c r="H69" s="67"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="32" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G70" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="H70" s="62"/>
+        <v>339</v>
+      </c>
+      <c r="H70" s="67"/>
     </row>
     <row r="71" spans="1:8" ht="369">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="58" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E71" s="46" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="H71" s="62"/>
+        <v>343</v>
+      </c>
+      <c r="H71" s="67"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="60" t="s">
-        <v>108</v>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="75" t="s">
+        <v>106</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E72" s="50"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="62"/>
+      <c r="H72" s="67"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E73" s="47"/>
       <c r="F73" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="62"/>
+      <c r="H73" s="67"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="48" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E74" s="50"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="62"/>
+      <c r="H74" s="67"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="61"/>
-      <c r="B75" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>113</v>
+      <c r="A75" s="65"/>
+      <c r="B75" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>111</v>
       </c>
       <c r="D75" s="48" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E75" s="50"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="62"/>
+      <c r="H75" s="67"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E76" s="47"/>
       <c r="F76" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="62"/>
+      <c r="H76" s="67"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="61"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="61"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="48" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G77" s="57" t="s">
-        <v>358</v>
-      </c>
-      <c r="H77" s="62"/>
+        <v>348</v>
+      </c>
+      <c r="H77" s="67"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="61"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="62"/>
-    </row>
-    <row r="79" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A79" s="61"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
+      <c r="H78" s="67"/>
+    </row>
+    <row r="79" spans="1:8" ht="71.25">
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="67"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E79" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="62"/>
-    </row>
-    <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="61"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="E80" s="45" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="62"/>
+      <c r="H80" s="67"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="61"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E81" s="50"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="62"/>
+      <c r="H81" s="67"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E82" s="46" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="62"/>
+      <c r="H82" s="67"/>
     </row>
     <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E83" s="47"/>
       <c r="F83" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="62"/>
+      <c r="H83" s="67"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="61"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E84" s="50"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="62"/>
+      <c r="H84" s="67"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="61"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
       <c r="D85" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E85" s="50"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="62"/>
+      <c r="H85" s="67"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="61"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
       <c r="D86" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E86" s="50"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="62"/>
+      <c r="H86" s="67"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="61"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="60" t="s">
-        <v>129</v>
+      <c r="A87" s="65"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="75" t="s">
+        <v>126</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E87" s="50"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="62"/>
+      <c r="H87" s="67"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
       <c r="D88" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E88" s="47"/>
       <c r="F88" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="62"/>
+      <c r="H88" s="67"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="61"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
       <c r="D89" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E89" s="50"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="62"/>
+      <c r="H89" s="67"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="61"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="63"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E90" s="50"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="62"/>
+      <c r="H90" s="67"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="61"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="60" t="s">
-        <v>135</v>
+      <c r="A91" s="65"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="75" t="s">
+        <v>132</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E91" s="50"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="62"/>
+      <c r="H91" s="67"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="61"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="61"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
       <c r="D92" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E92" s="47"/>
       <c r="F92" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H92" s="62"/>
+        <v>136</v>
+      </c>
+      <c r="H92" s="67"/>
     </row>
     <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="61"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="61"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
       <c r="D93" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E93" s="50"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="62"/>
+      <c r="H93" s="67"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
       <c r="D94" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E94" s="50"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="62"/>
+      <c r="H94" s="67"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="61"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="61"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
       <c r="D95" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E95" s="47"/>
       <c r="F95" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" s="67"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A96" s="65"/>
+      <c r="B96" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="D96" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="H95" s="62"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="61"/>
-      <c r="B96" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="E96" s="50"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="62"/>
+      <c r="H96" s="67"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="65"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="66"/>
       <c r="D97" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E97" s="50"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="62"/>
+      <c r="H97" s="67"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="65"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="66"/>
       <c r="D98" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E98" s="47"/>
       <c r="F98" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="62"/>
+      <c r="H98" s="67"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="65"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="66"/>
       <c r="D99" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E99" s="50"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="62"/>
+      <c r="H99" s="67"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="65"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="66"/>
       <c r="D100" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E100" s="50"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="62"/>
+      <c r="H100" s="67"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="61"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="65"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E101" s="50"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="62"/>
+      <c r="H101" s="67"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="61"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="65"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="66"/>
       <c r="D102" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E102" s="50"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="62"/>
+      <c r="H102" s="67"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="61"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="65"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="66"/>
       <c r="D103" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="62"/>
+      <c r="H103" s="67"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="61"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="65"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="66"/>
       <c r="D104" s="31" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E104" s="46" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G104" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="H104" s="62"/>
+        <v>320</v>
+      </c>
+      <c r="H104" s="67"/>
     </row>
     <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="61"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="60" t="s">
-        <v>157</v>
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="75" t="s">
+        <v>154</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E105" s="50"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="62"/>
+      <c r="H105" s="67"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="61"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="61"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E106" s="50"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="62"/>
+      <c r="H106" s="67"/>
     </row>
     <row r="107" spans="1:8" ht="28.5">
-      <c r="A107" s="61"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="61"/>
+      <c r="A107" s="65"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E107" s="47"/>
       <c r="F107" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="62"/>
+      <c r="H107" s="67"/>
     </row>
     <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="61"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="61"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E108" s="50"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="62"/>
+      <c r="H108" s="67"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="61"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61"/>
+      <c r="A109" s="65"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
       <c r="D109" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E109" s="50"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="62"/>
+      <c r="H109" s="67"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="61"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="61"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E110" s="50"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="62"/>
+      <c r="H110" s="67"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="61"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
+      <c r="A111" s="65"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
       <c r="D111" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E111" s="50"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="62"/>
+      <c r="H111" s="67"/>
     </row>
     <row r="112" spans="1:8" ht="206.25">
-      <c r="A112" s="61"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
       <c r="D112" s="31" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E112" s="47"/>
-      <c r="F112" s="77" t="s">
-        <v>367</v>
+      <c r="F112" s="61" t="s">
+        <v>364</v>
       </c>
       <c r="G112" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="H112" s="62"/>
+        <v>351</v>
+      </c>
+      <c r="H112" s="67"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="61"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="61"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
       <c r="D113" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E113" s="50"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="62"/>
-    </row>
-    <row r="114" spans="1:8" ht="27" customHeight="1">
-      <c r="A114" s="61"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="60" t="s">
-        <v>167</v>
+      <c r="H113" s="67"/>
+    </row>
+    <row r="114" spans="1:8" ht="28.5">
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="75" t="s">
+        <v>164</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E114" s="50"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="62"/>
+      <c r="H114" s="67"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="61"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="61"/>
+      <c r="A115" s="65"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
       <c r="D115" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E115" s="47"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="62"/>
+      <c r="H115" s="67"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="61"/>
-      <c r="B116" s="61"/>
-      <c r="C116" s="61"/>
+      <c r="A116" s="65"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E116" s="50"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="62"/>
+      <c r="H116" s="67"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="61"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="61"/>
+      <c r="A117" s="65"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
       <c r="D117" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E117" s="47"/>
       <c r="F117" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="62"/>
+      <c r="H117" s="67"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="61"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="61"/>
+      <c r="A118" s="65"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
       <c r="D118" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E118" s="50"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="62"/>
+      <c r="H118" s="67"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="61"/>
-      <c r="B119" s="60" t="s">
+      <c r="A119" s="65"/>
+      <c r="B119" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E119" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C119" s="60" t="s">
+      <c r="G119" s="13"/>
+      <c r="H119" s="67"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A120" s="65"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="62"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A120" s="61"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="61"/>
-      <c r="D120" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="E120" s="47"/>
       <c r="F120" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G120" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="H120" s="67"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A121" s="65"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65"/>
+      <c r="D121" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E121" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="67"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A122" s="65"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="G120" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="H120" s="62"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A121" s="61"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="5" t="s">
+      <c r="D122" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="E121" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="62"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A122" s="61"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="E122" s="50"/>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
-      <c r="H122" s="62"/>
+      <c r="H122" s="67"/>
     </row>
     <row r="123" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A123" s="61"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="61"/>
+      <c r="A123" s="65"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E123" s="47"/>
       <c r="F123" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="62"/>
+      <c r="H123" s="67"/>
     </row>
     <row r="124" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A124" s="61"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="61"/>
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
       <c r="D124" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E124" s="50"/>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="62"/>
+      <c r="H124" s="67"/>
     </row>
     <row r="125" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A125" s="61"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="61"/>
+      <c r="A125" s="65"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
       <c r="D125" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E125" s="50"/>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="62"/>
+      <c r="H125" s="67"/>
     </row>
     <row r="126" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A126" s="61"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="60" t="s">
-        <v>188</v>
+      <c r="A126" s="65"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="75" t="s">
+        <v>185</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E126" s="50"/>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
-      <c r="H126" s="62"/>
+      <c r="H126" s="67"/>
     </row>
     <row r="127" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A127" s="61"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="61"/>
+      <c r="A127" s="65"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
       <c r="D127" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E127" s="47"/>
       <c r="F127" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="62"/>
+      <c r="H127" s="67"/>
     </row>
     <row r="128" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A128" s="61"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="61"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
       <c r="D128" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E128" s="50"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="62"/>
+      <c r="H128" s="67"/>
     </row>
     <row r="129" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A129" s="61"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="61"/>
+      <c r="A129" s="65"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="65"/>
       <c r="D129" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E129" s="50"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-      <c r="H129" s="62"/>
+      <c r="H129" s="67"/>
     </row>
     <row r="130" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A130" s="61"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="61"/>
+      <c r="A130" s="65"/>
+      <c r="B130" s="65"/>
+      <c r="C130" s="65"/>
       <c r="D130" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E130" s="47"/>
       <c r="F130" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="62"/>
+      <c r="H130" s="67"/>
     </row>
     <row r="131" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A131" s="61"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="61"/>
+      <c r="A131" s="65"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
       <c r="D131" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E131" s="50"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
-      <c r="H131" s="62"/>
+      <c r="H131" s="67"/>
     </row>
     <row r="132" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A132" s="61"/>
-      <c r="B132" s="61"/>
-      <c r="C132" s="61"/>
+      <c r="A132" s="65"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="65"/>
       <c r="D132" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E132" s="50"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
-      <c r="H132" s="62"/>
+      <c r="H132" s="67"/>
     </row>
     <row r="133" spans="1:8" ht="27" customHeight="1">
-      <c r="A133" s="61"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="61"/>
+      <c r="A133" s="65"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="65"/>
       <c r="D133" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E133" s="50"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
-      <c r="H133" s="62"/>
+      <c r="H133" s="67"/>
     </row>
     <row r="134" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A134" s="61"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="61"/>
+      <c r="A134" s="65"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="65"/>
       <c r="D134" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E134" s="50"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="62"/>
+      <c r="H134" s="67"/>
     </row>
     <row r="135" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A135" s="61"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="61"/>
-      <c r="D135" s="5" t="s">
-        <v>200</v>
+      <c r="A135" s="65"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="58" t="s">
+        <v>368</v>
       </c>
       <c r="E135" s="47"/>
       <c r="F135" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G135" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="H135" s="67"/>
+    </row>
+    <row r="136" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A136" s="65"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" s="47"/>
+      <c r="F136" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G136" s="24"/>
+      <c r="H136" s="67"/>
+    </row>
+    <row r="137" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A137" s="65"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137" s="47"/>
+      <c r="F137" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G135" s="13"/>
-      <c r="H135" s="62"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A136" s="61"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="61"/>
-      <c r="D136" s="8" t="s">
+      <c r="G137" s="13"/>
+      <c r="H137" s="67"/>
+    </row>
+    <row r="138" spans="1:8" ht="27" customHeight="1">
+      <c r="A138" s="65"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="E136" s="50"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="62"/>
-    </row>
-    <row r="137" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A137" s="61"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="61"/>
-      <c r="D137" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E137" s="47"/>
-      <c r="F137" s="39" t="s">
+      <c r="E138" s="47"/>
+      <c r="F138" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="G137" s="24"/>
-      <c r="H137" s="62"/>
-    </row>
-    <row r="138" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A138" s="61"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="61"/>
-      <c r="D138" s="5" t="s">
+      <c r="G138" s="7"/>
+      <c r="H138" s="67"/>
+    </row>
+    <row r="139" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A139" s="65"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E138" s="47"/>
-      <c r="F138" s="8" t="s">
+      <c r="E139" s="50"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="67"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A140" s="65"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="62"/>
-    </row>
-    <row r="139" spans="1:8" ht="27" customHeight="1">
-      <c r="A139" s="61"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="60" t="s">
+      <c r="E140" s="47"/>
+      <c r="F140" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="G140" s="13"/>
+      <c r="H140" s="67"/>
+    </row>
+    <row r="141" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A141" s="65"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E139" s="47"/>
-      <c r="F139" s="35" t="s">
+      <c r="E141" s="47"/>
+      <c r="F141" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="62"/>
-    </row>
-    <row r="140" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A140" s="61"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="61"/>
-      <c r="D140" s="8" t="s">
+      <c r="G141" s="25"/>
+      <c r="H141" s="67"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A142" s="65"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E140" s="50"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="62"/>
-    </row>
-    <row r="141" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A141" s="61"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="61"/>
-      <c r="D141" s="5" t="s">
+      <c r="E142" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="F142" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G142" s="13"/>
+      <c r="H142" s="67"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A143" s="65"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="E141" s="47"/>
-      <c r="F141" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="62"/>
-    </row>
-    <row r="142" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A142" s="61"/>
-      <c r="B142" s="61"/>
-      <c r="C142" s="61"/>
-      <c r="D142" s="5" t="s">
+      <c r="E143" s="50"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="67"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A144" s="65"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E142" s="47"/>
-      <c r="F142" s="40" t="s">
+      <c r="E144" s="47"/>
+      <c r="F144" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G142" s="25"/>
-      <c r="H142" s="62"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A143" s="61"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="8" t="s">
+      <c r="G144" s="13"/>
+      <c r="H144" s="67"/>
+    </row>
+    <row r="145" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A145" s="65"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E143" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="G143" s="13"/>
-      <c r="H143" s="62"/>
-    </row>
-    <row r="144" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A144" s="61"/>
-      <c r="B144" s="61"/>
-      <c r="C144" s="60" t="s">
+      <c r="E145" s="50"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="67"/>
+    </row>
+    <row r="146" spans="1:8" ht="27" customHeight="1">
+      <c r="A146" s="65"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E144" s="50"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="62"/>
-    </row>
-    <row r="145" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A145" s="61"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="61"/>
-      <c r="D145" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E145" s="47"/>
-      <c r="F145" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="62"/>
-    </row>
-    <row r="146" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A146" s="61"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="61"/>
-      <c r="D146" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="E146" s="50"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
-      <c r="H146" s="62"/>
+      <c r="H146" s="67"/>
     </row>
     <row r="147" spans="1:8" ht="27" customHeight="1">
-      <c r="A147" s="61"/>
-      <c r="B147" s="61"/>
-      <c r="C147" s="61"/>
+      <c r="A147" s="65"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="65"/>
       <c r="D147" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E147" s="50"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="62"/>
-    </row>
-    <row r="148" spans="1:8" ht="27" customHeight="1">
-      <c r="A148" s="61"/>
-      <c r="B148" s="61"/>
-      <c r="C148" s="61"/>
+      <c r="H147" s="67"/>
+    </row>
+    <row r="148" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A148" s="65"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
       <c r="D148" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E148" s="50"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="62"/>
+      <c r="H148" s="67"/>
     </row>
     <row r="149" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A149" s="61"/>
-      <c r="B149" s="61"/>
-      <c r="C149" s="61"/>
+      <c r="A149" s="65"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="65"/>
       <c r="D149" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E149" s="50"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-      <c r="H149" s="62"/>
+      <c r="H149" s="67"/>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A150" s="61"/>
-      <c r="B150" s="61"/>
-      <c r="C150" s="61"/>
-      <c r="D150" s="8" t="s">
+      <c r="A150" s="65"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E150" s="47"/>
+      <c r="F150" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G150" s="13"/>
+      <c r="H150" s="67"/>
+    </row>
+    <row r="151" spans="1:8" ht="15">
+      <c r="A151" s="65"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E151" s="47"/>
+      <c r="F151" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="G151" s="26"/>
+      <c r="H151" s="67"/>
+    </row>
+    <row r="152" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A152" s="65"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="65"/>
+      <c r="D152" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E152" s="50"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="67"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A153" s="65"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E150" s="50"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="62"/>
-    </row>
-    <row r="151" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A151" s="61"/>
-      <c r="B151" s="61"/>
-      <c r="C151" s="60" t="s">
+      <c r="E153" s="47"/>
+      <c r="F153" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="G153" s="7"/>
+      <c r="H153" s="67"/>
+    </row>
+    <row r="154" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A154" s="65"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="65"/>
+      <c r="D154" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E151" s="47"/>
-      <c r="F151" s="8" t="s">
+      <c r="E154" s="50"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="67"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A155" s="65"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="62"/>
-    </row>
-    <row r="152" spans="1:8" ht="27" customHeight="1">
-      <c r="A152" s="61"/>
-      <c r="B152" s="61"/>
-      <c r="C152" s="61"/>
-      <c r="D152" s="5" t="s">
+      <c r="D155" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E152" s="47"/>
-      <c r="F152" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="G152" s="26"/>
-      <c r="H152" s="62"/>
-    </row>
-    <row r="153" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A153" s="61"/>
-      <c r="B153" s="61"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E153" s="50"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="62"/>
-    </row>
-    <row r="154" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A154" s="61"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="61"/>
-      <c r="D154" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E154" s="47"/>
-      <c r="F154" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="62"/>
-    </row>
-    <row r="155" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A155" s="61"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="61"/>
-      <c r="D155" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="E155" s="50"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-      <c r="H155" s="62"/>
+      <c r="H155" s="67"/>
     </row>
     <row r="156" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A156" s="61"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E156" s="50"/>
+      <c r="A156" s="65"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="65"/>
+      <c r="D156" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E156" s="47"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-      <c r="H156" s="62"/>
+      <c r="H156" s="67"/>
     </row>
     <row r="157" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A157" s="61"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="61"/>
-      <c r="D157" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E157" s="47"/>
+      <c r="A157" s="65"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="65"/>
+      <c r="D157" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E157" s="50"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="62"/>
+      <c r="H157" s="67"/>
     </row>
     <row r="158" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A158" s="61"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="61"/>
+      <c r="A158" s="65"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="65"/>
       <c r="D158" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E158" s="50"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-      <c r="H158" s="62"/>
-    </row>
-    <row r="159" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A159" s="61"/>
-      <c r="B159" s="61"/>
-      <c r="C159" s="61"/>
-      <c r="D159" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E159" s="50"/>
+      <c r="H158" s="67"/>
+    </row>
+    <row r="159" spans="1:8" ht="27" customHeight="1">
+      <c r="A159" s="65"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="65"/>
+      <c r="D159" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E159" s="47"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="62"/>
-    </row>
-    <row r="160" spans="1:8" ht="27" customHeight="1">
-      <c r="A160" s="61"/>
-      <c r="B160" s="61"/>
-      <c r="C160" s="61"/>
+      <c r="H159" s="67"/>
+    </row>
+    <row r="160" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A160" s="65"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="75" t="s">
+        <v>233</v>
+      </c>
       <c r="D160" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E160" s="47"/>
-      <c r="F160" s="13"/>
+        <v>234</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="G160" s="13"/>
-      <c r="H160" s="62"/>
+      <c r="H160" s="67"/>
     </row>
     <row r="161" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A161" s="61"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E161" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="A161" s="65"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="65"/>
+      <c r="D161" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E161" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" s="13"/>
       <c r="G161" s="13"/>
-      <c r="H161" s="62"/>
+      <c r="H161" s="67"/>
     </row>
     <row r="162" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A162" s="61"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="61"/>
+      <c r="A162" s="65"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="65"/>
       <c r="D162" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E162" s="45" t="s">
-        <v>321</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E162" s="50"/>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-      <c r="H162" s="62"/>
+      <c r="H162" s="67"/>
     </row>
     <row r="163" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A163" s="61"/>
-      <c r="B163" s="61"/>
-      <c r="C163" s="61"/>
-      <c r="D163" s="8" t="s">
+      <c r="A163" s="65"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="65"/>
+      <c r="D163" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E163" s="47"/>
+      <c r="F163" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G163" s="27"/>
+      <c r="H163" s="67"/>
+    </row>
+    <row r="164" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A164" s="65"/>
+      <c r="B164" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E164" s="47"/>
+      <c r="F164" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G164" s="13"/>
+      <c r="H164" s="67"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A165" s="65"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="65"/>
+      <c r="D165" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E163" s="50"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="62"/>
-    </row>
-    <row r="164" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A164" s="61"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="61"/>
-      <c r="D164" s="5" t="s">
+      <c r="E165" s="50"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="67"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A166" s="65"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="65"/>
+      <c r="D166" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="E164" s="47"/>
-      <c r="F164" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="G164" s="27"/>
-      <c r="H164" s="62"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A165" s="61"/>
-      <c r="B165" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C165" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E165" s="47"/>
-      <c r="F165" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="62"/>
-    </row>
-    <row r="166" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A166" s="61"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="61"/>
-      <c r="D166" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="E166" s="50"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="62"/>
+      <c r="H166" s="67"/>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A167" s="61"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="61"/>
+      <c r="A167" s="65"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="65"/>
       <c r="D167" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E167" s="50"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="62"/>
+      <c r="H167" s="67"/>
     </row>
     <row r="168" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A168" s="61"/>
-      <c r="B168" s="61"/>
-      <c r="C168" s="61"/>
+      <c r="A168" s="65"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="65"/>
       <c r="D168" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E168" s="50"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-      <c r="H168" s="62"/>
+      <c r="H168" s="67"/>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A169" s="61"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="61"/>
+      <c r="A169" s="65"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
       <c r="D169" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E169" s="50"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-      <c r="H169" s="62"/>
+      <c r="H169" s="67"/>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A170" s="61"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="61"/>
-      <c r="D170" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E170" s="50"/>
+      <c r="A170" s="65"/>
+      <c r="B170" s="65"/>
+      <c r="C170" s="65"/>
+      <c r="D170" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E170" s="47"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-      <c r="H170" s="62"/>
+      <c r="H170" s="67"/>
     </row>
     <row r="171" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A171" s="61"/>
-      <c r="B171" s="61"/>
-      <c r="C171" s="61"/>
-      <c r="D171" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E171" s="47"/>
+      <c r="A171" s="65"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E171" s="50"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-      <c r="H171" s="62"/>
-    </row>
-    <row r="172" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A172" s="61"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="61"/>
-      <c r="D172" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E172" s="50"/>
-      <c r="F172" s="13"/>
+      <c r="H171" s="67"/>
+    </row>
+    <row r="172" spans="1:8" ht="40.5">
+      <c r="A172" s="65"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E172" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F172" s="48" t="s">
+        <v>315</v>
+      </c>
       <c r="G172" s="13"/>
-      <c r="H172" s="62"/>
-    </row>
-    <row r="173" spans="1:8" ht="40.5">
-      <c r="A173" s="61"/>
-      <c r="B173" s="61"/>
-      <c r="C173" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E173" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="F173" s="48" t="s">
-        <v>322</v>
-      </c>
+      <c r="H172" s="67"/>
+    </row>
+    <row r="173" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A173" s="65"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="65"/>
+      <c r="D173" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E173" s="50"/>
+      <c r="F173" s="13"/>
       <c r="G173" s="13"/>
-      <c r="H173" s="62"/>
+      <c r="H173" s="67"/>
     </row>
     <row r="174" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A174" s="61"/>
-      <c r="B174" s="61"/>
-      <c r="C174" s="61"/>
+      <c r="A174" s="65"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="65"/>
       <c r="D174" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E174" s="50"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-      <c r="H174" s="62"/>
+      <c r="H174" s="67"/>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A175" s="61"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="61"/>
-      <c r="D175" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E175" s="50"/>
+      <c r="A175" s="65"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="65"/>
+      <c r="D175" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E175" s="47"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-      <c r="H175" s="62"/>
+      <c r="H175" s="67"/>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A176" s="61"/>
-      <c r="B176" s="61"/>
-      <c r="C176" s="61"/>
+      <c r="A176" s="65"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="75" t="s">
+        <v>256</v>
+      </c>
       <c r="D176" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E176" s="47"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-      <c r="H176" s="62"/>
+      <c r="H176" s="67"/>
     </row>
     <row r="177" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A177" s="61"/>
-      <c r="B177" s="61"/>
-      <c r="C177" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E177" s="47"/>
+      <c r="A177" s="65"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="65"/>
+      <c r="D177" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E177" s="50"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="62"/>
+      <c r="H177" s="67"/>
     </row>
     <row r="178" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A178" s="61"/>
-      <c r="B178" s="61"/>
-      <c r="C178" s="61"/>
+      <c r="A178" s="65"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="65"/>
       <c r="D178" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E178" s="50"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-      <c r="H178" s="62"/>
+      <c r="H178" s="67"/>
     </row>
     <row r="179" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A179" s="61"/>
-      <c r="B179" s="61"/>
-      <c r="C179" s="61"/>
+      <c r="A179" s="65"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="75" t="s">
+        <v>260</v>
+      </c>
       <c r="D179" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E179" s="50"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="62"/>
-    </row>
-    <row r="180" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A180" s="61"/>
-      <c r="B180" s="61"/>
-      <c r="C180" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E180" s="50"/>
+      <c r="H179" s="67"/>
+    </row>
+    <row r="180" spans="1:8" ht="27" customHeight="1">
+      <c r="A180" s="65"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="65"/>
+      <c r="D180" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E180" s="47"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="62"/>
-    </row>
-    <row r="181" spans="1:8" ht="27" customHeight="1">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
+      <c r="H180" s="67"/>
+    </row>
+    <row r="181" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A181" s="65"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="75" t="s">
+        <v>263</v>
+      </c>
       <c r="D181" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E181" s="47"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="62"/>
+      <c r="H181" s="67"/>
     </row>
     <row r="182" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A182" s="61"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E182" s="47"/>
+      <c r="A182" s="65"/>
+      <c r="B182" s="65"/>
+      <c r="C182" s="65"/>
+      <c r="D182" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E182" s="50"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="62"/>
+      <c r="H182" s="67"/>
     </row>
     <row r="183" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A183" s="61"/>
-      <c r="B183" s="61"/>
-      <c r="C183" s="61"/>
+      <c r="A183" s="65"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="65"/>
       <c r="D183" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E183" s="50"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="62"/>
+      <c r="H183" s="67"/>
     </row>
     <row r="184" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A184" s="61"/>
-      <c r="B184" s="61"/>
-      <c r="C184" s="61"/>
-      <c r="D184" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E184" s="50"/>
+      <c r="A184" s="65"/>
+      <c r="B184" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="C184" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E184" s="47"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="62"/>
-    </row>
-    <row r="185" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A185" s="61"/>
-      <c r="B185" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="C185" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E185" s="47"/>
+      <c r="H184" s="67"/>
+    </row>
+    <row r="185" spans="1:8" ht="27" customHeight="1">
+      <c r="A185" s="65"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="65"/>
+      <c r="D185" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E185" s="50"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="62"/>
-    </row>
-    <row r="186" spans="1:8" ht="27" customHeight="1">
-      <c r="A186" s="61"/>
-      <c r="B186" s="61"/>
-      <c r="C186" s="61"/>
-      <c r="D186" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E186" s="50"/>
-      <c r="F186" s="13"/>
+      <c r="H185" s="67"/>
+    </row>
+    <row r="186" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A186" s="65"/>
+      <c r="B186" s="65"/>
+      <c r="C186" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E186" s="47"/>
+      <c r="F186" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="G186" s="13"/>
-      <c r="H186" s="62"/>
-    </row>
-    <row r="187" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A187" s="61"/>
-      <c r="B187" s="61"/>
-      <c r="C187" s="60" t="s">
-        <v>278</v>
-      </c>
+      <c r="H186" s="67"/>
+    </row>
+    <row r="187" spans="1:8" ht="27" customHeight="1">
+      <c r="A187" s="65"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="65"/>
       <c r="D187" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E187" s="47"/>
       <c r="F187" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="62"/>
-    </row>
-    <row r="188" spans="1:8" ht="27" customHeight="1">
-      <c r="A188" s="61"/>
-      <c r="B188" s="61"/>
-      <c r="C188" s="61"/>
-      <c r="D188" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E188" s="47"/>
-      <c r="F188" s="8" t="s">
-        <v>282</v>
-      </c>
+      <c r="H187" s="67"/>
+    </row>
+    <row r="188" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A188" s="65"/>
+      <c r="B188" s="65"/>
+      <c r="C188" s="65"/>
+      <c r="D188" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E188" s="50"/>
+      <c r="F188" s="13"/>
       <c r="G188" s="13"/>
-      <c r="H188" s="62"/>
+      <c r="H188" s="67"/>
     </row>
     <row r="189" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A189" s="61"/>
-      <c r="B189" s="61"/>
-      <c r="C189" s="61"/>
+      <c r="A189" s="65"/>
+      <c r="B189" s="65"/>
+      <c r="C189" s="65"/>
       <c r="D189" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E189" s="50"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="62"/>
+      <c r="H189" s="67"/>
     </row>
     <row r="190" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A190" s="61"/>
-      <c r="B190" s="61"/>
-      <c r="C190" s="61"/>
+      <c r="A190" s="65"/>
+      <c r="B190" s="65"/>
+      <c r="C190" s="65"/>
       <c r="D190" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E190" s="50"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="62"/>
+      <c r="H190" s="67"/>
     </row>
     <row r="191" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A191" s="61"/>
-      <c r="B191" s="61"/>
-      <c r="C191" s="61"/>
+      <c r="A191" s="65"/>
+      <c r="B191" s="65"/>
+      <c r="C191" s="65"/>
       <c r="D191" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E191" s="50"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-      <c r="H191" s="62"/>
+      <c r="H191" s="67"/>
     </row>
     <row r="192" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A192" s="61"/>
-      <c r="B192" s="61"/>
-      <c r="C192" s="61"/>
-      <c r="D192" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E192" s="50"/>
+      <c r="A192" s="65"/>
+      <c r="B192" s="65"/>
+      <c r="C192" s="65"/>
+      <c r="D192" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E192" s="47"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-      <c r="H192" s="62"/>
+      <c r="H192" s="67"/>
     </row>
     <row r="193" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A193" s="61"/>
-      <c r="B193" s="61"/>
-      <c r="C193" s="61"/>
+      <c r="A193" s="65"/>
+      <c r="B193" s="65"/>
+      <c r="C193" s="75" t="s">
+        <v>281</v>
+      </c>
       <c r="D193" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E193" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F193" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G193" s="13"/>
+      <c r="H193" s="67"/>
+    </row>
+    <row r="194" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A194" s="65"/>
+      <c r="B194" s="65"/>
+      <c r="C194" s="65"/>
+      <c r="D194" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E194" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="F194" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="G194" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="H194" s="67"/>
+    </row>
+    <row r="195" spans="1:8" ht="14.25">
+      <c r="A195" s="65"/>
+      <c r="B195" s="65"/>
+      <c r="C195" s="65"/>
+      <c r="D195" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E195" s="47"/>
+      <c r="F195" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="G195" s="28"/>
+      <c r="H195" s="67"/>
+    </row>
+    <row r="196" spans="1:8" ht="14.25">
+      <c r="A196" s="65"/>
+      <c r="B196" s="65"/>
+      <c r="C196" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E196" s="50"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="67"/>
+    </row>
+    <row r="197" spans="1:8" ht="28.5">
+      <c r="A197" s="65"/>
+      <c r="B197" s="65"/>
+      <c r="C197" s="65"/>
+      <c r="D197" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="E193" s="47"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="13"/>
-      <c r="H193" s="62"/>
-    </row>
-    <row r="194" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A194" s="61"/>
-      <c r="B194" s="61"/>
-      <c r="C194" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E194" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="F194" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="62"/>
-    </row>
-    <row r="195" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A195" s="61"/>
-      <c r="B195" s="61"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E195" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="F195" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G195" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="H195" s="62"/>
-    </row>
-    <row r="196" spans="1:8" ht="14.25">
-      <c r="A196" s="61"/>
-      <c r="B196" s="61"/>
-      <c r="C196" s="61"/>
-      <c r="D196" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E196" s="47"/>
-      <c r="F196" s="76" t="s">
-        <v>363</v>
-      </c>
-      <c r="G196" s="28"/>
-      <c r="H196" s="62"/>
-    </row>
-    <row r="197" spans="1:8" ht="14.25">
-      <c r="A197" s="61"/>
-      <c r="B197" s="61"/>
-      <c r="C197" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="E197" s="50"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-      <c r="H197" s="62"/>
-    </row>
-    <row r="198" spans="1:8" ht="28.5">
-      <c r="A198" s="61"/>
-      <c r="B198" s="61"/>
-      <c r="C198" s="61"/>
+      <c r="H197" s="67"/>
+    </row>
+    <row r="198" spans="1:8" ht="18.95" customHeight="1">
+      <c r="A198" s="65"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="65"/>
       <c r="D198" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E198" s="50"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-      <c r="H198" s="62"/>
-    </row>
-    <row r="199" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A199" s="61"/>
-      <c r="B199" s="61"/>
-      <c r="C199" s="61"/>
-      <c r="D199" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E199" s="50"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="13"/>
-      <c r="H199" s="62"/>
-    </row>
-    <row r="200" spans="1:8" ht="14.25">
-      <c r="A200" s="60" t="s">
-        <v>296</v>
-      </c>
+      <c r="H198" s="67"/>
+    </row>
+    <row r="199" spans="1:8" ht="14.25">
+      <c r="A199" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C199" s="65"/>
+      <c r="D199" s="66"/>
+      <c r="E199" s="66"/>
+      <c r="F199" s="66"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="67"/>
+    </row>
+    <row r="200" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A200" s="65"/>
       <c r="B200" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C200" s="61"/>
-      <c r="D200" s="65"/>
-      <c r="E200" s="65"/>
-      <c r="F200" s="65"/>
-      <c r="G200" s="65"/>
-      <c r="H200" s="62"/>
-    </row>
-    <row r="201" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A201" s="61"/>
+        <v>291</v>
+      </c>
+      <c r="C200" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="D200" s="69"/>
+      <c r="E200" s="66"/>
+      <c r="F200" s="69"/>
+      <c r="G200" s="69"/>
+      <c r="H200" s="70"/>
+    </row>
+    <row r="201" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A201" s="65"/>
       <c r="B201" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C201" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="D201" s="70"/>
-      <c r="E201" s="65"/>
-      <c r="F201" s="70"/>
-      <c r="G201" s="70"/>
-      <c r="H201" s="71"/>
-    </row>
-    <row r="202" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A202" s="61"/>
-      <c r="B202" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C202" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="D202" s="73"/>
-      <c r="E202" s="74"/>
-      <c r="F202" s="73"/>
-      <c r="G202" s="73"/>
-      <c r="H202" s="75"/>
+        <v>292</v>
+      </c>
+      <c r="C201" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="D201" s="72"/>
+      <c r="E201" s="73"/>
+      <c r="F201" s="72"/>
+      <c r="G201" s="72"/>
+      <c r="H201" s="74"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E202">
+  <autoFilter ref="E1:E201">
     <filterColumn colId="0"/>
   </autoFilter>
   <mergeCells count="56">
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="H3:H39"/>
+    <mergeCell ref="H40:H56"/>
+    <mergeCell ref="H57:H74"/>
+    <mergeCell ref="H75:H95"/>
+    <mergeCell ref="H96:H118"/>
+    <mergeCell ref="H119:H163"/>
+    <mergeCell ref="H164:H183"/>
+    <mergeCell ref="H184:H198"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C186:C192"/>
+    <mergeCell ref="C150:C154"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="C172:C175"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C137"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C56"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C199:H199"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C201:H201"/>
-    <mergeCell ref="C202:H202"/>
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="A3:A198"/>
+    <mergeCell ref="A199:A201"/>
     <mergeCell ref="B3:B39"/>
     <mergeCell ref="B40:B56"/>
     <mergeCell ref="B57:B74"/>
     <mergeCell ref="B75:B95"/>
     <mergeCell ref="B96:B118"/>
-    <mergeCell ref="B119:B164"/>
-    <mergeCell ref="B165:B184"/>
-    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="B119:B163"/>
+    <mergeCell ref="B164:B183"/>
+    <mergeCell ref="B184:B198"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C138"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="H3:H39"/>
-    <mergeCell ref="H40:H56"/>
-    <mergeCell ref="H57:H74"/>
-    <mergeCell ref="H75:H95"/>
-    <mergeCell ref="H96:H118"/>
-    <mergeCell ref="H119:H164"/>
-    <mergeCell ref="H165:H184"/>
-    <mergeCell ref="H185:H199"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C193"/>
-    <mergeCell ref="C151:C155"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
@@ -9718,7 +10224,7 @@
     <hyperlink ref="G16" r:id="rId6"/>
     <hyperlink ref="F39" r:id="rId7" location="issuecomment-646935572"/>
     <hyperlink ref="G92" r:id="rId8"/>
-    <hyperlink ref="G195" r:id="rId9"/>
+    <hyperlink ref="G194" r:id="rId9"/>
     <hyperlink ref="G104" r:id="rId10"/>
     <hyperlink ref="G9" r:id="rId11"/>
     <hyperlink ref="G25" r:id="rId12"/>
@@ -9729,9 +10235,10 @@
     <hyperlink ref="G77" r:id="rId17"/>
     <hyperlink ref="G112" r:id="rId18"/>
     <hyperlink ref="G120" r:id="rId19"/>
+    <hyperlink ref="G135" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端开发面试评估表V1.0.xlsx
+++ b/前端开发面试评估表V1.0.xlsx
@@ -1368,9 +1368,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.jianshu.com/p/5c1e90817bdf</t>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3500,210 +3497,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>原理：登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>站，再在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>站伪造请求。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>img</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过表单提交。
-防御：验证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> HTTP Referer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">字段——用户可在浏览器设置去掉；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请求地址中添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">参数并验证；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">            HTTP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头中自定义属性并验证——局限性，如表单提交，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>formData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有兼容；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>基于函数变量作用域链的规则</t>
     </r>
     <r>
@@ -5551,6 +5344,252 @@
         <rFont val="等线"/>
       </rPr>
       <t>(connect, provider)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/5c1e90817bdf
+http://www.ruanyifeng.com/blog/2019/09/cookie-samesite.html</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原理：登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站，再在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站伪造请求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过表单提交。
+防御：验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP Referer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">字段——用户可在浏览器设置去掉；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求地址中添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">参数并验证；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">            cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>SameSite: Strict;IE11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">及以上才支持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">            HTTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头中自定义属性并验证——局限性，如表单提交，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>formData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有兼容；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -5901,7 +5940,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6082,6 +6121,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6090,15 +6147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6121,14 +6169,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7285,8 +7327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -7302,16 +7344,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -7340,13 +7382,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="62" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -7356,15 +7398,15 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="67"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="141">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
@@ -7372,17 +7414,17 @@
         <v>15</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -7395,12 +7437,12 @@
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="67"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="126.75">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
@@ -7408,17 +7450,17 @@
         <v>13</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="67"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
@@ -7429,12 +7471,12 @@
         <v>24</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="67"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
@@ -7445,30 +7487,30 @@
         <v>26</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="67"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8" ht="127.5">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="67"/>
+        <v>322</v>
+      </c>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
@@ -7479,12 +7521,12 @@
         <v>28</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="67"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7497,12 +7539,12 @@
       <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="67"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="75" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="62" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -7515,14 +7557,14 @@
         <v>34</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="67"/>
+        <v>323</v>
+      </c>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
@@ -7533,14 +7575,14 @@
         <v>36</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="1:8" ht="99" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>15</v>
@@ -7549,14 +7591,14 @@
         <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H14" s="67"/>
+        <v>325</v>
+      </c>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" ht="51" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
@@ -7567,12 +7609,12 @@
         <v>39</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="67"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
@@ -7585,12 +7627,12 @@
       <c r="G16" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="75" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="62" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="31" t="s">
@@ -7601,12 +7643,12 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="67"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
@@ -7615,12 +7657,12 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="67"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
@@ -7631,12 +7673,12 @@
         <v>44</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="67"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" ht="66.95" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
@@ -7647,28 +7689,28 @@
         <v>46</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="67"/>
+      <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E21" s="46" t="s">
         <v>298</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="67"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="8" t="s">
         <v>47</v>
       </c>
@@ -7677,12 +7719,12 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="67"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="8" t="s">
         <v>48</v>
       </c>
@@ -7691,12 +7733,12 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="67"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="8" t="s">
         <v>49</v>
       </c>
@@ -7705,32 +7747,32 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="67"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="75" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="62" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E25" s="46" t="s">
         <v>297</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="H25" s="67"/>
+        <v>328</v>
+      </c>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="8" t="s">
         <v>52</v>
       </c>
@@ -7739,12 +7781,12 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="52"/>
-      <c r="H26" s="67"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="5" t="s">
         <v>53</v>
       </c>
@@ -7757,12 +7799,12 @@
       <c r="G27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="8" t="s">
         <v>55</v>
       </c>
@@ -7771,12 +7813,12 @@
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="67"/>
+      <c r="H28" s="64"/>
     </row>
     <row r="29" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="8" t="s">
         <v>56</v>
       </c>
@@ -7785,12 +7827,12 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="67"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
@@ -7798,15 +7840,15 @@
         <v>297</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="67"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31" spans="1:8" ht="196.5">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="8" t="s">
         <v>58</v>
       </c>
@@ -7814,17 +7856,17 @@
         <v>297</v>
       </c>
       <c r="F31" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="H31" s="67"/>
+      <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="8" t="s">
         <v>59</v>
       </c>
@@ -7832,15 +7874,15 @@
         <v>297</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="67"/>
+      <c r="H32" s="64"/>
     </row>
     <row r="33" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="75" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -7851,12 +7893,12 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="67"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="5" t="s">
         <v>62</v>
       </c>
@@ -7867,12 +7909,12 @@
         <v>63</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="67"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="8" t="s">
         <v>64</v>
       </c>
@@ -7881,12 +7923,12 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="67"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="8" t="s">
         <v>65</v>
       </c>
@@ -7895,12 +7937,12 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="67"/>
+      <c r="H36" s="64"/>
     </row>
     <row r="37" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="5" t="s">
         <v>66</v>
       </c>
@@ -7911,12 +7953,12 @@
         <v>67</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="67"/>
+      <c r="H37" s="64"/>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="8" t="s">
         <v>68</v>
       </c>
@@ -7925,12 +7967,12 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="67"/>
+      <c r="H38" s="64"/>
     </row>
     <row r="39" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="8" t="s">
         <v>69</v>
       </c>
@@ -7941,14 +7983,14 @@
         <v>70</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="67"/>
+      <c r="H39" s="64"/>
     </row>
     <row r="40" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="75" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -7959,12 +8001,12 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="67"/>
+      <c r="H40" s="64"/>
     </row>
     <row r="41" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="5" t="s">
         <v>74</v>
       </c>
@@ -7975,12 +8017,12 @@
         <v>75</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="67"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="8" t="s">
         <v>76</v>
       </c>
@@ -7989,14 +8031,14 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="67"/>
+      <c r="H42" s="64"/>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E43" s="46" t="s">
         <v>295</v>
@@ -8005,14 +8047,14 @@
         <v>77</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="H43" s="67"/>
+        <v>335</v>
+      </c>
+      <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="8" t="s">
         <v>78</v>
       </c>
@@ -8021,12 +8063,12 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="67"/>
+      <c r="H44" s="64"/>
     </row>
     <row r="45" spans="1:8" ht="29.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="75" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="62" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -8036,15 +8078,15 @@
         <v>295</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="67"/>
+      <c r="H45" s="64"/>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="8" t="s">
         <v>81</v>
       </c>
@@ -8055,12 +8097,12 @@
         <v>299</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="67"/>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="32" t="s">
         <v>300</v>
       </c>
@@ -8071,134 +8113,134 @@
         <v>301</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="67"/>
+      <c r="H47" s="64"/>
     </row>
     <row r="48" spans="1:8" ht="27.75">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="45" t="s">
         <v>305</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>306</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="67"/>
+      <c r="H48" s="64"/>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="67"/>
+      <c r="H49" s="64"/>
     </row>
     <row r="50" spans="1:8" ht="71.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="67"/>
+      <c r="H50" s="64"/>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="67"/>
+      <c r="H51" s="64"/>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E52" s="50"/>
       <c r="F52" s="30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G52" s="13"/>
-      <c r="H52" s="67"/>
+      <c r="H52" s="64"/>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E53" s="47"/>
       <c r="F53" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="67"/>
+      <c r="H53" s="64"/>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="67"/>
+      <c r="H54" s="64"/>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="67"/>
+      <c r="H55" s="64"/>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="8" t="s">
         <v>88</v>
       </c>
       <c r="E56" s="50"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="67"/>
+      <c r="H56" s="64"/>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="63"/>
+      <c r="B57" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="C57" s="62" t="s">
         <v>90</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -8207,12 +8249,12 @@
       <c r="E57" s="50"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="67"/>
+      <c r="H57" s="64"/>
     </row>
     <row r="58" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="5" t="s">
         <v>92</v>
       </c>
@@ -8221,52 +8263,52 @@
         <v>93</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="67"/>
+      <c r="H58" s="64"/>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E59" s="50"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="67"/>
+      <c r="H59" s="64"/>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>95</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="67"/>
+      <c r="H60" s="64"/>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E61" s="50"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="67"/>
+      <c r="H61" s="64"/>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="75" t="s">
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="62" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -8277,133 +8319,133 @@
         <v>99</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="67"/>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E63" s="50"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="67"/>
+      <c r="H63" s="64"/>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E64" s="50"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="67"/>
+      <c r="H64" s="64"/>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E65" s="50"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="67"/>
+      <c r="H65" s="64"/>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E66" s="50"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="67"/>
+      <c r="H66" s="64"/>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="67"/>
+      <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="67"/>
+      <c r="H68" s="64"/>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E69" s="50"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="67"/>
+      <c r="H69" s="64"/>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G70" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="E70" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="G70" s="57" t="s">
+      <c r="H70" s="64"/>
+    </row>
+    <row r="71" spans="1:8" ht="369">
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="H70" s="67"/>
-    </row>
-    <row r="71" spans="1:8" ht="369">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="58" t="s">
-        <v>340</v>
-      </c>
       <c r="E71" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="H71" s="67"/>
+        <v>342</v>
+      </c>
+      <c r="H71" s="64"/>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="75" t="s">
+      <c r="A72" s="63"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="62" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -8412,12 +8454,12 @@
       <c r="E72" s="50"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="67"/>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="5" t="s">
         <v>108</v>
       </c>
@@ -8426,40 +8468,40 @@
         <v>109</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="67"/>
+      <c r="H73" s="64"/>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E74" s="50"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="67"/>
+      <c r="H74" s="64"/>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="65"/>
-      <c r="B75" s="75" t="s">
+      <c r="A75" s="63"/>
+      <c r="B75" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="75" t="s">
+      <c r="C75" s="62" t="s">
         <v>111</v>
       </c>
       <c r="D75" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E75" s="50"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="67"/>
+      <c r="H75" s="64"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="5" t="s">
         <v>112</v>
       </c>
@@ -8468,104 +8510,104 @@
         <v>113</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="67"/>
+      <c r="H76" s="64"/>
     </row>
     <row r="77" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F77" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="G77" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="G77" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="H77" s="67"/>
+      <c r="H77" s="64"/>
     </row>
     <row r="78" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="67"/>
+      <c r="H78" s="64"/>
     </row>
     <row r="79" spans="1:8" ht="71.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
       <c r="D79" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E79" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G79" s="13"/>
-      <c r="H79" s="67"/>
+      <c r="H79" s="64"/>
     </row>
     <row r="80" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="75" t="s">
+      <c r="A80" s="63"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="62" t="s">
         <v>116</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="67"/>
+      <c r="H80" s="64"/>
     </row>
     <row r="81" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
       <c r="D81" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E81" s="50"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="67"/>
+      <c r="H81" s="64"/>
     </row>
     <row r="82" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E82" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>120</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="67"/>
+      <c r="H82" s="64"/>
     </row>
     <row r="83" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="5" t="s">
         <v>121</v>
       </c>
@@ -8574,48 +8616,48 @@
         <v>122</v>
       </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="67"/>
+      <c r="H83" s="64"/>
     </row>
     <row r="84" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E84" s="50"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="67"/>
+      <c r="H84" s="64"/>
     </row>
     <row r="85" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
       <c r="D85" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E85" s="50"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="67"/>
+      <c r="H85" s="64"/>
     </row>
     <row r="86" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E86" s="50"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="67"/>
+      <c r="H86" s="64"/>
     </row>
     <row r="87" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="75" t="s">
+      <c r="A87" s="63"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="62" t="s">
         <v>126</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -8624,12 +8666,12 @@
       <c r="E87" s="50"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="67"/>
+      <c r="H87" s="64"/>
     </row>
     <row r="88" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="5" t="s">
         <v>128</v>
       </c>
@@ -8638,36 +8680,36 @@
         <v>129</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="67"/>
+      <c r="H88" s="64"/>
     </row>
     <row r="89" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E89" s="50"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="67"/>
+      <c r="H89" s="64"/>
     </row>
     <row r="90" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="76"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="65"/>
       <c r="D90" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E90" s="50"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="67"/>
+      <c r="H90" s="64"/>
     </row>
     <row r="91" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="75" t="s">
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="62" t="s">
         <v>132</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -8676,12 +8718,12 @@
       <c r="E91" s="50"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="67"/>
+      <c r="H91" s="64"/>
     </row>
     <row r="92" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="5" t="s">
         <v>134</v>
       </c>
@@ -8692,36 +8734,36 @@
       <c r="G92" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H92" s="67"/>
+      <c r="H92" s="64"/>
     </row>
     <row r="93" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A93" s="65"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
       <c r="D93" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E93" s="50"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="67"/>
+      <c r="H93" s="64"/>
     </row>
     <row r="94" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
       <c r="D94" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E94" s="50"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="67"/>
+      <c r="H94" s="64"/>
     </row>
     <row r="95" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A95" s="65"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
       <c r="D95" s="5" t="s">
         <v>139</v>
       </c>
@@ -8732,14 +8774,14 @@
       <c r="G95" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H95" s="67"/>
+      <c r="H95" s="64"/>
     </row>
     <row r="96" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A96" s="65"/>
-      <c r="B96" s="75" t="s">
+      <c r="A96" s="63"/>
+      <c r="B96" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C96" s="77" t="s">
+      <c r="C96" s="66" t="s">
         <v>143</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -8748,24 +8790,24 @@
       <c r="E96" s="50"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="67"/>
+      <c r="H96" s="64"/>
     </row>
     <row r="97" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A97" s="65"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="66"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="67"/>
       <c r="D97" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E97" s="50"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="67"/>
+      <c r="H97" s="64"/>
     </row>
     <row r="98" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="66"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="5" t="s">
         <v>146</v>
       </c>
@@ -8774,92 +8816,92 @@
         <v>147</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="67"/>
+      <c r="H98" s="64"/>
     </row>
     <row r="99" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A99" s="65"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="66"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="8" t="s">
         <v>148</v>
       </c>
       <c r="E99" s="50"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="67"/>
+      <c r="H99" s="64"/>
     </row>
     <row r="100" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="66"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="8" t="s">
         <v>149</v>
       </c>
       <c r="E100" s="50"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="67"/>
+      <c r="H100" s="64"/>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1">
-      <c r="A101" s="65"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="66"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="8" t="s">
         <v>150</v>
       </c>
       <c r="E101" s="50"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="67"/>
+      <c r="H101" s="64"/>
     </row>
     <row r="102" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="66"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="67"/>
       <c r="D102" s="8" t="s">
         <v>151</v>
       </c>
       <c r="E102" s="50"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="67"/>
+      <c r="H102" s="64"/>
     </row>
     <row r="103" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="66"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="67"/>
       <c r="D103" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="67"/>
+      <c r="H103" s="64"/>
     </row>
     <row r="104" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="66"/>
+      <c r="A104" s="63"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E104" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>153</v>
       </c>
       <c r="G104" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="H104" s="67"/>
+        <v>319</v>
+      </c>
+      <c r="H104" s="64"/>
     </row>
     <row r="105" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="75" t="s">
+      <c r="A105" s="63"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="62" t="s">
         <v>154</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -8868,24 +8910,24 @@
       <c r="E105" s="50"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="67"/>
+      <c r="H105" s="64"/>
     </row>
     <row r="106" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A106" s="65"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="8" t="s">
         <v>156</v>
       </c>
       <c r="E106" s="50"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="67"/>
+      <c r="H106" s="64"/>
     </row>
     <row r="107" spans="1:8" ht="28.5">
-      <c r="A107" s="65"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="63"/>
       <c r="D107" s="5" t="s">
         <v>157</v>
       </c>
@@ -8894,88 +8936,88 @@
         <v>158</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="67"/>
+      <c r="H107" s="64"/>
     </row>
     <row r="108" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A108" s="65"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
       <c r="D108" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E108" s="50"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="67"/>
+      <c r="H108" s="64"/>
     </row>
     <row r="109" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
       <c r="D109" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E109" s="50"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="67"/>
+      <c r="H109" s="64"/>
     </row>
     <row r="110" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A110" s="65"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="63"/>
       <c r="D110" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E110" s="50"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="67"/>
+      <c r="H110" s="64"/>
     </row>
     <row r="111" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A111" s="65"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="63"/>
+      <c r="C111" s="63"/>
       <c r="D111" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E111" s="50"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="67"/>
+      <c r="H111" s="64"/>
     </row>
     <row r="112" spans="1:8" ht="206.25">
-      <c r="A112" s="65"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E112" s="47"/>
       <c r="F112" s="61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G112" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="H112" s="67"/>
+        <v>350</v>
+      </c>
+      <c r="H112" s="64"/>
     </row>
     <row r="113" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A113" s="65"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="8" t="s">
         <v>163</v>
       </c>
       <c r="E113" s="50"/>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="67"/>
+      <c r="H113" s="64"/>
     </row>
     <row r="114" spans="1:8" ht="28.5">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="75" t="s">
+      <c r="A114" s="63"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="62" t="s">
         <v>164</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -8984,36 +9026,36 @@
       <c r="E114" s="50"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="67"/>
+      <c r="H114" s="64"/>
     </row>
     <row r="115" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A115" s="65"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
       <c r="D115" s="5" t="s">
         <v>166</v>
       </c>
       <c r="E115" s="47"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="67"/>
+      <c r="H115" s="64"/>
     </row>
     <row r="116" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E116" s="50"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
-      <c r="H116" s="67"/>
+      <c r="H116" s="64"/>
     </row>
     <row r="117" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A117" s="65"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
       <c r="D117" s="5" t="s">
         <v>168</v>
       </c>
@@ -9022,44 +9064,44 @@
         <v>169</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="67"/>
+      <c r="H117" s="64"/>
     </row>
     <row r="118" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A118" s="65"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E118" s="50"/>
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
-      <c r="H118" s="67"/>
+      <c r="H118" s="64"/>
     </row>
     <row r="119" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A119" s="65"/>
-      <c r="B119" s="75" t="s">
+      <c r="A119" s="63"/>
+      <c r="B119" s="